--- a/Validatiematrix.xlsx
+++ b/Validatiematrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\TPOD\Validatieregels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w.quak\Git\Geonovum\dso-validatiematrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE282799-7044-4987-95BC-785B7BB1F41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726C9A5A-99A8-4419-A0BA-950D7A963B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6765" yWindow="-21165" windowWidth="45855" windowHeight="20565" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validatieregels" sheetId="14" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5143" uniqueCount="2166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5143" uniqueCount="2171">
   <si>
     <t>Blokkerend</t>
   </si>
@@ -7218,6 +7218,21 @@
   </si>
   <si>
     <t>Bepaalde stappen in het procedureverloop MOGEN hooguit één keer voorkomen.Sommige stappen worden maar één keer gezet in een procedure en kennen dus ook maar één datum waarop ze voltooid zijn. Als blijkt dat de datum niet correct is; kan die via een mutatie van het procedureverloop aangepast worden. De uniciteit van deze stappen is belangrijk omdat de datum ervan nodig is om de relevantie te bepalen van besluiten en/of kennisgevingen erover.</t>
+  </si>
+  <si>
+    <t>Het OwObject met identificatie {} heeft het type {}, wat niet overeenkomt met het type in de identificatie.</t>
+  </si>
+  <si>
+    <t>Een instructieregel met identificatie {} moet ofwel een "InstructieregelInstrument", ofwel een "InstructieregelTaakuitoefening" hebben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De normwaarden van de norm met identificatie {} hebben niet hetzelfde type waarde; binnen een norm moeten meerdere normwaarden van hetzelfde type zijn: kwalitatief, kwantitatief, of waardeInRegeltekst </t>
+  </si>
+  <si>
+    <t>De norm met identificatie {} heeft een Eenheid, maar heeft geen normwaarden van het type kwantitatief.</t>
+  </si>
+  <si>
+    <t>HetTekstdeel met identificatie {} heeft een locatie maar geen idealisatie.</t>
   </si>
 </sst>
 </file>
@@ -8441,12 +8456,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}">
   <dimension ref="A1:K766"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C410" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C714" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C427" sqref="C427"/>
+      <selection pane="bottomRight" activeCell="G725" sqref="G725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -28567,10 +28582,10 @@
         <v>0</v>
       </c>
       <c r="F714" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G714" s="10" t="s">
-        <v>811</v>
+        <v>2166</v>
       </c>
       <c r="H714" s="10"/>
       <c r="I714" s="10"/>
@@ -28783,10 +28798,10 @@
         <v>0</v>
       </c>
       <c r="F722" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G722" s="10" t="s">
-        <v>811</v>
+        <v>2167</v>
       </c>
       <c r="H722" s="10"/>
       <c r="I722" s="10"/>
@@ -28810,10 +28825,10 @@
         <v>0</v>
       </c>
       <c r="F723" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G723" s="10" t="s">
-        <v>811</v>
+        <v>2168</v>
       </c>
       <c r="H723" s="10"/>
       <c r="I723" s="10"/>
@@ -28837,10 +28852,10 @@
         <v>0</v>
       </c>
       <c r="F724" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G724" s="10" t="s">
-        <v>811</v>
+        <v>2169</v>
       </c>
       <c r="H724" s="10"/>
       <c r="I724" s="10"/>
@@ -28864,10 +28879,10 @@
         <v>0</v>
       </c>
       <c r="F725" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G725" s="10" t="s">
-        <v>811</v>
+        <v>2170</v>
       </c>
       <c r="H725" s="10"/>
       <c r="I725" s="10"/>
@@ -30621,21 +30636,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100216A073BBB3FB3429D87D77C40313058" ma:contentTypeVersion="7" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8cfc1d06a525c7d4ea1098b3952a2226">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="385505e6-e5d7-4f1a-b335-045f4e6272b3" xmlns:ns3="86b5f7f7-2f15-447a-b5f6-1e4312ec3a6d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67eef51872945492eed3b93ded28523b" ns2:_="" ns3:_="">
     <xsd:import namespace="385505e6-e5d7-4f1a-b335-045f4e6272b3"/>
@@ -30818,32 +30818,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD65B255-3494-4F5F-976E-876698EF30C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30860,4 +30850,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Validatiematrix.xlsx
+++ b/Validatiematrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w.quak\Git\Geonovum\dso-validatiematrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726C9A5A-99A8-4419-A0BA-950D7A963B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2BD9D9-2011-45BC-A9EE-0985EC9F6DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6765" yWindow="-21165" windowWidth="45855" windowHeight="20565" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8454,14 +8454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K766"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C714" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G725" sqref="G725"/>
+      <selection pane="bottomRight" activeCell="F767" sqref="F767"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8515,7 +8516,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>2</v>
       </c>
@@ -8542,7 +8543,7 @@
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -8571,7 +8572,7 @@
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -8600,7 +8601,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -8631,7 +8632,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>2</v>
       </c>
@@ -8660,7 +8661,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>2</v>
       </c>
@@ -8691,7 +8692,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>2</v>
       </c>
@@ -8720,7 +8721,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>2</v>
       </c>
@@ -8749,7 +8750,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
     </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>2</v>
       </c>
@@ -8780,7 +8781,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>2</v>
       </c>
@@ -8811,7 +8812,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>2</v>
       </c>
@@ -8842,7 +8843,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>2</v>
       </c>
@@ -8871,7 +8872,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>2</v>
       </c>
@@ -8898,7 +8899,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>2</v>
       </c>
@@ -8925,7 +8926,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>2</v>
       </c>
@@ -8952,7 +8953,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>2</v>
       </c>
@@ -8981,7 +8982,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>2</v>
       </c>
@@ -9012,7 +9013,7 @@
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>2</v>
       </c>
@@ -9045,7 +9046,7 @@
       </c>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>2</v>
       </c>
@@ -9072,7 +9073,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>2</v>
       </c>
@@ -9101,7 +9102,7 @@
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
     </row>
-    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>2</v>
       </c>
@@ -9128,7 +9129,7 @@
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>2</v>
       </c>
@@ -9157,7 +9158,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>2</v>
       </c>
@@ -9186,7 +9187,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
     </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>2</v>
       </c>
@@ -9215,7 +9216,7 @@
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>2</v>
       </c>
@@ -9242,7 +9243,7 @@
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>6</v>
       </c>
@@ -9269,7 +9270,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>6</v>
       </c>
@@ -9300,7 +9301,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>6</v>
       </c>
@@ -9327,7 +9328,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>6</v>
       </c>
@@ -9354,7 +9355,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>6</v>
       </c>
@@ -9381,7 +9382,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>4</v>
       </c>
@@ -9408,7 +9409,7 @@
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>4</v>
       </c>
@@ -9435,7 +9436,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>4</v>
       </c>
@@ -9462,7 +9463,7 @@
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
     </row>
-    <row r="35" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>4</v>
       </c>
@@ -9489,7 +9490,7 @@
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>4</v>
       </c>
@@ -9516,7 +9517,7 @@
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>1</v>
       </c>
@@ -9543,7 +9544,7 @@
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
     </row>
-    <row r="38" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <v>1</v>
       </c>
@@ -9570,7 +9571,7 @@
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
     </row>
-    <row r="39" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>1</v>
       </c>
@@ -9597,7 +9598,7 @@
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
     </row>
-    <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>1</v>
       </c>
@@ -9624,7 +9625,7 @@
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>1</v>
       </c>
@@ -9651,7 +9652,7 @@
       <c r="J41" s="19"/>
       <c r="K41" s="19"/>
     </row>
-    <row r="42" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>1</v>
       </c>
@@ -9678,7 +9679,7 @@
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>1</v>
       </c>
@@ -9705,7 +9706,7 @@
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
     </row>
-    <row r="44" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>1</v>
       </c>
@@ -9732,7 +9733,7 @@
       <c r="J44" s="19"/>
       <c r="K44" s="19"/>
     </row>
-    <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>1</v>
       </c>
@@ -9759,7 +9760,7 @@
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
     </row>
-    <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>1</v>
       </c>
@@ -9786,7 +9787,7 @@
       <c r="J46" s="19"/>
       <c r="K46" s="19"/>
     </row>
-    <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>1</v>
       </c>
@@ -9813,7 +9814,7 @@
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
     </row>
-    <row r="48" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>1</v>
       </c>
@@ -9840,7 +9841,7 @@
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
     </row>
-    <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
         <v>1</v>
       </c>
@@ -9867,7 +9868,7 @@
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
     </row>
-    <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
         <v>1</v>
       </c>
@@ -9894,7 +9895,7 @@
       <c r="J50" s="19"/>
       <c r="K50" s="19"/>
     </row>
-    <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>1</v>
       </c>
@@ -9921,7 +9922,7 @@
       <c r="J51" s="19"/>
       <c r="K51" s="19"/>
     </row>
-    <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>1</v>
       </c>
@@ -9948,7 +9949,7 @@
       <c r="J52" s="19"/>
       <c r="K52" s="19"/>
     </row>
-    <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
         <v>1</v>
       </c>
@@ -9975,7 +9976,7 @@
       <c r="J53" s="19"/>
       <c r="K53" s="19"/>
     </row>
-    <row r="54" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
         <v>1</v>
       </c>
@@ -10002,7 +10003,7 @@
       <c r="J54" s="19"/>
       <c r="K54" s="19"/>
     </row>
-    <row r="55" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
         <v>1</v>
       </c>
@@ -10029,7 +10030,7 @@
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
     </row>
-    <row r="56" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="22">
         <v>2</v>
       </c>
@@ -10056,7 +10057,7 @@
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
     </row>
-    <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="22">
         <v>2</v>
       </c>
@@ -10085,7 +10086,7 @@
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
     </row>
-    <row r="58" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22">
         <v>2</v>
       </c>
@@ -10114,7 +10115,7 @@
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
     </row>
-    <row r="59" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="22">
         <v>2</v>
       </c>
@@ -10141,7 +10142,7 @@
       <c r="J59" s="19"/>
       <c r="K59" s="19"/>
     </row>
-    <row r="60" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="22">
         <v>2</v>
       </c>
@@ -10168,7 +10169,7 @@
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
     </row>
-    <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="22">
         <v>2</v>
       </c>
@@ -10195,7 +10196,7 @@
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
     </row>
-    <row r="62" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="22">
         <v>2</v>
       </c>
@@ -10222,7 +10223,7 @@
       <c r="J62" s="19"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="22">
         <v>2</v>
       </c>
@@ -10249,7 +10250,7 @@
       <c r="J63" s="19"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="22">
         <v>2</v>
       </c>
@@ -10278,7 +10279,7 @@
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="22">
         <v>2</v>
       </c>
@@ -10307,7 +10308,7 @@
       <c r="J65" s="19"/>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="22">
         <v>2</v>
       </c>
@@ -10334,7 +10335,7 @@
       <c r="J66" s="19"/>
       <c r="K66" s="19"/>
     </row>
-    <row r="67" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="22">
         <v>2</v>
       </c>
@@ -10361,7 +10362,7 @@
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22">
         <v>2</v>
       </c>
@@ -10388,7 +10389,7 @@
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
     </row>
-    <row r="69" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="18">
         <v>2</v>
       </c>
@@ -10415,7 +10416,7 @@
       <c r="J69" s="19"/>
       <c r="K69" s="19"/>
     </row>
-    <row r="70" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18">
         <v>2</v>
       </c>
@@ -10450,7 +10451,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="18">
         <v>2</v>
       </c>
@@ -10477,7 +10478,7 @@
       <c r="J71" s="19"/>
       <c r="K71" s="19"/>
     </row>
-    <row r="72" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="18">
         <v>2</v>
       </c>
@@ -10504,7 +10505,7 @@
       <c r="J72" s="19"/>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="18">
         <v>2</v>
       </c>
@@ -10531,7 +10532,7 @@
       <c r="J73" s="19"/>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="18">
         <v>2</v>
       </c>
@@ -10558,7 +10559,7 @@
       <c r="J74" s="19"/>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="18">
         <v>2</v>
       </c>
@@ -10585,7 +10586,7 @@
       <c r="J75" s="19"/>
       <c r="K75" s="19"/>
     </row>
-    <row r="76" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="18">
         <v>2</v>
       </c>
@@ -10612,7 +10613,7 @@
       <c r="J76" s="19"/>
       <c r="K76" s="19"/>
     </row>
-    <row r="77" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
         <v>2</v>
       </c>
@@ -10639,7 +10640,7 @@
       <c r="J77" s="19"/>
       <c r="K77" s="19"/>
     </row>
-    <row r="78" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="18">
         <v>2</v>
       </c>
@@ -10666,7 +10667,7 @@
       <c r="J78" s="19"/>
       <c r="K78" s="19"/>
     </row>
-    <row r="79" spans="1:11" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="14" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
         <v>2</v>
       </c>
@@ -10693,7 +10694,7 @@
       <c r="J79" s="19"/>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" spans="1:11" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="14" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="18">
         <v>2</v>
       </c>
@@ -10720,7 +10721,7 @@
       <c r="J80" s="19"/>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" spans="1:11" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="14" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
         <v>2</v>
       </c>
@@ -10753,7 +10754,7 @@
       </c>
       <c r="K81" s="19"/>
     </row>
-    <row r="82" spans="1:11" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="14" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
         <v>2</v>
       </c>
@@ -10786,7 +10787,7 @@
       </c>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" spans="1:11" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="14" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="18">
         <v>2</v>
       </c>
@@ -10813,7 +10814,7 @@
       <c r="J83" s="19"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="18">
         <v>2</v>
       </c>
@@ -10840,7 +10841,7 @@
       <c r="J84" s="19"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="18">
         <v>2</v>
       </c>
@@ -10867,7 +10868,7 @@
       <c r="J85" s="19"/>
       <c r="K85" s="19"/>
     </row>
-    <row r="86" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="18">
         <v>2</v>
       </c>
@@ -10900,7 +10901,7 @@
       </c>
       <c r="K86" s="19"/>
     </row>
-    <row r="87" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="18">
         <v>2</v>
       </c>
@@ -10927,7 +10928,7 @@
       <c r="J87" s="19"/>
       <c r="K87" s="19"/>
     </row>
-    <row r="88" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="18">
         <v>2</v>
       </c>
@@ -10954,7 +10955,7 @@
       <c r="J88" s="19"/>
       <c r="K88" s="19"/>
     </row>
-    <row r="89" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="18">
         <v>2</v>
       </c>
@@ -10981,7 +10982,7 @@
       <c r="J89" s="19"/>
       <c r="K89" s="19"/>
     </row>
-    <row r="90" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="18">
         <v>2</v>
       </c>
@@ -11008,7 +11009,7 @@
       <c r="J90" s="19"/>
       <c r="K90" s="19"/>
     </row>
-    <row r="91" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="18">
         <v>2</v>
       </c>
@@ -11035,7 +11036,7 @@
       <c r="J91" s="19"/>
       <c r="K91" s="19"/>
     </row>
-    <row r="92" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="18">
         <v>2</v>
       </c>
@@ -11066,7 +11067,7 @@
       <c r="J92" s="19"/>
       <c r="K92" s="19"/>
     </row>
-    <row r="93" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="18">
         <v>2</v>
       </c>
@@ -11093,7 +11094,7 @@
       <c r="J93" s="19"/>
       <c r="K93" s="19"/>
     </row>
-    <row r="94" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="18">
         <v>2</v>
       </c>
@@ -11120,7 +11121,7 @@
       <c r="J94" s="19"/>
       <c r="K94" s="19"/>
     </row>
-    <row r="95" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="18">
         <v>2</v>
       </c>
@@ -11151,7 +11152,7 @@
       <c r="J95" s="19"/>
       <c r="K95" s="19"/>
     </row>
-    <row r="96" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="18">
         <v>2</v>
       </c>
@@ -11182,7 +11183,7 @@
       <c r="J96" s="19"/>
       <c r="K96" s="19"/>
     </row>
-    <row r="97" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="18">
         <v>2</v>
       </c>
@@ -11209,7 +11210,7 @@
       <c r="J97" s="19"/>
       <c r="K97" s="19"/>
     </row>
-    <row r="98" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="18">
         <v>2</v>
       </c>
@@ -11236,7 +11237,7 @@
       <c r="J98" s="19"/>
       <c r="K98" s="19"/>
     </row>
-    <row r="99" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="18">
         <v>2</v>
       </c>
@@ -11263,7 +11264,7 @@
       <c r="J99" s="19"/>
       <c r="K99" s="19"/>
     </row>
-    <row r="100" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="18">
         <v>2</v>
       </c>
@@ -11294,7 +11295,7 @@
       <c r="J100" s="19"/>
       <c r="K100" s="19"/>
     </row>
-    <row r="101" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="18">
         <v>2</v>
       </c>
@@ -11323,7 +11324,7 @@
       <c r="J101" s="19"/>
       <c r="K101" s="19"/>
     </row>
-    <row r="102" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="18">
         <v>2</v>
       </c>
@@ -11350,7 +11351,7 @@
       <c r="J102" s="19"/>
       <c r="K102" s="19"/>
     </row>
-    <row r="103" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="18">
         <v>2</v>
       </c>
@@ -11377,7 +11378,7 @@
       <c r="J103" s="19"/>
       <c r="K103" s="19"/>
     </row>
-    <row r="104" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="18">
         <v>2</v>
       </c>
@@ -11412,7 +11413,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="18">
         <v>2</v>
       </c>
@@ -11447,7 +11448,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="18">
         <v>2</v>
       </c>
@@ -11482,7 +11483,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="18">
         <v>2</v>
       </c>
@@ -11515,7 +11516,7 @@
       </c>
       <c r="K107" s="19"/>
     </row>
-    <row r="108" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="18">
         <v>2</v>
       </c>
@@ -11550,7 +11551,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="18">
         <v>2</v>
       </c>
@@ -11585,7 +11586,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="18">
         <v>2</v>
       </c>
@@ -11620,7 +11621,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="18">
         <v>2</v>
       </c>
@@ -11655,7 +11656,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="18">
         <v>2</v>
       </c>
@@ -11686,7 +11687,7 @@
       <c r="J112" s="19"/>
       <c r="K112" s="19"/>
     </row>
-    <row r="113" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="18">
         <v>2</v>
       </c>
@@ -11713,7 +11714,7 @@
       <c r="J113" s="19"/>
       <c r="K113" s="19"/>
     </row>
-    <row r="114" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="18">
         <v>2</v>
       </c>
@@ -11740,7 +11741,7 @@
       <c r="J114" s="19"/>
       <c r="K114" s="19"/>
     </row>
-    <row r="115" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="18">
         <v>2</v>
       </c>
@@ -11767,7 +11768,7 @@
       <c r="J115" s="19"/>
       <c r="K115" s="19"/>
     </row>
-    <row r="116" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="18">
         <v>2</v>
       </c>
@@ -11794,7 +11795,7 @@
       <c r="J116" s="19"/>
       <c r="K116" s="19"/>
     </row>
-    <row r="117" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="18">
         <v>2</v>
       </c>
@@ -11821,7 +11822,7 @@
       <c r="J117" s="19"/>
       <c r="K117" s="19"/>
     </row>
-    <row r="118" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="18">
         <v>2</v>
       </c>
@@ -11848,7 +11849,7 @@
       <c r="J118" s="19"/>
       <c r="K118" s="19"/>
     </row>
-    <row r="119" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="18">
         <v>2</v>
       </c>
@@ -11875,7 +11876,7 @@
       <c r="J119" s="19"/>
       <c r="K119" s="19"/>
     </row>
-    <row r="120" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="18">
         <v>2</v>
       </c>
@@ -11902,7 +11903,7 @@
       <c r="J120" s="19"/>
       <c r="K120" s="19"/>
     </row>
-    <row r="121" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="18">
         <v>2</v>
       </c>
@@ -11935,7 +11936,7 @@
       </c>
       <c r="K121" s="19"/>
     </row>
-    <row r="122" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="18">
         <v>2</v>
       </c>
@@ -11962,7 +11963,7 @@
       <c r="J122" s="19"/>
       <c r="K122" s="19"/>
     </row>
-    <row r="123" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="18">
         <v>2</v>
       </c>
@@ -11989,7 +11990,7 @@
       <c r="J123" s="19"/>
       <c r="K123" s="19"/>
     </row>
-    <row r="124" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="18">
         <v>2</v>
       </c>
@@ -12018,7 +12019,7 @@
       <c r="J124" s="19"/>
       <c r="K124" s="19"/>
     </row>
-    <row r="125" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="18">
         <v>2</v>
       </c>
@@ -12049,7 +12050,7 @@
       <c r="J125" s="19"/>
       <c r="K125" s="19"/>
     </row>
-    <row r="126" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="18">
         <v>2</v>
       </c>
@@ -12076,7 +12077,7 @@
       <c r="J126" s="19"/>
       <c r="K126" s="19"/>
     </row>
-    <row r="127" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="18">
         <v>2</v>
       </c>
@@ -12107,7 +12108,7 @@
       <c r="J127" s="19"/>
       <c r="K127" s="19"/>
     </row>
-    <row r="128" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="18" t="s">
         <v>1322</v>
       </c>
@@ -12134,7 +12135,7 @@
       <c r="J128" s="19"/>
       <c r="K128" s="19"/>
     </row>
-    <row r="129" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="18" t="s">
         <v>1322</v>
       </c>
@@ -12161,7 +12162,7 @@
       <c r="J129" s="19"/>
       <c r="K129" s="19"/>
     </row>
-    <row r="130" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="18" t="s">
         <v>1322</v>
       </c>
@@ -12192,7 +12193,7 @@
       <c r="J130" s="19"/>
       <c r="K130" s="19"/>
     </row>
-    <row r="131" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="18" t="s">
         <v>1322</v>
       </c>
@@ -12219,7 +12220,7 @@
       <c r="J131" s="19"/>
       <c r="K131" s="19"/>
     </row>
-    <row r="132" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="18" t="s">
         <v>1322</v>
       </c>
@@ -12246,7 +12247,7 @@
       <c r="J132" s="19"/>
       <c r="K132" s="19"/>
     </row>
-    <row r="133" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="18" t="s">
         <v>1322</v>
       </c>
@@ -12273,7 +12274,7 @@
       <c r="J133" s="19"/>
       <c r="K133" s="19"/>
     </row>
-    <row r="134" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="18" t="s">
         <v>1322</v>
       </c>
@@ -12300,7 +12301,7 @@
       <c r="J134" s="19"/>
       <c r="K134" s="19"/>
     </row>
-    <row r="135" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="18" t="s">
         <v>1322</v>
       </c>
@@ -12329,7 +12330,7 @@
       <c r="J135" s="19"/>
       <c r="K135" s="19"/>
     </row>
-    <row r="136" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="18" t="s">
         <v>1322</v>
       </c>
@@ -12356,7 +12357,7 @@
       <c r="J136" s="19"/>
       <c r="K136" s="19"/>
     </row>
-    <row r="137" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="18">
         <v>2</v>
       </c>
@@ -12383,7 +12384,7 @@
       <c r="J137" s="19"/>
       <c r="K137" s="19"/>
     </row>
-    <row r="138" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="18">
         <v>2</v>
       </c>
@@ -12410,7 +12411,7 @@
       <c r="J138" s="19"/>
       <c r="K138" s="19"/>
     </row>
-    <row r="139" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="18">
         <v>2</v>
       </c>
@@ -12437,7 +12438,7 @@
       <c r="J139" s="19"/>
       <c r="K139" s="19"/>
     </row>
-    <row r="140" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="18">
         <v>2</v>
       </c>
@@ -12464,7 +12465,7 @@
       <c r="J140" s="19"/>
       <c r="K140" s="19"/>
     </row>
-    <row r="141" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="18">
         <v>2</v>
       </c>
@@ -12497,7 +12498,7 @@
       </c>
       <c r="K141" s="19"/>
     </row>
-    <row r="142" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="18">
         <v>2</v>
       </c>
@@ -12526,7 +12527,7 @@
       <c r="J142" s="19"/>
       <c r="K142" s="19"/>
     </row>
-    <row r="143" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="18">
         <v>2</v>
       </c>
@@ -12553,7 +12554,7 @@
       <c r="J143" s="19"/>
       <c r="K143" s="19"/>
     </row>
-    <row r="144" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="18">
         <v>2</v>
       </c>
@@ -12580,7 +12581,7 @@
       <c r="J144" s="19"/>
       <c r="K144" s="19"/>
     </row>
-    <row r="145" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="18">
         <v>2</v>
       </c>
@@ -12607,7 +12608,7 @@
       <c r="J145" s="19"/>
       <c r="K145" s="19"/>
     </row>
-    <row r="146" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="18">
         <v>2</v>
       </c>
@@ -12636,7 +12637,7 @@
       <c r="J146" s="19"/>
       <c r="K146" s="19"/>
     </row>
-    <row r="147" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="18">
         <v>2</v>
       </c>
@@ -12663,7 +12664,7 @@
       <c r="J147" s="19"/>
       <c r="K147" s="19"/>
     </row>
-    <row r="148" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="18">
         <v>2</v>
       </c>
@@ -12690,7 +12691,7 @@
       <c r="J148" s="19"/>
       <c r="K148" s="19"/>
     </row>
-    <row r="149" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="18">
         <v>2</v>
       </c>
@@ -12717,7 +12718,7 @@
       <c r="J149" s="19"/>
       <c r="K149" s="19"/>
     </row>
-    <row r="150" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="18">
         <v>2</v>
       </c>
@@ -12746,7 +12747,7 @@
       <c r="J150" s="19"/>
       <c r="K150" s="19"/>
     </row>
-    <row r="151" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="18">
         <v>2</v>
       </c>
@@ -12777,7 +12778,7 @@
       <c r="J151" s="19"/>
       <c r="K151" s="19"/>
     </row>
-    <row r="152" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="18">
         <v>2</v>
       </c>
@@ -12804,7 +12805,7 @@
       <c r="J152" s="19"/>
       <c r="K152" s="19"/>
     </row>
-    <row r="153" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="18">
         <v>2</v>
       </c>
@@ -12831,7 +12832,7 @@
       <c r="J153" s="19"/>
       <c r="K153" s="19"/>
     </row>
-    <row r="154" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="18">
         <v>2</v>
       </c>
@@ -12862,7 +12863,7 @@
       <c r="J154" s="19"/>
       <c r="K154" s="19"/>
     </row>
-    <row r="155" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="18">
         <v>2</v>
       </c>
@@ -12889,7 +12890,7 @@
       <c r="J155" s="19"/>
       <c r="K155" s="19"/>
     </row>
-    <row r="156" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="18">
         <v>2</v>
       </c>
@@ -12916,7 +12917,7 @@
       <c r="J156" s="19"/>
       <c r="K156" s="19"/>
     </row>
-    <row r="157" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="18">
         <v>2</v>
       </c>
@@ -12943,7 +12944,7 @@
       <c r="J157" s="19"/>
       <c r="K157" s="19"/>
     </row>
-    <row r="158" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="18">
         <v>2</v>
       </c>
@@ -12970,7 +12971,7 @@
       <c r="J158" s="19"/>
       <c r="K158" s="19"/>
     </row>
-    <row r="159" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="18">
         <v>2</v>
       </c>
@@ -12997,7 +12998,7 @@
       <c r="J159" s="19"/>
       <c r="K159" s="19"/>
     </row>
-    <row r="160" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="18">
         <v>2</v>
       </c>
@@ -13024,7 +13025,7 @@
       <c r="J160" s="19"/>
       <c r="K160" s="19"/>
     </row>
-    <row r="161" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="18">
         <v>2</v>
       </c>
@@ -13051,7 +13052,7 @@
       <c r="J161" s="19"/>
       <c r="K161" s="19"/>
     </row>
-    <row r="162" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="18">
         <v>2</v>
       </c>
@@ -13078,7 +13079,7 @@
       <c r="J162" s="19"/>
       <c r="K162" s="19"/>
     </row>
-    <row r="163" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="18">
         <v>2</v>
       </c>
@@ -13105,7 +13106,7 @@
       <c r="J163" s="19"/>
       <c r="K163" s="19"/>
     </row>
-    <row r="164" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="18">
         <v>2</v>
       </c>
@@ -13132,7 +13133,7 @@
       <c r="J164" s="19"/>
       <c r="K164" s="19"/>
     </row>
-    <row r="165" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="18" t="s">
         <v>1401</v>
       </c>
@@ -13159,7 +13160,7 @@
       <c r="J165" s="19"/>
       <c r="K165" s="19"/>
     </row>
-    <row r="166" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="18" t="s">
         <v>1401</v>
       </c>
@@ -13186,7 +13187,7 @@
       <c r="J166" s="19"/>
       <c r="K166" s="19"/>
     </row>
-    <row r="167" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="18">
         <v>2</v>
       </c>
@@ -13213,7 +13214,7 @@
       <c r="J167" s="19"/>
       <c r="K167" s="19"/>
     </row>
-    <row r="168" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="18">
         <v>2</v>
       </c>
@@ -13240,7 +13241,7 @@
       <c r="J168" s="19"/>
       <c r="K168" s="19"/>
     </row>
-    <row r="169" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="18">
         <v>2</v>
       </c>
@@ -13267,7 +13268,7 @@
       <c r="J169" s="19"/>
       <c r="K169" s="19"/>
     </row>
-    <row r="170" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="18">
         <v>2</v>
       </c>
@@ -13294,7 +13295,7 @@
       <c r="J170" s="19"/>
       <c r="K170" s="19"/>
     </row>
-    <row r="171" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="18">
         <v>2</v>
       </c>
@@ -13321,7 +13322,7 @@
       <c r="J171" s="19"/>
       <c r="K171" s="19"/>
     </row>
-    <row r="172" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="18">
         <v>2</v>
       </c>
@@ -13348,7 +13349,7 @@
       <c r="J172" s="19"/>
       <c r="K172" s="19"/>
     </row>
-    <row r="173" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="18">
         <v>2</v>
       </c>
@@ -13375,7 +13376,7 @@
       <c r="J173" s="19"/>
       <c r="K173" s="19"/>
     </row>
-    <row r="174" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="18">
         <v>2</v>
       </c>
@@ -13402,7 +13403,7 @@
       <c r="J174" s="19"/>
       <c r="K174" s="19"/>
     </row>
-    <row r="175" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="18">
         <v>2</v>
       </c>
@@ -13429,7 +13430,7 @@
       <c r="J175" s="19"/>
       <c r="K175" s="19"/>
     </row>
-    <row r="176" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="18">
         <v>2</v>
       </c>
@@ -13456,7 +13457,7 @@
       <c r="J176" s="19"/>
       <c r="K176" s="19"/>
     </row>
-    <row r="177" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="18">
         <v>2</v>
       </c>
@@ -13485,7 +13486,7 @@
       <c r="J177" s="19"/>
       <c r="K177" s="19"/>
     </row>
-    <row r="178" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="18">
         <v>2</v>
       </c>
@@ -13512,7 +13513,7 @@
       <c r="J178" s="19"/>
       <c r="K178" s="19"/>
     </row>
-    <row r="179" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="18">
         <v>2</v>
       </c>
@@ -13543,7 +13544,7 @@
       <c r="J179" s="19"/>
       <c r="K179" s="19"/>
     </row>
-    <row r="180" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="18">
         <v>2</v>
       </c>
@@ -13570,7 +13571,7 @@
       <c r="J180" s="19"/>
       <c r="K180" s="19"/>
     </row>
-    <row r="181" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="18">
         <v>5</v>
       </c>
@@ -13601,7 +13602,7 @@
       <c r="J181" s="19"/>
       <c r="K181" s="19"/>
     </row>
-    <row r="182" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="18">
         <v>5</v>
       </c>
@@ -13632,7 +13633,7 @@
       <c r="J182" s="19"/>
       <c r="K182" s="19"/>
     </row>
-    <row r="183" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="18">
         <v>5</v>
       </c>
@@ -13659,7 +13660,7 @@
       <c r="J183" s="19"/>
       <c r="K183" s="19"/>
     </row>
-    <row r="184" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="18">
         <v>5</v>
       </c>
@@ -13688,7 +13689,7 @@
       <c r="J184" s="19"/>
       <c r="K184" s="19"/>
     </row>
-    <row r="185" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="18">
         <v>5</v>
       </c>
@@ -13715,7 +13716,7 @@
       <c r="J185" s="19"/>
       <c r="K185" s="19"/>
     </row>
-    <row r="186" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="18">
         <v>5</v>
       </c>
@@ -13742,7 +13743,7 @@
       <c r="J186" s="19"/>
       <c r="K186" s="19"/>
     </row>
-    <row r="187" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="18">
         <v>5</v>
       </c>
@@ -13769,7 +13770,7 @@
       <c r="J187" s="19"/>
       <c r="K187" s="19"/>
     </row>
-    <row r="188" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="18">
         <v>5</v>
       </c>
@@ -13796,7 +13797,7 @@
       <c r="J188" s="19"/>
       <c r="K188" s="19"/>
     </row>
-    <row r="189" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="18">
         <v>5</v>
       </c>
@@ -13823,7 +13824,7 @@
       <c r="J189" s="19"/>
       <c r="K189" s="19"/>
     </row>
-    <row r="190" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="18">
         <v>5</v>
       </c>
@@ -13850,7 +13851,7 @@
       <c r="J190" s="19"/>
       <c r="K190" s="19"/>
     </row>
-    <row r="191" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="18">
         <v>5</v>
       </c>
@@ -13877,7 +13878,7 @@
       <c r="J191" s="19"/>
       <c r="K191" s="19"/>
     </row>
-    <row r="192" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="18">
         <v>5</v>
       </c>
@@ -13904,7 +13905,7 @@
       <c r="J192" s="19"/>
       <c r="K192" s="19"/>
     </row>
-    <row r="193" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="18">
         <v>5</v>
       </c>
@@ -13937,7 +13938,7 @@
       </c>
       <c r="K193" s="19"/>
     </row>
-    <row r="194" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="18">
         <v>5</v>
       </c>
@@ -13964,7 +13965,7 @@
       <c r="J194" s="19"/>
       <c r="K194" s="19"/>
     </row>
-    <row r="195" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="18">
         <v>5</v>
       </c>
@@ -13991,7 +13992,7 @@
       <c r="J195" s="19"/>
       <c r="K195" s="19"/>
     </row>
-    <row r="196" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="18">
         <v>5</v>
       </c>
@@ -14018,7 +14019,7 @@
       <c r="J196" s="19"/>
       <c r="K196" s="19"/>
     </row>
-    <row r="197" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="18">
         <v>5</v>
       </c>
@@ -14045,7 +14046,7 @@
       <c r="J197" s="19"/>
       <c r="K197" s="19"/>
     </row>
-    <row r="198" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="18">
         <v>5</v>
       </c>
@@ -14072,7 +14073,7 @@
       <c r="J198" s="19"/>
       <c r="K198" s="19"/>
     </row>
-    <row r="199" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="18">
         <v>5</v>
       </c>
@@ -14099,7 +14100,7 @@
       <c r="J199" s="19"/>
       <c r="K199" s="19"/>
     </row>
-    <row r="200" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="18">
         <v>5</v>
       </c>
@@ -14130,7 +14131,7 @@
       <c r="J200" s="19"/>
       <c r="K200" s="19"/>
     </row>
-    <row r="201" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="18">
         <v>5</v>
       </c>
@@ -14157,7 +14158,7 @@
       <c r="J201" s="19"/>
       <c r="K201" s="19"/>
     </row>
-    <row r="202" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="18">
         <v>5</v>
       </c>
@@ -14184,7 +14185,7 @@
       <c r="J202" s="19"/>
       <c r="K202" s="19"/>
     </row>
-    <row r="203" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="18">
         <v>5</v>
       </c>
@@ -14211,7 +14212,7 @@
       <c r="J203" s="19"/>
       <c r="K203" s="19"/>
     </row>
-    <row r="204" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="18">
         <v>5</v>
       </c>
@@ -14238,7 +14239,7 @@
       <c r="J204" s="19"/>
       <c r="K204" s="19"/>
     </row>
-    <row r="205" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="18">
         <v>5</v>
       </c>
@@ -14265,7 +14266,7 @@
       <c r="J205" s="19"/>
       <c r="K205" s="19"/>
     </row>
-    <row r="206" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="18">
         <v>5</v>
       </c>
@@ -14292,7 +14293,7 @@
       <c r="J206" s="19"/>
       <c r="K206" s="19"/>
     </row>
-    <row r="207" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="18">
         <v>5</v>
       </c>
@@ -14323,7 +14324,7 @@
       <c r="J207" s="19"/>
       <c r="K207" s="19"/>
     </row>
-    <row r="208" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="18">
         <v>5</v>
       </c>
@@ -14350,7 +14351,7 @@
       <c r="J208" s="19"/>
       <c r="K208" s="19"/>
     </row>
-    <row r="209" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="18">
         <v>5</v>
       </c>
@@ -14377,7 +14378,7 @@
       <c r="J209" s="19"/>
       <c r="K209" s="19"/>
     </row>
-    <row r="210" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="18">
         <v>5</v>
       </c>
@@ -14404,7 +14405,7 @@
       <c r="J210" s="19"/>
       <c r="K210" s="19"/>
     </row>
-    <row r="211" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="18">
         <v>5</v>
       </c>
@@ -14431,7 +14432,7 @@
       <c r="J211" s="19"/>
       <c r="K211" s="19"/>
     </row>
-    <row r="212" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="18" t="s">
         <v>1401</v>
       </c>
@@ -14464,7 +14465,7 @@
       </c>
       <c r="K212" s="19"/>
     </row>
-    <row r="213" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="18" t="s">
         <v>1401</v>
       </c>
@@ -14491,7 +14492,7 @@
       <c r="J213" s="19"/>
       <c r="K213" s="19"/>
     </row>
-    <row r="214" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="18" t="s">
         <v>1401</v>
       </c>
@@ -14518,7 +14519,7 @@
       <c r="J214" s="19"/>
       <c r="K214" s="19"/>
     </row>
-    <row r="215" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="18" t="s">
         <v>1401</v>
       </c>
@@ -14545,7 +14546,7 @@
       <c r="J215" s="19"/>
       <c r="K215" s="19"/>
     </row>
-    <row r="216" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="18" t="s">
         <v>1401</v>
       </c>
@@ -14574,7 +14575,7 @@
       <c r="J216" s="19"/>
       <c r="K216" s="19"/>
     </row>
-    <row r="217" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="18" t="s">
         <v>1401</v>
       </c>
@@ -14601,7 +14602,7 @@
       <c r="J217" s="19"/>
       <c r="K217" s="19"/>
     </row>
-    <row r="218" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="18" t="s">
         <v>1401</v>
       </c>
@@ -14628,7 +14629,7 @@
       <c r="J218" s="19"/>
       <c r="K218" s="19"/>
     </row>
-    <row r="219" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="18" t="s">
         <v>1401</v>
       </c>
@@ -14655,7 +14656,7 @@
       <c r="J219" s="19"/>
       <c r="K219" s="19"/>
     </row>
-    <row r="220" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="18" t="s">
         <v>1401</v>
       </c>
@@ -14682,7 +14683,7 @@
       <c r="J220" s="19"/>
       <c r="K220" s="19"/>
     </row>
-    <row r="221" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="18" t="s">
         <v>1401</v>
       </c>
@@ -14711,7 +14712,7 @@
       <c r="J221" s="19"/>
       <c r="K221" s="19"/>
     </row>
-    <row r="222" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="18" t="s">
         <v>1401</v>
       </c>
@@ -14738,7 +14739,7 @@
       <c r="J222" s="19"/>
       <c r="K222" s="19"/>
     </row>
-    <row r="223" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="18" t="s">
         <v>1401</v>
       </c>
@@ -14765,7 +14766,7 @@
       <c r="J223" s="19"/>
       <c r="K223" s="19"/>
     </row>
-    <row r="224" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="18" t="s">
         <v>1401</v>
       </c>
@@ -14792,7 +14793,7 @@
       <c r="J224" s="19"/>
       <c r="K224" s="19"/>
     </row>
-    <row r="225" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="18" t="s">
         <v>1401</v>
       </c>
@@ -14819,7 +14820,7 @@
       <c r="J225" s="19"/>
       <c r="K225" s="19"/>
     </row>
-    <row r="226" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="18" t="s">
         <v>1401</v>
       </c>
@@ -14846,7 +14847,7 @@
       <c r="J226" s="19"/>
       <c r="K226" s="19"/>
     </row>
-    <row r="227" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="18" t="s">
         <v>1401</v>
       </c>
@@ -14873,7 +14874,7 @@
       <c r="J227" s="19"/>
       <c r="K227" s="19"/>
     </row>
-    <row r="228" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="18" t="s">
         <v>1401</v>
       </c>
@@ -14900,7 +14901,7 @@
       <c r="J228" s="19"/>
       <c r="K228" s="19"/>
     </row>
-    <row r="229" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="18" t="s">
         <v>1401</v>
       </c>
@@ -14927,7 +14928,7 @@
       <c r="J229" s="19"/>
       <c r="K229" s="19"/>
     </row>
-    <row r="230" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="18" t="s">
         <v>1401</v>
       </c>
@@ -14954,7 +14955,7 @@
       <c r="J230" s="19"/>
       <c r="K230" s="19"/>
     </row>
-    <row r="231" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="18" t="s">
         <v>1401</v>
       </c>
@@ -14981,7 +14982,7 @@
       <c r="J231" s="19"/>
       <c r="K231" s="19"/>
     </row>
-    <row r="232" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15008,7 +15009,7 @@
       <c r="J232" s="19"/>
       <c r="K232" s="19"/>
     </row>
-    <row r="233" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15039,7 +15040,7 @@
       <c r="J233" s="19"/>
       <c r="K233" s="19"/>
     </row>
-    <row r="234" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15072,7 +15073,7 @@
       </c>
       <c r="K234" s="19"/>
     </row>
-    <row r="235" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15099,7 +15100,7 @@
       <c r="J235" s="19"/>
       <c r="K235" s="19"/>
     </row>
-    <row r="236" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15126,7 +15127,7 @@
       <c r="J236" s="19"/>
       <c r="K236" s="19"/>
     </row>
-    <row r="237" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15153,7 +15154,7 @@
       <c r="J237" s="19"/>
       <c r="K237" s="19"/>
     </row>
-    <row r="238" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15180,7 +15181,7 @@
       <c r="J238" s="19"/>
       <c r="K238" s="19"/>
     </row>
-    <row r="239" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15207,7 +15208,7 @@
       <c r="J239" s="19"/>
       <c r="K239" s="19"/>
     </row>
-    <row r="240" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15234,7 +15235,7 @@
       <c r="J240" s="19"/>
       <c r="K240" s="19"/>
     </row>
-    <row r="241" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15261,7 +15262,7 @@
       <c r="J241" s="19"/>
       <c r="K241" s="19"/>
     </row>
-    <row r="242" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15288,7 +15289,7 @@
       <c r="J242" s="19"/>
       <c r="K242" s="19"/>
     </row>
-    <row r="243" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15315,7 +15316,7 @@
       <c r="J243" s="19"/>
       <c r="K243" s="19"/>
     </row>
-    <row r="244" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15342,7 +15343,7 @@
       <c r="J244" s="19"/>
       <c r="K244" s="19"/>
     </row>
-    <row r="245" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15369,7 +15370,7 @@
       <c r="J245" s="19"/>
       <c r="K245" s="19"/>
     </row>
-    <row r="246" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15396,7 +15397,7 @@
       <c r="J246" s="19"/>
       <c r="K246" s="19"/>
     </row>
-    <row r="247" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15423,7 +15424,7 @@
       <c r="J247" s="19"/>
       <c r="K247" s="19"/>
     </row>
-    <row r="248" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15450,7 +15451,7 @@
       <c r="J248" s="19"/>
       <c r="K248" s="19"/>
     </row>
-    <row r="249" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15477,7 +15478,7 @@
       <c r="J249" s="19"/>
       <c r="K249" s="19"/>
     </row>
-    <row r="250" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15504,7 +15505,7 @@
       <c r="J250" s="19"/>
       <c r="K250" s="19"/>
     </row>
-    <row r="251" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15531,7 +15532,7 @@
       <c r="J251" s="19"/>
       <c r="K251" s="19"/>
     </row>
-    <row r="252" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15562,7 +15563,7 @@
       <c r="J252" s="19"/>
       <c r="K252" s="19"/>
     </row>
-    <row r="253" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15593,7 +15594,7 @@
       <c r="J253" s="19"/>
       <c r="K253" s="19"/>
     </row>
-    <row r="254" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15620,7 +15621,7 @@
       <c r="J254" s="19"/>
       <c r="K254" s="19"/>
     </row>
-    <row r="255" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15647,7 +15648,7 @@
       <c r="J255" s="19"/>
       <c r="K255" s="19"/>
     </row>
-    <row r="256" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15678,7 +15679,7 @@
       <c r="J256" s="19"/>
       <c r="K256" s="19"/>
     </row>
-    <row r="257" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15709,7 +15710,7 @@
       <c r="J257" s="19"/>
       <c r="K257" s="19"/>
     </row>
-    <row r="258" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15740,7 +15741,7 @@
       <c r="J258" s="19"/>
       <c r="K258" s="19"/>
     </row>
-    <row r="259" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15771,7 +15772,7 @@
       <c r="J259" s="19"/>
       <c r="K259" s="19"/>
     </row>
-    <row r="260" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15800,7 +15801,7 @@
       <c r="J260" s="19"/>
       <c r="K260" s="19"/>
     </row>
-    <row r="261" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15829,7 +15830,7 @@
       <c r="J261" s="19"/>
       <c r="K261" s="19"/>
     </row>
-    <row r="262" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15858,7 +15859,7 @@
       <c r="J262" s="19"/>
       <c r="K262" s="19"/>
     </row>
-    <row r="263" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15887,7 +15888,7 @@
       <c r="J263" s="19"/>
       <c r="K263" s="19"/>
     </row>
-    <row r="264" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15916,7 +15917,7 @@
       <c r="J264" s="19"/>
       <c r="K264" s="19"/>
     </row>
-    <row r="265" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15945,7 +15946,7 @@
       <c r="J265" s="19"/>
       <c r="K265" s="19"/>
     </row>
-    <row r="266" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15972,7 +15973,7 @@
       <c r="J266" s="19"/>
       <c r="K266" s="19"/>
     </row>
-    <row r="267" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="18" t="s">
         <v>1401</v>
       </c>
@@ -15999,7 +16000,7 @@
       <c r="J267" s="19"/>
       <c r="K267" s="19"/>
     </row>
-    <row r="268" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="18" t="s">
         <v>1401</v>
       </c>
@@ -16028,7 +16029,7 @@
       <c r="J268" s="19"/>
       <c r="K268" s="19"/>
     </row>
-    <row r="269" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="18" t="s">
         <v>1401</v>
       </c>
@@ -16057,7 +16058,7 @@
       <c r="J269" s="19"/>
       <c r="K269" s="19"/>
     </row>
-    <row r="270" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="18" t="s">
         <v>1401</v>
       </c>
@@ -16086,7 +16087,7 @@
       <c r="J270" s="19"/>
       <c r="K270" s="19"/>
     </row>
-    <row r="271" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="18" t="s">
         <v>1401</v>
       </c>
@@ -16115,7 +16116,7 @@
       <c r="J271" s="19"/>
       <c r="K271" s="19"/>
     </row>
-    <row r="272" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="18" t="s">
         <v>1401</v>
       </c>
@@ -16142,7 +16143,7 @@
       <c r="J272" s="19"/>
       <c r="K272" s="19"/>
     </row>
-    <row r="273" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="18" t="s">
         <v>1401</v>
       </c>
@@ -16169,7 +16170,7 @@
       <c r="J273" s="19"/>
       <c r="K273" s="19"/>
     </row>
-    <row r="274" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="18">
         <v>5</v>
       </c>
@@ -16196,7 +16197,7 @@
       <c r="J274" s="19"/>
       <c r="K274" s="19"/>
     </row>
-    <row r="275" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="18">
         <v>3</v>
       </c>
@@ -16223,7 +16224,7 @@
       <c r="J275" s="19"/>
       <c r="K275" s="19"/>
     </row>
-    <row r="276" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="18">
         <v>2</v>
       </c>
@@ -16250,7 +16251,7 @@
       <c r="J276" s="19"/>
       <c r="K276" s="19"/>
     </row>
-    <row r="277" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="12">
         <v>8</v>
       </c>
@@ -16277,7 +16278,7 @@
       <c r="J277" s="17"/>
       <c r="K277" s="17"/>
     </row>
-    <row r="278" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="12">
         <v>8</v>
       </c>
@@ -16304,7 +16305,7 @@
       <c r="J278" s="17"/>
       <c r="K278" s="17"/>
     </row>
-    <row r="279" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="12">
         <v>8</v>
       </c>
@@ -16348,7 +16349,7 @@
         <v>0</v>
       </c>
       <c r="F280" s="17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G280" s="17" t="s">
         <v>811</v>
@@ -16358,7 +16359,7 @@
       <c r="J280" s="17"/>
       <c r="K280" s="17"/>
     </row>
-    <row r="281" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="12">
         <v>8</v>
       </c>
@@ -16385,7 +16386,7 @@
       <c r="J281" s="17"/>
       <c r="K281" s="17"/>
     </row>
-    <row r="282" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="12">
         <v>8</v>
       </c>
@@ -16412,7 +16413,7 @@
       <c r="J282" s="17"/>
       <c r="K282" s="17"/>
     </row>
-    <row r="283" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="12">
         <v>8</v>
       </c>
@@ -16439,7 +16440,7 @@
       <c r="J283" s="17"/>
       <c r="K283" s="17"/>
     </row>
-    <row r="284" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="12">
         <v>8</v>
       </c>
@@ -16466,7 +16467,7 @@
       <c r="J284" s="17"/>
       <c r="K284" s="17"/>
     </row>
-    <row r="285" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="12">
         <v>8</v>
       </c>
@@ -16493,7 +16494,7 @@
       <c r="J285" s="17"/>
       <c r="K285" s="17"/>
     </row>
-    <row r="286" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="12">
         <v>8</v>
       </c>
@@ -16520,7 +16521,7 @@
       <c r="J286" s="17"/>
       <c r="K286" s="17"/>
     </row>
-    <row r="287" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="12">
         <v>8</v>
       </c>
@@ -16547,7 +16548,7 @@
       <c r="J287" s="17"/>
       <c r="K287" s="17"/>
     </row>
-    <row r="288" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="12">
         <v>8</v>
       </c>
@@ -16574,7 +16575,7 @@
       <c r="J288" s="17"/>
       <c r="K288" s="17"/>
     </row>
-    <row r="289" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="12">
         <v>8</v>
       </c>
@@ -16601,7 +16602,7 @@
       <c r="J289" s="17"/>
       <c r="K289" s="17"/>
     </row>
-    <row r="290" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="12">
         <v>8</v>
       </c>
@@ -16628,7 +16629,7 @@
       <c r="J290" s="17"/>
       <c r="K290" s="17"/>
     </row>
-    <row r="291" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="12">
         <v>8</v>
       </c>
@@ -16655,7 +16656,7 @@
       <c r="J291" s="17"/>
       <c r="K291" s="17"/>
     </row>
-    <row r="292" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="12">
         <v>8</v>
       </c>
@@ -16682,7 +16683,7 @@
       <c r="J292" s="17"/>
       <c r="K292" s="17"/>
     </row>
-    <row r="293" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="12">
         <v>8</v>
       </c>
@@ -16709,7 +16710,7 @@
       <c r="J293" s="17"/>
       <c r="K293" s="17"/>
     </row>
-    <row r="294" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="12">
         <v>8</v>
       </c>
@@ -16736,7 +16737,7 @@
       <c r="J294" s="17"/>
       <c r="K294" s="17"/>
     </row>
-    <row r="295" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="12">
         <v>8</v>
       </c>
@@ -16763,7 +16764,7 @@
       <c r="J295" s="17"/>
       <c r="K295" s="17"/>
     </row>
-    <row r="296" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="12">
         <v>8</v>
       </c>
@@ -16790,7 +16791,7 @@
       <c r="J296" s="17"/>
       <c r="K296" s="17"/>
     </row>
-    <row r="297" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="12">
         <v>8</v>
       </c>
@@ -16817,7 +16818,7 @@
       <c r="J297" s="17"/>
       <c r="K297" s="17"/>
     </row>
-    <row r="298" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="12">
         <v>8</v>
       </c>
@@ -16844,7 +16845,7 @@
       <c r="J298" s="17"/>
       <c r="K298" s="17"/>
     </row>
-    <row r="299" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="12">
         <v>8</v>
       </c>
@@ -16871,7 +16872,7 @@
       <c r="J299" s="17"/>
       <c r="K299" s="17"/>
     </row>
-    <row r="300" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="12">
         <v>8</v>
       </c>
@@ -16898,7 +16899,7 @@
       <c r="J300" s="17"/>
       <c r="K300" s="17"/>
     </row>
-    <row r="301" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="12">
         <v>8</v>
       </c>
@@ -16925,7 +16926,7 @@
       <c r="J301" s="17"/>
       <c r="K301" s="17"/>
     </row>
-    <row r="302" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="12">
         <v>8</v>
       </c>
@@ -16952,7 +16953,7 @@
       <c r="J302" s="17"/>
       <c r="K302" s="17"/>
     </row>
-    <row r="303" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="12">
         <v>8</v>
       </c>
@@ -16979,7 +16980,7 @@
       <c r="J303" s="17"/>
       <c r="K303" s="17"/>
     </row>
-    <row r="304" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="12">
         <v>8</v>
       </c>
@@ -17006,7 +17007,7 @@
       <c r="J304" s="17"/>
       <c r="K304" s="17"/>
     </row>
-    <row r="305" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="12">
         <v>8</v>
       </c>
@@ -17033,7 +17034,7 @@
       <c r="J305" s="17"/>
       <c r="K305" s="17"/>
     </row>
-    <row r="306" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="12">
         <v>8</v>
       </c>
@@ -17060,7 +17061,7 @@
       <c r="J306" s="17"/>
       <c r="K306" s="17"/>
     </row>
-    <row r="307" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="12">
         <v>8</v>
       </c>
@@ -17087,7 +17088,7 @@
       <c r="J307" s="17"/>
       <c r="K307" s="17"/>
     </row>
-    <row r="308" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="12">
         <v>8</v>
       </c>
@@ -17114,7 +17115,7 @@
       <c r="J308" s="17"/>
       <c r="K308" s="17"/>
     </row>
-    <row r="309" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="12">
         <v>8</v>
       </c>
@@ -17141,7 +17142,7 @@
       <c r="J309" s="17"/>
       <c r="K309" s="17"/>
     </row>
-    <row r="310" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="12">
         <v>8</v>
       </c>
@@ -17168,7 +17169,7 @@
       <c r="J310" s="17"/>
       <c r="K310" s="17"/>
     </row>
-    <row r="311" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="12">
         <v>8</v>
       </c>
@@ -17195,7 +17196,7 @@
       <c r="J311" s="17"/>
       <c r="K311" s="17"/>
     </row>
-    <row r="312" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="12">
         <v>8</v>
       </c>
@@ -17222,7 +17223,7 @@
       <c r="J312" s="17"/>
       <c r="K312" s="17"/>
     </row>
-    <row r="313" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="12">
         <v>8</v>
       </c>
@@ -17249,7 +17250,7 @@
       <c r="J313" s="17"/>
       <c r="K313" s="17"/>
     </row>
-    <row r="314" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="12">
         <v>8</v>
       </c>
@@ -17276,7 +17277,7 @@
       <c r="J314" s="17"/>
       <c r="K314" s="17"/>
     </row>
-    <row r="315" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="12">
         <v>8</v>
       </c>
@@ -17303,7 +17304,7 @@
       <c r="J315" s="17"/>
       <c r="K315" s="17"/>
     </row>
-    <row r="316" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="12">
         <v>8</v>
       </c>
@@ -17330,7 +17331,7 @@
       <c r="J316" s="17"/>
       <c r="K316" s="17"/>
     </row>
-    <row r="317" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="12">
         <v>8</v>
       </c>
@@ -17357,7 +17358,7 @@
       <c r="J317" s="17"/>
       <c r="K317" s="17"/>
     </row>
-    <row r="318" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="12">
         <v>8</v>
       </c>
@@ -17384,7 +17385,7 @@
       <c r="J318" s="17"/>
       <c r="K318" s="17"/>
     </row>
-    <row r="319" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="12">
         <v>8</v>
       </c>
@@ -17411,7 +17412,7 @@
       <c r="J319" s="17"/>
       <c r="K319" s="17"/>
     </row>
-    <row r="320" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="12">
         <v>8</v>
       </c>
@@ -17438,7 +17439,7 @@
       <c r="J320" s="17"/>
       <c r="K320" s="17"/>
     </row>
-    <row r="321" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="12">
         <v>8</v>
       </c>
@@ -17465,7 +17466,7 @@
       <c r="J321" s="17"/>
       <c r="K321" s="17"/>
     </row>
-    <row r="322" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="12">
         <v>8</v>
       </c>
@@ -17492,7 +17493,7 @@
       <c r="J322" s="17"/>
       <c r="K322" s="17"/>
     </row>
-    <row r="323" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="12">
         <v>8</v>
       </c>
@@ -17519,7 +17520,7 @@
       <c r="J323" s="17"/>
       <c r="K323" s="17"/>
     </row>
-    <row r="324" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="12">
         <v>8</v>
       </c>
@@ -17546,7 +17547,7 @@
       <c r="J324" s="17"/>
       <c r="K324" s="17"/>
     </row>
-    <row r="325" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="12">
         <v>8</v>
       </c>
@@ -17573,7 +17574,7 @@
       <c r="J325" s="17"/>
       <c r="K325" s="17"/>
     </row>
-    <row r="326" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="12">
         <v>8</v>
       </c>
@@ -17600,7 +17601,7 @@
       <c r="J326" s="17"/>
       <c r="K326" s="17"/>
     </row>
-    <row r="327" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="12">
         <v>8</v>
       </c>
@@ -17627,7 +17628,7 @@
       <c r="J327" s="17"/>
       <c r="K327" s="17"/>
     </row>
-    <row r="328" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="12">
         <v>8</v>
       </c>
@@ -17654,7 +17655,7 @@
       <c r="J328" s="17"/>
       <c r="K328" s="17"/>
     </row>
-    <row r="329" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="12">
         <v>8</v>
       </c>
@@ -17681,7 +17682,7 @@
       <c r="J329" s="17"/>
       <c r="K329" s="17"/>
     </row>
-    <row r="330" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="12">
         <v>8</v>
       </c>
@@ -17708,7 +17709,7 @@
       <c r="J330" s="17"/>
       <c r="K330" s="17"/>
     </row>
-    <row r="331" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="12">
         <v>8</v>
       </c>
@@ -17735,7 +17736,7 @@
       <c r="J331" s="17"/>
       <c r="K331" s="17"/>
     </row>
-    <row r="332" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="12">
         <v>8</v>
       </c>
@@ -17762,7 +17763,7 @@
       <c r="J332" s="17"/>
       <c r="K332" s="17"/>
     </row>
-    <row r="333" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="12">
         <v>8</v>
       </c>
@@ -17789,7 +17790,7 @@
       <c r="J333" s="17"/>
       <c r="K333" s="17"/>
     </row>
-    <row r="334" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="12">
         <v>8</v>
       </c>
@@ -17816,7 +17817,7 @@
       <c r="J334" s="17"/>
       <c r="K334" s="17"/>
     </row>
-    <row r="335" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="12">
         <v>8</v>
       </c>
@@ -17843,7 +17844,7 @@
       <c r="J335" s="17"/>
       <c r="K335" s="17"/>
     </row>
-    <row r="336" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="12">
         <v>8</v>
       </c>
@@ -17870,7 +17871,7 @@
       <c r="J336" s="17"/>
       <c r="K336" s="17"/>
     </row>
-    <row r="337" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="12">
         <v>8</v>
       </c>
@@ -17897,7 +17898,7 @@
       <c r="J337" s="17"/>
       <c r="K337" s="17"/>
     </row>
-    <row r="338" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="12">
         <v>8</v>
       </c>
@@ -17924,7 +17925,7 @@
       <c r="J338" s="17"/>
       <c r="K338" s="17"/>
     </row>
-    <row r="339" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="12">
         <v>8</v>
       </c>
@@ -17951,7 +17952,7 @@
       <c r="J339" s="17"/>
       <c r="K339" s="17"/>
     </row>
-    <row r="340" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="12">
         <v>8</v>
       </c>
@@ -17978,7 +17979,7 @@
       <c r="J340" s="17"/>
       <c r="K340" s="17"/>
     </row>
-    <row r="341" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="12">
         <v>8</v>
       </c>
@@ -18005,7 +18006,7 @@
       <c r="J341" s="17"/>
       <c r="K341" s="17"/>
     </row>
-    <row r="342" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="12">
         <v>8</v>
       </c>
@@ -18032,7 +18033,7 @@
       <c r="J342" s="17"/>
       <c r="K342" s="17"/>
     </row>
-    <row r="343" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="12">
         <v>8</v>
       </c>
@@ -18059,7 +18060,7 @@
       <c r="J343" s="17"/>
       <c r="K343" s="17"/>
     </row>
-    <row r="344" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="12">
         <v>8</v>
       </c>
@@ -18086,7 +18087,7 @@
       <c r="J344" s="17"/>
       <c r="K344" s="17"/>
     </row>
-    <row r="345" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="12">
         <v>8</v>
       </c>
@@ -18113,7 +18114,7 @@
       <c r="J345" s="17"/>
       <c r="K345" s="17"/>
     </row>
-    <row r="346" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="12">
         <v>8</v>
       </c>
@@ -18140,7 +18141,7 @@
       <c r="J346" s="17"/>
       <c r="K346" s="17"/>
     </row>
-    <row r="347" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="12">
         <v>8</v>
       </c>
@@ -18167,7 +18168,7 @@
       <c r="J347" s="17"/>
       <c r="K347" s="17"/>
     </row>
-    <row r="348" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="12">
         <v>8</v>
       </c>
@@ -18194,7 +18195,7 @@
       <c r="J348" s="17"/>
       <c r="K348" s="17"/>
     </row>
-    <row r="349" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="12">
         <v>8</v>
       </c>
@@ -18221,7 +18222,7 @@
       <c r="J349" s="17"/>
       <c r="K349" s="17"/>
     </row>
-    <row r="350" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="12">
         <v>8</v>
       </c>
@@ -18248,7 +18249,7 @@
       <c r="J350" s="17"/>
       <c r="K350" s="17"/>
     </row>
-    <row r="351" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="12">
         <v>8</v>
       </c>
@@ -18275,7 +18276,7 @@
       <c r="J351" s="17"/>
       <c r="K351" s="17"/>
     </row>
-    <row r="352" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="12">
         <v>8</v>
       </c>
@@ -18302,7 +18303,7 @@
       <c r="J352" s="17"/>
       <c r="K352" s="17"/>
     </row>
-    <row r="353" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="12">
         <v>8</v>
       </c>
@@ -18329,7 +18330,7 @@
       <c r="J353" s="17"/>
       <c r="K353" s="17"/>
     </row>
-    <row r="354" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="12">
         <v>8</v>
       </c>
@@ -18356,7 +18357,7 @@
       <c r="J354" s="17"/>
       <c r="K354" s="17"/>
     </row>
-    <row r="355" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="12">
         <v>8</v>
       </c>
@@ -18383,7 +18384,7 @@
       <c r="J355" s="17"/>
       <c r="K355" s="17"/>
     </row>
-    <row r="356" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="12">
         <v>8</v>
       </c>
@@ -18410,7 +18411,7 @@
       <c r="J356" s="17"/>
       <c r="K356" s="17"/>
     </row>
-    <row r="357" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="12">
         <v>8</v>
       </c>
@@ -18437,7 +18438,7 @@
       <c r="J357" s="17"/>
       <c r="K357" s="17"/>
     </row>
-    <row r="358" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="12">
         <v>8</v>
       </c>
@@ -18464,7 +18465,7 @@
       <c r="J358" s="17"/>
       <c r="K358" s="17"/>
     </row>
-    <row r="359" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="12">
         <v>8</v>
       </c>
@@ -18491,7 +18492,7 @@
       <c r="J359" s="17"/>
       <c r="K359" s="17"/>
     </row>
-    <row r="360" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="12">
         <v>8</v>
       </c>
@@ -18518,7 +18519,7 @@
       <c r="J360" s="17"/>
       <c r="K360" s="17"/>
     </row>
-    <row r="361" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="12">
         <v>8</v>
       </c>
@@ -18545,7 +18546,7 @@
       <c r="J361" s="17"/>
       <c r="K361" s="17"/>
     </row>
-    <row r="362" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="12">
         <v>8</v>
       </c>
@@ -18572,7 +18573,7 @@
       <c r="J362" s="17"/>
       <c r="K362" s="17"/>
     </row>
-    <row r="363" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="12">
         <v>8</v>
       </c>
@@ -18599,7 +18600,7 @@
       <c r="J363" s="17"/>
       <c r="K363" s="17"/>
     </row>
-    <row r="364" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="12">
         <v>8</v>
       </c>
@@ -18626,7 +18627,7 @@
       <c r="J364" s="17"/>
       <c r="K364" s="17"/>
     </row>
-    <row r="365" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="12">
         <v>8</v>
       </c>
@@ -18653,7 +18654,7 @@
       <c r="J365" s="17"/>
       <c r="K365" s="17"/>
     </row>
-    <row r="366" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="12">
         <v>8</v>
       </c>
@@ -18680,7 +18681,7 @@
       <c r="J366" s="17"/>
       <c r="K366" s="17"/>
     </row>
-    <row r="367" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="12">
         <v>8</v>
       </c>
@@ -18707,7 +18708,7 @@
       <c r="J367" s="17"/>
       <c r="K367" s="17"/>
     </row>
-    <row r="368" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="12">
         <v>8</v>
       </c>
@@ -18734,7 +18735,7 @@
       <c r="J368" s="17"/>
       <c r="K368" s="17"/>
     </row>
-    <row r="369" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="12">
         <v>8</v>
       </c>
@@ -18761,7 +18762,7 @@
       <c r="J369" s="17"/>
       <c r="K369" s="17"/>
     </row>
-    <row r="370" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="12">
         <v>8</v>
       </c>
@@ -18788,7 +18789,7 @@
       <c r="J370" s="17"/>
       <c r="K370" s="17"/>
     </row>
-    <row r="371" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="12">
         <v>8</v>
       </c>
@@ -18815,7 +18816,7 @@
       <c r="J371" s="17"/>
       <c r="K371" s="17"/>
     </row>
-    <row r="372" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="12">
         <v>8</v>
       </c>
@@ -18842,7 +18843,7 @@
       <c r="J372" s="17"/>
       <c r="K372" s="17"/>
     </row>
-    <row r="373" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="12">
         <v>8</v>
       </c>
@@ -18869,7 +18870,7 @@
       <c r="J373" s="17"/>
       <c r="K373" s="17"/>
     </row>
-    <row r="374" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="12">
         <v>8</v>
       </c>
@@ -18896,7 +18897,7 @@
       <c r="J374" s="17"/>
       <c r="K374" s="17"/>
     </row>
-    <row r="375" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="12">
         <v>8</v>
       </c>
@@ -18923,7 +18924,7 @@
       <c r="J375" s="17"/>
       <c r="K375" s="17"/>
     </row>
-    <row r="376" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="12">
         <v>8</v>
       </c>
@@ -18950,7 +18951,7 @@
       <c r="J376" s="17"/>
       <c r="K376" s="17"/>
     </row>
-    <row r="377" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="12">
         <v>8</v>
       </c>
@@ -18977,7 +18978,7 @@
       <c r="J377" s="17"/>
       <c r="K377" s="17"/>
     </row>
-    <row r="378" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="12">
         <v>8</v>
       </c>
@@ -19004,7 +19005,7 @@
       <c r="J378" s="17"/>
       <c r="K378" s="17"/>
     </row>
-    <row r="379" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="12">
         <v>8</v>
       </c>
@@ -19031,7 +19032,7 @@
       <c r="J379" s="17"/>
       <c r="K379" s="17"/>
     </row>
-    <row r="380" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="12">
         <v>8</v>
       </c>
@@ -19058,7 +19059,7 @@
       <c r="J380" s="17"/>
       <c r="K380" s="17"/>
     </row>
-    <row r="381" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="12">
         <v>8</v>
       </c>
@@ -19085,7 +19086,7 @@
       <c r="J381" s="17"/>
       <c r="K381" s="17"/>
     </row>
-    <row r="382" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="12">
         <v>8</v>
       </c>
@@ -19112,7 +19113,7 @@
       <c r="J382" s="17"/>
       <c r="K382" s="17"/>
     </row>
-    <row r="383" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="12">
         <v>8</v>
       </c>
@@ -19139,7 +19140,7 @@
       <c r="J383" s="17"/>
       <c r="K383" s="17"/>
     </row>
-    <row r="384" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="12">
         <v>8</v>
       </c>
@@ -19166,7 +19167,7 @@
       <c r="J384" s="17"/>
       <c r="K384" s="17"/>
     </row>
-    <row r="385" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="12">
         <v>8</v>
       </c>
@@ -19193,7 +19194,7 @@
       <c r="J385" s="17"/>
       <c r="K385" s="17"/>
     </row>
-    <row r="386" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="12">
         <v>8</v>
       </c>
@@ -19220,7 +19221,7 @@
       <c r="J386" s="17"/>
       <c r="K386" s="17"/>
     </row>
-    <row r="387" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="12">
         <v>8</v>
       </c>
@@ -19247,7 +19248,7 @@
       <c r="J387" s="17"/>
       <c r="K387" s="17"/>
     </row>
-    <row r="388" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="12">
         <v>8</v>
       </c>
@@ -19274,7 +19275,7 @@
       <c r="J388" s="17"/>
       <c r="K388" s="17"/>
     </row>
-    <row r="389" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="12">
         <v>8</v>
       </c>
@@ -19301,7 +19302,7 @@
       <c r="J389" s="17"/>
       <c r="K389" s="17"/>
     </row>
-    <row r="390" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="12">
         <v>8</v>
       </c>
@@ -19328,7 +19329,7 @@
       <c r="J390" s="17"/>
       <c r="K390" s="17"/>
     </row>
-    <row r="391" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="12">
         <v>8</v>
       </c>
@@ -19355,7 +19356,7 @@
       <c r="J391" s="17"/>
       <c r="K391" s="17"/>
     </row>
-    <row r="392" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="12">
         <v>8</v>
       </c>
@@ -19382,7 +19383,7 @@
       <c r="J392" s="17"/>
       <c r="K392" s="17"/>
     </row>
-    <row r="393" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="12">
         <v>8</v>
       </c>
@@ -19409,7 +19410,7 @@
       <c r="J393" s="17"/>
       <c r="K393" s="17"/>
     </row>
-    <row r="394" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="12">
         <v>8</v>
       </c>
@@ -19436,7 +19437,7 @@
       <c r="J394" s="17"/>
       <c r="K394" s="17"/>
     </row>
-    <row r="395" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="12">
         <v>8</v>
       </c>
@@ -19463,7 +19464,7 @@
       <c r="J395" s="17"/>
       <c r="K395" s="17"/>
     </row>
-    <row r="396" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="12">
         <v>8</v>
       </c>
@@ -19490,7 +19491,7 @@
       <c r="J396" s="17"/>
       <c r="K396" s="17"/>
     </row>
-    <row r="397" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="12">
         <v>8</v>
       </c>
@@ -19517,7 +19518,7 @@
       <c r="J397" s="17"/>
       <c r="K397" s="17"/>
     </row>
-    <row r="398" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="12">
         <v>8</v>
       </c>
@@ -19544,7 +19545,7 @@
       <c r="J398" s="17"/>
       <c r="K398" s="17"/>
     </row>
-    <row r="399" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="12">
         <v>8</v>
       </c>
@@ -19571,7 +19572,7 @@
       <c r="J399" s="17"/>
       <c r="K399" s="17"/>
     </row>
-    <row r="400" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="12">
         <v>8</v>
       </c>
@@ -19598,7 +19599,7 @@
       <c r="J400" s="17"/>
       <c r="K400" s="17"/>
     </row>
-    <row r="401" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="12">
         <v>8</v>
       </c>
@@ -19625,7 +19626,7 @@
       <c r="J401" s="17"/>
       <c r="K401" s="17"/>
     </row>
-    <row r="402" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="12">
         <v>8</v>
       </c>
@@ -19652,7 +19653,7 @@
       <c r="J402" s="17"/>
       <c r="K402" s="17"/>
     </row>
-    <row r="403" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="12">
         <v>8</v>
       </c>
@@ -19679,7 +19680,7 @@
       <c r="J403" s="17"/>
       <c r="K403" s="17"/>
     </row>
-    <row r="404" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="12">
         <v>8</v>
       </c>
@@ -19706,7 +19707,7 @@
       <c r="J404" s="17"/>
       <c r="K404" s="17"/>
     </row>
-    <row r="405" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="12">
         <v>8</v>
       </c>
@@ -19733,7 +19734,7 @@
       <c r="J405" s="17"/>
       <c r="K405" s="17"/>
     </row>
-    <row r="406" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="12">
         <v>8</v>
       </c>
@@ -19760,7 +19761,7 @@
       <c r="J406" s="17"/>
       <c r="K406" s="17"/>
     </row>
-    <row r="407" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="12">
         <v>8</v>
       </c>
@@ -19787,7 +19788,7 @@
       <c r="J407" s="17"/>
       <c r="K407" s="17"/>
     </row>
-    <row r="408" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="12">
         <v>8</v>
       </c>
@@ -19814,7 +19815,7 @@
       <c r="J408" s="17"/>
       <c r="K408" s="17"/>
     </row>
-    <row r="409" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="12">
         <v>8</v>
       </c>
@@ -19841,7 +19842,7 @@
       <c r="J409" s="17"/>
       <c r="K409" s="17"/>
     </row>
-    <row r="410" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="12">
         <v>8</v>
       </c>
@@ -19868,7 +19869,7 @@
       <c r="J410" s="17"/>
       <c r="K410" s="17"/>
     </row>
-    <row r="411" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="12">
         <v>8</v>
       </c>
@@ -19895,7 +19896,7 @@
       <c r="J411" s="17"/>
       <c r="K411" s="17"/>
     </row>
-    <row r="412" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="12">
         <v>8</v>
       </c>
@@ -19922,7 +19923,7 @@
       <c r="J412" s="17"/>
       <c r="K412" s="17"/>
     </row>
-    <row r="413" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="12">
         <v>8</v>
       </c>
@@ -19949,7 +19950,7 @@
       <c r="J413" s="17"/>
       <c r="K413" s="17"/>
     </row>
-    <row r="414" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="12">
         <v>8</v>
       </c>
@@ -19976,7 +19977,7 @@
       <c r="J414" s="17"/>
       <c r="K414" s="17"/>
     </row>
-    <row r="415" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="12">
         <v>8</v>
       </c>
@@ -20003,7 +20004,7 @@
       <c r="J415" s="17"/>
       <c r="K415" s="17"/>
     </row>
-    <row r="416" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="12">
         <v>8</v>
       </c>
@@ -20030,7 +20031,7 @@
       <c r="J416" s="17"/>
       <c r="K416" s="17"/>
     </row>
-    <row r="417" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="12">
         <v>8</v>
       </c>
@@ -20057,7 +20058,7 @@
       <c r="J417" s="17"/>
       <c r="K417" s="17"/>
     </row>
-    <row r="418" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="12">
         <v>8</v>
       </c>
@@ -20084,7 +20085,7 @@
       <c r="J418" s="17"/>
       <c r="K418" s="17"/>
     </row>
-    <row r="419" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="12">
         <v>8</v>
       </c>
@@ -20111,7 +20112,7 @@
       <c r="J419" s="17"/>
       <c r="K419" s="17"/>
     </row>
-    <row r="420" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="12">
         <v>8</v>
       </c>
@@ -20138,7 +20139,7 @@
       <c r="J420" s="17"/>
       <c r="K420" s="17"/>
     </row>
-    <row r="421" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="12">
         <v>8</v>
       </c>
@@ -20165,7 +20166,7 @@
       <c r="J421" s="17"/>
       <c r="K421" s="17"/>
     </row>
-    <row r="422" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="12">
         <v>8</v>
       </c>
@@ -20192,7 +20193,7 @@
       <c r="J422" s="17"/>
       <c r="K422" s="17"/>
     </row>
-    <row r="423" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="12">
         <v>8</v>
       </c>
@@ -20219,7 +20220,7 @@
       <c r="J423" s="17"/>
       <c r="K423" s="17"/>
     </row>
-    <row r="424" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="12">
         <v>8</v>
       </c>
@@ -20246,7 +20247,7 @@
       <c r="J424" s="17"/>
       <c r="K424" s="17"/>
     </row>
-    <row r="425" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="12">
         <v>8</v>
       </c>
@@ -20273,7 +20274,7 @@
       <c r="J425" s="17"/>
       <c r="K425" s="17"/>
     </row>
-    <row r="426" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="12">
         <v>8</v>
       </c>
@@ -20300,7 +20301,7 @@
       <c r="J426" s="10"/>
       <c r="K426" s="10"/>
     </row>
-    <row r="427" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="12">
         <v>8</v>
       </c>
@@ -20327,7 +20328,7 @@
       <c r="J427" s="10"/>
       <c r="K427" s="10"/>
     </row>
-    <row r="428" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="12">
         <v>8</v>
       </c>
@@ -20354,7 +20355,7 @@
       <c r="J428" s="10"/>
       <c r="K428" s="10"/>
     </row>
-    <row r="429" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="12">
         <v>8</v>
       </c>
@@ -20381,7 +20382,7 @@
       <c r="J429" s="10"/>
       <c r="K429" s="10"/>
     </row>
-    <row r="430" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="12">
         <v>8</v>
       </c>
@@ -20435,7 +20436,7 @@
       <c r="J431" s="10"/>
       <c r="K431" s="10"/>
     </row>
-    <row r="432" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="18">
         <v>2</v>
       </c>
@@ -20464,7 +20465,7 @@
       <c r="J432" s="19"/>
       <c r="K432" s="19"/>
     </row>
-    <row r="433" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="18">
         <v>2</v>
       </c>
@@ -20493,7 +20494,7 @@
       <c r="J433" s="19"/>
       <c r="K433" s="19"/>
     </row>
-    <row r="434" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="18">
         <v>2</v>
       </c>
@@ -20524,7 +20525,7 @@
       <c r="J434" s="19"/>
       <c r="K434" s="19"/>
     </row>
-    <row r="435" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="18">
         <v>2</v>
       </c>
@@ -20555,7 +20556,7 @@
       <c r="J435" s="19"/>
       <c r="K435" s="19"/>
     </row>
-    <row r="436" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="18">
         <v>2</v>
       </c>
@@ -20584,7 +20585,7 @@
       <c r="J436" s="19"/>
       <c r="K436" s="19"/>
     </row>
-    <row r="437" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="18">
         <v>2</v>
       </c>
@@ -20615,7 +20616,7 @@
       <c r="J437" s="19"/>
       <c r="K437" s="19"/>
     </row>
-    <row r="438" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="18">
         <v>2</v>
       </c>
@@ -20644,7 +20645,7 @@
       <c r="J438" s="19"/>
       <c r="K438" s="19"/>
     </row>
-    <row r="439" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="18">
         <v>2</v>
       </c>
@@ -20673,7 +20674,7 @@
       <c r="J439" s="19"/>
       <c r="K439" s="19"/>
     </row>
-    <row r="440" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="18">
         <v>2</v>
       </c>
@@ -20704,7 +20705,7 @@
       <c r="J440" s="19"/>
       <c r="K440" s="19"/>
     </row>
-    <row r="441" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="18">
         <v>2</v>
       </c>
@@ -20733,7 +20734,7 @@
       <c r="J441" s="19"/>
       <c r="K441" s="19"/>
     </row>
-    <row r="442" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="18">
         <v>2</v>
       </c>
@@ -20764,7 +20765,7 @@
       <c r="J442" s="19"/>
       <c r="K442" s="19"/>
     </row>
-    <row r="443" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="18">
         <v>2</v>
       </c>
@@ -20795,7 +20796,7 @@
       <c r="J443" s="19"/>
       <c r="K443" s="19"/>
     </row>
-    <row r="444" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="18">
         <v>2</v>
       </c>
@@ -20824,7 +20825,7 @@
       <c r="J444" s="19"/>
       <c r="K444" s="19"/>
     </row>
-    <row r="445" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="18">
         <v>2</v>
       </c>
@@ -20853,7 +20854,7 @@
       <c r="J445" s="19"/>
       <c r="K445" s="19"/>
     </row>
-    <row r="446" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="18">
         <v>2</v>
       </c>
@@ -20886,7 +20887,7 @@
       </c>
       <c r="K446" s="19"/>
     </row>
-    <row r="447" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="18">
         <v>2</v>
       </c>
@@ -20917,7 +20918,7 @@
       <c r="J447" s="19"/>
       <c r="K447" s="19"/>
     </row>
-    <row r="448" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="18">
         <v>2</v>
       </c>
@@ -20975,7 +20976,7 @@
       <c r="J449" s="19"/>
       <c r="K449" s="19"/>
     </row>
-    <row r="450" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="18">
         <v>2</v>
       </c>
@@ -21010,7 +21011,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="451" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="18">
         <v>2</v>
       </c>
@@ -21045,7 +21046,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="452" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="18">
         <v>2</v>
       </c>
@@ -21074,7 +21075,7 @@
       <c r="J452" s="19"/>
       <c r="K452" s="19"/>
     </row>
-    <row r="453" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="18">
         <v>2</v>
       </c>
@@ -21103,7 +21104,7 @@
       <c r="J453" s="19"/>
       <c r="K453" s="19"/>
     </row>
-    <row r="454" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="18">
         <v>2</v>
       </c>
@@ -21134,7 +21135,7 @@
       <c r="J454" s="19"/>
       <c r="K454" s="19"/>
     </row>
-    <row r="455" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="18">
         <v>2</v>
       </c>
@@ -21165,7 +21166,7 @@
       <c r="J455" s="19"/>
       <c r="K455" s="19"/>
     </row>
-    <row r="456" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="18">
         <v>2</v>
       </c>
@@ -21196,7 +21197,7 @@
       <c r="J456" s="19"/>
       <c r="K456" s="19"/>
     </row>
-    <row r="457" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="18">
         <v>2</v>
       </c>
@@ -21225,7 +21226,7 @@
       <c r="J457" s="19"/>
       <c r="K457" s="19"/>
     </row>
-    <row r="458" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="18">
         <v>2</v>
       </c>
@@ -21260,7 +21261,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="459" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="18">
         <v>2</v>
       </c>
@@ -21295,7 +21296,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="460" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="18">
         <v>2</v>
       </c>
@@ -21330,7 +21331,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="461" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="18">
         <v>2</v>
       </c>
@@ -21365,7 +21366,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="462" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="18">
         <v>2</v>
       </c>
@@ -21400,7 +21401,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="463" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="18">
         <v>2</v>
       </c>
@@ -21431,7 +21432,7 @@
       <c r="J463" s="19"/>
       <c r="K463" s="19"/>
     </row>
-    <row r="464" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="18">
         <v>2</v>
       </c>
@@ -21462,7 +21463,7 @@
       <c r="J464" s="19"/>
       <c r="K464" s="19"/>
     </row>
-    <row r="465" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="18">
         <v>2</v>
       </c>
@@ -21493,7 +21494,7 @@
       <c r="J465" s="19"/>
       <c r="K465" s="19"/>
     </row>
-    <row r="466" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="18">
         <v>2</v>
       </c>
@@ -21524,7 +21525,7 @@
       <c r="J466" s="19"/>
       <c r="K466" s="19"/>
     </row>
-    <row r="467" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="18">
         <v>2</v>
       </c>
@@ -21555,7 +21556,7 @@
       <c r="J467" s="19"/>
       <c r="K467" s="19"/>
     </row>
-    <row r="468" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="18">
         <v>2</v>
       </c>
@@ -21586,7 +21587,7 @@
       <c r="J468" s="19"/>
       <c r="K468" s="19"/>
     </row>
-    <row r="469" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="18">
         <v>2</v>
       </c>
@@ -21617,7 +21618,7 @@
       <c r="J469" s="19"/>
       <c r="K469" s="19"/>
     </row>
-    <row r="470" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="18">
         <v>2</v>
       </c>
@@ -21648,7 +21649,7 @@
       <c r="J470" s="19"/>
       <c r="K470" s="19"/>
     </row>
-    <row r="471" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="18">
         <v>2</v>
       </c>
@@ -21679,7 +21680,7 @@
       <c r="J471" s="19"/>
       <c r="K471" s="19"/>
     </row>
-    <row r="472" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="18">
         <v>2</v>
       </c>
@@ -21710,7 +21711,7 @@
       <c r="J472" s="19"/>
       <c r="K472" s="19"/>
     </row>
-    <row r="473" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="18">
         <v>2</v>
       </c>
@@ -21743,7 +21744,7 @@
       </c>
       <c r="K473" s="19"/>
     </row>
-    <row r="474" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="18">
         <v>2</v>
       </c>
@@ -21776,7 +21777,7 @@
       </c>
       <c r="K474" s="19"/>
     </row>
-    <row r="475" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="18">
         <v>2</v>
       </c>
@@ -21807,7 +21808,7 @@
       <c r="J475" s="19"/>
       <c r="K475" s="19"/>
     </row>
-    <row r="476" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="18">
         <v>2</v>
       </c>
@@ -21838,7 +21839,7 @@
       <c r="J476" s="19"/>
       <c r="K476" s="19"/>
     </row>
-    <row r="477" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="18">
         <v>2</v>
       </c>
@@ -21869,7 +21870,7 @@
       <c r="J477" s="19"/>
       <c r="K477" s="19"/>
     </row>
-    <row r="478" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="18">
         <v>2</v>
       </c>
@@ -21898,7 +21899,7 @@
       <c r="J478" s="19"/>
       <c r="K478" s="19"/>
     </row>
-    <row r="479" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="18">
         <v>2</v>
       </c>
@@ -21933,7 +21934,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="18">
         <v>2</v>
       </c>
@@ -21964,7 +21965,7 @@
       <c r="J480" s="19"/>
       <c r="K480" s="19"/>
     </row>
-    <row r="481" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="18">
         <v>2</v>
       </c>
@@ -21995,7 +21996,7 @@
       <c r="J481" s="19"/>
       <c r="K481" s="19"/>
     </row>
-    <row r="482" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="18">
         <v>2</v>
       </c>
@@ -22024,7 +22025,7 @@
       <c r="J482" s="19"/>
       <c r="K482" s="19"/>
     </row>
-    <row r="483" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="18">
         <v>2</v>
       </c>
@@ -22055,7 +22056,7 @@
       <c r="J483" s="19"/>
       <c r="K483" s="19"/>
     </row>
-    <row r="484" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="18">
         <v>2</v>
       </c>
@@ -22086,7 +22087,7 @@
       <c r="J484" s="19"/>
       <c r="K484" s="19"/>
     </row>
-    <row r="485" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="18">
         <v>2</v>
       </c>
@@ -22115,7 +22116,7 @@
       <c r="J485" s="19"/>
       <c r="K485" s="19"/>
     </row>
-    <row r="486" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="18">
         <v>2</v>
       </c>
@@ -22146,7 +22147,7 @@
       <c r="J486" s="19"/>
       <c r="K486" s="19"/>
     </row>
-    <row r="487" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="18">
         <v>2</v>
       </c>
@@ -22175,7 +22176,7 @@
       <c r="J487" s="19"/>
       <c r="K487" s="19"/>
     </row>
-    <row r="488" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="18">
         <v>2</v>
       </c>
@@ -22206,7 +22207,7 @@
       <c r="J488" s="19"/>
       <c r="K488" s="19"/>
     </row>
-    <row r="489" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="18">
         <v>2</v>
       </c>
@@ -22235,7 +22236,7 @@
       <c r="J489" s="19"/>
       <c r="K489" s="19"/>
     </row>
-    <row r="490" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="18">
         <v>2</v>
       </c>
@@ -22264,7 +22265,7 @@
       <c r="J490" s="19"/>
       <c r="K490" s="19"/>
     </row>
-    <row r="491" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="18">
         <v>2</v>
       </c>
@@ -22295,7 +22296,7 @@
       <c r="J491" s="19"/>
       <c r="K491" s="19"/>
     </row>
-    <row r="492" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="18">
         <v>2</v>
       </c>
@@ -22326,7 +22327,7 @@
       <c r="J492" s="19"/>
       <c r="K492" s="19"/>
     </row>
-    <row r="493" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="18">
         <v>2</v>
       </c>
@@ -22355,7 +22356,7 @@
       <c r="J493" s="19"/>
       <c r="K493" s="19"/>
     </row>
-    <row r="494" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="18">
         <v>2</v>
       </c>
@@ -22384,7 +22385,7 @@
       <c r="J494" s="19"/>
       <c r="K494" s="19"/>
     </row>
-    <row r="495" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="18">
         <v>2</v>
       </c>
@@ -22413,7 +22414,7 @@
       <c r="J495" s="19"/>
       <c r="K495" s="19"/>
     </row>
-    <row r="496" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="18">
         <v>2</v>
       </c>
@@ -22442,7 +22443,7 @@
       <c r="J496" s="19"/>
       <c r="K496" s="19"/>
     </row>
-    <row r="497" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="18">
         <v>2</v>
       </c>
@@ -22473,7 +22474,7 @@
       <c r="J497" s="19"/>
       <c r="K497" s="19"/>
     </row>
-    <row r="498" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="18">
         <v>2</v>
       </c>
@@ -22504,7 +22505,7 @@
       <c r="J498" s="19"/>
       <c r="K498" s="19"/>
     </row>
-    <row r="499" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="18">
         <v>2</v>
       </c>
@@ -22535,7 +22536,7 @@
       <c r="J499" s="19"/>
       <c r="K499" s="19"/>
     </row>
-    <row r="500" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="18">
         <v>2</v>
       </c>
@@ -22566,7 +22567,7 @@
       <c r="J500" s="19"/>
       <c r="K500" s="19"/>
     </row>
-    <row r="501" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="18">
         <v>2</v>
       </c>
@@ -22597,7 +22598,7 @@
       <c r="J501" s="19"/>
       <c r="K501" s="19"/>
     </row>
-    <row r="502" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="18">
         <v>2</v>
       </c>
@@ -22628,7 +22629,7 @@
       <c r="J502" s="19"/>
       <c r="K502" s="19"/>
     </row>
-    <row r="503" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="18">
         <v>2</v>
       </c>
@@ -22657,7 +22658,7 @@
       <c r="J503" s="19"/>
       <c r="K503" s="19"/>
     </row>
-    <row r="504" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="18">
         <v>2</v>
       </c>
@@ -22686,7 +22687,7 @@
       <c r="J504" s="19"/>
       <c r="K504" s="19"/>
     </row>
-    <row r="505" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="18">
         <v>2</v>
       </c>
@@ -22715,7 +22716,7 @@
       <c r="J505" s="19"/>
       <c r="K505" s="19"/>
     </row>
-    <row r="506" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="18">
         <v>2</v>
       </c>
@@ -22746,7 +22747,7 @@
       <c r="J506" s="19"/>
       <c r="K506" s="19"/>
     </row>
-    <row r="507" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="18">
         <v>2</v>
       </c>
@@ -22773,7 +22774,7 @@
       <c r="J507" s="19"/>
       <c r="K507" s="19"/>
     </row>
-    <row r="508" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="18">
         <v>2</v>
       </c>
@@ -22800,7 +22801,7 @@
       <c r="J508" s="19"/>
       <c r="K508" s="19"/>
     </row>
-    <row r="509" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="18">
         <v>2</v>
       </c>
@@ -22827,7 +22828,7 @@
       <c r="J509" s="19"/>
       <c r="K509" s="19"/>
     </row>
-    <row r="510" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="18">
         <v>2</v>
       </c>
@@ -22856,7 +22857,7 @@
       <c r="J510" s="19"/>
       <c r="K510" s="19"/>
     </row>
-    <row r="511" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="18">
         <v>2</v>
       </c>
@@ -22883,7 +22884,7 @@
       <c r="J511" s="19"/>
       <c r="K511" s="19"/>
     </row>
-    <row r="512" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="18">
         <v>2</v>
       </c>
@@ -22910,7 +22911,7 @@
       <c r="J512" s="19"/>
       <c r="K512" s="19"/>
     </row>
-    <row r="513" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="18">
         <v>2</v>
       </c>
@@ -22939,7 +22940,7 @@
       <c r="J513" s="19"/>
       <c r="K513" s="19"/>
     </row>
-    <row r="514" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="18">
         <v>2</v>
       </c>
@@ -22968,7 +22969,7 @@
       <c r="J514" s="19"/>
       <c r="K514" s="19"/>
     </row>
-    <row r="515" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="18">
         <v>2</v>
       </c>
@@ -22997,7 +22998,7 @@
       <c r="J515" s="19"/>
       <c r="K515" s="19"/>
     </row>
-    <row r="516" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="18">
         <v>2</v>
       </c>
@@ -23026,7 +23027,7 @@
       <c r="J516" s="19"/>
       <c r="K516" s="19"/>
     </row>
-    <row r="517" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="18">
         <v>2</v>
       </c>
@@ -23053,7 +23054,7 @@
       <c r="J517" s="19"/>
       <c r="K517" s="19"/>
     </row>
-    <row r="518" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="18">
         <v>2</v>
       </c>
@@ -23080,7 +23081,7 @@
       <c r="J518" s="19"/>
       <c r="K518" s="19"/>
     </row>
-    <row r="519" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="18">
         <v>2</v>
       </c>
@@ -23107,7 +23108,7 @@
       <c r="J519" s="19"/>
       <c r="K519" s="19"/>
     </row>
-    <row r="520" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="18">
         <v>2</v>
       </c>
@@ -23134,7 +23135,7 @@
       <c r="J520" s="19"/>
       <c r="K520" s="19"/>
     </row>
-    <row r="521" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="18">
         <v>2</v>
       </c>
@@ -23161,7 +23162,7 @@
       <c r="J521" s="19"/>
       <c r="K521" s="19"/>
     </row>
-    <row r="522" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="18">
         <v>2</v>
       </c>
@@ -23188,7 +23189,7 @@
       <c r="J522" s="19"/>
       <c r="K522" s="19"/>
     </row>
-    <row r="523" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="18">
         <v>2</v>
       </c>
@@ -23215,7 +23216,7 @@
       <c r="J523" s="19"/>
       <c r="K523" s="19"/>
     </row>
-    <row r="524" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="18">
         <v>2</v>
       </c>
@@ -23246,7 +23247,7 @@
       <c r="J524" s="19"/>
       <c r="K524" s="19"/>
     </row>
-    <row r="525" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="18">
         <v>2</v>
       </c>
@@ -23275,7 +23276,7 @@
       <c r="J525" s="19"/>
       <c r="K525" s="19"/>
     </row>
-    <row r="526" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="18">
         <v>2</v>
       </c>
@@ -23306,7 +23307,7 @@
       <c r="J526" s="19"/>
       <c r="K526" s="19"/>
     </row>
-    <row r="527" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="18">
         <v>2</v>
       </c>
@@ -23333,7 +23334,7 @@
       <c r="J527" s="19"/>
       <c r="K527" s="19"/>
     </row>
-    <row r="528" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="18">
         <v>2</v>
       </c>
@@ -23360,7 +23361,7 @@
       <c r="J528" s="19"/>
       <c r="K528" s="19"/>
     </row>
-    <row r="529" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="18">
         <v>2</v>
       </c>
@@ -23389,7 +23390,7 @@
       <c r="J529" s="19"/>
       <c r="K529" s="19"/>
     </row>
-    <row r="530" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="18">
         <v>2</v>
       </c>
@@ -23418,7 +23419,7 @@
       <c r="J530" s="19"/>
       <c r="K530" s="19"/>
     </row>
-    <row r="531" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="18">
         <v>2</v>
       </c>
@@ -23447,7 +23448,7 @@
       <c r="J531" s="19"/>
       <c r="K531" s="19"/>
     </row>
-    <row r="532" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="18">
         <v>2</v>
       </c>
@@ -23480,7 +23481,7 @@
       </c>
       <c r="K532" s="19"/>
     </row>
-    <row r="533" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="18">
         <v>2</v>
       </c>
@@ -23513,7 +23514,7 @@
       </c>
       <c r="K533" s="19"/>
     </row>
-    <row r="534" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="18">
         <v>2</v>
       </c>
@@ -23542,7 +23543,7 @@
       <c r="J534" s="19"/>
       <c r="K534" s="19"/>
     </row>
-    <row r="535" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="18">
         <v>2</v>
       </c>
@@ -23569,7 +23570,7 @@
       <c r="J535" s="19"/>
       <c r="K535" s="19"/>
     </row>
-    <row r="536" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="18">
         <v>2</v>
       </c>
@@ -23596,7 +23597,7 @@
       <c r="J536" s="19"/>
       <c r="K536" s="19"/>
     </row>
-    <row r="537" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="18">
         <v>2</v>
       </c>
@@ -23623,7 +23624,7 @@
       <c r="J537" s="19"/>
       <c r="K537" s="19"/>
     </row>
-    <row r="538" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="18">
         <v>2</v>
       </c>
@@ -23652,7 +23653,7 @@
       <c r="J538" s="19"/>
       <c r="K538" s="19"/>
     </row>
-    <row r="539" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="18">
         <v>2</v>
       </c>
@@ -23681,7 +23682,7 @@
       <c r="J539" s="19"/>
       <c r="K539" s="19"/>
     </row>
-    <row r="540" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="18">
         <v>2</v>
       </c>
@@ -23708,7 +23709,7 @@
       <c r="J540" s="19"/>
       <c r="K540" s="19"/>
     </row>
-    <row r="541" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="18">
         <v>2</v>
       </c>
@@ -23735,7 +23736,7 @@
       <c r="J541" s="19"/>
       <c r="K541" s="19"/>
     </row>
-    <row r="542" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="18">
         <v>2</v>
       </c>
@@ -23764,7 +23765,7 @@
       <c r="J542" s="19"/>
       <c r="K542" s="19"/>
     </row>
-    <row r="543" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="18">
         <v>2</v>
       </c>
@@ -23791,7 +23792,7 @@
       <c r="J543" s="19"/>
       <c r="K543" s="19"/>
     </row>
-    <row r="544" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="18">
         <v>2</v>
       </c>
@@ -23818,7 +23819,7 @@
       <c r="J544" s="19"/>
       <c r="K544" s="19"/>
     </row>
-    <row r="545" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="18">
         <v>2</v>
       </c>
@@ -23845,7 +23846,7 @@
       <c r="J545" s="19"/>
       <c r="K545" s="19"/>
     </row>
-    <row r="546" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="18">
         <v>2</v>
       </c>
@@ -23872,7 +23873,7 @@
       <c r="J546" s="19"/>
       <c r="K546" s="19"/>
     </row>
-    <row r="547" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="18">
         <v>2</v>
       </c>
@@ -23899,7 +23900,7 @@
       <c r="J547" s="19"/>
       <c r="K547" s="19"/>
     </row>
-    <row r="548" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="18">
         <v>2</v>
       </c>
@@ -23926,7 +23927,7 @@
       <c r="J548" s="19"/>
       <c r="K548" s="19"/>
     </row>
-    <row r="549" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="18">
         <v>2</v>
       </c>
@@ -23953,7 +23954,7 @@
       <c r="J549" s="19"/>
       <c r="K549" s="19"/>
     </row>
-    <row r="550" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="18">
         <v>2</v>
       </c>
@@ -23980,7 +23981,7 @@
       <c r="J550" s="19"/>
       <c r="K550" s="19"/>
     </row>
-    <row r="551" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="18">
         <v>2</v>
       </c>
@@ -24007,7 +24008,7 @@
       <c r="J551" s="19"/>
       <c r="K551" s="19"/>
     </row>
-    <row r="552" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="18">
         <v>2</v>
       </c>
@@ -24034,7 +24035,7 @@
       <c r="J552" s="19"/>
       <c r="K552" s="19"/>
     </row>
-    <row r="553" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="18">
         <v>2</v>
       </c>
@@ -24065,7 +24066,7 @@
       <c r="J553" s="19"/>
       <c r="K553" s="19"/>
     </row>
-    <row r="554" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="18">
         <v>2</v>
       </c>
@@ -24092,7 +24093,7 @@
       <c r="J554" s="19"/>
       <c r="K554" s="19"/>
     </row>
-    <row r="555" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="18">
         <v>2</v>
       </c>
@@ -24125,7 +24126,7 @@
       </c>
       <c r="K555" s="19"/>
     </row>
-    <row r="556" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="18">
         <v>2</v>
       </c>
@@ -24160,7 +24161,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="557" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="18">
         <v>2</v>
       </c>
@@ -24195,7 +24196,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="558" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="18">
         <v>2</v>
       </c>
@@ -24230,7 +24231,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="559" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="18">
         <v>2</v>
       </c>
@@ -24261,7 +24262,7 @@
       <c r="J559" s="19"/>
       <c r="K559" s="19"/>
     </row>
-    <row r="560" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="18">
         <v>2</v>
       </c>
@@ -24292,7 +24293,7 @@
       <c r="J560" s="19"/>
       <c r="K560" s="19"/>
     </row>
-    <row r="561" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="18">
         <v>2</v>
       </c>
@@ -24323,7 +24324,7 @@
       <c r="J561" s="19"/>
       <c r="K561" s="19"/>
     </row>
-    <row r="562" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="18">
         <v>2</v>
       </c>
@@ -24354,7 +24355,7 @@
       <c r="J562" s="19"/>
       <c r="K562" s="19"/>
     </row>
-    <row r="563" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="18">
         <v>2</v>
       </c>
@@ -24385,7 +24386,7 @@
       <c r="J563" s="19"/>
       <c r="K563" s="19"/>
     </row>
-    <row r="564" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="18">
         <v>2</v>
       </c>
@@ -24416,7 +24417,7 @@
       <c r="J564" s="19"/>
       <c r="K564" s="19"/>
     </row>
-    <row r="565" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="18">
         <v>2</v>
       </c>
@@ -24443,7 +24444,7 @@
       <c r="J565" s="19"/>
       <c r="K565" s="19"/>
     </row>
-    <row r="566" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="18">
         <v>2</v>
       </c>
@@ -24470,7 +24471,7 @@
       <c r="J566" s="19"/>
       <c r="K566" s="19"/>
     </row>
-    <row r="567" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="18">
         <v>2</v>
       </c>
@@ -24497,7 +24498,7 @@
       <c r="J567" s="19"/>
       <c r="K567" s="19"/>
     </row>
-    <row r="568" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="18">
         <v>2</v>
       </c>
@@ -24524,7 +24525,7 @@
       <c r="J568" s="19"/>
       <c r="K568" s="19"/>
     </row>
-    <row r="569" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="18">
         <v>2</v>
       </c>
@@ -24555,7 +24556,7 @@
       <c r="J569" s="19"/>
       <c r="K569" s="19"/>
     </row>
-    <row r="570" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="18">
         <v>2</v>
       </c>
@@ -24586,7 +24587,7 @@
       <c r="J570" s="19"/>
       <c r="K570" s="19"/>
     </row>
-    <row r="571" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="18">
         <v>2</v>
       </c>
@@ -24615,7 +24616,7 @@
       <c r="J571" s="19"/>
       <c r="K571" s="19"/>
     </row>
-    <row r="572" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="18">
         <v>2</v>
       </c>
@@ -24642,7 +24643,7 @@
       <c r="J572" s="19"/>
       <c r="K572" s="19"/>
     </row>
-    <row r="573" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="18">
         <v>2</v>
       </c>
@@ -24669,7 +24670,7 @@
       <c r="J573" s="19"/>
       <c r="K573" s="19"/>
     </row>
-    <row r="574" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="18">
         <v>2</v>
       </c>
@@ -24696,7 +24697,7 @@
       <c r="J574" s="19"/>
       <c r="K574" s="19"/>
     </row>
-    <row r="575" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="18">
         <v>2</v>
       </c>
@@ -24723,7 +24724,7 @@
       <c r="J575" s="19"/>
       <c r="K575" s="19"/>
     </row>
-    <row r="576" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="18">
         <v>2</v>
       </c>
@@ -24750,7 +24751,7 @@
       <c r="J576" s="19"/>
       <c r="K576" s="19"/>
     </row>
-    <row r="577" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="18">
         <v>2</v>
       </c>
@@ -24777,7 +24778,7 @@
       <c r="J577" s="19"/>
       <c r="K577" s="19"/>
     </row>
-    <row r="578" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="18">
         <v>2</v>
       </c>
@@ -24804,7 +24805,7 @@
       <c r="J578" s="19"/>
       <c r="K578" s="19"/>
     </row>
-    <row r="579" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="18">
         <v>2</v>
       </c>
@@ -24831,7 +24832,7 @@
       <c r="J579" s="19"/>
       <c r="K579" s="19"/>
     </row>
-    <row r="580" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="18">
         <v>2</v>
       </c>
@@ -24862,7 +24863,7 @@
       <c r="J580" s="19"/>
       <c r="K580" s="19"/>
     </row>
-    <row r="581" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="18">
         <v>2</v>
       </c>
@@ -24889,7 +24890,7 @@
       <c r="J581" s="19"/>
       <c r="K581" s="19"/>
     </row>
-    <row r="582" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="18">
         <v>2</v>
       </c>
@@ -24916,7 +24917,7 @@
       <c r="J582" s="19"/>
       <c r="K582" s="19"/>
     </row>
-    <row r="583" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="18">
         <v>2</v>
       </c>
@@ -24943,7 +24944,7 @@
       <c r="J583" s="19"/>
       <c r="K583" s="19"/>
     </row>
-    <row r="584" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="18">
         <v>2</v>
       </c>
@@ -24970,7 +24971,7 @@
       <c r="J584" s="19"/>
       <c r="K584" s="19"/>
     </row>
-    <row r="585" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="18">
         <v>2</v>
       </c>
@@ -24997,7 +24998,7 @@
       <c r="J585" s="19"/>
       <c r="K585" s="19"/>
     </row>
-    <row r="586" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="18">
         <v>2</v>
       </c>
@@ -25024,7 +25025,7 @@
       <c r="J586" s="19"/>
       <c r="K586" s="19"/>
     </row>
-    <row r="587" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="18">
         <v>2</v>
       </c>
@@ -25051,7 +25052,7 @@
       <c r="J587" s="19"/>
       <c r="K587" s="19"/>
     </row>
-    <row r="588" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="18">
         <v>2</v>
       </c>
@@ -25078,7 +25079,7 @@
       <c r="J588" s="19"/>
       <c r="K588" s="19"/>
     </row>
-    <row r="589" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="18">
         <v>2</v>
       </c>
@@ -25105,7 +25106,7 @@
       <c r="J589" s="19"/>
       <c r="K589" s="19"/>
     </row>
-    <row r="590" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="18">
         <v>2</v>
       </c>
@@ -25132,7 +25133,7 @@
       <c r="J590" s="19"/>
       <c r="K590" s="19"/>
     </row>
-    <row r="591" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="18">
         <v>2</v>
       </c>
@@ -25159,7 +25160,7 @@
       <c r="J591" s="19"/>
       <c r="K591" s="19"/>
     </row>
-    <row r="592" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="18">
         <v>2</v>
       </c>
@@ -25190,7 +25191,7 @@
       <c r="J592" s="19"/>
       <c r="K592" s="19"/>
     </row>
-    <row r="593" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="18">
         <v>2</v>
       </c>
@@ -25217,7 +25218,7 @@
       <c r="J593" s="19"/>
       <c r="K593" s="19"/>
     </row>
-    <row r="594" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="18">
         <v>2</v>
       </c>
@@ -25244,7 +25245,7 @@
       <c r="J594" s="19"/>
       <c r="K594" s="19"/>
     </row>
-    <row r="595" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="18">
         <v>2</v>
       </c>
@@ -25271,7 +25272,7 @@
       <c r="J595" s="19"/>
       <c r="K595" s="19"/>
     </row>
-    <row r="596" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="18">
         <v>2</v>
       </c>
@@ -25300,7 +25301,7 @@
       <c r="J596" s="19"/>
       <c r="K596" s="19"/>
     </row>
-    <row r="597" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="18">
         <v>2</v>
       </c>
@@ -25329,7 +25330,7 @@
       <c r="J597" s="19"/>
       <c r="K597" s="19"/>
     </row>
-    <row r="598" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="18">
         <v>2</v>
       </c>
@@ -25356,7 +25357,7 @@
       <c r="J598" s="19"/>
       <c r="K598" s="19"/>
     </row>
-    <row r="599" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="18">
         <v>2</v>
       </c>
@@ -25383,7 +25384,7 @@
       <c r="J599" s="19"/>
       <c r="K599" s="19"/>
     </row>
-    <row r="600" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="18">
         <v>2</v>
       </c>
@@ -25412,7 +25413,7 @@
       <c r="J600" s="19"/>
       <c r="K600" s="19"/>
     </row>
-    <row r="601" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="18">
         <v>2</v>
       </c>
@@ -25439,7 +25440,7 @@
       <c r="J601" s="19"/>
       <c r="K601" s="19"/>
     </row>
-    <row r="602" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="18">
         <v>4</v>
       </c>
@@ -25466,7 +25467,7 @@
       <c r="J602" s="19"/>
       <c r="K602" s="19"/>
     </row>
-    <row r="603" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="18">
         <v>4</v>
       </c>
@@ -25495,7 +25496,7 @@
       <c r="J603" s="19"/>
       <c r="K603" s="19"/>
     </row>
-    <row r="604" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="18">
         <v>4</v>
       </c>
@@ -25522,7 +25523,7 @@
       <c r="J604" s="19"/>
       <c r="K604" s="19"/>
     </row>
-    <row r="605" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="18">
         <v>4</v>
       </c>
@@ -25553,7 +25554,7 @@
       <c r="J605" s="19"/>
       <c r="K605" s="19"/>
     </row>
-    <row r="606" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="18">
         <v>4</v>
       </c>
@@ -25584,7 +25585,7 @@
       <c r="J606" s="19"/>
       <c r="K606" s="19"/>
     </row>
-    <row r="607" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="18">
         <v>4</v>
       </c>
@@ -25613,7 +25614,7 @@
       <c r="J607" s="19"/>
       <c r="K607" s="19"/>
     </row>
-    <row r="608" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="18">
         <v>4</v>
       </c>
@@ -25640,7 +25641,7 @@
       <c r="J608" s="19"/>
       <c r="K608" s="19"/>
     </row>
-    <row r="609" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="18">
         <v>4</v>
       </c>
@@ -25667,7 +25668,7 @@
       <c r="J609" s="19"/>
       <c r="K609" s="19"/>
     </row>
-    <row r="610" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="18">
         <v>4</v>
       </c>
@@ -25696,7 +25697,7 @@
       <c r="J610" s="19"/>
       <c r="K610" s="19"/>
     </row>
-    <row r="611" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="18">
         <v>4</v>
       </c>
@@ -25725,7 +25726,7 @@
       <c r="J611" s="19"/>
       <c r="K611" s="19"/>
     </row>
-    <row r="612" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="18">
         <v>4</v>
       </c>
@@ -25754,7 +25755,7 @@
       <c r="J612" s="19"/>
       <c r="K612" s="19"/>
     </row>
-    <row r="613" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="18">
         <v>4</v>
       </c>
@@ -25783,7 +25784,7 @@
       <c r="J613" s="19"/>
       <c r="K613" s="19"/>
     </row>
-    <row r="614" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="18">
         <v>4</v>
       </c>
@@ -25812,7 +25813,7 @@
       <c r="J614" s="19"/>
       <c r="K614" s="19"/>
     </row>
-    <row r="615" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="18">
         <v>4</v>
       </c>
@@ -25841,7 +25842,7 @@
       <c r="J615" s="19"/>
       <c r="K615" s="19"/>
     </row>
-    <row r="616" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="18">
         <v>4</v>
       </c>
@@ -25870,7 +25871,7 @@
       <c r="J616" s="19"/>
       <c r="K616" s="19"/>
     </row>
-    <row r="617" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="18">
         <v>4</v>
       </c>
@@ -25899,7 +25900,7 @@
       <c r="J617" s="19"/>
       <c r="K617" s="19"/>
     </row>
-    <row r="618" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="18">
         <v>4</v>
       </c>
@@ -25926,7 +25927,7 @@
       <c r="J618" s="19"/>
       <c r="K618" s="19"/>
     </row>
-    <row r="619" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="18">
         <v>4</v>
       </c>
@@ -25959,7 +25960,7 @@
       </c>
       <c r="K619" s="19"/>
     </row>
-    <row r="620" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="18">
         <v>4</v>
       </c>
@@ -25990,7 +25991,7 @@
       <c r="J620" s="19"/>
       <c r="K620" s="19"/>
     </row>
-    <row r="621" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="18">
         <v>4</v>
       </c>
@@ -26021,7 +26022,7 @@
       <c r="J621" s="19"/>
       <c r="K621" s="19"/>
     </row>
-    <row r="622" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="18">
         <v>4</v>
       </c>
@@ -26048,7 +26049,7 @@
       <c r="J622" s="19"/>
       <c r="K622" s="19"/>
     </row>
-    <row r="623" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="18">
         <v>4</v>
       </c>
@@ -26075,7 +26076,7 @@
       <c r="J623" s="19"/>
       <c r="K623" s="19"/>
     </row>
-    <row r="624" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="18">
         <v>4</v>
       </c>
@@ -26102,7 +26103,7 @@
       <c r="J624" s="19"/>
       <c r="K624" s="19"/>
     </row>
-    <row r="625" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="18">
         <v>4</v>
       </c>
@@ -26129,7 +26130,7 @@
       <c r="J625" s="19"/>
       <c r="K625" s="19"/>
     </row>
-    <row r="626" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="18">
         <v>4</v>
       </c>
@@ -26156,7 +26157,7 @@
       <c r="J626" s="19"/>
       <c r="K626" s="19"/>
     </row>
-    <row r="627" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="18">
         <v>4</v>
       </c>
@@ -26183,7 +26184,7 @@
       <c r="J627" s="19"/>
       <c r="K627" s="19"/>
     </row>
-    <row r="628" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="18">
         <v>4</v>
       </c>
@@ -26210,7 +26211,7 @@
       <c r="J628" s="19"/>
       <c r="K628" s="19"/>
     </row>
-    <row r="629" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="18">
         <v>4</v>
       </c>
@@ -26237,7 +26238,7 @@
       <c r="J629" s="19"/>
       <c r="K629" s="19"/>
     </row>
-    <row r="630" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="18">
         <v>4</v>
       </c>
@@ -26264,7 +26265,7 @@
       <c r="J630" s="19"/>
       <c r="K630" s="19"/>
     </row>
-    <row r="631" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="18">
         <v>4</v>
       </c>
@@ -26291,7 +26292,7 @@
       <c r="J631" s="19"/>
       <c r="K631" s="19"/>
     </row>
-    <row r="632" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="18">
         <v>4</v>
       </c>
@@ -26318,7 +26319,7 @@
       <c r="J632" s="19"/>
       <c r="K632" s="19"/>
     </row>
-    <row r="633" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="18">
         <v>4</v>
       </c>
@@ -26345,7 +26346,7 @@
       <c r="J633" s="19"/>
       <c r="K633" s="19"/>
     </row>
-    <row r="634" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="18">
         <v>4</v>
       </c>
@@ -26372,7 +26373,7 @@
       <c r="J634" s="19"/>
       <c r="K634" s="19"/>
     </row>
-    <row r="635" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="18">
         <v>4</v>
       </c>
@@ -26399,7 +26400,7 @@
       <c r="J635" s="19"/>
       <c r="K635" s="19"/>
     </row>
-    <row r="636" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="18">
         <v>4</v>
       </c>
@@ -26426,7 +26427,7 @@
       <c r="J636" s="19"/>
       <c r="K636" s="19"/>
     </row>
-    <row r="637" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="18">
         <v>4</v>
       </c>
@@ -26453,7 +26454,7 @@
       <c r="J637" s="19"/>
       <c r="K637" s="19"/>
     </row>
-    <row r="638" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="18">
         <v>4</v>
       </c>
@@ -26480,7 +26481,7 @@
       <c r="J638" s="19"/>
       <c r="K638" s="19"/>
     </row>
-    <row r="639" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="18">
         <v>4</v>
       </c>
@@ -26507,7 +26508,7 @@
       <c r="J639" s="19"/>
       <c r="K639" s="19"/>
     </row>
-    <row r="640" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="18">
         <v>4</v>
       </c>
@@ -26536,7 +26537,7 @@
       <c r="J640" s="19"/>
       <c r="K640" s="19"/>
     </row>
-    <row r="641" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="18">
         <v>4</v>
       </c>
@@ -26565,7 +26566,7 @@
       <c r="J641" s="19"/>
       <c r="K641" s="19"/>
     </row>
-    <row r="642" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="18">
         <v>4</v>
       </c>
@@ -26594,7 +26595,7 @@
       <c r="J642" s="19"/>
       <c r="K642" s="19"/>
     </row>
-    <row r="643" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="18">
         <v>4</v>
       </c>
@@ -26623,7 +26624,7 @@
       <c r="J643" s="19"/>
       <c r="K643" s="19"/>
     </row>
-    <row r="644" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="18">
         <v>4</v>
       </c>
@@ -26652,7 +26653,7 @@
       <c r="J644" s="19"/>
       <c r="K644" s="19"/>
     </row>
-    <row r="645" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="18">
         <v>4</v>
       </c>
@@ -26683,7 +26684,7 @@
       <c r="J645" s="19"/>
       <c r="K645" s="19"/>
     </row>
-    <row r="646" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="18">
         <v>4</v>
       </c>
@@ -26712,7 +26713,7 @@
       <c r="J646" s="19"/>
       <c r="K646" s="19"/>
     </row>
-    <row r="647" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="18">
         <v>4</v>
       </c>
@@ -26741,7 +26742,7 @@
       <c r="J647" s="19"/>
       <c r="K647" s="19"/>
     </row>
-    <row r="648" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="18">
         <v>4</v>
       </c>
@@ -26770,7 +26771,7 @@
       <c r="J648" s="19"/>
       <c r="K648" s="19"/>
     </row>
-    <row r="649" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="18">
         <v>4</v>
       </c>
@@ -26799,7 +26800,7 @@
       <c r="J649" s="19"/>
       <c r="K649" s="19"/>
     </row>
-    <row r="650" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="18">
         <v>4</v>
       </c>
@@ -26828,7 +26829,7 @@
       <c r="J650" s="19"/>
       <c r="K650" s="19"/>
     </row>
-    <row r="651" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="18">
         <v>4</v>
       </c>
@@ -26857,7 +26858,7 @@
       <c r="J651" s="19"/>
       <c r="K651" s="19"/>
     </row>
-    <row r="652" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="18">
         <v>4</v>
       </c>
@@ -26886,7 +26887,7 @@
       <c r="J652" s="19"/>
       <c r="K652" s="19"/>
     </row>
-    <row r="653" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="18">
         <v>4</v>
       </c>
@@ -26915,7 +26916,7 @@
       <c r="J653" s="19"/>
       <c r="K653" s="19"/>
     </row>
-    <row r="654" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="18">
         <v>4</v>
       </c>
@@ -26944,7 +26945,7 @@
       <c r="J654" s="19"/>
       <c r="K654" s="19"/>
     </row>
-    <row r="655" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="18">
         <v>4</v>
       </c>
@@ -26973,7 +26974,7 @@
       <c r="J655" s="19"/>
       <c r="K655" s="19"/>
     </row>
-    <row r="656" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="18">
         <v>4</v>
       </c>
@@ -27002,7 +27003,7 @@
       <c r="J656" s="19"/>
       <c r="K656" s="19"/>
     </row>
-    <row r="657" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="18">
         <v>4</v>
       </c>
@@ -27031,7 +27032,7 @@
       <c r="J657" s="19"/>
       <c r="K657" s="19"/>
     </row>
-    <row r="658" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="18">
         <v>4</v>
       </c>
@@ -27060,7 +27061,7 @@
       <c r="J658" s="19"/>
       <c r="K658" s="19"/>
     </row>
-    <row r="659" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="18">
         <v>4</v>
       </c>
@@ -27089,7 +27090,7 @@
       <c r="J659" s="19"/>
       <c r="K659" s="19"/>
     </row>
-    <row r="660" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="18">
         <v>4</v>
       </c>
@@ -27118,7 +27119,7 @@
       <c r="J660" s="19"/>
       <c r="K660" s="19"/>
     </row>
-    <row r="661" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="18">
         <v>4</v>
       </c>
@@ -27147,7 +27148,7 @@
       <c r="J661" s="19"/>
       <c r="K661" s="19"/>
     </row>
-    <row r="662" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="18">
         <v>4</v>
       </c>
@@ -27178,7 +27179,7 @@
       <c r="J662" s="19"/>
       <c r="K662" s="19"/>
     </row>
-    <row r="663" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="18">
         <v>4</v>
       </c>
@@ -27207,7 +27208,7 @@
       <c r="J663" s="19"/>
       <c r="K663" s="19"/>
     </row>
-    <row r="664" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="18">
         <v>4</v>
       </c>
@@ -27238,7 +27239,7 @@
       <c r="J664" s="19"/>
       <c r="K664" s="19"/>
     </row>
-    <row r="665" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="18">
         <v>4</v>
       </c>
@@ -27269,7 +27270,7 @@
       <c r="J665" s="19"/>
       <c r="K665" s="19"/>
     </row>
-    <row r="666" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="12">
         <v>2</v>
       </c>
@@ -27296,7 +27297,7 @@
       <c r="J666" s="10"/>
       <c r="K666" s="10"/>
     </row>
-    <row r="667" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="12">
         <v>2</v>
       </c>
@@ -27323,7 +27324,7 @@
       <c r="J667" s="10"/>
       <c r="K667" s="10"/>
     </row>
-    <row r="668" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="12">
         <v>2</v>
       </c>
@@ -27350,7 +27351,7 @@
       <c r="J668" s="10"/>
       <c r="K668" s="10"/>
     </row>
-    <row r="669" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="12">
         <v>2</v>
       </c>
@@ -27377,7 +27378,7 @@
       <c r="J669" s="10"/>
       <c r="K669" s="10"/>
     </row>
-    <row r="670" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="12">
         <v>2</v>
       </c>
@@ -27404,7 +27405,7 @@
       <c r="J670" s="10"/>
       <c r="K670" s="10"/>
     </row>
-    <row r="671" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="12">
         <v>2</v>
       </c>
@@ -27431,7 +27432,7 @@
       <c r="J671" s="10"/>
       <c r="K671" s="10"/>
     </row>
-    <row r="672" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="12">
         <v>2</v>
       </c>
@@ -27458,7 +27459,7 @@
       <c r="J672" s="10"/>
       <c r="K672" s="10"/>
     </row>
-    <row r="673" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="12">
         <v>2</v>
       </c>
@@ -27485,7 +27486,7 @@
       <c r="J673" s="10"/>
       <c r="K673" s="10"/>
     </row>
-    <row r="674" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="12">
         <v>2</v>
       </c>
@@ -27512,7 +27513,7 @@
       <c r="J674" s="10"/>
       <c r="K674" s="10"/>
     </row>
-    <row r="675" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="12">
         <v>2</v>
       </c>
@@ -27539,7 +27540,7 @@
       <c r="J675" s="10"/>
       <c r="K675" s="10"/>
     </row>
-    <row r="676" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="12">
         <v>2</v>
       </c>
@@ -27566,7 +27567,7 @@
       <c r="J676" s="10"/>
       <c r="K676" s="10"/>
     </row>
-    <row r="677" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="12">
         <v>5</v>
       </c>
@@ -27593,7 +27594,7 @@
       <c r="J677" s="10"/>
       <c r="K677" s="10"/>
     </row>
-    <row r="678" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="12">
         <v>2</v>
       </c>
@@ -27620,7 +27621,7 @@
       <c r="J678" s="10"/>
       <c r="K678" s="10"/>
     </row>
-    <row r="679" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="12">
         <v>2</v>
       </c>
@@ -27647,7 +27648,7 @@
       <c r="J679" s="10"/>
       <c r="K679" s="10"/>
     </row>
-    <row r="680" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="12">
         <v>2</v>
       </c>
@@ -27674,7 +27675,7 @@
       <c r="J680" s="10"/>
       <c r="K680" s="10"/>
     </row>
-    <row r="681" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="12">
         <v>2</v>
       </c>
@@ -27701,7 +27702,7 @@
       <c r="J681" s="10"/>
       <c r="K681" s="10"/>
     </row>
-    <row r="682" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="12">
         <v>5</v>
       </c>
@@ -27728,7 +27729,7 @@
       <c r="J682" s="10"/>
       <c r="K682" s="10"/>
     </row>
-    <row r="683" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="12">
         <v>2</v>
       </c>
@@ -27755,7 +27756,7 @@
       <c r="J683" s="10"/>
       <c r="K683" s="10"/>
     </row>
-    <row r="684" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="12">
         <v>2</v>
       </c>
@@ -27782,7 +27783,7 @@
       <c r="J684" s="10"/>
       <c r="K684" s="10"/>
     </row>
-    <row r="685" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="12">
         <v>2</v>
       </c>
@@ -27809,7 +27810,7 @@
       <c r="J685" s="10"/>
       <c r="K685" s="10"/>
     </row>
-    <row r="686" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="12">
         <v>5</v>
       </c>
@@ -27836,7 +27837,7 @@
       <c r="J686" s="10"/>
       <c r="K686" s="10"/>
     </row>
-    <row r="687" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="12">
         <v>2</v>
       </c>
@@ -27863,7 +27864,7 @@
       <c r="J687" s="10"/>
       <c r="K687" s="10"/>
     </row>
-    <row r="688" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="12">
         <v>2</v>
       </c>
@@ -27890,7 +27891,7 @@
       <c r="J688" s="10"/>
       <c r="K688" s="10"/>
     </row>
-    <row r="689" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="12">
         <v>2</v>
       </c>
@@ -27917,7 +27918,7 @@
       <c r="J689" s="10"/>
       <c r="K689" s="10"/>
     </row>
-    <row r="690" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="12">
         <v>2</v>
       </c>
@@ -27944,7 +27945,7 @@
       <c r="J690" s="10"/>
       <c r="K690" s="10"/>
     </row>
-    <row r="691" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="12">
         <v>5</v>
       </c>
@@ -27971,7 +27972,7 @@
       <c r="J691" s="10"/>
       <c r="K691" s="10"/>
     </row>
-    <row r="692" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="12">
         <v>2</v>
       </c>
@@ -27998,7 +27999,7 @@
       <c r="J692" s="10"/>
       <c r="K692" s="10"/>
     </row>
-    <row r="693" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="12">
         <v>2</v>
       </c>
@@ -28025,7 +28026,7 @@
       <c r="J693" s="10"/>
       <c r="K693" s="10"/>
     </row>
-    <row r="694" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="12">
         <v>5</v>
       </c>
@@ -28052,7 +28053,7 @@
       <c r="J694" s="10"/>
       <c r="K694" s="10"/>
     </row>
-    <row r="695" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="12">
         <v>2</v>
       </c>
@@ -28079,7 +28080,7 @@
       <c r="J695" s="10"/>
       <c r="K695" s="10"/>
     </row>
-    <row r="696" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="12">
         <v>5</v>
       </c>
@@ -28106,7 +28107,7 @@
       <c r="J696" s="10"/>
       <c r="K696" s="10"/>
     </row>
-    <row r="697" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="12">
         <v>2</v>
       </c>
@@ -28133,7 +28134,7 @@
       <c r="J697" s="10"/>
       <c r="K697" s="10"/>
     </row>
-    <row r="698" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="12">
         <v>5</v>
       </c>
@@ -28160,7 +28161,7 @@
       <c r="J698" s="10"/>
       <c r="K698" s="10"/>
     </row>
-    <row r="699" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="12">
         <v>2</v>
       </c>
@@ -28187,7 +28188,7 @@
       <c r="J699" s="10"/>
       <c r="K699" s="10"/>
     </row>
-    <row r="700" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="12">
         <v>5</v>
       </c>
@@ -28214,7 +28215,7 @@
       <c r="J700" s="10"/>
       <c r="K700" s="10"/>
     </row>
-    <row r="701" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="12">
         <v>2</v>
       </c>
@@ -28241,7 +28242,7 @@
       <c r="J701" s="10"/>
       <c r="K701" s="10"/>
     </row>
-    <row r="702" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="12">
         <v>5</v>
       </c>
@@ -28268,7 +28269,7 @@
       <c r="J702" s="10"/>
       <c r="K702" s="10"/>
     </row>
-    <row r="703" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="12">
         <v>2</v>
       </c>
@@ -28295,7 +28296,7 @@
       <c r="J703" s="10"/>
       <c r="K703" s="10"/>
     </row>
-    <row r="704" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="12">
         <v>5</v>
       </c>
@@ -28322,7 +28323,7 @@
       <c r="J704" s="10"/>
       <c r="K704" s="10"/>
     </row>
-    <row r="705" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="12">
         <v>5</v>
       </c>
@@ -28349,7 +28350,7 @@
       <c r="J705" s="10"/>
       <c r="K705" s="10"/>
     </row>
-    <row r="706" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="12">
         <v>5</v>
       </c>
@@ -28376,7 +28377,7 @@
       <c r="J706" s="10"/>
       <c r="K706" s="10"/>
     </row>
-    <row r="707" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="12">
         <v>2</v>
       </c>
@@ -28403,7 +28404,7 @@
       <c r="J707" s="10"/>
       <c r="K707" s="10"/>
     </row>
-    <row r="708" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="12">
         <v>5</v>
       </c>
@@ -28430,7 +28431,7 @@
       <c r="J708" s="10"/>
       <c r="K708" s="10"/>
     </row>
-    <row r="709" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="12">
         <v>8</v>
       </c>
@@ -28457,7 +28458,7 @@
       <c r="J709" s="10"/>
       <c r="K709" s="10"/>
     </row>
-    <row r="710" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="12">
         <v>8</v>
       </c>
@@ -28484,7 +28485,7 @@
       <c r="J710" s="10"/>
       <c r="K710" s="10"/>
     </row>
-    <row r="711" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="12">
         <v>8</v>
       </c>
@@ -28511,7 +28512,7 @@
       <c r="J711" s="10"/>
       <c r="K711" s="10"/>
     </row>
-    <row r="712" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="12">
         <v>8</v>
       </c>
@@ -28538,7 +28539,7 @@
       <c r="J712" s="10"/>
       <c r="K712" s="10"/>
     </row>
-    <row r="713" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="12">
         <v>8</v>
       </c>
@@ -28565,7 +28566,7 @@
       <c r="J713" s="10"/>
       <c r="K713" s="10"/>
     </row>
-    <row r="714" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="12">
         <v>8</v>
       </c>
@@ -28592,7 +28593,7 @@
       <c r="J714" s="10"/>
       <c r="K714" s="10"/>
     </row>
-    <row r="715" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="12">
         <v>8</v>
       </c>
@@ -28619,7 +28620,7 @@
       <c r="J715" s="10"/>
       <c r="K715" s="10"/>
     </row>
-    <row r="716" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="12">
         <v>8</v>
       </c>
@@ -28646,7 +28647,7 @@
       <c r="J716" s="10"/>
       <c r="K716" s="10"/>
     </row>
-    <row r="717" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="12">
         <v>8</v>
       </c>
@@ -28673,7 +28674,7 @@
       <c r="J717" s="10"/>
       <c r="K717" s="10"/>
     </row>
-    <row r="718" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="12">
         <v>8</v>
       </c>
@@ -28700,7 +28701,7 @@
       <c r="J718" s="10"/>
       <c r="K718" s="10"/>
     </row>
-    <row r="719" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="12">
         <v>8</v>
       </c>
@@ -28727,7 +28728,7 @@
       <c r="J719" s="10"/>
       <c r="K719" s="10"/>
     </row>
-    <row r="720" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="18">
         <v>6</v>
       </c>
@@ -28754,7 +28755,7 @@
       <c r="J720" s="19"/>
       <c r="K720" s="19"/>
     </row>
-    <row r="721" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="12">
         <v>8</v>
       </c>
@@ -28781,7 +28782,7 @@
       <c r="J721" s="10"/>
       <c r="K721" s="10"/>
     </row>
-    <row r="722" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="12">
         <v>8</v>
       </c>
@@ -28808,7 +28809,7 @@
       <c r="J722" s="10"/>
       <c r="K722" s="10"/>
     </row>
-    <row r="723" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="12">
         <v>8</v>
       </c>
@@ -28835,7 +28836,7 @@
       <c r="J723" s="10"/>
       <c r="K723" s="10"/>
     </row>
-    <row r="724" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="12">
         <v>8</v>
       </c>
@@ -28862,7 +28863,7 @@
       <c r="J724" s="10"/>
       <c r="K724" s="10"/>
     </row>
-    <row r="725" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="12">
         <v>8</v>
       </c>
@@ -28889,7 +28890,7 @@
       <c r="J725" s="10"/>
       <c r="K725" s="10"/>
     </row>
-    <row r="726" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="18">
         <v>6</v>
       </c>
@@ -28916,7 +28917,7 @@
       <c r="J726" s="19"/>
       <c r="K726" s="19"/>
     </row>
-    <row r="727" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="12">
         <v>8</v>
       </c>
@@ -28943,7 +28944,7 @@
       <c r="J727" s="10"/>
       <c r="K727" s="10"/>
     </row>
-    <row r="728" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="12">
         <v>3</v>
       </c>
@@ -28970,7 +28971,7 @@
       <c r="J728" s="10"/>
       <c r="K728" s="10"/>
     </row>
-    <row r="729" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="12">
         <v>3</v>
       </c>
@@ -28997,7 +28998,7 @@
       <c r="J729" s="10"/>
       <c r="K729" s="10"/>
     </row>
-    <row r="730" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="12">
         <v>8</v>
       </c>
@@ -29024,7 +29025,7 @@
       <c r="J730" s="10"/>
       <c r="K730" s="10"/>
     </row>
-    <row r="731" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="18">
         <v>7</v>
       </c>
@@ -29051,7 +29052,7 @@
       <c r="J731" s="19"/>
       <c r="K731" s="19"/>
     </row>
-    <row r="732" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="18">
         <v>7</v>
       </c>
@@ -29078,7 +29079,7 @@
       <c r="J732" s="19"/>
       <c r="K732" s="19"/>
     </row>
-    <row r="733" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="12">
         <v>8</v>
       </c>
@@ -29105,7 +29106,7 @@
       <c r="J733" s="10"/>
       <c r="K733" s="10"/>
     </row>
-    <row r="734" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="12">
         <v>8</v>
       </c>
@@ -29132,7 +29133,7 @@
       <c r="J734" s="10"/>
       <c r="K734" s="10"/>
     </row>
-    <row r="735" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="12">
         <v>8</v>
       </c>
@@ -29159,7 +29160,7 @@
       <c r="J735" s="10"/>
       <c r="K735" s="10"/>
     </row>
-    <row r="736" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="12">
         <v>8</v>
       </c>
@@ -29186,7 +29187,7 @@
       <c r="J736" s="10"/>
       <c r="K736" s="10"/>
     </row>
-    <row r="737" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="12">
         <v>8</v>
       </c>
@@ -29213,7 +29214,7 @@
       <c r="J737" s="10"/>
       <c r="K737" s="10"/>
     </row>
-    <row r="738" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="12">
         <v>8</v>
       </c>
@@ -29240,7 +29241,7 @@
       <c r="J738" s="10"/>
       <c r="K738" s="10"/>
     </row>
-    <row r="739" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="12">
         <v>8</v>
       </c>
@@ -29267,7 +29268,7 @@
       <c r="J739" s="10"/>
       <c r="K739" s="10"/>
     </row>
-    <row r="740" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="12">
         <v>8</v>
       </c>
@@ -29294,7 +29295,7 @@
       <c r="J740" s="10"/>
       <c r="K740" s="10"/>
     </row>
-    <row r="741" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="12">
         <v>8</v>
       </c>
@@ -29321,7 +29322,7 @@
       <c r="J741" s="10"/>
       <c r="K741" s="10"/>
     </row>
-    <row r="742" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="12">
         <v>8</v>
       </c>
@@ -29348,7 +29349,7 @@
       <c r="J742" s="10"/>
       <c r="K742" s="10"/>
     </row>
-    <row r="743" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="12">
         <v>8</v>
       </c>
@@ -29375,7 +29376,7 @@
       <c r="J743" s="10"/>
       <c r="K743" s="10"/>
     </row>
-    <row r="744" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="12">
         <v>8</v>
       </c>
@@ -29402,7 +29403,7 @@
       <c r="J744" s="10"/>
       <c r="K744" s="10"/>
     </row>
-    <row r="745" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="12">
         <v>8</v>
       </c>
@@ -29429,7 +29430,7 @@
       <c r="J745" s="10"/>
       <c r="K745" s="10"/>
     </row>
-    <row r="746" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="12">
         <v>8</v>
       </c>
@@ -29456,7 +29457,7 @@
       <c r="J746" s="10"/>
       <c r="K746" s="10"/>
     </row>
-    <row r="747" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="12">
         <v>8</v>
       </c>
@@ -29483,7 +29484,7 @@
       <c r="J747" s="10"/>
       <c r="K747" s="10"/>
     </row>
-    <row r="748" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="12">
         <v>8</v>
       </c>
@@ -29510,7 +29511,7 @@
       <c r="J748" s="10"/>
       <c r="K748" s="10"/>
     </row>
-    <row r="749" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="12">
         <v>8</v>
       </c>
@@ -29537,7 +29538,7 @@
       <c r="J749" s="10"/>
       <c r="K749" s="10"/>
     </row>
-    <row r="750" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="12">
         <v>8</v>
       </c>
@@ -29564,7 +29565,7 @@
       <c r="J750" s="10"/>
       <c r="K750" s="10"/>
     </row>
-    <row r="751" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="12">
         <v>8</v>
       </c>
@@ -29591,7 +29592,7 @@
       <c r="J751" s="10"/>
       <c r="K751" s="10"/>
     </row>
-    <row r="752" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="12">
         <v>8</v>
       </c>
@@ -29618,7 +29619,7 @@
       <c r="J752" s="10"/>
       <c r="K752" s="10"/>
     </row>
-    <row r="753" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="12">
         <v>8</v>
       </c>
@@ -29645,7 +29646,7 @@
       <c r="J753" s="10"/>
       <c r="K753" s="10"/>
     </row>
-    <row r="754" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="12">
         <v>8</v>
       </c>
@@ -29672,7 +29673,7 @@
       <c r="J754" s="10"/>
       <c r="K754" s="10"/>
     </row>
-    <row r="755" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="12">
         <v>8</v>
       </c>
@@ -29699,7 +29700,7 @@
       <c r="J755" s="10"/>
       <c r="K755" s="10"/>
     </row>
-    <row r="756" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="12">
         <v>8</v>
       </c>
@@ -29726,7 +29727,7 @@
       <c r="J756" s="10"/>
       <c r="K756" s="10"/>
     </row>
-    <row r="757" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="12">
         <v>8</v>
       </c>
@@ -29753,7 +29754,7 @@
       <c r="J757" s="10"/>
       <c r="K757" s="10"/>
     </row>
-    <row r="758" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="12">
         <v>8</v>
       </c>
@@ -29780,7 +29781,7 @@
       <c r="J758" s="10"/>
       <c r="K758" s="10"/>
     </row>
-    <row r="759" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="12">
         <v>8</v>
       </c>
@@ -29807,7 +29808,7 @@
       <c r="J759" s="10"/>
       <c r="K759" s="10"/>
     </row>
-    <row r="760" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="12">
         <v>8</v>
       </c>
@@ -29834,7 +29835,7 @@
       <c r="J760" s="10"/>
       <c r="K760" s="10"/>
     </row>
-    <row r="761" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="12">
         <v>8</v>
       </c>
@@ -29861,7 +29862,7 @@
       <c r="J761" s="10"/>
       <c r="K761" s="10"/>
     </row>
-    <row r="762" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="12">
         <v>8</v>
       </c>
@@ -29888,7 +29889,7 @@
       <c r="J762" s="10"/>
       <c r="K762" s="10"/>
     </row>
-    <row r="763" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="12">
         <v>8</v>
       </c>
@@ -29915,7 +29916,7 @@
       <c r="J763" s="10"/>
       <c r="K763" s="10"/>
     </row>
-    <row r="764" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="12">
         <v>8</v>
       </c>
@@ -29942,7 +29943,7 @@
       <c r="J764" s="10"/>
       <c r="K764" s="10"/>
     </row>
-    <row r="765" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="12">
         <v>8</v>
       </c>
@@ -29969,7 +29970,7 @@
       <c r="J765" s="10"/>
       <c r="K765" s="10"/>
     </row>
-    <row r="766" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="12">
         <v>8</v>
       </c>
@@ -29998,6 +29999,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K766" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="OZON0021"/>
+        <filter val="RTRG0021"/>
+        <filter val="STOP0021"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K766">
       <sortCondition ref="B1:B766"/>
     </sortState>
@@ -30819,18 +30827,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30853,14 +30861,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -30875,4 +30875,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Validatiematrix.xlsx
+++ b/Validatiematrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w.quak\Git\Geonovum\dso-validatiematrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2BD9D9-2011-45BC-A9EE-0985EC9F6DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C4A3CE-4A16-493D-8D8E-22F05397F3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6765" yWindow="-21165" windowWidth="45855" windowHeight="20565" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7214,9 +7214,6 @@
     <t>Wanneer een object wordt beëindigd, dan mag er geen ander object meer naar verwijzen.</t>
   </si>
   <si>
-    <t>Het beëindigen/wijzingen van een object mag niet leiden tot het verwezen van een ander object.</t>
-  </si>
-  <si>
     <t>Bepaalde stappen in het procedureverloop MOGEN hooguit één keer voorkomen.Sommige stappen worden maar één keer gezet in een procedure en kennen dus ook maar één datum waarop ze voltooid zijn. Als blijkt dat de datum niet correct is; kan die via een mutatie van het procedureverloop aangepast worden. De uniciteit van deze stappen is belangrijk omdat de datum ervan nodig is om de relevantie te bepalen van besluiten en/of kennisgevingen erover.</t>
   </si>
   <si>
@@ -7233,6 +7230,9 @@
   </si>
   <si>
     <t>HetTekstdeel met identificatie {} heeft een locatie maar geen idealisatie.</t>
+  </si>
+  <si>
+    <t>Het beëindigen/wijzigen van een object mag niet leiden tot het verwezen van een ander object.</t>
   </si>
 </sst>
 </file>
@@ -8462,7 +8462,7 @@
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F767" sqref="F767"/>
+      <selection pane="bottomRight" activeCell="C768" sqref="C768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12637,7 +12637,7 @@
       <c r="J146" s="19"/>
       <c r="K146" s="19"/>
     </row>
-    <row r="147" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="18">
         <v>2</v>
       </c>
@@ -12664,7 +12664,7 @@
       <c r="J147" s="19"/>
       <c r="K147" s="19"/>
     </row>
-    <row r="148" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="18">
         <v>2</v>
       </c>
@@ -12691,7 +12691,7 @@
       <c r="J148" s="19"/>
       <c r="K148" s="19"/>
     </row>
-    <row r="149" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="18">
         <v>2</v>
       </c>
@@ -12718,7 +12718,7 @@
       <c r="J149" s="19"/>
       <c r="K149" s="19"/>
     </row>
-    <row r="150" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="18">
         <v>2</v>
       </c>
@@ -12747,7 +12747,7 @@
       <c r="J150" s="19"/>
       <c r="K150" s="19"/>
     </row>
-    <row r="151" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="18">
         <v>2</v>
       </c>
@@ -12778,7 +12778,7 @@
       <c r="J151" s="19"/>
       <c r="K151" s="19"/>
     </row>
-    <row r="152" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="18">
         <v>2</v>
       </c>
@@ -12805,7 +12805,7 @@
       <c r="J152" s="19"/>
       <c r="K152" s="19"/>
     </row>
-    <row r="153" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="18">
         <v>2</v>
       </c>
@@ -12832,7 +12832,7 @@
       <c r="J153" s="19"/>
       <c r="K153" s="19"/>
     </row>
-    <row r="154" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="18">
         <v>2</v>
       </c>
@@ -16332,7 +16332,7 @@
       <c r="J279" s="17"/>
       <c r="K279" s="17"/>
     </row>
-    <row r="280" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="12">
         <v>8</v>
       </c>
@@ -19302,7 +19302,7 @@
       <c r="J389" s="17"/>
       <c r="K389" s="17"/>
     </row>
-    <row r="390" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="12">
         <v>8</v>
       </c>
@@ -19310,7 +19310,7 @@
         <v>765</v>
       </c>
       <c r="C390" s="10" t="s">
-        <v>2164</v>
+        <v>2170</v>
       </c>
       <c r="D390" s="10" t="s">
         <v>260</v>
@@ -20409,7 +20409,7 @@
       <c r="J430" s="10"/>
       <c r="K430" s="10"/>
     </row>
-    <row r="431" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="12">
         <v>8</v>
       </c>
@@ -20947,7 +20947,7 @@
       <c r="J448" s="19"/>
       <c r="K448" s="19"/>
     </row>
-    <row r="449" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="18">
         <v>2</v>
       </c>
@@ -24101,7 +24101,7 @@
         <v>1015</v>
       </c>
       <c r="C555" s="19" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D555" s="18" t="s">
         <v>1481</v>
@@ -28586,7 +28586,7 @@
         <v>2</v>
       </c>
       <c r="G714" s="10" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="H714" s="10"/>
       <c r="I714" s="10"/>
@@ -28802,7 +28802,7 @@
         <v>2</v>
       </c>
       <c r="G722" s="10" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="H722" s="10"/>
       <c r="I722" s="10"/>
@@ -28829,7 +28829,7 @@
         <v>2</v>
       </c>
       <c r="G723" s="10" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="H723" s="10"/>
       <c r="I723" s="10"/>
@@ -28856,7 +28856,7 @@
         <v>2</v>
       </c>
       <c r="G724" s="10" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="H724" s="10"/>
       <c r="I724" s="10"/>
@@ -28883,7 +28883,7 @@
         <v>2</v>
       </c>
       <c r="G725" s="10" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="H725" s="10"/>
       <c r="I725" s="10"/>
@@ -30001,9 +30001,15 @@
   <autoFilter ref="A1:K766" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}">
     <filterColumn colId="1">
       <filters>
-        <filter val="OZON0021"/>
-        <filter val="RTRG0021"/>
-        <filter val="STOP0021"/>
+        <filter val="LVBB3510"/>
+        <filter val="LVBB3511"/>
+        <filter val="LVBB3512"/>
+        <filter val="LVBB3513"/>
+        <filter val="LVBB3514"/>
+        <filter val="LVBB3515"/>
+        <filter val="LVBB3516"/>
+        <filter val="LVBB3517"/>
+        <filter val="OZON0351"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K766">
@@ -30827,18 +30833,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30861,6 +30867,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -30875,12 +30889,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Validatiematrix.xlsx
+++ b/Validatiematrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w.quak\Git\Geonovum\dso-validatiematrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18724A87-3279-45A7-893D-7F5B9B138862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471B24B8-EBB9-4DB1-B5A2-E771E0958DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12405" yWindow="-21555" windowWidth="22980" windowHeight="12195" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16320" yWindow="-20655" windowWidth="22980" windowHeight="12195" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validatieregels" sheetId="14" r:id="rId1"/>
@@ -7256,13 +7256,13 @@
     <t>Intrekken-vervangen (scenario 0) mag niet worden gebruikt in combinatie met meerdere regelingen.</t>
   </si>
   <si>
-    <t>Iedere verwijzing naar een gmlObject vanuit een Lijn moet verwijzen naar een object van type GM_LineString of GM_MultiLinestring  GM_MultiLinestring.</t>
-  </si>
-  <si>
     <t>Iedere verwijzing naar een gmlObject vanuit een Punt moet verwijzen naar een object van type GM_Point of GM_MultiPoint.</t>
   </si>
   <si>
     <t>Iedere verwijzing naar een gmlObject vanuit een Gebied moet verwijzen naar een object van type GM_Surface of GM_MultiSurface.</t>
+  </si>
+  <si>
+    <t>Iedere verwijzing naar een gmlObject vanuit een Lijn moet verwijzen naar een object van type GM_LineString of GM_MultiLinestring.</t>
   </si>
 </sst>
 </file>
@@ -7429,7 +7429,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7491,6 +7491,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -8482,7 +8485,7 @@
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C724" sqref="C724"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -20299,7 +20302,7 @@
       <c r="B426" s="9" t="s">
         <v>2168</v>
       </c>
-      <c r="C426" t="s">
+      <c r="C426" s="21" t="s">
         <v>2169</v>
       </c>
       <c r="D426" s="9"/>
@@ -20316,7 +20319,7 @@
       <c r="B427" s="9" t="s">
         <v>2170</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C427" s="21" t="s">
         <v>2174</v>
       </c>
       <c r="D427" s="9"/>
@@ -20333,7 +20336,7 @@
       <c r="B428" s="9" t="s">
         <v>2171</v>
       </c>
-      <c r="C428" t="s">
+      <c r="C428" s="21" t="s">
         <v>2175</v>
       </c>
       <c r="D428" s="9"/>
@@ -20350,7 +20353,7 @@
       <c r="B429" s="9" t="s">
         <v>2172</v>
       </c>
-      <c r="C429" t="s">
+      <c r="C429" s="21" t="s">
         <v>2176</v>
       </c>
       <c r="D429" s="9"/>
@@ -20367,7 +20370,7 @@
       <c r="B430" s="9" t="s">
         <v>2173</v>
       </c>
-      <c r="C430" t="s">
+      <c r="C430" s="21" t="s">
         <v>2177</v>
       </c>
       <c r="D430" s="9"/>
@@ -28706,7 +28709,7 @@
         <v>143</v>
       </c>
       <c r="C720" s="9" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="D720" s="9" t="s">
         <v>257</v>
@@ -28733,7 +28736,7 @@
         <v>144</v>
       </c>
       <c r="C721" s="9" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="D721" s="9" t="s">
         <v>257</v>
@@ -28760,7 +28763,7 @@
         <v>145</v>
       </c>
       <c r="C722" s="9" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="D722" s="9" t="s">
         <v>257</v>
@@ -30920,18 +30923,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30954,14 +30957,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -30976,4 +30971,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Validatiematrix.xlsx
+++ b/Validatiematrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w.quak\Git\Geonovum\dso-validatiematrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471B24B8-EBB9-4DB1-B5A2-E771E0958DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB28C7E-EBB9-490C-8FC9-A0EBD7454165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16320" yWindow="-20655" windowWidth="22980" windowHeight="12195" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12525" yWindow="-21720" windowWidth="51840" windowHeight="21120" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validatieregels" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Legenda" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Validatieregels!$A$1:$K$771</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Validatieregels!$A$1:$K$1</definedName>
     <definedName name="_Hlk45872431" localSheetId="0">Validatieregels!$D$140</definedName>
     <definedName name="_Hlk45872452" localSheetId="0">Validatieregels!$D$141</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Legenda!$A:$B</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5153" uniqueCount="2181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5153" uniqueCount="2180">
   <si>
     <t>Blokkerend</t>
   </si>
@@ -5685,9 +5685,6 @@
   </si>
   <si>
     <t>Een tabel MAG NIET in een lijst worden opgenomen</t>
-  </si>
-  <si>
-    <t>waarschuwing</t>
   </si>
   <si>
     <t>Het lijst-item[waarde van eId] bevat een tabel, onderzoek of de tabel buiten de lijst kan worden geplaatst, eventueel door de lijst in delen op te splitsen</t>
@@ -7489,11 +7486,11 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -8481,11 +8478,11 @@
   <dimension ref="A1:K771"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C690" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C625" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="E645" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8547,19 +8544,19 @@
         <v>569</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>2082</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>2081</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>2083</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -8574,22 +8571,22 @@
         <v>570</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>2084</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>2081</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>2085</v>
-      </c>
       <c r="H3" s="17" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
@@ -8603,22 +8600,22 @@
         <v>571</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>2086</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>2087</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>2088</v>
-      </c>
       <c r="H4" s="17" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
@@ -8632,25 +8629,25 @@
         <v>572</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>2089</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>2087</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>2090</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>1641</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
@@ -8663,19 +8660,19 @@
         <v>573</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>2091</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>2087</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>2092</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>1641</v>
@@ -8692,25 +8689,25 @@
         <v>574</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>2093</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>2087</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>2094</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>1641</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
@@ -8723,22 +8720,22 @@
         <v>575</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>2096</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>2097</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>2098</v>
-      </c>
       <c r="H8" s="17" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -8752,22 +8749,22 @@
         <v>576</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>2099</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>2087</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>2100</v>
-      </c>
       <c r="H9" s="17" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -8781,25 +8778,25 @@
         <v>577</v>
       </c>
       <c r="C10" s="17" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>2101</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>2081</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="17" t="s">
+      <c r="H10" s="17" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>2102</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>1748</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>2103</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -8812,25 +8809,25 @@
         <v>578</v>
       </c>
       <c r="C11" s="17" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>2104</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>2081</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="H11" s="17" t="s">
         <v>2105</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>2106</v>
-      </c>
       <c r="I11" s="17" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
@@ -8843,25 +8840,25 @@
         <v>579</v>
       </c>
       <c r="C12" s="17" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>2107</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>2081</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>2108</v>
-      </c>
       <c r="H12" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
@@ -8874,10 +8871,10 @@
         <v>688</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>0</v>
@@ -8886,10 +8883,10 @@
         <v>3</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -8903,10 +8900,10 @@
         <v>1083</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>0</v>
@@ -8930,10 +8927,10 @@
         <v>1084</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>0</v>
@@ -8957,10 +8954,10 @@
         <v>1085</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>0</v>
@@ -8984,19 +8981,19 @@
         <v>689</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>2114</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>2087</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>2115</v>
       </c>
       <c r="H17" s="17" t="s">
         <v>1651</v>
@@ -9013,22 +9010,22 @@
         <v>794</v>
       </c>
       <c r="C18" s="17" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>2116</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>2087</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="17" t="s">
+      <c r="H18" s="17" t="s">
         <v>2117</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>2118</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>1641</v>
@@ -9044,28 +9041,28 @@
         <v>1086</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>2119</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>2087</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="17" t="s">
+      <c r="H19" s="17" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>1693</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>2120</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>1694</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>2121</v>
       </c>
       <c r="K19" s="17"/>
     </row>
@@ -9077,10 +9074,10 @@
         <v>1087</v>
       </c>
       <c r="C20" s="17" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>2122</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>2123</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>0</v>
@@ -9089,7 +9086,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -9104,10 +9101,10 @@
         <v>1088</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>0</v>
@@ -9116,10 +9113,10 @@
         <v>3</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
@@ -9133,10 +9130,10 @@
         <v>1089</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>0</v>
@@ -9145,7 +9142,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -9160,10 +9157,10 @@
         <v>1090</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>0</v>
@@ -9172,10 +9169,10 @@
         <v>3</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
@@ -9189,10 +9186,10 @@
         <v>1091</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>0</v>
@@ -9201,10 +9198,10 @@
         <v>3</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
@@ -9218,10 +9215,10 @@
         <v>1092</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>0</v>
@@ -9230,10 +9227,10 @@
         <v>3</v>
       </c>
       <c r="G25" s="17" t="s">
+        <v>2133</v>
+      </c>
+      <c r="H25" s="17" t="s">
         <v>2134</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>2135</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
@@ -9247,10 +9244,10 @@
         <v>1093</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>0</v>
@@ -9274,10 +9271,10 @@
         <v>1094</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>0</v>
@@ -9301,10 +9298,10 @@
         <v>1095</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>0</v>
@@ -9313,13 +9310,13 @@
         <v>3</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="H28" s="17" t="s">
         <v>1641</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
@@ -9332,10 +9329,10 @@
         <v>1096</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>0</v>
@@ -9359,10 +9356,10 @@
         <v>1097</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>0</v>
@@ -9389,7 +9386,7 @@
         <v>1637</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>0</v>
@@ -18331,10 +18328,10 @@
         <v>8</v>
       </c>
       <c r="B353" s="9" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C353" s="17" t="s">
         <v>2151</v>
-      </c>
-      <c r="C353" s="17" t="s">
-        <v>2152</v>
       </c>
       <c r="D353" s="9" t="s">
         <v>257</v>
@@ -18385,10 +18382,10 @@
         <v>8</v>
       </c>
       <c r="B355" s="9" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C355" s="9" t="s">
         <v>2149</v>
-      </c>
-      <c r="C355" s="9" t="s">
-        <v>2150</v>
       </c>
       <c r="D355" s="9" t="s">
         <v>257</v>
@@ -18709,10 +18706,10 @@
         <v>8</v>
       </c>
       <c r="B367" s="9" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C367" s="9" t="s">
         <v>2153</v>
-      </c>
-      <c r="C367" s="9" t="s">
-        <v>2154</v>
       </c>
       <c r="D367" s="9" t="s">
         <v>257</v>
@@ -19306,7 +19303,7 @@
         <v>761</v>
       </c>
       <c r="C389" s="9" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="D389" s="9" t="s">
         <v>257</v>
@@ -19333,7 +19330,7 @@
         <v>762</v>
       </c>
       <c r="C390" s="9" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="D390" s="9" t="s">
         <v>257</v>
@@ -19873,7 +19870,7 @@
         <v>767</v>
       </c>
       <c r="C410" s="9" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="D410" s="15" t="s">
         <v>257</v>
@@ -19897,10 +19894,10 @@
         <v>8</v>
       </c>
       <c r="B411" s="9" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="C411" s="9" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="D411" s="15" t="s">
         <v>257</v>
@@ -19924,10 +19921,10 @@
         <v>8</v>
       </c>
       <c r="B412" s="9" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C412" s="9" t="s">
         <v>2158</v>
-      </c>
-      <c r="C412" s="9" t="s">
-        <v>2159</v>
       </c>
       <c r="D412" s="15" t="s">
         <v>257</v>
@@ -20300,10 +20297,10 @@
     <row r="426" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="9"/>
       <c r="B426" s="9" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C426" s="20" t="s">
         <v>2168</v>
-      </c>
-      <c r="C426" s="21" t="s">
-        <v>2169</v>
       </c>
       <c r="D426" s="9"/>
       <c r="E426" s="10"/>
@@ -20317,10 +20314,10 @@
     <row r="427" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="9"/>
       <c r="B427" s="9" t="s">
-        <v>2170</v>
-      </c>
-      <c r="C427" s="21" t="s">
-        <v>2174</v>
+        <v>2169</v>
+      </c>
+      <c r="C427" s="20" t="s">
+        <v>2173</v>
       </c>
       <c r="D427" s="9"/>
       <c r="E427" s="10"/>
@@ -20334,10 +20331,10 @@
     <row r="428" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="9"/>
       <c r="B428" s="9" t="s">
-        <v>2171</v>
-      </c>
-      <c r="C428" s="21" t="s">
-        <v>2175</v>
+        <v>2170</v>
+      </c>
+      <c r="C428" s="20" t="s">
+        <v>2174</v>
       </c>
       <c r="D428" s="9"/>
       <c r="E428" s="10"/>
@@ -20351,10 +20348,10 @@
     <row r="429" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="9"/>
       <c r="B429" s="9" t="s">
-        <v>2172</v>
-      </c>
-      <c r="C429" s="21" t="s">
-        <v>2176</v>
+        <v>2171</v>
+      </c>
+      <c r="C429" s="20" t="s">
+        <v>2175</v>
       </c>
       <c r="D429" s="9"/>
       <c r="E429" s="10"/>
@@ -20368,10 +20365,10 @@
     <row r="430" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="9"/>
       <c r="B430" s="9" t="s">
-        <v>2173</v>
-      </c>
-      <c r="C430" s="21" t="s">
-        <v>2177</v>
+        <v>2172</v>
+      </c>
+      <c r="C430" s="20" t="s">
+        <v>2176</v>
       </c>
       <c r="D430" s="9"/>
       <c r="E430" s="10"/>
@@ -20738,13 +20735,13 @@
         <v>1639</v>
       </c>
       <c r="E443" s="16" t="s">
-        <v>1655</v>
+        <v>73</v>
       </c>
       <c r="F443" s="16" t="s">
         <v>3</v>
       </c>
       <c r="G443" s="17" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H443" s="17" t="s">
         <v>1641</v>
@@ -20761,7 +20758,7 @@
         <v>448</v>
       </c>
       <c r="C444" s="17" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D444" s="16" t="s">
         <v>1478</v>
@@ -20773,7 +20770,7 @@
         <v>2</v>
       </c>
       <c r="G444" s="17" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H444" s="17" t="s">
         <v>1651</v>
@@ -20790,7 +20787,7 @@
         <v>462</v>
       </c>
       <c r="C445" s="17" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D445" s="16" t="s">
         <v>1639</v>
@@ -20802,7 +20799,7 @@
         <v>2</v>
       </c>
       <c r="G445" s="17" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H445" s="17" t="s">
         <v>1646</v>
@@ -20821,7 +20818,7 @@
         <v>449</v>
       </c>
       <c r="C446" s="17" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D446" s="16" t="s">
         <v>1639</v>
@@ -20833,7 +20830,7 @@
         <v>2</v>
       </c>
       <c r="G446" s="17" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H446" s="17" t="s">
         <v>1641</v>
@@ -20850,7 +20847,7 @@
         <v>483</v>
       </c>
       <c r="C447" s="17" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D447" s="16" t="s">
         <v>1639</v>
@@ -20862,7 +20859,7 @@
         <v>2</v>
       </c>
       <c r="G447" s="17" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H447" s="17" t="s">
         <v>1641</v>
@@ -20881,7 +20878,7 @@
         <v>484</v>
       </c>
       <c r="C448" s="17" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D448" s="16" t="s">
         <v>1639</v>
@@ -20893,10 +20890,10 @@
         <v>2</v>
       </c>
       <c r="G448" s="17" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H448" s="17" t="s">
         <v>1666</v>
-      </c>
-      <c r="H448" s="17" t="s">
-        <v>1667</v>
       </c>
       <c r="I448" s="17" t="s">
         <v>1646</v>
@@ -20912,7 +20909,7 @@
         <v>461</v>
       </c>
       <c r="C449" s="17" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D449" s="16" t="s">
         <v>1639</v>
@@ -20924,7 +20921,7 @@
         <v>2</v>
       </c>
       <c r="G449" s="17" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H449" s="17" t="s">
         <v>1641</v>
@@ -20941,7 +20938,7 @@
         <v>460</v>
       </c>
       <c r="C450" s="17" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D450" s="16" t="s">
         <v>1639</v>
@@ -20953,7 +20950,7 @@
         <v>2</v>
       </c>
       <c r="G450" s="17" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H450" s="17" t="s">
         <v>1641</v>
@@ -20970,7 +20967,7 @@
         <v>450</v>
       </c>
       <c r="C451" s="17" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D451" s="16" t="s">
         <v>1478</v>
@@ -20982,10 +20979,10 @@
         <v>2</v>
       </c>
       <c r="G451" s="17" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H451" s="17" t="s">
         <v>1673</v>
-      </c>
-      <c r="H451" s="17" t="s">
-        <v>1674</v>
       </c>
       <c r="I451" s="17" t="s">
         <v>1641</v>
@@ -21003,7 +21000,7 @@
         <v>451</v>
       </c>
       <c r="C452" s="17" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D452" s="16" t="s">
         <v>1478</v>
@@ -21015,7 +21012,7 @@
         <v>2</v>
       </c>
       <c r="G452" s="17" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H452" s="17" t="s">
         <v>1646</v>
@@ -21034,7 +21031,7 @@
         <v>485</v>
       </c>
       <c r="C453" s="17" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D453" s="16" t="s">
         <v>1478</v>
@@ -21046,7 +21043,7 @@
         <v>2</v>
       </c>
       <c r="G453" s="17" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H453" s="17" t="s">
         <v>1641</v>
@@ -21063,7 +21060,7 @@
         <v>486</v>
       </c>
       <c r="C454" s="17" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D454" s="16" t="s">
         <v>1478</v>
@@ -21075,10 +21072,10 @@
         <v>2</v>
       </c>
       <c r="G454" s="17" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H454" s="17" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="I454" s="17"/>
       <c r="J454" s="17"/>
@@ -21092,7 +21089,7 @@
         <v>487</v>
       </c>
       <c r="C455" s="17" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D455" s="16" t="s">
         <v>1639</v>
@@ -21104,19 +21101,19 @@
         <v>2</v>
       </c>
       <c r="G455" s="17" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H455" s="17" t="s">
         <v>1682</v>
-      </c>
-      <c r="H455" s="17" t="s">
-        <v>1683</v>
       </c>
       <c r="I455" s="17" t="s">
         <v>1646</v>
       </c>
       <c r="J455" s="17" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="K455" s="17" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="456" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -21127,7 +21124,7 @@
         <v>488</v>
       </c>
       <c r="C456" s="17" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D456" s="16" t="s">
         <v>1639</v>
@@ -21139,19 +21136,19 @@
         <v>2</v>
       </c>
       <c r="G456" s="17" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H456" s="17" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="I456" s="17" t="s">
         <v>1646</v>
       </c>
       <c r="J456" s="17" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="K456" s="17" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="457" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -21162,7 +21159,7 @@
         <v>489</v>
       </c>
       <c r="C457" s="17" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D457" s="16" t="s">
         <v>1639</v>
@@ -21174,10 +21171,10 @@
         <v>2</v>
       </c>
       <c r="G457" s="17" t="s">
+        <v>1687</v>
+      </c>
+      <c r="H457" s="17" t="s">
         <v>1688</v>
-      </c>
-      <c r="H457" s="17" t="s">
-        <v>1689</v>
       </c>
       <c r="I457" s="17"/>
       <c r="J457" s="17"/>
@@ -21191,7 +21188,7 @@
         <v>490</v>
       </c>
       <c r="C458" s="17" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D458" s="16" t="s">
         <v>1639</v>
@@ -21203,10 +21200,10 @@
         <v>2</v>
       </c>
       <c r="G458" s="17" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="H458" s="17" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="I458" s="17"/>
       <c r="J458" s="17"/>
@@ -21220,7 +21217,7 @@
         <v>459</v>
       </c>
       <c r="C459" s="17" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D459" s="16" t="s">
         <v>1639</v>
@@ -21232,10 +21229,10 @@
         <v>2</v>
       </c>
       <c r="G459" s="17" t="s">
+        <v>1692</v>
+      </c>
+      <c r="H459" s="17" t="s">
         <v>1693</v>
-      </c>
-      <c r="H459" s="17" t="s">
-        <v>1694</v>
       </c>
       <c r="I459" s="17" t="s">
         <v>1641</v>
@@ -21251,7 +21248,7 @@
         <v>491</v>
       </c>
       <c r="C460" s="17" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D460" s="16" t="s">
         <v>1639</v>
@@ -21263,13 +21260,13 @@
         <v>2</v>
       </c>
       <c r="G460" s="17" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H460" s="17" t="s">
         <v>1641</v>
       </c>
       <c r="I460" s="17" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="J460" s="17"/>
       <c r="K460" s="17"/>
@@ -21282,7 +21279,7 @@
         <v>492</v>
       </c>
       <c r="C461" s="17" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D461" s="16" t="s">
         <v>1639</v>
@@ -21294,13 +21291,13 @@
         <v>2</v>
       </c>
       <c r="G461" s="17" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H461" s="17" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="I461" s="17" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="J461" s="17"/>
       <c r="K461" s="17"/>
@@ -21313,7 +21310,7 @@
         <v>452</v>
       </c>
       <c r="C462" s="17" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D462" s="16" t="s">
         <v>1639</v>
@@ -21325,7 +21322,7 @@
         <v>3</v>
       </c>
       <c r="G462" s="17" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H462" s="17" t="s">
         <v>1641</v>
@@ -21342,7 +21339,7 @@
         <v>463</v>
       </c>
       <c r="C463" s="17" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D463" s="16" t="s">
         <v>1639</v>
@@ -21354,16 +21351,16 @@
         <v>2</v>
       </c>
       <c r="G463" s="17" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H463" s="17" t="s">
         <v>1146</v>
       </c>
       <c r="I463" s="17" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="J463" s="17" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K463" s="17" t="s">
         <v>1641</v>
@@ -21377,7 +21374,7 @@
         <v>493</v>
       </c>
       <c r="C464" s="17" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D464" s="16" t="s">
         <v>1639</v>
@@ -21389,16 +21386,16 @@
         <v>2</v>
       </c>
       <c r="G464" s="17" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H464" s="17" t="s">
         <v>1146</v>
       </c>
       <c r="I464" s="17" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="J464" s="17" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K464" s="17" t="s">
         <v>1641</v>
@@ -21412,7 +21409,7 @@
         <v>453</v>
       </c>
       <c r="C465" s="17" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D465" s="16" t="s">
         <v>1639</v>
@@ -21424,16 +21421,16 @@
         <v>2</v>
       </c>
       <c r="G465" s="17" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H465" s="17" t="s">
         <v>1146</v>
       </c>
       <c r="I465" s="17" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="J465" s="17" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K465" s="17" t="s">
         <v>1641</v>
@@ -21447,7 +21444,7 @@
         <v>454</v>
       </c>
       <c r="C466" s="17" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D466" s="16" t="s">
         <v>1639</v>
@@ -21459,10 +21456,10 @@
         <v>2</v>
       </c>
       <c r="G466" s="17" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H466" s="17" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="I466" s="17" t="s">
         <v>1146</v>
@@ -21471,7 +21468,7 @@
         <v>1641</v>
       </c>
       <c r="K466" s="17" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="467" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -21482,7 +21479,7 @@
         <v>455</v>
       </c>
       <c r="C467" s="17" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D467" s="16" t="s">
         <v>1639</v>
@@ -21494,7 +21491,7 @@
         <v>2</v>
       </c>
       <c r="G467" s="17" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H467" s="17" t="s">
         <v>1146</v>
@@ -21503,10 +21500,10 @@
         <v>1641</v>
       </c>
       <c r="J467" s="17" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="K467" s="17" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="468" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -21517,7 +21514,7 @@
         <v>457</v>
       </c>
       <c r="C468" s="17" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D468" s="16" t="s">
         <v>1639</v>
@@ -21529,7 +21526,7 @@
         <v>2</v>
       </c>
       <c r="G468" s="17" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H468" s="17" t="s">
         <v>1146</v>
@@ -21548,7 +21545,7 @@
         <v>456</v>
       </c>
       <c r="C469" s="17" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D469" s="16" t="s">
         <v>1639</v>
@@ -21560,7 +21557,7 @@
         <v>2</v>
       </c>
       <c r="G469" s="17" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H469" s="17" t="s">
         <v>1146</v>
@@ -21579,7 +21576,7 @@
         <v>494</v>
       </c>
       <c r="C470" s="17" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D470" s="16" t="s">
         <v>1639</v>
@@ -21591,7 +21588,7 @@
         <v>2</v>
       </c>
       <c r="G470" s="17" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H470" s="17" t="s">
         <v>1641</v>
@@ -21610,7 +21607,7 @@
         <v>495</v>
       </c>
       <c r="C471" s="17" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D471" s="16" t="s">
         <v>1639</v>
@@ -21622,10 +21619,10 @@
         <v>2</v>
       </c>
       <c r="G471" s="17" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="H471" s="17" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="I471" s="17" t="s">
         <v>1646</v>
@@ -21641,22 +21638,22 @@
         <v>971</v>
       </c>
       <c r="C472" s="17" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D472" s="16" t="s">
         <v>1639</v>
       </c>
       <c r="E472" s="16" t="s">
-        <v>1655</v>
+        <v>73</v>
       </c>
       <c r="F472" s="16" t="s">
         <v>3</v>
       </c>
       <c r="G472" s="17" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="H472" s="17" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="I472" s="17" t="s">
         <v>1641</v>
@@ -21672,22 +21669,22 @@
         <v>972</v>
       </c>
       <c r="C473" s="17" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D473" s="16" t="s">
         <v>1639</v>
       </c>
       <c r="E473" s="16" t="s">
-        <v>1655</v>
+        <v>73</v>
       </c>
       <c r="F473" s="16" t="s">
         <v>3</v>
       </c>
       <c r="G473" s="17" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="H473" s="17" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="I473" s="17" t="s">
         <v>1641</v>
@@ -21703,7 +21700,7 @@
         <v>466</v>
       </c>
       <c r="C474" s="17" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D474" s="16" t="s">
         <v>1639</v>
@@ -21715,7 +21712,7 @@
         <v>2</v>
       </c>
       <c r="G474" s="17" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="H474" s="17" t="s">
         <v>1146</v>
@@ -21734,7 +21731,7 @@
         <v>467</v>
       </c>
       <c r="C475" s="17" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D475" s="16" t="s">
         <v>1639</v>
@@ -21746,7 +21743,7 @@
         <v>2</v>
       </c>
       <c r="G475" s="17" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="H475" s="17" t="s">
         <v>1146</v>
@@ -21765,7 +21762,7 @@
         <v>478</v>
       </c>
       <c r="C476" s="17" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D476" s="16" t="s">
         <v>1639</v>
@@ -21777,7 +21774,7 @@
         <v>2</v>
       </c>
       <c r="G476" s="17" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="H476" s="17" t="s">
         <v>1171</v>
@@ -21796,7 +21793,7 @@
         <v>567</v>
       </c>
       <c r="C477" s="17" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D477" s="16" t="s">
         <v>1639</v>
@@ -21808,7 +21805,7 @@
         <v>2</v>
       </c>
       <c r="G477" s="17" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="H477" s="17" t="s">
         <v>1146</v>
@@ -21827,7 +21824,7 @@
         <v>568</v>
       </c>
       <c r="C478" s="17" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D478" s="16" t="s">
         <v>1478</v>
@@ -21839,16 +21836,16 @@
         <v>2</v>
       </c>
       <c r="G478" s="17" t="s">
+        <v>1733</v>
+      </c>
+      <c r="H478" s="17" t="s">
         <v>1734</v>
-      </c>
-      <c r="H478" s="17" t="s">
-        <v>1735</v>
       </c>
       <c r="I478" s="17" t="s">
         <v>1651</v>
       </c>
       <c r="J478" s="17" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="K478" s="17"/>
     </row>
@@ -21860,7 +21857,7 @@
         <v>680</v>
       </c>
       <c r="C479" s="17" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D479" s="16" t="s">
         <v>1639</v>
@@ -21872,7 +21869,7 @@
         <v>2</v>
       </c>
       <c r="G479" s="17" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="H479" s="17" t="s">
         <v>1146</v>
@@ -21893,7 +21890,7 @@
         <v>681</v>
       </c>
       <c r="C480" s="17" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D480" s="16" t="s">
         <v>1639</v>
@@ -21905,7 +21902,7 @@
         <v>2</v>
       </c>
       <c r="G480" s="17" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="H480" s="17" t="s">
         <v>1146</v>
@@ -21924,7 +21921,7 @@
         <v>682</v>
       </c>
       <c r="C481" s="17" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D481" s="16" t="s">
         <v>1639</v>
@@ -21936,7 +21933,7 @@
         <v>2</v>
       </c>
       <c r="G481" s="17" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="H481" s="17" t="s">
         <v>1146</v>
@@ -21955,7 +21952,7 @@
         <v>683</v>
       </c>
       <c r="C482" s="17" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D482" s="16" t="s">
         <v>1639</v>
@@ -21967,7 +21964,7 @@
         <v>2</v>
       </c>
       <c r="G482" s="17" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="H482" s="17" t="s">
         <v>1146</v>
@@ -21986,7 +21983,7 @@
         <v>684</v>
       </c>
       <c r="C483" s="17" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D483" s="16" t="s">
         <v>1639</v>
@@ -21998,7 +21995,7 @@
         <v>2</v>
       </c>
       <c r="G483" s="17" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="H483" s="17" t="s">
         <v>1641</v>
@@ -22015,7 +22012,7 @@
         <v>685</v>
       </c>
       <c r="C484" s="17" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="D484" s="16" t="s">
         <v>1639</v>
@@ -22027,7 +22024,7 @@
         <v>2</v>
       </c>
       <c r="G484" s="17" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="H484" s="17" t="s">
         <v>1146</v>
@@ -22039,7 +22036,7 @@
         <v>1646</v>
       </c>
       <c r="K484" s="17" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="485" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -22050,7 +22047,7 @@
         <v>686</v>
       </c>
       <c r="C485" s="17" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D485" s="16" t="s">
         <v>1478</v>
@@ -22062,13 +22059,13 @@
         <v>2</v>
       </c>
       <c r="G485" s="17" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H485" s="17" t="s">
         <v>1146</v>
       </c>
       <c r="I485" s="17" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="J485" s="17"/>
       <c r="K485" s="17"/>
@@ -22081,7 +22078,7 @@
         <v>687</v>
       </c>
       <c r="C486" s="17" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D486" s="16" t="s">
         <v>1478</v>
@@ -22093,10 +22090,10 @@
         <v>2</v>
       </c>
       <c r="G486" s="17" t="s">
+        <v>1752</v>
+      </c>
+      <c r="H486" s="17" t="s">
         <v>1753</v>
-      </c>
-      <c r="H486" s="17" t="s">
-        <v>1754</v>
       </c>
       <c r="I486" s="17" t="s">
         <v>1641</v>
@@ -22112,7 +22109,7 @@
         <v>973</v>
       </c>
       <c r="C487" s="17" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D487" s="16" t="s">
         <v>1478</v>
@@ -22124,7 +22121,7 @@
         <v>2</v>
       </c>
       <c r="G487" s="17" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="H487" s="17" t="s">
         <v>1146</v>
@@ -22141,7 +22138,7 @@
         <v>974</v>
       </c>
       <c r="C488" s="17" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D488" s="16" t="s">
         <v>1478</v>
@@ -22153,13 +22150,13 @@
         <v>2</v>
       </c>
       <c r="G488" s="17" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H488" s="17" t="s">
         <v>1758</v>
       </c>
-      <c r="H488" s="17" t="s">
+      <c r="I488" s="17" t="s">
         <v>1759</v>
-      </c>
-      <c r="I488" s="17" t="s">
-        <v>1760</v>
       </c>
       <c r="J488" s="17"/>
       <c r="K488" s="17"/>
@@ -22172,7 +22169,7 @@
         <v>975</v>
       </c>
       <c r="C489" s="17" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="D489" s="16" t="s">
         <v>1478</v>
@@ -22184,13 +22181,13 @@
         <v>2</v>
       </c>
       <c r="G489" s="17" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="H489" s="17" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="I489" s="17" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="J489" s="17"/>
       <c r="K489" s="17"/>
@@ -22203,7 +22200,7 @@
         <v>976</v>
       </c>
       <c r="C490" s="17" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D490" s="16" t="s">
         <v>1478</v>
@@ -22215,10 +22212,10 @@
         <v>2</v>
       </c>
       <c r="G490" s="17" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="H490" s="17" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="I490" s="17"/>
       <c r="J490" s="17"/>
@@ -22232,7 +22229,7 @@
         <v>977</v>
       </c>
       <c r="C491" s="17" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D491" s="16" t="s">
         <v>1478</v>
@@ -22244,7 +22241,7 @@
         <v>2</v>
       </c>
       <c r="G491" s="17" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="H491" s="17" t="s">
         <v>1146</v>
@@ -22263,10 +22260,10 @@
         <v>978</v>
       </c>
       <c r="C492" s="17" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D492" s="16" t="s">
         <v>1767</v>
-      </c>
-      <c r="D492" s="16" t="s">
-        <v>1768</v>
       </c>
       <c r="E492" s="16" t="s">
         <v>0</v>
@@ -22275,10 +22272,10 @@
         <v>3</v>
       </c>
       <c r="G492" s="17" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="H492" s="17" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="I492" s="17"/>
       <c r="J492" s="17"/>
@@ -22292,10 +22289,10 @@
         <v>979</v>
       </c>
       <c r="C493" s="17" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D493" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E493" s="16" t="s">
         <v>0</v>
@@ -22304,10 +22301,10 @@
         <v>3</v>
       </c>
       <c r="G493" s="17" t="s">
+        <v>1770</v>
+      </c>
+      <c r="H493" s="17" t="s">
         <v>1771</v>
-      </c>
-      <c r="H493" s="17" t="s">
-        <v>1772</v>
       </c>
       <c r="I493" s="17" t="s">
         <v>1641</v>
@@ -22323,10 +22320,10 @@
         <v>980</v>
       </c>
       <c r="C494" s="17" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D494" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E494" s="16" t="s">
         <v>0</v>
@@ -22335,10 +22332,10 @@
         <v>3</v>
       </c>
       <c r="G494" s="17" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H494" s="17" t="s">
         <v>1774</v>
-      </c>
-      <c r="H494" s="17" t="s">
-        <v>1775</v>
       </c>
       <c r="I494" s="17"/>
       <c r="J494" s="17"/>
@@ -22352,7 +22349,7 @@
         <v>496</v>
       </c>
       <c r="C495" s="17" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D495" s="16" t="s">
         <v>1639</v>
@@ -22364,10 +22361,10 @@
         <v>2</v>
       </c>
       <c r="G495" s="17" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H495" s="17" t="s">
         <v>1777</v>
-      </c>
-      <c r="H495" s="17" t="s">
-        <v>1778</v>
       </c>
       <c r="I495" s="17"/>
       <c r="J495" s="17"/>
@@ -22381,7 +22378,7 @@
         <v>497</v>
       </c>
       <c r="C496" s="17" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D496" s="16" t="s">
         <v>1639</v>
@@ -22393,13 +22390,13 @@
         <v>2</v>
       </c>
       <c r="G496" s="17" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H496" s="17" t="s">
         <v>1780</v>
       </c>
-      <c r="H496" s="17" t="s">
+      <c r="I496" s="17" t="s">
         <v>1781</v>
-      </c>
-      <c r="I496" s="17" t="s">
-        <v>1782</v>
       </c>
       <c r="J496" s="17"/>
       <c r="K496" s="17"/>
@@ -22412,7 +22409,7 @@
         <v>498</v>
       </c>
       <c r="C497" s="17" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D497" s="16" t="s">
         <v>1639</v>
@@ -22424,13 +22421,13 @@
         <v>2</v>
       </c>
       <c r="G497" s="17" t="s">
+        <v>1783</v>
+      </c>
+      <c r="H497" s="17" t="s">
         <v>1784</v>
       </c>
-      <c r="H497" s="17" t="s">
-        <v>1785</v>
-      </c>
       <c r="I497" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="J497" s="17"/>
       <c r="K497" s="17"/>
@@ -22443,7 +22440,7 @@
         <v>499</v>
       </c>
       <c r="C498" s="17" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="D498" s="16" t="s">
         <v>1639</v>
@@ -22455,10 +22452,10 @@
         <v>2</v>
       </c>
       <c r="G498" s="17" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="H498" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I498" s="17"/>
       <c r="J498" s="17"/>
@@ -22472,7 +22469,7 @@
         <v>500</v>
       </c>
       <c r="C499" s="17" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D499" s="16" t="s">
         <v>1639</v>
@@ -22484,10 +22481,10 @@
         <v>2</v>
       </c>
       <c r="G499" s="17" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="H499" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I499" s="17"/>
       <c r="J499" s="17"/>
@@ -22513,10 +22510,10 @@
         <v>2</v>
       </c>
       <c r="G500" s="17" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="H500" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I500" s="17"/>
       <c r="J500" s="17"/>
@@ -22530,7 +22527,7 @@
         <v>446</v>
       </c>
       <c r="C501" s="17" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D501" s="16" t="s">
         <v>1639</v>
@@ -22542,10 +22539,10 @@
         <v>2</v>
       </c>
       <c r="G501" s="17" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="H501" s="17" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="I501" s="17"/>
       <c r="J501" s="17"/>
@@ -22559,7 +22556,7 @@
         <v>502</v>
       </c>
       <c r="C502" s="17" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="D502" s="16" t="s">
         <v>1639</v>
@@ -22571,13 +22568,13 @@
         <v>2</v>
       </c>
       <c r="G502" s="17" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="H502" s="17" t="s">
+        <v>1780</v>
+      </c>
+      <c r="I502" s="17" t="s">
         <v>1781</v>
-      </c>
-      <c r="I502" s="17" t="s">
-        <v>1782</v>
       </c>
       <c r="J502" s="17"/>
       <c r="K502" s="17"/>
@@ -22590,7 +22587,7 @@
         <v>503</v>
       </c>
       <c r="C503" s="17" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D503" s="16" t="s">
         <v>1639</v>
@@ -22602,13 +22599,13 @@
         <v>2</v>
       </c>
       <c r="G503" s="17" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="H503" s="17" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="I503" s="17" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="J503" s="17"/>
       <c r="K503" s="17"/>
@@ -22621,7 +22618,7 @@
         <v>472</v>
       </c>
       <c r="C504" s="17" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D504" s="16" t="s">
         <v>1639</v>
@@ -22633,13 +22630,13 @@
         <v>2</v>
       </c>
       <c r="G504" s="17" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="H504" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I504" s="17" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="J504" s="17"/>
       <c r="K504" s="17"/>
@@ -22652,7 +22649,7 @@
         <v>445</v>
       </c>
       <c r="C505" s="17" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D505" s="16" t="s">
         <v>1639</v>
@@ -22664,13 +22661,13 @@
         <v>2</v>
       </c>
       <c r="G505" s="17" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="H505" s="17" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="I505" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="J505" s="17"/>
       <c r="K505" s="17"/>
@@ -22683,7 +22680,7 @@
         <v>504</v>
       </c>
       <c r="C506" s="17" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D506" s="16" t="s">
         <v>1478</v>
@@ -22695,13 +22692,13 @@
         <v>2</v>
       </c>
       <c r="G506" s="17" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="H506" s="17" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="I506" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="J506" s="17"/>
       <c r="K506" s="17"/>
@@ -22714,7 +22711,7 @@
         <v>505</v>
       </c>
       <c r="C507" s="17" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D507" s="16" t="s">
         <v>1639</v>
@@ -22726,13 +22723,13 @@
         <v>2</v>
       </c>
       <c r="G507" s="17" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="H507" s="17" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="I507" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="J507" s="17"/>
       <c r="K507" s="17"/>
@@ -22745,7 +22742,7 @@
         <v>506</v>
       </c>
       <c r="C508" s="17" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D508" s="16" t="s">
         <v>1639</v>
@@ -22757,10 +22754,10 @@
         <v>2</v>
       </c>
       <c r="G508" s="17" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="H508" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I508" s="17"/>
       <c r="J508" s="17"/>
@@ -22774,7 +22771,7 @@
         <v>507</v>
       </c>
       <c r="C509" s="17" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D509" s="16" t="s">
         <v>1639</v>
@@ -22786,10 +22783,10 @@
         <v>2</v>
       </c>
       <c r="G509" s="17" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="H509" s="17" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="I509" s="17"/>
       <c r="J509" s="17"/>
@@ -22803,7 +22800,7 @@
         <v>508</v>
       </c>
       <c r="C510" s="17" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D510" s="16" t="s">
         <v>1639</v>
@@ -22815,10 +22812,10 @@
         <v>2</v>
       </c>
       <c r="G510" s="17" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="H510" s="17" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="I510" s="17"/>
       <c r="J510" s="17"/>
@@ -22832,7 +22829,7 @@
         <v>473</v>
       </c>
       <c r="C511" s="17" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D511" s="16" t="s">
         <v>1639</v>
@@ -22844,13 +22841,13 @@
         <v>2</v>
       </c>
       <c r="G511" s="17" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="H511" s="17" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="I511" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="J511" s="17"/>
       <c r="K511" s="17"/>
@@ -22863,7 +22860,7 @@
         <v>509</v>
       </c>
       <c r="C512" s="17" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D512" s="16" t="s">
         <v>1478</v>
@@ -22875,7 +22872,7 @@
         <v>2</v>
       </c>
       <c r="G512" s="17" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H512" s="17"/>
       <c r="I512" s="17"/>
@@ -22890,7 +22887,7 @@
         <v>474</v>
       </c>
       <c r="C513" s="17" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D513" s="16" t="s">
         <v>1478</v>
@@ -22902,7 +22899,7 @@
         <v>2</v>
       </c>
       <c r="G513" s="17" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="H513" s="17"/>
       <c r="I513" s="17"/>
@@ -22917,7 +22914,7 @@
         <v>510</v>
       </c>
       <c r="C514" s="17" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D514" s="16" t="s">
         <v>1478</v>
@@ -22929,7 +22926,7 @@
         <v>2</v>
       </c>
       <c r="G514" s="17" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="H514" s="17"/>
       <c r="I514" s="17"/>
@@ -22944,7 +22941,7 @@
         <v>477</v>
       </c>
       <c r="C515" s="17" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D515" s="16" t="s">
         <v>1478</v>
@@ -22956,10 +22953,10 @@
         <v>2</v>
       </c>
       <c r="G515" s="17" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="H515" s="17" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="I515" s="17"/>
       <c r="J515" s="17"/>
@@ -22973,7 +22970,7 @@
         <v>511</v>
       </c>
       <c r="C516" s="17" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D516" s="16" t="s">
         <v>1639</v>
@@ -22985,7 +22982,7 @@
         <v>2</v>
       </c>
       <c r="G516" s="17" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="H516" s="17"/>
       <c r="I516" s="17"/>
@@ -23000,7 +22997,7 @@
         <v>512</v>
       </c>
       <c r="C517" s="17" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="D517" s="16" t="s">
         <v>1639</v>
@@ -23012,7 +23009,7 @@
         <v>2</v>
       </c>
       <c r="G517" s="17" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="H517" s="17"/>
       <c r="I517" s="17"/>
@@ -23027,7 +23024,7 @@
         <v>513</v>
       </c>
       <c r="C518" s="17" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D518" s="16" t="s">
         <v>1478</v>
@@ -23039,10 +23036,10 @@
         <v>2</v>
       </c>
       <c r="G518" s="17" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="H518" s="17" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="I518" s="17"/>
       <c r="J518" s="17"/>
@@ -23056,7 +23053,7 @@
         <v>514</v>
       </c>
       <c r="C519" s="17" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D519" s="16" t="s">
         <v>1639</v>
@@ -23068,10 +23065,10 @@
         <v>2</v>
       </c>
       <c r="G519" s="17" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="H519" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I519" s="17"/>
       <c r="J519" s="17"/>
@@ -23085,7 +23082,7 @@
         <v>515</v>
       </c>
       <c r="C520" s="17" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D520" s="16" t="s">
         <v>1639</v>
@@ -23097,10 +23094,10 @@
         <v>2</v>
       </c>
       <c r="G520" s="17" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="H520" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I520" s="17"/>
       <c r="J520" s="17"/>
@@ -23114,7 +23111,7 @@
         <v>516</v>
       </c>
       <c r="C521" s="17" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D521" s="16" t="s">
         <v>1478</v>
@@ -23126,10 +23123,10 @@
         <v>2</v>
       </c>
       <c r="G521" s="17" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="H521" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I521" s="17"/>
       <c r="J521" s="17"/>
@@ -23143,7 +23140,7 @@
         <v>517</v>
       </c>
       <c r="C522" s="17" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D522" s="16" t="s">
         <v>1478</v>
@@ -23155,7 +23152,7 @@
         <v>2</v>
       </c>
       <c r="G522" s="17" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="H522" s="17"/>
       <c r="I522" s="17"/>
@@ -23170,7 +23167,7 @@
         <v>475</v>
       </c>
       <c r="C523" s="17" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D523" s="16" t="s">
         <v>1639</v>
@@ -23182,7 +23179,7 @@
         <v>2</v>
       </c>
       <c r="G523" s="17" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="H523" s="17"/>
       <c r="I523" s="17"/>
@@ -23197,7 +23194,7 @@
         <v>476</v>
       </c>
       <c r="C524" s="17" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D524" s="16" t="s">
         <v>1639</v>
@@ -23209,7 +23206,7 @@
         <v>2</v>
       </c>
       <c r="G524" s="17" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="H524" s="17"/>
       <c r="I524" s="17"/>
@@ -23224,7 +23221,7 @@
         <v>468</v>
       </c>
       <c r="C525" s="17" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D525" s="16" t="s">
         <v>1639</v>
@@ -23236,7 +23233,7 @@
         <v>2</v>
       </c>
       <c r="G525" s="17" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="H525" s="17"/>
       <c r="I525" s="17"/>
@@ -23251,7 +23248,7 @@
         <v>469</v>
       </c>
       <c r="C526" s="17" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D526" s="16" t="s">
         <v>1639</v>
@@ -23263,7 +23260,7 @@
         <v>2</v>
       </c>
       <c r="G526" s="17" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="H526" s="17"/>
       <c r="I526" s="17"/>
@@ -23278,7 +23275,7 @@
         <v>470</v>
       </c>
       <c r="C527" s="17" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D527" s="16" t="s">
         <v>1639</v>
@@ -23290,7 +23287,7 @@
         <v>2</v>
       </c>
       <c r="G527" s="17" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="H527" s="17"/>
       <c r="I527" s="17"/>
@@ -23305,7 +23302,7 @@
         <v>471</v>
       </c>
       <c r="C528" s="17" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D528" s="16" t="s">
         <v>1639</v>
@@ -23317,7 +23314,7 @@
         <v>2</v>
       </c>
       <c r="G528" s="17" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="H528" s="17"/>
       <c r="I528" s="17"/>
@@ -23332,7 +23329,7 @@
         <v>981</v>
       </c>
       <c r="C529" s="17" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D529" s="16" t="s">
         <v>1478</v>
@@ -23344,13 +23341,13 @@
         <v>2</v>
       </c>
       <c r="G529" s="17" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="H529" s="17" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="I529" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="J529" s="17"/>
       <c r="K529" s="17"/>
@@ -23363,7 +23360,7 @@
         <v>982</v>
       </c>
       <c r="C530" s="17" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D530" s="16" t="s">
         <v>1478</v>
@@ -23375,10 +23372,10 @@
         <v>2</v>
       </c>
       <c r="G530" s="17" t="s">
+        <v>1849</v>
+      </c>
+      <c r="H530" s="17" t="s">
         <v>1850</v>
-      </c>
-      <c r="H530" s="17" t="s">
-        <v>1851</v>
       </c>
       <c r="I530" s="17"/>
       <c r="J530" s="17"/>
@@ -23392,7 +23389,7 @@
         <v>983</v>
       </c>
       <c r="C531" s="17" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D531" s="16" t="s">
         <v>1478</v>
@@ -23404,13 +23401,13 @@
         <v>2</v>
       </c>
       <c r="G531" s="17" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="H531" s="17" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="I531" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="J531" s="17"/>
       <c r="K531" s="17"/>
@@ -23423,7 +23420,7 @@
         <v>984</v>
       </c>
       <c r="C532" s="17" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D532" s="16" t="s">
         <v>1478</v>
@@ -23435,7 +23432,7 @@
         <v>3</v>
       </c>
       <c r="G532" s="17" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="H532" s="17"/>
       <c r="I532" s="17"/>
@@ -23450,10 +23447,10 @@
         <v>985</v>
       </c>
       <c r="C533" s="17" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D533" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E533" s="16" t="s">
         <v>0</v>
@@ -23462,7 +23459,7 @@
         <v>3</v>
       </c>
       <c r="G533" s="17" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="H533" s="17"/>
       <c r="I533" s="17"/>
@@ -23477,7 +23474,7 @@
         <v>986</v>
       </c>
       <c r="C534" s="17" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="D534" s="16" t="s">
         <v>1478</v>
@@ -23489,10 +23486,10 @@
         <v>2</v>
       </c>
       <c r="G534" s="17" t="s">
+        <v>1856</v>
+      </c>
+      <c r="H534" s="17" t="s">
         <v>1857</v>
-      </c>
-      <c r="H534" s="17" t="s">
-        <v>1858</v>
       </c>
       <c r="I534" s="17"/>
       <c r="J534" s="17"/>
@@ -23506,10 +23503,10 @@
         <v>987</v>
       </c>
       <c r="C535" s="17" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="D535" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E535" s="16" t="s">
         <v>0</v>
@@ -23518,10 +23515,10 @@
         <v>3</v>
       </c>
       <c r="G535" s="17" t="s">
+        <v>1859</v>
+      </c>
+      <c r="H535" s="17" t="s">
         <v>1860</v>
-      </c>
-      <c r="H535" s="17" t="s">
-        <v>1861</v>
       </c>
       <c r="I535" s="17"/>
       <c r="J535" s="17"/>
@@ -23535,10 +23532,10 @@
         <v>988</v>
       </c>
       <c r="C536" s="17" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D536" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E536" s="16" t="s">
         <v>0</v>
@@ -23547,10 +23544,10 @@
         <v>3</v>
       </c>
       <c r="G536" s="17" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="H536" s="17" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="I536" s="17"/>
       <c r="J536" s="17"/>
@@ -23564,10 +23561,10 @@
         <v>989</v>
       </c>
       <c r="C537" s="17" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D537" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E537" s="16" t="s">
         <v>0</v>
@@ -23576,13 +23573,13 @@
         <v>3</v>
       </c>
       <c r="G537" s="17" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H537" s="17" t="s">
         <v>1865</v>
       </c>
-      <c r="H537" s="17" t="s">
+      <c r="I537" s="17" t="s">
         <v>1866</v>
-      </c>
-      <c r="I537" s="17" t="s">
-        <v>1867</v>
       </c>
       <c r="J537" s="17" t="s">
         <v>1171</v>
@@ -23597,10 +23594,10 @@
         <v>990</v>
       </c>
       <c r="C538" s="17" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D538" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E538" s="16" t="s">
         <v>0</v>
@@ -23609,13 +23606,13 @@
         <v>3</v>
       </c>
       <c r="G538" s="17" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H538" s="17" t="s">
         <v>1865</v>
       </c>
-      <c r="H538" s="17" t="s">
+      <c r="I538" s="17" t="s">
         <v>1866</v>
-      </c>
-      <c r="I538" s="17" t="s">
-        <v>1867</v>
       </c>
       <c r="J538" s="17" t="s">
         <v>1171</v>
@@ -23630,7 +23627,7 @@
         <v>991</v>
       </c>
       <c r="C539" s="17" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D539" s="16" t="s">
         <v>1478</v>
@@ -23642,10 +23639,10 @@
         <v>2</v>
       </c>
       <c r="G539" s="17" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H539" s="17" t="s">
         <v>1870</v>
-      </c>
-      <c r="H539" s="17" t="s">
-        <v>1871</v>
       </c>
       <c r="I539" s="17"/>
       <c r="J539" s="17"/>
@@ -23659,7 +23656,7 @@
         <v>992</v>
       </c>
       <c r="C540" s="17" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D540" s="16" t="s">
         <v>1478</v>
@@ -23686,7 +23683,7 @@
         <v>993</v>
       </c>
       <c r="C541" s="17" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D541" s="16" t="s">
         <v>1478</v>
@@ -23713,7 +23710,7 @@
         <v>994</v>
       </c>
       <c r="C542" s="17" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="D542" s="16" t="s">
         <v>1478</v>
@@ -23740,7 +23737,7 @@
         <v>995</v>
       </c>
       <c r="C543" s="17" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D543" s="16" t="s">
         <v>1478</v>
@@ -23752,10 +23749,10 @@
         <v>3</v>
       </c>
       <c r="G543" s="17" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="H543" s="17" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="I543" s="17"/>
       <c r="J543" s="17"/>
@@ -23769,7 +23766,7 @@
         <v>996</v>
       </c>
       <c r="C544" s="17" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D544" s="16" t="s">
         <v>1478</v>
@@ -23781,10 +23778,10 @@
         <v>3</v>
       </c>
       <c r="G544" s="17" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="H544" s="17" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="I544" s="17"/>
       <c r="J544" s="17"/>
@@ -23798,7 +23795,7 @@
         <v>997</v>
       </c>
       <c r="C545" s="17" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D545" s="16" t="s">
         <v>1478</v>
@@ -23825,7 +23822,7 @@
         <v>998</v>
       </c>
       <c r="C546" s="17" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D546" s="16" t="s">
         <v>1478</v>
@@ -23852,7 +23849,7 @@
         <v>999</v>
       </c>
       <c r="C547" s="17" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D547" s="16" t="s">
         <v>1478</v>
@@ -23864,10 +23861,10 @@
         <v>3</v>
       </c>
       <c r="G547" s="17" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="H547" s="17" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="I547" s="17"/>
       <c r="J547" s="17"/>
@@ -23881,7 +23878,7 @@
         <v>1000</v>
       </c>
       <c r="C548" s="17" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D548" s="16" t="s">
         <v>1478</v>
@@ -23908,7 +23905,7 @@
         <v>1001</v>
       </c>
       <c r="C549" s="17" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D549" s="16" t="s">
         <v>1478</v>
@@ -23935,7 +23932,7 @@
         <v>1002</v>
       </c>
       <c r="C550" s="17" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D550" s="16" t="s">
         <v>1478</v>
@@ -23962,10 +23959,10 @@
         <v>1003</v>
       </c>
       <c r="C551" s="17" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D551" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E551" s="16" t="s">
         <v>0</v>
@@ -23989,10 +23986,10 @@
         <v>1004</v>
       </c>
       <c r="C552" s="17" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="D552" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E552" s="16" t="s">
         <v>0</v>
@@ -24016,10 +24013,10 @@
         <v>1005</v>
       </c>
       <c r="C553" s="17" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D553" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E553" s="16" t="s">
         <v>0</v>
@@ -24043,10 +24040,10 @@
         <v>1006</v>
       </c>
       <c r="C554" s="17" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D554" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E554" s="16" t="s">
         <v>0</v>
@@ -24070,10 +24067,10 @@
         <v>1007</v>
       </c>
       <c r="C555" s="17" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D555" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E555" s="16" t="s">
         <v>0</v>
@@ -24097,10 +24094,10 @@
         <v>1008</v>
       </c>
       <c r="C556" s="17" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D556" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E556" s="16" t="s">
         <v>0</v>
@@ -24124,10 +24121,10 @@
         <v>1009</v>
       </c>
       <c r="C557" s="17" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D557" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E557" s="16" t="s">
         <v>0</v>
@@ -24151,7 +24148,7 @@
         <v>1010</v>
       </c>
       <c r="C558" s="17" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D558" s="16" t="s">
         <v>1478</v>
@@ -24163,13 +24160,13 @@
         <v>2</v>
       </c>
       <c r="G558" s="17" t="s">
+        <v>1893</v>
+      </c>
+      <c r="H558" s="17" t="s">
         <v>1894</v>
       </c>
-      <c r="H558" s="17" t="s">
+      <c r="I558" s="17" t="s">
         <v>1895</v>
-      </c>
-      <c r="I558" s="17" t="s">
-        <v>1896</v>
       </c>
       <c r="J558" s="17"/>
       <c r="K558" s="17"/>
@@ -24209,7 +24206,7 @@
         <v>1012</v>
       </c>
       <c r="C560" s="17" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="D560" s="16" t="s">
         <v>1478</v>
@@ -24221,16 +24218,16 @@
         <v>3</v>
       </c>
       <c r="G560" s="17" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H560" s="17" t="s">
         <v>1897</v>
       </c>
-      <c r="H560" s="17" t="s">
+      <c r="I560" s="17" t="s">
         <v>1898</v>
       </c>
-      <c r="I560" s="17" t="s">
+      <c r="J560" s="17" t="s">
         <v>1899</v>
-      </c>
-      <c r="J560" s="17" t="s">
-        <v>1900</v>
       </c>
       <c r="K560" s="17"/>
     </row>
@@ -24242,7 +24239,7 @@
         <v>1013</v>
       </c>
       <c r="C561" s="17" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D561" s="16" t="s">
         <v>1478</v>
@@ -24254,19 +24251,19 @@
         <v>3</v>
       </c>
       <c r="G561" s="17" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="H561" s="17" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I561" s="17" t="s">
+        <v>1898</v>
+      </c>
+      <c r="J561" s="17" t="s">
         <v>1895</v>
       </c>
-      <c r="I561" s="17" t="s">
+      <c r="K561" s="17" t="s">
         <v>1899</v>
-      </c>
-      <c r="J561" s="17" t="s">
-        <v>1896</v>
-      </c>
-      <c r="K561" s="17" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="562" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -24277,7 +24274,7 @@
         <v>1014</v>
       </c>
       <c r="C562" s="17" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="D562" s="16" t="s">
         <v>1478</v>
@@ -24289,19 +24286,19 @@
         <v>3</v>
       </c>
       <c r="G562" s="17" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="H562" s="17" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I562" s="17" t="s">
+        <v>1898</v>
+      </c>
+      <c r="J562" s="17" t="s">
         <v>1895</v>
       </c>
-      <c r="I562" s="17" t="s">
+      <c r="K562" s="17" t="s">
         <v>1899</v>
-      </c>
-      <c r="J562" s="17" t="s">
-        <v>1896</v>
-      </c>
-      <c r="K562" s="17" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="563" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -24312,7 +24309,7 @@
         <v>1015</v>
       </c>
       <c r="C563" s="17" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="D563" s="16" t="s">
         <v>1478</v>
@@ -24324,19 +24321,19 @@
         <v>3</v>
       </c>
       <c r="G563" s="17" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="H563" s="17" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I563" s="17" t="s">
+        <v>1898</v>
+      </c>
+      <c r="J563" s="17" t="s">
         <v>1895</v>
       </c>
-      <c r="I563" s="17" t="s">
+      <c r="K563" s="17" t="s">
         <v>1899</v>
-      </c>
-      <c r="J563" s="17" t="s">
-        <v>1896</v>
-      </c>
-      <c r="K563" s="17" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="564" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -24347,7 +24344,7 @@
         <v>1016</v>
       </c>
       <c r="C564" s="17" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D564" s="16" t="s">
         <v>1478</v>
@@ -24359,13 +24356,13 @@
         <v>3</v>
       </c>
       <c r="G564" s="17" t="s">
+        <v>1906</v>
+      </c>
+      <c r="H564" s="17" t="s">
+        <v>1897</v>
+      </c>
+      <c r="I564" s="17" t="s">
         <v>1907</v>
-      </c>
-      <c r="H564" s="17" t="s">
-        <v>1898</v>
-      </c>
-      <c r="I564" s="17" t="s">
-        <v>1908</v>
       </c>
       <c r="J564" s="17"/>
       <c r="K564" s="17"/>
@@ -24378,7 +24375,7 @@
         <v>1017</v>
       </c>
       <c r="C565" s="17" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D565" s="16" t="s">
         <v>1478</v>
@@ -24390,13 +24387,13 @@
         <v>3</v>
       </c>
       <c r="G565" s="17" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="H565" s="17" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="I565" s="17" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="J565" s="17"/>
       <c r="K565" s="17"/>
@@ -24409,7 +24406,7 @@
         <v>1018</v>
       </c>
       <c r="C566" s="17" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D566" s="16" t="s">
         <v>1478</v>
@@ -24421,13 +24418,13 @@
         <v>3</v>
       </c>
       <c r="G566" s="17" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="H566" s="17" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="I566" s="17" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="J566" s="17"/>
       <c r="K566" s="17"/>
@@ -24440,7 +24437,7 @@
         <v>1019</v>
       </c>
       <c r="C567" s="17" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D567" s="16" t="s">
         <v>1478</v>
@@ -24452,13 +24449,13 @@
         <v>3</v>
       </c>
       <c r="G567" s="17" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="H567" s="17" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="I567" s="17" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="J567" s="17"/>
       <c r="K567" s="17"/>
@@ -24471,7 +24468,7 @@
         <v>1020</v>
       </c>
       <c r="C568" s="17" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="D568" s="16" t="s">
         <v>1478</v>
@@ -24483,13 +24480,13 @@
         <v>3</v>
       </c>
       <c r="G568" s="17" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="H568" s="17" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="I568" s="17" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="J568" s="17"/>
       <c r="K568" s="17"/>
@@ -24502,7 +24499,7 @@
         <v>1021</v>
       </c>
       <c r="C569" s="17" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="D569" s="16" t="s">
         <v>1478</v>
@@ -24514,13 +24511,13 @@
         <v>3</v>
       </c>
       <c r="G569" s="17" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="H569" s="17" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="I569" s="17" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="J569" s="17"/>
       <c r="K569" s="17"/>
@@ -24587,7 +24584,7 @@
         <v>1024</v>
       </c>
       <c r="C572" s="17" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="D572" s="16" t="s">
         <v>1478</v>
@@ -24614,7 +24611,7 @@
         <v>1025</v>
       </c>
       <c r="C573" s="17" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="D573" s="16" t="s">
         <v>1478</v>
@@ -24641,7 +24638,7 @@
         <v>1026</v>
       </c>
       <c r="C574" s="17" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="D574" s="16" t="s">
         <v>1478</v>
@@ -24653,10 +24650,10 @@
         <v>2</v>
       </c>
       <c r="G574" s="17" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="H574" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I574" s="17" t="s">
         <v>1431</v>
@@ -24672,7 +24669,7 @@
         <v>1027</v>
       </c>
       <c r="C575" s="17" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D575" s="16" t="s">
         <v>1478</v>
@@ -24684,10 +24681,10 @@
         <v>2</v>
       </c>
       <c r="G575" s="17" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="H575" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I575" s="17" t="s">
         <v>1431</v>
@@ -24703,7 +24700,7 @@
         <v>1028</v>
       </c>
       <c r="C576" s="17" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D576" s="16" t="s">
         <v>1478</v>
@@ -24715,7 +24712,7 @@
         <v>2</v>
       </c>
       <c r="G576" s="17" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="H576" s="17" t="s">
         <v>1431</v>
@@ -24732,7 +24729,7 @@
         <v>1029</v>
       </c>
       <c r="C577" s="17" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D577" s="16" t="s">
         <v>1478</v>
@@ -24759,7 +24756,7 @@
         <v>1030</v>
       </c>
       <c r="C578" s="17" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D578" s="16" t="s">
         <v>1478</v>
@@ -24786,7 +24783,7 @@
         <v>1031</v>
       </c>
       <c r="C579" s="17" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D579" s="16" t="s">
         <v>1478</v>
@@ -24813,7 +24810,7 @@
         <v>1032</v>
       </c>
       <c r="C580" s="17" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D580" s="16" t="s">
         <v>1478</v>
@@ -24840,7 +24837,7 @@
         <v>1033</v>
       </c>
       <c r="C581" s="17" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D581" s="16" t="s">
         <v>1478</v>
@@ -24867,7 +24864,7 @@
         <v>1034</v>
       </c>
       <c r="C582" s="17" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D582" s="16" t="s">
         <v>1478</v>
@@ -24894,7 +24891,7 @@
         <v>1035</v>
       </c>
       <c r="C583" s="17" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D583" s="16" t="s">
         <v>1478</v>
@@ -24921,7 +24918,7 @@
         <v>1036</v>
       </c>
       <c r="C584" s="17" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D584" s="16" t="s">
         <v>1478</v>
@@ -24948,7 +24945,7 @@
         <v>1037</v>
       </c>
       <c r="C585" s="17" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D585" s="16" t="s">
         <v>1478</v>
@@ -24960,10 +24957,10 @@
         <v>2</v>
       </c>
       <c r="G585" s="17" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="H585" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I585" s="17" t="s">
         <v>1431</v>
@@ -24979,7 +24976,7 @@
         <v>1038</v>
       </c>
       <c r="C586" s="17" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D586" s="16" t="s">
         <v>1478</v>
@@ -25006,7 +25003,7 @@
         <v>1039</v>
       </c>
       <c r="C587" s="17" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D587" s="16" t="s">
         <v>1478</v>
@@ -25033,7 +25030,7 @@
         <v>1040</v>
       </c>
       <c r="C588" s="17" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D588" s="16" t="s">
         <v>1478</v>
@@ -25060,7 +25057,7 @@
         <v>1041</v>
       </c>
       <c r="C589" s="17" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D589" s="16" t="s">
         <v>1478</v>
@@ -25087,7 +25084,7 @@
         <v>1042</v>
       </c>
       <c r="C590" s="17" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D590" s="16" t="s">
         <v>1478</v>
@@ -25114,7 +25111,7 @@
         <v>1043</v>
       </c>
       <c r="C591" s="17" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D591" s="16" t="s">
         <v>1478</v>
@@ -25141,7 +25138,7 @@
         <v>1044</v>
       </c>
       <c r="C592" s="17" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D592" s="16" t="s">
         <v>1478</v>
@@ -25168,7 +25165,7 @@
         <v>1045</v>
       </c>
       <c r="C593" s="17" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D593" s="16" t="s">
         <v>1478</v>
@@ -25195,7 +25192,7 @@
         <v>1046</v>
       </c>
       <c r="C594" s="17" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D594" s="16" t="s">
         <v>1478</v>
@@ -25222,7 +25219,7 @@
         <v>1047</v>
       </c>
       <c r="C595" s="17" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D595" s="16" t="s">
         <v>1478</v>
@@ -25249,7 +25246,7 @@
         <v>1048</v>
       </c>
       <c r="C596" s="17" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D596" s="16" t="s">
         <v>1478</v>
@@ -25276,7 +25273,7 @@
         <v>1049</v>
       </c>
       <c r="C597" s="17" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D597" s="16" t="s">
         <v>1478</v>
@@ -25288,10 +25285,10 @@
         <v>2</v>
       </c>
       <c r="G597" s="17" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="H597" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I597" s="17" t="s">
         <v>1431</v>
@@ -25307,7 +25304,7 @@
         <v>1050</v>
       </c>
       <c r="C598" s="17" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D598" s="16" t="s">
         <v>1478</v>
@@ -25334,7 +25331,7 @@
         <v>1051</v>
       </c>
       <c r="C599" s="17" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D599" s="16" t="s">
         <v>1478</v>
@@ -25361,7 +25358,7 @@
         <v>1052</v>
       </c>
       <c r="C600" s="17" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="D600" s="16" t="s">
         <v>1478</v>
@@ -25388,7 +25385,7 @@
         <v>1053</v>
       </c>
       <c r="C601" s="17" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D601" s="16" t="s">
         <v>1478</v>
@@ -25400,7 +25397,7 @@
         <v>2</v>
       </c>
       <c r="G601" s="17" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="H601" s="17" t="s">
         <v>1431</v>
@@ -25417,7 +25414,7 @@
         <v>1054</v>
       </c>
       <c r="C602" s="17" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D602" s="16" t="s">
         <v>1478</v>
@@ -25429,10 +25426,10 @@
         <v>2</v>
       </c>
       <c r="G602" s="17" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="H602" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I602" s="17"/>
       <c r="J602" s="17"/>
@@ -25446,7 +25443,7 @@
         <v>1055</v>
       </c>
       <c r="C603" s="17" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D603" s="16" t="s">
         <v>1478</v>
@@ -25473,7 +25470,7 @@
         <v>1056</v>
       </c>
       <c r="C604" s="17" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D604" s="16" t="s">
         <v>1478</v>
@@ -25500,7 +25497,7 @@
         <v>1057</v>
       </c>
       <c r="C605" s="17" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D605" s="16" t="s">
         <v>1478</v>
@@ -25512,10 +25509,10 @@
         <v>2</v>
       </c>
       <c r="G605" s="17" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="H605" s="17" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="I605" s="17"/>
       <c r="J605" s="17"/>
@@ -25529,7 +25526,7 @@
         <v>1058</v>
       </c>
       <c r="C606" s="17" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D606" s="16" t="s">
         <v>1478</v>
@@ -25556,7 +25553,7 @@
         <v>416</v>
       </c>
       <c r="C607" s="17" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D607" s="16" t="s">
         <v>1639</v>
@@ -25568,7 +25565,7 @@
         <v>2</v>
       </c>
       <c r="G607" s="17" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="H607" s="17"/>
       <c r="I607" s="17"/>
@@ -25583,7 +25580,7 @@
         <v>417</v>
       </c>
       <c r="C608" s="17" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D608" s="16" t="s">
         <v>1639</v>
@@ -25595,10 +25592,10 @@
         <v>2</v>
       </c>
       <c r="G608" s="17" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="H608" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I608" s="17"/>
       <c r="J608" s="17"/>
@@ -25612,7 +25609,7 @@
         <v>418</v>
       </c>
       <c r="C609" s="17" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D609" s="16" t="s">
         <v>1639</v>
@@ -25624,7 +25621,7 @@
         <v>2</v>
       </c>
       <c r="G609" s="17" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="H609" s="17"/>
       <c r="I609" s="17"/>
@@ -25639,25 +25636,25 @@
         <v>419</v>
       </c>
       <c r="C610" s="17" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D610" s="16" t="s">
         <v>1968</v>
       </c>
-      <c r="D610" s="16" t="s">
+      <c r="E610" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F610" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G610" s="17" t="s">
         <v>1969</v>
       </c>
-      <c r="E610" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F610" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G610" s="17" t="s">
+      <c r="H610" s="17" t="s">
         <v>1970</v>
       </c>
-      <c r="H610" s="17" t="s">
+      <c r="I610" s="17" t="s">
         <v>1971</v>
-      </c>
-      <c r="I610" s="17" t="s">
-        <v>1972</v>
       </c>
       <c r="J610" s="17"/>
       <c r="K610" s="17"/>
@@ -25670,25 +25667,25 @@
         <v>420</v>
       </c>
       <c r="C611" s="17" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D611" s="16" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E611" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F611" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G611" s="17" t="s">
         <v>1973</v>
       </c>
-      <c r="D611" s="16" t="s">
-        <v>1969</v>
-      </c>
-      <c r="E611" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F611" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G611" s="17" t="s">
+      <c r="H611" s="17" t="s">
+        <v>1970</v>
+      </c>
+      <c r="I611" s="17" t="s">
         <v>1974</v>
-      </c>
-      <c r="H611" s="17" t="s">
-        <v>1971</v>
-      </c>
-      <c r="I611" s="17" t="s">
-        <v>1975</v>
       </c>
       <c r="J611" s="17"/>
       <c r="K611" s="17"/>
@@ -25701,7 +25698,7 @@
         <v>421</v>
       </c>
       <c r="C612" s="17" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D612" s="16" t="s">
         <v>1639</v>
@@ -25713,10 +25710,10 @@
         <v>2</v>
       </c>
       <c r="G612" s="17" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="H612" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I612" s="17"/>
       <c r="J612" s="17"/>
@@ -25730,7 +25727,7 @@
         <v>422</v>
       </c>
       <c r="C613" s="17" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D613" s="16" t="s">
         <v>1639</v>
@@ -25742,7 +25739,7 @@
         <v>2</v>
       </c>
       <c r="G613" s="17" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="H613" s="17"/>
       <c r="I613" s="17"/>
@@ -25757,7 +25754,7 @@
         <v>423</v>
       </c>
       <c r="C614" s="17" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D614" s="16" t="s">
         <v>1639</v>
@@ -25769,7 +25766,7 @@
         <v>2</v>
       </c>
       <c r="G614" s="17" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="H614" s="17"/>
       <c r="I614" s="17"/>
@@ -25784,7 +25781,7 @@
         <v>424</v>
       </c>
       <c r="C615" s="17" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D615" s="16" t="s">
         <v>1639</v>
@@ -25796,10 +25793,10 @@
         <v>2</v>
       </c>
       <c r="G615" s="17" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="H615" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I615" s="17"/>
       <c r="J615" s="17"/>
@@ -25813,7 +25810,7 @@
         <v>425</v>
       </c>
       <c r="C616" s="17" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D616" s="16" t="s">
         <v>1639</v>
@@ -25825,10 +25822,10 @@
         <v>2</v>
       </c>
       <c r="G616" s="17" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="H616" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I616" s="17"/>
       <c r="J616" s="17"/>
@@ -25842,7 +25839,7 @@
         <v>426</v>
       </c>
       <c r="C617" s="17" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D617" s="16" t="s">
         <v>1639</v>
@@ -25854,10 +25851,10 @@
         <v>2</v>
       </c>
       <c r="G617" s="17" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="H617" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I617" s="17"/>
       <c r="J617" s="17"/>
@@ -25871,7 +25868,7 @@
         <v>427</v>
       </c>
       <c r="C618" s="17" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D618" s="16" t="s">
         <v>1639</v>
@@ -25883,10 +25880,10 @@
         <v>2</v>
       </c>
       <c r="G618" s="17" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="H618" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I618" s="17"/>
       <c r="J618" s="17"/>
@@ -25900,7 +25897,7 @@
         <v>428</v>
       </c>
       <c r="C619" s="17" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D619" s="16" t="s">
         <v>1639</v>
@@ -25912,10 +25909,10 @@
         <v>2</v>
       </c>
       <c r="G619" s="17" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="H619" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I619" s="17"/>
       <c r="J619" s="17"/>
@@ -25929,7 +25926,7 @@
         <v>429</v>
       </c>
       <c r="C620" s="17" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D620" s="16" t="s">
         <v>1639</v>
@@ -25941,10 +25938,10 @@
         <v>2</v>
       </c>
       <c r="G620" s="17" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="H620" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I620" s="17"/>
       <c r="J620" s="17"/>
@@ -25958,7 +25955,7 @@
         <v>464</v>
       </c>
       <c r="C621" s="17" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D621" s="16" t="s">
         <v>1639</v>
@@ -25970,10 +25967,10 @@
         <v>2</v>
       </c>
       <c r="G621" s="17" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H621" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I621" s="17"/>
       <c r="J621" s="17"/>
@@ -25987,7 +25984,7 @@
         <v>465</v>
       </c>
       <c r="C622" s="17" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D622" s="16" t="s">
         <v>1639</v>
@@ -25999,10 +25996,10 @@
         <v>2</v>
       </c>
       <c r="G622" s="17" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="H622" s="17" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="I622" s="17"/>
       <c r="J622" s="17"/>
@@ -26016,7 +26013,7 @@
         <v>1059</v>
       </c>
       <c r="C623" s="17" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D623" s="16" t="s">
         <v>1478</v>
@@ -26043,7 +26040,7 @@
         <v>1060</v>
       </c>
       <c r="C624" s="17" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D624" s="16" t="s">
         <v>1478</v>
@@ -26055,16 +26052,16 @@
         <v>2</v>
       </c>
       <c r="G624" s="17" t="s">
+        <v>1999</v>
+      </c>
+      <c r="H624" s="17" t="s">
         <v>2000</v>
       </c>
-      <c r="H624" s="17" t="s">
+      <c r="I624" s="17" t="s">
         <v>2001</v>
       </c>
-      <c r="I624" s="17" t="s">
+      <c r="J624" s="17" t="s">
         <v>2002</v>
-      </c>
-      <c r="J624" s="17" t="s">
-        <v>2003</v>
       </c>
       <c r="K624" s="17"/>
     </row>
@@ -26076,7 +26073,7 @@
         <v>1061</v>
       </c>
       <c r="C625" s="17" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D625" s="16" t="s">
         <v>1478</v>
@@ -26088,13 +26085,13 @@
         <v>2</v>
       </c>
       <c r="G625" s="17" t="s">
+        <v>2004</v>
+      </c>
+      <c r="H625" s="17" t="s">
+        <v>2001</v>
+      </c>
+      <c r="I625" s="17" t="s">
         <v>2005</v>
-      </c>
-      <c r="H625" s="17" t="s">
-        <v>2002</v>
-      </c>
-      <c r="I625" s="17" t="s">
-        <v>2006</v>
       </c>
       <c r="J625" s="17"/>
       <c r="K625" s="17"/>
@@ -26107,7 +26104,7 @@
         <v>1062</v>
       </c>
       <c r="C626" s="17" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D626" s="16" t="s">
         <v>1478</v>
@@ -26119,13 +26116,13 @@
         <v>2</v>
       </c>
       <c r="G626" s="17" t="s">
+        <v>2007</v>
+      </c>
+      <c r="H626" s="17" t="s">
+        <v>2001</v>
+      </c>
+      <c r="I626" s="17" t="s">
         <v>2008</v>
-      </c>
-      <c r="H626" s="17" t="s">
-        <v>2002</v>
-      </c>
-      <c r="I626" s="17" t="s">
-        <v>2009</v>
       </c>
       <c r="J626" s="17"/>
       <c r="K626" s="17"/>
@@ -26138,10 +26135,10 @@
         <v>1063</v>
       </c>
       <c r="C627" s="17" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D627" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E627" s="16" t="s">
         <v>0</v>
@@ -26165,10 +26162,10 @@
         <v>1064</v>
       </c>
       <c r="C628" s="17" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D628" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E628" s="16" t="s">
         <v>0</v>
@@ -26192,10 +26189,10 @@
         <v>1065</v>
       </c>
       <c r="C629" s="17" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D629" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E629" s="16" t="s">
         <v>0</v>
@@ -26219,10 +26216,10 @@
         <v>1066</v>
       </c>
       <c r="C630" s="17" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D630" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E630" s="16" t="s">
         <v>0</v>
@@ -26246,10 +26243,10 @@
         <v>1067</v>
       </c>
       <c r="C631" s="17" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D631" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E631" s="16" t="s">
         <v>0</v>
@@ -26273,10 +26270,10 @@
         <v>1068</v>
       </c>
       <c r="C632" s="17" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D632" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E632" s="16" t="s">
         <v>0</v>
@@ -26300,10 +26297,10 @@
         <v>1069</v>
       </c>
       <c r="C633" s="17" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D633" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E633" s="16" t="s">
         <v>0</v>
@@ -26327,10 +26324,10 @@
         <v>1070</v>
       </c>
       <c r="C634" s="17" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D634" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E634" s="16" t="s">
         <v>0</v>
@@ -26354,10 +26351,10 @@
         <v>1071</v>
       </c>
       <c r="C635" s="17" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D635" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E635" s="16" t="s">
         <v>0</v>
@@ -26381,10 +26378,10 @@
         <v>1072</v>
       </c>
       <c r="C636" s="17" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D636" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E636" s="16" t="s">
         <v>0</v>
@@ -26408,10 +26405,10 @@
         <v>1073</v>
       </c>
       <c r="C637" s="17" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D637" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E637" s="16" t="s">
         <v>0</v>
@@ -26435,10 +26432,10 @@
         <v>1074</v>
       </c>
       <c r="C638" s="17" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D638" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E638" s="16" t="s">
         <v>0</v>
@@ -26462,10 +26459,10 @@
         <v>1075</v>
       </c>
       <c r="C639" s="17" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D639" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E639" s="16" t="s">
         <v>0</v>
@@ -26489,10 +26486,10 @@
         <v>1076</v>
       </c>
       <c r="C640" s="17" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D640" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E640" s="16" t="s">
         <v>0</v>
@@ -26516,10 +26513,10 @@
         <v>1077</v>
       </c>
       <c r="C641" s="17" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D641" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E641" s="16" t="s">
         <v>0</v>
@@ -26543,10 +26540,10 @@
         <v>1078</v>
       </c>
       <c r="C642" s="17" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D642" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E642" s="16" t="s">
         <v>0</v>
@@ -26570,10 +26567,10 @@
         <v>1079</v>
       </c>
       <c r="C643" s="17" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D643" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E643" s="16" t="s">
         <v>0</v>
@@ -26597,10 +26594,10 @@
         <v>1080</v>
       </c>
       <c r="C644" s="17" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D644" s="16" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="E644" s="16" t="s">
         <v>0</v>
@@ -26624,22 +26621,22 @@
         <v>1081</v>
       </c>
       <c r="C645" s="17" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D645" s="16" t="s">
         <v>1639</v>
       </c>
       <c r="E645" s="16" t="s">
-        <v>1655</v>
+        <v>73</v>
       </c>
       <c r="F645" s="16" t="s">
         <v>3</v>
       </c>
       <c r="G645" s="17" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="H645" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I645" s="17"/>
       <c r="J645" s="17"/>
@@ -26653,22 +26650,22 @@
         <v>1082</v>
       </c>
       <c r="C646" s="17" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D646" s="16" t="s">
         <v>1639</v>
       </c>
       <c r="E646" s="16" t="s">
-        <v>1655</v>
+        <v>73</v>
       </c>
       <c r="F646" s="16" t="s">
         <v>3</v>
       </c>
       <c r="G646" s="17" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="H646" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I646" s="17"/>
       <c r="J646" s="17"/>
@@ -26682,7 +26679,7 @@
         <v>518</v>
       </c>
       <c r="C647" s="17" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D647" s="16" t="s">
         <v>1639</v>
@@ -26694,10 +26691,10 @@
         <v>2</v>
       </c>
       <c r="G647" s="17" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="H647" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I647" s="17"/>
       <c r="J647" s="17"/>
@@ -26711,7 +26708,7 @@
         <v>519</v>
       </c>
       <c r="C648" s="17" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="D648" s="16" t="s">
         <v>1639</v>
@@ -26723,10 +26720,10 @@
         <v>2</v>
       </c>
       <c r="G648" s="17" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="H648" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I648" s="17"/>
       <c r="J648" s="17"/>
@@ -26740,7 +26737,7 @@
         <v>520</v>
       </c>
       <c r="C649" s="17" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D649" s="16" t="s">
         <v>1639</v>
@@ -26752,10 +26749,10 @@
         <v>2</v>
       </c>
       <c r="G649" s="17" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="H649" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I649" s="17"/>
       <c r="J649" s="17"/>
@@ -26769,7 +26766,7 @@
         <v>521</v>
       </c>
       <c r="C650" s="17" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="D650" s="16" t="s">
         <v>1639</v>
@@ -26781,13 +26778,13 @@
         <v>2</v>
       </c>
       <c r="G650" s="17" t="s">
+        <v>2038</v>
+      </c>
+      <c r="H650" s="17" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I650" s="17" t="s">
         <v>2039</v>
-      </c>
-      <c r="H650" s="17" t="s">
-        <v>1778</v>
-      </c>
-      <c r="I650" s="17" t="s">
-        <v>2040</v>
       </c>
       <c r="J650" s="17"/>
       <c r="K650" s="17"/>
@@ -26800,7 +26797,7 @@
         <v>522</v>
       </c>
       <c r="C651" s="17" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="D651" s="16" t="s">
         <v>1639</v>
@@ -26812,10 +26809,10 @@
         <v>2</v>
       </c>
       <c r="G651" s="17" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="H651" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I651" s="17"/>
       <c r="J651" s="17"/>
@@ -26829,7 +26826,7 @@
         <v>523</v>
       </c>
       <c r="C652" s="17" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="D652" s="16" t="s">
         <v>1639</v>
@@ -26841,10 +26838,10 @@
         <v>2</v>
       </c>
       <c r="G652" s="17" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="H652" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I652" s="17"/>
       <c r="J652" s="17"/>
@@ -26858,7 +26855,7 @@
         <v>524</v>
       </c>
       <c r="C653" s="17" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="D653" s="16" t="s">
         <v>1639</v>
@@ -26870,10 +26867,10 @@
         <v>2</v>
       </c>
       <c r="G653" s="17" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="H653" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I653" s="17"/>
       <c r="J653" s="17"/>
@@ -26887,7 +26884,7 @@
         <v>525</v>
       </c>
       <c r="C654" s="17" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="D654" s="16" t="s">
         <v>1639</v>
@@ -26899,10 +26896,10 @@
         <v>2</v>
       </c>
       <c r="G654" s="17" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="H654" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I654" s="17"/>
       <c r="J654" s="17"/>
@@ -26916,7 +26913,7 @@
         <v>526</v>
       </c>
       <c r="C655" s="17" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D655" s="16" t="s">
         <v>1639</v>
@@ -26928,10 +26925,10 @@
         <v>2</v>
       </c>
       <c r="G655" s="17" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="H655" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I655" s="17"/>
       <c r="J655" s="17"/>
@@ -26945,7 +26942,7 @@
         <v>527</v>
       </c>
       <c r="C656" s="17" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="D656" s="16" t="s">
         <v>1639</v>
@@ -26957,10 +26954,10 @@
         <v>2</v>
       </c>
       <c r="G656" s="17" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="H656" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I656" s="17"/>
       <c r="J656" s="17"/>
@@ -26974,7 +26971,7 @@
         <v>528</v>
       </c>
       <c r="C657" s="17" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="D657" s="16" t="s">
         <v>1639</v>
@@ -26986,10 +26983,10 @@
         <v>2</v>
       </c>
       <c r="G657" s="17" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="H657" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I657" s="17"/>
       <c r="J657" s="17"/>
@@ -27003,7 +27000,7 @@
         <v>529</v>
       </c>
       <c r="C658" s="17" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="D658" s="16" t="s">
         <v>1639</v>
@@ -27015,10 +27012,10 @@
         <v>2</v>
       </c>
       <c r="G658" s="17" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="H658" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I658" s="17"/>
       <c r="J658" s="17"/>
@@ -27032,7 +27029,7 @@
         <v>530</v>
       </c>
       <c r="C659" s="17" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="D659" s="16" t="s">
         <v>1639</v>
@@ -27044,10 +27041,10 @@
         <v>2</v>
       </c>
       <c r="G659" s="17" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="H659" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I659" s="17"/>
       <c r="J659" s="17"/>
@@ -27061,7 +27058,7 @@
         <v>531</v>
       </c>
       <c r="C660" s="17" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="D660" s="16" t="s">
         <v>1639</v>
@@ -27073,10 +27070,10 @@
         <v>2</v>
       </c>
       <c r="G660" s="17" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H660" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I660" s="17"/>
       <c r="J660" s="17"/>
@@ -27090,7 +27087,7 @@
         <v>532</v>
       </c>
       <c r="C661" s="17" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D661" s="16" t="s">
         <v>1639</v>
@@ -27102,10 +27099,10 @@
         <v>2</v>
       </c>
       <c r="G661" s="17" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="H661" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I661" s="17"/>
       <c r="J661" s="17"/>
@@ -27119,7 +27116,7 @@
         <v>533</v>
       </c>
       <c r="C662" s="17" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D662" s="16" t="s">
         <v>1639</v>
@@ -27131,10 +27128,10 @@
         <v>2</v>
       </c>
       <c r="G662" s="17" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="H662" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I662" s="17"/>
       <c r="J662" s="17"/>
@@ -27148,7 +27145,7 @@
         <v>534</v>
       </c>
       <c r="C663" s="17" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D663" s="16" t="s">
         <v>1639</v>
@@ -27160,10 +27157,10 @@
         <v>2</v>
       </c>
       <c r="G663" s="17" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="H663" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I663" s="17"/>
       <c r="J663" s="17"/>
@@ -27177,7 +27174,7 @@
         <v>535</v>
       </c>
       <c r="C664" s="17" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D664" s="16" t="s">
         <v>1639</v>
@@ -27189,10 +27186,10 @@
         <v>2</v>
       </c>
       <c r="G664" s="17" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="H664" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I664" s="17"/>
       <c r="J664" s="17"/>
@@ -27206,7 +27203,7 @@
         <v>536</v>
       </c>
       <c r="C665" s="17" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D665" s="16" t="s">
         <v>1639</v>
@@ -27218,10 +27215,10 @@
         <v>2</v>
       </c>
       <c r="G665" s="17" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="H665" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I665" s="17"/>
       <c r="J665" s="17"/>
@@ -27235,7 +27232,7 @@
         <v>537</v>
       </c>
       <c r="C666" s="17" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D666" s="16" t="s">
         <v>1639</v>
@@ -27247,10 +27244,10 @@
         <v>2</v>
       </c>
       <c r="G666" s="17" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="H666" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I666" s="17"/>
       <c r="J666" s="17"/>
@@ -27264,7 +27261,7 @@
         <v>538</v>
       </c>
       <c r="C667" s="17" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D667" s="16" t="s">
         <v>1639</v>
@@ -27276,13 +27273,13 @@
         <v>2</v>
       </c>
       <c r="G667" s="17" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="H667" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I667" s="17" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="J667" s="17"/>
       <c r="K667" s="17"/>
@@ -27295,7 +27292,7 @@
         <v>539</v>
       </c>
       <c r="C668" s="17" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D668" s="16" t="s">
         <v>1639</v>
@@ -27307,10 +27304,10 @@
         <v>2</v>
       </c>
       <c r="G668" s="17" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="H668" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I668" s="17"/>
       <c r="J668" s="17"/>
@@ -27324,7 +27321,7 @@
         <v>540</v>
       </c>
       <c r="C669" s="17" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D669" s="16" t="s">
         <v>1639</v>
@@ -27336,13 +27333,13 @@
         <v>2</v>
       </c>
       <c r="G669" s="17" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="H669" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I669" s="17" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="J669" s="17"/>
       <c r="K669" s="17"/>
@@ -27355,7 +27352,7 @@
         <v>541</v>
       </c>
       <c r="C670" s="17" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="D670" s="16" t="s">
         <v>1639</v>
@@ -27367,13 +27364,13 @@
         <v>2</v>
       </c>
       <c r="G670" s="17" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="H670" s="17" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I670" s="17" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="J670" s="17"/>
       <c r="K670" s="17"/>
@@ -28694,7 +28691,7 @@
         <v>2</v>
       </c>
       <c r="G719" s="9" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="H719" s="9"/>
       <c r="I719" s="9"/>
@@ -28709,7 +28706,7 @@
         <v>143</v>
       </c>
       <c r="C720" s="9" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="D720" s="9" t="s">
         <v>257</v>
@@ -28736,7 +28733,7 @@
         <v>144</v>
       </c>
       <c r="C721" s="9" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="D721" s="9" t="s">
         <v>257</v>
@@ -28763,7 +28760,7 @@
         <v>145</v>
       </c>
       <c r="C722" s="9" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="D722" s="9" t="s">
         <v>257</v>
@@ -28844,7 +28841,7 @@
         <v>149</v>
       </c>
       <c r="C725" s="17" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="D725" s="16" t="s">
         <v>257</v>
@@ -28856,7 +28853,7 @@
         <v>2</v>
       </c>
       <c r="G725" s="17" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="H725" s="17"/>
       <c r="I725" s="17"/>
@@ -28910,7 +28907,7 @@
         <v>2</v>
       </c>
       <c r="G727" s="9" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="H727" s="9"/>
       <c r="I727" s="9"/>
@@ -28937,7 +28934,7 @@
         <v>2</v>
       </c>
       <c r="G728" s="9" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="H728" s="9"/>
       <c r="I728" s="9"/>
@@ -28964,7 +28961,7 @@
         <v>2</v>
       </c>
       <c r="G729" s="9" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="H729" s="9"/>
       <c r="I729" s="9"/>
@@ -28991,7 +28988,7 @@
         <v>2</v>
       </c>
       <c r="G730" s="9" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="H730" s="9"/>
       <c r="I730" s="9"/>
@@ -29006,7 +29003,7 @@
         <v>261</v>
       </c>
       <c r="C731" s="17" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="D731" s="16" t="s">
         <v>257</v>
@@ -29141,7 +29138,7 @@
         <v>792</v>
       </c>
       <c r="C736" s="17" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="D736" s="16" t="s">
         <v>257</v>
@@ -29168,7 +29165,7 @@
         <v>1099</v>
       </c>
       <c r="C737" s="17" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="D737" s="16" t="s">
         <v>257</v>
@@ -29180,7 +29177,7 @@
         <v>3</v>
       </c>
       <c r="G737" s="17" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="H737" s="17"/>
       <c r="I737" s="17"/>
@@ -30106,6 +30103,7 @@
       <c r="K771" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="E68:E72 E11:E13 E9 E26:F26 A6:B6 F122:F127 F144:F149 F2 E84:F89 G138:K149 F229:F256 E7 F158:F227 E151:E156 F151:F154 G151:K197 E122:E135 E76:E77 E56:E66 F56:F72 A2 A3:B3 A151:A256 A128:A136 A4:A115 A1:K1 F4:F11 G93:K135 F150:K150 F12:K12 G136:G137 L79:R83 F13:F17 G2:K77">
     <cfRule type="containsText" dxfId="59" priority="518" operator="containsText" text="&lt;?&gt;">
@@ -30434,10 +30432,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
@@ -30923,18 +30921,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30957,6 +30955,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
@@ -30971,12 +30977,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Validatiematrix.xlsx
+++ b/Validatiematrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w.quak\Git\Geonovum\dso-validatiematrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A60BCA-EAC9-46B9-8B12-B1146AAB3070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8350CFF-E3BC-4D23-903F-E859EC6DDB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7995" yWindow="-18405" windowWidth="17250" windowHeight="8865" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Legenda" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Validatieregels!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Validatieregels!$A$1:$K$800</definedName>
     <definedName name="_Hlk45872431" localSheetId="0">Validatieregels!$D$141</definedName>
     <definedName name="_Hlk45872452" localSheetId="0">Validatieregels!$D$142</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Legenda!$A:$B</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5267" uniqueCount="2231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5273" uniqueCount="2231">
   <si>
     <t>Blokkerend</t>
   </si>
@@ -7756,10 +7756,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal 2" xfId="4" xr:uid="{0EC6E668-CD22-429A-B10D-9E4834C96B63}"/>
@@ -9353,14 +9353,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K800"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C212" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C210" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A366" sqref="A366:XFD366"/>
+      <selection pane="bottomRight" activeCell="E804" sqref="E804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -9414,7 +9415,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" s="16">
         <v>2</v>
       </c>
@@ -9441,7 +9442,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="27.6">
+    <row r="3" spans="1:11" ht="27.6" hidden="1">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -9470,7 +9471,7 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" ht="27.6">
+    <row r="4" spans="1:11" ht="27.6" hidden="1">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -9501,7 +9502,7 @@
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:11" ht="27.6">
+    <row r="5" spans="1:11" ht="27.6" hidden="1">
       <c r="A5" s="16">
         <v>2</v>
       </c>
@@ -9530,7 +9531,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:11" ht="27.6">
+    <row r="6" spans="1:11" ht="27.6" hidden="1">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -9561,7 +9562,7 @@
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:11" ht="27.6">
+    <row r="7" spans="1:11" ht="27.6" hidden="1">
       <c r="A7" s="16">
         <v>2</v>
       </c>
@@ -9590,7 +9591,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:11" ht="41.4">
+    <row r="8" spans="1:11" ht="41.4" hidden="1">
       <c r="A8" s="16">
         <v>2</v>
       </c>
@@ -9619,7 +9620,7 @@
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:11" ht="27.6">
+    <row r="9" spans="1:11" ht="27.6" hidden="1">
       <c r="A9" s="16">
         <v>2</v>
       </c>
@@ -9650,7 +9651,7 @@
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="16">
         <v>2</v>
       </c>
@@ -9681,7 +9682,7 @@
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:11" ht="27.6">
+    <row r="11" spans="1:11" ht="27.6" hidden="1">
       <c r="A11" s="16">
         <v>2</v>
       </c>
@@ -9712,7 +9713,7 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:11" ht="27.6">
+    <row r="12" spans="1:11" ht="27.6" hidden="1">
       <c r="A12" s="16">
         <v>2</v>
       </c>
@@ -9739,7 +9740,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:11" ht="27.6">
+    <row r="13" spans="1:11" ht="27.6" hidden="1">
       <c r="A13" s="16">
         <v>2</v>
       </c>
@@ -9766,7 +9767,7 @@
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" ht="27.6">
+    <row r="14" spans="1:11" ht="27.6" hidden="1">
       <c r="A14" s="16">
         <v>2</v>
       </c>
@@ -9793,7 +9794,7 @@
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:11" ht="27.6">
+    <row r="15" spans="1:11" ht="27.6" hidden="1">
       <c r="A15" s="16">
         <v>2</v>
       </c>
@@ -9822,7 +9823,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:11" ht="27.6">
+    <row r="16" spans="1:11" ht="27.6" hidden="1">
       <c r="A16" s="16">
         <v>2</v>
       </c>
@@ -9853,7 +9854,7 @@
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:11" ht="27.6">
+    <row r="17" spans="1:11" ht="27.6" hidden="1">
       <c r="A17" s="16">
         <v>2</v>
       </c>
@@ -9886,7 +9887,7 @@
       </c>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:11" ht="27.6">
+    <row r="18" spans="1:11" ht="27.6" hidden="1">
       <c r="A18" s="16">
         <v>2</v>
       </c>
@@ -9913,7 +9914,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:11" ht="41.4">
+    <row r="19" spans="1:11" ht="41.4" hidden="1">
       <c r="A19" s="16">
         <v>2</v>
       </c>
@@ -9942,7 +9943,7 @@
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="1:11" ht="27.6">
+    <row r="20" spans="1:11" ht="27.6" hidden="1">
       <c r="A20" s="16">
         <v>2</v>
       </c>
@@ -9969,7 +9970,7 @@
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="1:11" ht="41.4">
+    <row r="21" spans="1:11" ht="41.4" hidden="1">
       <c r="A21" s="16">
         <v>2</v>
       </c>
@@ -9998,7 +9999,7 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="1:11" ht="27.6">
+    <row r="22" spans="1:11" ht="27.6" hidden="1">
       <c r="A22" s="16">
         <v>2</v>
       </c>
@@ -10027,7 +10028,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="1:11" ht="55.2">
+    <row r="23" spans="1:11" ht="55.2" hidden="1">
       <c r="A23" s="16">
         <v>2</v>
       </c>
@@ -10056,7 +10057,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="1:11" ht="27.6">
+    <row r="24" spans="1:11" ht="27.6" hidden="1">
       <c r="A24" s="16">
         <v>2</v>
       </c>
@@ -10083,7 +10084,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="16">
         <v>6</v>
       </c>
@@ -10110,7 +10111,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="1:11" ht="41.4">
+    <row r="26" spans="1:11" ht="41.4" hidden="1">
       <c r="A26" s="16">
         <v>6</v>
       </c>
@@ -10141,7 +10142,7 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" s="16">
         <v>6</v>
       </c>
@@ -10168,7 +10169,7 @@
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="16">
         <v>6</v>
       </c>
@@ -10195,7 +10196,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="16">
         <v>6</v>
       </c>
@@ -10222,7 +10223,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
     </row>
-    <row r="30" spans="1:11" ht="27.6">
+    <row r="30" spans="1:11" ht="27.6" hidden="1">
       <c r="A30" s="9">
         <v>4</v>
       </c>
@@ -10249,7 +10250,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
     </row>
-    <row r="31" spans="1:11" ht="27.6">
+    <row r="31" spans="1:11" ht="27.6" hidden="1">
       <c r="A31" s="9">
         <v>4</v>
       </c>
@@ -10276,7 +10277,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" spans="1:11" ht="27.6">
+    <row r="32" spans="1:11" ht="27.6" hidden="1">
       <c r="A32" s="9">
         <v>4</v>
       </c>
@@ -10303,7 +10304,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" spans="1:11" ht="27.6">
+    <row r="33" spans="1:11" ht="27.6" hidden="1">
       <c r="A33" s="9">
         <v>4</v>
       </c>
@@ -10330,7 +10331,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
     </row>
-    <row r="34" spans="1:11" ht="27.6">
+    <row r="34" spans="1:11" ht="27.6" hidden="1">
       <c r="A34" s="9">
         <v>4</v>
       </c>
@@ -10357,7 +10358,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="16">
         <v>1</v>
       </c>
@@ -10384,7 +10385,7 @@
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
     </row>
-    <row r="36" spans="1:11" ht="27.6">
+    <row r="36" spans="1:11" ht="27.6" hidden="1">
       <c r="A36" s="16">
         <v>1</v>
       </c>
@@ -10411,7 +10412,7 @@
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="16">
         <v>1</v>
       </c>
@@ -10438,7 +10439,7 @@
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" s="16">
         <v>1</v>
       </c>
@@ -10465,7 +10466,7 @@
       <c r="J38" s="17"/>
       <c r="K38" s="17"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="16">
         <v>1</v>
       </c>
@@ -10492,7 +10493,7 @@
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
     </row>
-    <row r="40" spans="1:11" ht="27.6">
+    <row r="40" spans="1:11" ht="27.6" hidden="1">
       <c r="A40" s="16">
         <v>1</v>
       </c>
@@ -10519,7 +10520,7 @@
       <c r="J40" s="17"/>
       <c r="K40" s="17"/>
     </row>
-    <row r="41" spans="1:11" ht="27.6">
+    <row r="41" spans="1:11" ht="27.6" hidden="1">
       <c r="A41" s="16">
         <v>1</v>
       </c>
@@ -10546,7 +10547,7 @@
       <c r="J41" s="17"/>
       <c r="K41" s="17"/>
     </row>
-    <row r="42" spans="1:11" ht="27.6">
+    <row r="42" spans="1:11" ht="27.6" hidden="1">
       <c r="A42" s="16">
         <v>1</v>
       </c>
@@ -10573,7 +10574,7 @@
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
     </row>
-    <row r="43" spans="1:11" ht="27.6">
+    <row r="43" spans="1:11" ht="27.6" hidden="1">
       <c r="A43" s="16">
         <v>1</v>
       </c>
@@ -10600,7 +10601,7 @@
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
     </row>
-    <row r="44" spans="1:11" ht="27.6">
+    <row r="44" spans="1:11" ht="27.6" hidden="1">
       <c r="A44" s="16">
         <v>1</v>
       </c>
@@ -10627,7 +10628,7 @@
       <c r="J44" s="17"/>
       <c r="K44" s="17"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" s="16">
         <v>1</v>
       </c>
@@ -10654,7 +10655,7 @@
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
     </row>
-    <row r="46" spans="1:11" ht="27.6">
+    <row r="46" spans="1:11" ht="27.6" hidden="1">
       <c r="A46" s="16">
         <v>1</v>
       </c>
@@ -10681,7 +10682,7 @@
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
     </row>
-    <row r="47" spans="1:11" ht="27.6">
+    <row r="47" spans="1:11" ht="27.6" hidden="1">
       <c r="A47" s="16">
         <v>1</v>
       </c>
@@ -10708,7 +10709,7 @@
       <c r="J47" s="17"/>
       <c r="K47" s="17"/>
     </row>
-    <row r="48" spans="1:11" ht="27.6">
+    <row r="48" spans="1:11" ht="27.6" hidden="1">
       <c r="A48" s="16">
         <v>1</v>
       </c>
@@ -10735,7 +10736,7 @@
       <c r="J48" s="17"/>
       <c r="K48" s="17"/>
     </row>
-    <row r="49" spans="1:11" ht="27.6">
+    <row r="49" spans="1:11" ht="27.6" hidden="1">
       <c r="A49" s="16">
         <v>1</v>
       </c>
@@ -10762,7 +10763,7 @@
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
     </row>
-    <row r="50" spans="1:11" ht="27.6">
+    <row r="50" spans="1:11" ht="27.6" hidden="1">
       <c r="A50" s="16">
         <v>1</v>
       </c>
@@ -10789,7 +10790,7 @@
       <c r="J50" s="17"/>
       <c r="K50" s="17"/>
     </row>
-    <row r="51" spans="1:11" ht="27.6">
+    <row r="51" spans="1:11" ht="27.6" hidden="1">
       <c r="A51" s="16">
         <v>1</v>
       </c>
@@ -10816,7 +10817,7 @@
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
     </row>
-    <row r="52" spans="1:11" ht="27.6">
+    <row r="52" spans="1:11" ht="27.6" hidden="1">
       <c r="A52" s="16">
         <v>1</v>
       </c>
@@ -10843,7 +10844,7 @@
       <c r="J52" s="17"/>
       <c r="K52" s="17"/>
     </row>
-    <row r="53" spans="1:11" ht="27.6">
+    <row r="53" spans="1:11" ht="27.6" hidden="1">
       <c r="A53" s="16">
         <v>1</v>
       </c>
@@ -10870,7 +10871,7 @@
       <c r="J53" s="17"/>
       <c r="K53" s="17"/>
     </row>
-    <row r="54" spans="1:11" ht="27.6">
+    <row r="54" spans="1:11" ht="27.6" hidden="1">
       <c r="A54" s="16">
         <v>2</v>
       </c>
@@ -10899,7 +10900,7 @@
       <c r="J54" s="17"/>
       <c r="K54" s="17"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="16">
         <v>2</v>
       </c>
@@ -10928,7 +10929,7 @@
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
     </row>
-    <row r="56" spans="1:11" ht="124.2">
+    <row r="56" spans="1:11" ht="124.2" hidden="1">
       <c r="A56" s="16">
         <v>2</v>
       </c>
@@ -10955,7 +10956,7 @@
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
     </row>
-    <row r="57" spans="1:11" ht="110.4">
+    <row r="57" spans="1:11" ht="110.4" hidden="1">
       <c r="A57" s="16">
         <v>2</v>
       </c>
@@ -10982,7 +10983,7 @@
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
     </row>
-    <row r="58" spans="1:11" ht="27.6">
+    <row r="58" spans="1:11" ht="27.6" hidden="1">
       <c r="A58" s="16">
         <v>2</v>
       </c>
@@ -11009,7 +11010,7 @@
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
     </row>
-    <row r="59" spans="1:11" ht="27.6">
+    <row r="59" spans="1:11" ht="27.6" hidden="1">
       <c r="A59" s="16">
         <v>2</v>
       </c>
@@ -11036,7 +11037,7 @@
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
     </row>
-    <row r="60" spans="1:11" ht="27.6">
+    <row r="60" spans="1:11" ht="27.6" hidden="1">
       <c r="A60" s="16">
         <v>2</v>
       </c>
@@ -11065,7 +11066,7 @@
       <c r="J60" s="17"/>
       <c r="K60" s="17"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" s="16">
         <v>2</v>
       </c>
@@ -11094,7 +11095,7 @@
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
     </row>
-    <row r="62" spans="1:11" ht="69">
+    <row r="62" spans="1:11" ht="69" hidden="1">
       <c r="A62" s="16">
         <v>2</v>
       </c>
@@ -11121,7 +11122,7 @@
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
     </row>
-    <row r="63" spans="1:11" ht="165.6">
+    <row r="63" spans="1:11" ht="165.6" hidden="1">
       <c r="A63" s="16">
         <v>2</v>
       </c>
@@ -11148,7 +11149,7 @@
       <c r="J63" s="17"/>
       <c r="K63" s="17"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" hidden="1">
       <c r="A64" s="16">
         <v>2</v>
       </c>
@@ -11175,7 +11176,7 @@
       <c r="J64" s="17"/>
       <c r="K64" s="17"/>
     </row>
-    <row r="65" spans="1:11" ht="14.4">
+    <row r="65" spans="1:11" ht="14.4" hidden="1">
       <c r="A65" s="16">
         <v>1</v>
       </c>
@@ -11200,7 +11201,7 @@
       <c r="J65" s="17"/>
       <c r="K65" s="17"/>
     </row>
-    <row r="66" spans="1:11" ht="14.4">
+    <row r="66" spans="1:11" ht="14.4" hidden="1">
       <c r="A66" s="16">
         <v>1</v>
       </c>
@@ -11225,7 +11226,7 @@
       <c r="J66" s="17"/>
       <c r="K66" s="17"/>
     </row>
-    <row r="67" spans="1:11" ht="82.8">
+    <row r="67" spans="1:11" ht="82.8" hidden="1">
       <c r="A67" s="16">
         <v>2</v>
       </c>
@@ -11252,7 +11253,7 @@
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
     </row>
-    <row r="68" spans="1:11" ht="41.4">
+    <row r="68" spans="1:11" ht="41.4" hidden="1">
       <c r="A68" s="16">
         <v>2</v>
       </c>
@@ -11287,7 +11288,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="27.6">
+    <row r="69" spans="1:11" ht="27.6" hidden="1">
       <c r="A69" s="16">
         <v>2</v>
       </c>
@@ -11314,7 +11315,7 @@
       <c r="J69" s="17"/>
       <c r="K69" s="17"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" hidden="1">
       <c r="A70" s="16">
         <v>2</v>
       </c>
@@ -11341,7 +11342,7 @@
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
     </row>
-    <row r="71" spans="1:11" ht="41.4">
+    <row r="71" spans="1:11" ht="41.4" hidden="1">
       <c r="A71" s="16">
         <v>2</v>
       </c>
@@ -11368,7 +11369,7 @@
       <c r="J71" s="17"/>
       <c r="K71" s="17"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" hidden="1">
       <c r="A72" s="16">
         <v>2</v>
       </c>
@@ -11395,7 +11396,7 @@
       <c r="J72" s="17"/>
       <c r="K72" s="17"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" hidden="1">
       <c r="A73" s="16">
         <v>2</v>
       </c>
@@ -11422,7 +11423,7 @@
       <c r="J73" s="17"/>
       <c r="K73" s="17"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" hidden="1">
       <c r="A74" s="16">
         <v>2</v>
       </c>
@@ -11449,7 +11450,7 @@
       <c r="J74" s="17"/>
       <c r="K74" s="17"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" hidden="1">
       <c r="A75" s="16">
         <v>2</v>
       </c>
@@ -11476,7 +11477,7 @@
       <c r="J75" s="17"/>
       <c r="K75" s="17"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1">
+    <row r="76" spans="1:11" s="12" customFormat="1" hidden="1">
       <c r="A76" s="16">
         <v>2</v>
       </c>
@@ -11503,7 +11504,7 @@
       <c r="J76" s="17"/>
       <c r="K76" s="17"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1" ht="110.4">
+    <row r="77" spans="1:11" s="12" customFormat="1" ht="110.4" hidden="1">
       <c r="A77" s="16">
         <v>2</v>
       </c>
@@ -11536,7 +11537,7 @@
       </c>
       <c r="K77" s="17"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1" ht="41.4">
+    <row r="78" spans="1:11" s="12" customFormat="1" ht="41.4" hidden="1">
       <c r="A78" s="16">
         <v>2</v>
       </c>
@@ -11569,7 +11570,7 @@
       </c>
       <c r="K78" s="17"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1">
+    <row r="79" spans="1:11" s="12" customFormat="1" hidden="1">
       <c r="A79" s="16">
         <v>2</v>
       </c>
@@ -11596,7 +11597,7 @@
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" hidden="1">
       <c r="A80" s="16">
         <v>2</v>
       </c>
@@ -11623,7 +11624,7 @@
       <c r="J80" s="17"/>
       <c r="K80" s="17"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" hidden="1">
       <c r="A81" s="16">
         <v>2</v>
       </c>
@@ -11650,7 +11651,7 @@
       <c r="J81" s="17"/>
       <c r="K81" s="17"/>
     </row>
-    <row r="82" spans="1:11" ht="27.6">
+    <row r="82" spans="1:11" ht="27.6" hidden="1">
       <c r="A82" s="16">
         <v>2</v>
       </c>
@@ -11683,7 +11684,7 @@
       </c>
       <c r="K82" s="17"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" hidden="1">
       <c r="A83" s="16">
         <v>2</v>
       </c>
@@ -11710,7 +11711,7 @@
       <c r="J83" s="17"/>
       <c r="K83" s="17"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" hidden="1">
       <c r="A84" s="16">
         <v>2</v>
       </c>
@@ -11737,7 +11738,7 @@
       <c r="J84" s="17"/>
       <c r="K84" s="17"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" hidden="1">
       <c r="A85" s="16">
         <v>2</v>
       </c>
@@ -11764,7 +11765,7 @@
       <c r="J85" s="17"/>
       <c r="K85" s="17"/>
     </row>
-    <row r="86" spans="1:11" ht="27.6">
+    <row r="86" spans="1:11" ht="27.6" hidden="1">
       <c r="A86" s="16">
         <v>2</v>
       </c>
@@ -11791,7 +11792,7 @@
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
     </row>
-    <row r="87" spans="1:11" ht="27.6">
+    <row r="87" spans="1:11" ht="27.6" hidden="1">
       <c r="A87" s="16">
         <v>2</v>
       </c>
@@ -11818,7 +11819,7 @@
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
     </row>
-    <row r="88" spans="1:11" ht="27.6">
+    <row r="88" spans="1:11" ht="27.6" hidden="1">
       <c r="A88" s="16">
         <v>2</v>
       </c>
@@ -11849,7 +11850,7 @@
       <c r="J88" s="17"/>
       <c r="K88" s="17"/>
     </row>
-    <row r="89" spans="1:11" ht="55.2">
+    <row r="89" spans="1:11" ht="55.2" hidden="1">
       <c r="A89" s="16">
         <v>2</v>
       </c>
@@ -11876,7 +11877,7 @@
       <c r="J89" s="17"/>
       <c r="K89" s="17"/>
     </row>
-    <row r="90" spans="1:11" ht="27.6">
+    <row r="90" spans="1:11" ht="27.6" hidden="1">
       <c r="A90" s="16">
         <v>2</v>
       </c>
@@ -11903,7 +11904,7 @@
       <c r="J90" s="17"/>
       <c r="K90" s="17"/>
     </row>
-    <row r="91" spans="1:11" ht="41.4">
+    <row r="91" spans="1:11" ht="41.4" hidden="1">
       <c r="A91" s="16">
         <v>2</v>
       </c>
@@ -11934,7 +11935,7 @@
       <c r="J91" s="17"/>
       <c r="K91" s="17"/>
     </row>
-    <row r="92" spans="1:11" ht="27.6">
+    <row r="92" spans="1:11" ht="27.6" hidden="1">
       <c r="A92" s="16">
         <v>2</v>
       </c>
@@ -11965,7 +11966,7 @@
       <c r="J92" s="17"/>
       <c r="K92" s="17"/>
     </row>
-    <row r="93" spans="1:11" ht="27.6">
+    <row r="93" spans="1:11" ht="27.6" hidden="1">
       <c r="A93" s="16"/>
       <c r="B93" s="34" t="s">
         <v>2042</v>
@@ -11988,7 +11989,7 @@
       <c r="J93" s="17"/>
       <c r="K93" s="17"/>
     </row>
-    <row r="94" spans="1:11" ht="14.4">
+    <row r="94" spans="1:11" ht="14.4" hidden="1">
       <c r="A94" s="16"/>
       <c r="B94" s="34" t="s">
         <v>2044</v>
@@ -12011,7 +12012,7 @@
       <c r="J94" s="17"/>
       <c r="K94" s="17"/>
     </row>
-    <row r="95" spans="1:11" ht="27.6">
+    <row r="95" spans="1:11" ht="27.6" hidden="1">
       <c r="A95" s="16"/>
       <c r="B95" s="34" t="s">
         <v>2046</v>
@@ -12034,7 +12035,7 @@
       <c r="J95" s="17"/>
       <c r="K95" s="17"/>
     </row>
-    <row r="96" spans="1:11" ht="27.6">
+    <row r="96" spans="1:11" ht="27.6" hidden="1">
       <c r="A96" s="16"/>
       <c r="B96" s="34" t="s">
         <v>2048</v>
@@ -12057,7 +12058,7 @@
       <c r="J96" s="17"/>
       <c r="K96" s="17"/>
     </row>
-    <row r="97" spans="1:11" ht="27.6">
+    <row r="97" spans="1:11" ht="27.6" hidden="1">
       <c r="A97" s="16">
         <v>2</v>
       </c>
@@ -12084,7 +12085,7 @@
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" hidden="1">
       <c r="A98" s="16">
         <v>2</v>
       </c>
@@ -12111,7 +12112,7 @@
       <c r="J98" s="17"/>
       <c r="K98" s="17"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" hidden="1">
       <c r="A99" s="16">
         <v>2</v>
       </c>
@@ -12138,7 +12139,7 @@
       <c r="J99" s="17"/>
       <c r="K99" s="17"/>
     </row>
-    <row r="100" spans="1:11" ht="14.4">
+    <row r="100" spans="1:11" ht="14.4" hidden="1">
       <c r="A100" s="16"/>
       <c r="B100" s="9" t="s">
         <v>2050</v>
@@ -12161,7 +12162,7 @@
       <c r="J100" s="17"/>
       <c r="K100" s="17"/>
     </row>
-    <row r="101" spans="1:11" ht="27.6">
+    <row r="101" spans="1:11" ht="27.6" hidden="1">
       <c r="A101" s="16">
         <v>2</v>
       </c>
@@ -12192,7 +12193,7 @@
       <c r="J101" s="17"/>
       <c r="K101" s="17"/>
     </row>
-    <row r="102" spans="1:11" ht="41.4">
+    <row r="102" spans="1:11" ht="41.4" hidden="1">
       <c r="A102" s="27" t="s">
         <v>2052</v>
       </c>
@@ -12217,7 +12218,7 @@
       <c r="J102" s="17"/>
       <c r="K102" s="17"/>
     </row>
-    <row r="103" spans="1:11" ht="55.2">
+    <row r="103" spans="1:11" ht="55.2" hidden="1">
       <c r="A103" s="16">
         <v>2</v>
       </c>
@@ -12246,7 +12247,7 @@
       <c r="J103" s="17"/>
       <c r="K103" s="17"/>
     </row>
-    <row r="104" spans="1:11" ht="41.4">
+    <row r="104" spans="1:11" ht="41.4" hidden="1">
       <c r="A104" s="16">
         <v>2</v>
       </c>
@@ -12273,7 +12274,7 @@
       <c r="J104" s="17"/>
       <c r="K104" s="17"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" hidden="1">
       <c r="A105" s="16">
         <v>2</v>
       </c>
@@ -12300,7 +12301,7 @@
       <c r="J105" s="17"/>
       <c r="K105" s="17"/>
     </row>
-    <row r="106" spans="1:11" ht="69">
+    <row r="106" spans="1:11" ht="69" hidden="1">
       <c r="A106" s="16">
         <v>2</v>
       </c>
@@ -12335,7 +12336,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="69">
+    <row r="107" spans="1:11" ht="69" hidden="1">
       <c r="A107" s="16">
         <v>2</v>
       </c>
@@ -12370,7 +12371,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="69">
+    <row r="108" spans="1:11" ht="69" hidden="1">
       <c r="A108" s="16">
         <v>2</v>
       </c>
@@ -12405,7 +12406,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="69">
+    <row r="109" spans="1:11" ht="69" hidden="1">
       <c r="A109" s="16">
         <v>2</v>
       </c>
@@ -12438,7 +12439,7 @@
       </c>
       <c r="K109" s="17"/>
     </row>
-    <row r="110" spans="1:11" ht="69">
+    <row r="110" spans="1:11" ht="69" hidden="1">
       <c r="A110" s="16">
         <v>2</v>
       </c>
@@ -12473,7 +12474,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="69">
+    <row r="111" spans="1:11" ht="69" hidden="1">
       <c r="A111" s="16">
         <v>2</v>
       </c>
@@ -12508,7 +12509,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="55.2">
+    <row r="112" spans="1:11" ht="55.2" hidden="1">
       <c r="A112" s="16">
         <v>2</v>
       </c>
@@ -12543,7 +12544,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="55.2">
+    <row r="113" spans="1:11" ht="55.2" hidden="1">
       <c r="A113" s="16">
         <v>2</v>
       </c>
@@ -12578,7 +12579,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="41.4">
+    <row r="114" spans="1:11" ht="41.4" hidden="1">
       <c r="A114" s="16">
         <v>2</v>
       </c>
@@ -12609,7 +12610,7 @@
       <c r="J114" s="17"/>
       <c r="K114" s="17"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" hidden="1">
       <c r="A115" s="16">
         <v>2</v>
       </c>
@@ -12636,7 +12637,7 @@
       <c r="J115" s="17"/>
       <c r="K115" s="17"/>
     </row>
-    <row r="116" spans="1:11" ht="27.6">
+    <row r="116" spans="1:11" ht="27.6" hidden="1">
       <c r="A116" s="16">
         <v>2</v>
       </c>
@@ -12663,7 +12664,7 @@
       <c r="J116" s="17"/>
       <c r="K116" s="17"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" hidden="1">
       <c r="A117" s="16">
         <v>2</v>
       </c>
@@ -12690,7 +12691,7 @@
       <c r="J117" s="17"/>
       <c r="K117" s="17"/>
     </row>
-    <row r="118" spans="1:11" ht="27.6">
+    <row r="118" spans="1:11" ht="27.6" hidden="1">
       <c r="A118" s="16">
         <v>2</v>
       </c>
@@ -12717,7 +12718,7 @@
       <c r="J118" s="17"/>
       <c r="K118" s="17"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" hidden="1">
       <c r="A119" s="16">
         <v>2</v>
       </c>
@@ -12744,7 +12745,7 @@
       <c r="J119" s="17"/>
       <c r="K119" s="17"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" hidden="1">
       <c r="A120" s="16">
         <v>2</v>
       </c>
@@ -12771,7 +12772,7 @@
       <c r="J120" s="17"/>
       <c r="K120" s="17"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" hidden="1">
       <c r="A121" s="16">
         <v>2</v>
       </c>
@@ -12798,7 +12799,7 @@
       <c r="J121" s="17"/>
       <c r="K121" s="17"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" hidden="1">
       <c r="A122" s="16">
         <v>2</v>
       </c>
@@ -12825,7 +12826,7 @@
       <c r="J122" s="17"/>
       <c r="K122" s="17"/>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" hidden="1">
       <c r="A123" s="16">
         <v>2</v>
       </c>
@@ -12858,7 +12859,7 @@
       </c>
       <c r="K123" s="17"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" hidden="1">
       <c r="A124" s="16">
         <v>2</v>
       </c>
@@ -12885,7 +12886,7 @@
       <c r="J124" s="17"/>
       <c r="K124" s="17"/>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" hidden="1">
       <c r="A125" s="16">
         <v>2</v>
       </c>
@@ -12912,7 +12913,7 @@
       <c r="J125" s="17"/>
       <c r="K125" s="17"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" hidden="1">
       <c r="A126" s="16">
         <v>2</v>
       </c>
@@ -12941,7 +12942,7 @@
       <c r="J126" s="17"/>
       <c r="K126" s="17"/>
     </row>
-    <row r="127" spans="1:11" ht="27.6">
+    <row r="127" spans="1:11" ht="27.6" hidden="1">
       <c r="A127" s="16">
         <v>2</v>
       </c>
@@ -12972,7 +12973,7 @@
       <c r="J127" s="17"/>
       <c r="K127" s="17"/>
     </row>
-    <row r="128" spans="1:11" ht="27.6">
+    <row r="128" spans="1:11" ht="27.6" hidden="1">
       <c r="A128" s="16">
         <v>2</v>
       </c>
@@ -12999,7 +13000,7 @@
       <c r="J128" s="17"/>
       <c r="K128" s="17"/>
     </row>
-    <row r="129" spans="1:11" ht="27.6">
+    <row r="129" spans="1:11" ht="27.6" hidden="1">
       <c r="A129" s="16">
         <v>2</v>
       </c>
@@ -13030,7 +13031,7 @@
       <c r="J129" s="17"/>
       <c r="K129" s="17"/>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" hidden="1">
       <c r="A130" s="16" t="s">
         <v>1244</v>
       </c>
@@ -13057,7 +13058,7 @@
       <c r="J130" s="17"/>
       <c r="K130" s="17"/>
     </row>
-    <row r="131" spans="1:11" ht="27.6">
+    <row r="131" spans="1:11" ht="27.6" hidden="1">
       <c r="A131" s="16" t="s">
         <v>1244</v>
       </c>
@@ -13084,7 +13085,7 @@
       <c r="J131" s="17"/>
       <c r="K131" s="17"/>
     </row>
-    <row r="132" spans="1:11" ht="69">
+    <row r="132" spans="1:11" ht="69" hidden="1">
       <c r="A132" s="16" t="s">
         <v>1244</v>
       </c>
@@ -13115,7 +13116,7 @@
       <c r="J132" s="17"/>
       <c r="K132" s="17"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" hidden="1">
       <c r="A133" s="16" t="s">
         <v>1244</v>
       </c>
@@ -13142,7 +13143,7 @@
       <c r="J133" s="17"/>
       <c r="K133" s="17"/>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" hidden="1">
       <c r="A134" s="16" t="s">
         <v>1244</v>
       </c>
@@ -13169,7 +13170,7 @@
       <c r="J134" s="17"/>
       <c r="K134" s="17"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" hidden="1">
       <c r="A135" s="16" t="s">
         <v>1244</v>
       </c>
@@ -13196,7 +13197,7 @@
       <c r="J135" s="17"/>
       <c r="K135" s="17"/>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" hidden="1">
       <c r="A136" s="16" t="s">
         <v>1244</v>
       </c>
@@ -13223,7 +13224,7 @@
       <c r="J136" s="17"/>
       <c r="K136" s="17"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" hidden="1">
       <c r="A137" s="16" t="s">
         <v>1244</v>
       </c>
@@ -13252,7 +13253,7 @@
       <c r="J137" s="17"/>
       <c r="K137" s="17"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" hidden="1">
       <c r="A138" s="16" t="s">
         <v>1244</v>
       </c>
@@ -13279,7 +13280,7 @@
       <c r="J138" s="17"/>
       <c r="K138" s="17"/>
     </row>
-    <row r="139" spans="1:11" ht="41.4">
+    <row r="139" spans="1:11" ht="41.4" hidden="1">
       <c r="A139" s="27" t="s">
         <v>1316</v>
       </c>
@@ -13302,7 +13303,7 @@
       <c r="J139" s="17"/>
       <c r="K139" s="17"/>
     </row>
-    <row r="140" spans="1:11" ht="27.6">
+    <row r="140" spans="1:11" ht="27.6" hidden="1">
       <c r="A140" s="27" t="s">
         <v>1316</v>
       </c>
@@ -13327,7 +13328,7 @@
       <c r="J140" s="17"/>
       <c r="K140" s="17"/>
     </row>
-    <row r="141" spans="1:11" ht="27.6">
+    <row r="141" spans="1:11" ht="27.6" hidden="1">
       <c r="A141" s="16">
         <v>2</v>
       </c>
@@ -13354,7 +13355,7 @@
       <c r="J141" s="17"/>
       <c r="K141" s="17"/>
     </row>
-    <row r="142" spans="1:11" ht="27.6">
+    <row r="142" spans="1:11" ht="27.6" hidden="1">
       <c r="A142" s="16">
         <v>2</v>
       </c>
@@ -13387,7 +13388,7 @@
       </c>
       <c r="K142" s="17"/>
     </row>
-    <row r="143" spans="1:11" ht="27.6">
+    <row r="143" spans="1:11" ht="27.6" hidden="1">
       <c r="A143" s="16">
         <v>2</v>
       </c>
@@ -13416,7 +13417,7 @@
       <c r="J143" s="17"/>
       <c r="K143" s="17"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" hidden="1">
       <c r="A144" s="16">
         <v>2</v>
       </c>
@@ -13443,7 +13444,7 @@
       <c r="J144" s="17"/>
       <c r="K144" s="17"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" hidden="1">
       <c r="A145" s="16">
         <v>2</v>
       </c>
@@ -13470,7 +13471,7 @@
       <c r="J145" s="17"/>
       <c r="K145" s="17"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" hidden="1">
       <c r="A146" s="16">
         <v>2</v>
       </c>
@@ -13497,7 +13498,7 @@
       <c r="J146" s="17"/>
       <c r="K146" s="17"/>
     </row>
-    <row r="147" spans="1:11" ht="27.6">
+    <row r="147" spans="1:11" ht="27.6" hidden="1">
       <c r="A147" s="16">
         <v>2</v>
       </c>
@@ -13526,7 +13527,7 @@
       <c r="J147" s="17"/>
       <c r="K147" s="17"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" hidden="1">
       <c r="A148" s="16">
         <v>2</v>
       </c>
@@ -13553,7 +13554,7 @@
       <c r="J148" s="17"/>
       <c r="K148" s="17"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" hidden="1">
       <c r="A149" s="16">
         <v>2</v>
       </c>
@@ -13580,7 +13581,7 @@
       <c r="J149" s="17"/>
       <c r="K149" s="17"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" hidden="1">
       <c r="A150" s="16">
         <v>2</v>
       </c>
@@ -13607,7 +13608,7 @@
       <c r="J150" s="17"/>
       <c r="K150" s="17"/>
     </row>
-    <row r="151" spans="1:11" ht="27.6">
+    <row r="151" spans="1:11" ht="27.6" hidden="1">
       <c r="A151" s="16">
         <v>2</v>
       </c>
@@ -13636,7 +13637,7 @@
       <c r="J151" s="17"/>
       <c r="K151" s="17"/>
     </row>
-    <row r="152" spans="1:11" ht="27.6">
+    <row r="152" spans="1:11" ht="27.6" hidden="1">
       <c r="A152" s="16">
         <v>2</v>
       </c>
@@ -13667,7 +13668,7 @@
       <c r="J152" s="17"/>
       <c r="K152" s="17"/>
     </row>
-    <row r="153" spans="1:11" ht="27.6">
+    <row r="153" spans="1:11" ht="27.6" hidden="1">
       <c r="A153" s="16">
         <v>2</v>
       </c>
@@ -13694,7 +13695,7 @@
       <c r="J153" s="17"/>
       <c r="K153" s="17"/>
     </row>
-    <row r="154" spans="1:11" ht="27.6">
+    <row r="154" spans="1:11" ht="27.6" hidden="1">
       <c r="A154" s="16">
         <v>2</v>
       </c>
@@ -13721,7 +13722,7 @@
       <c r="J154" s="17"/>
       <c r="K154" s="17"/>
     </row>
-    <row r="155" spans="1:11" ht="27.6">
+    <row r="155" spans="1:11" ht="27.6" hidden="1">
       <c r="A155" s="16">
         <v>2</v>
       </c>
@@ -13752,7 +13753,7 @@
       <c r="J155" s="17"/>
       <c r="K155" s="17"/>
     </row>
-    <row r="156" spans="1:11" ht="27.6">
+    <row r="156" spans="1:11" ht="27.6" hidden="1">
       <c r="A156" s="27" t="s">
         <v>1316</v>
       </c>
@@ -13777,7 +13778,7 @@
       <c r="J156" s="17"/>
       <c r="K156" s="17"/>
     </row>
-    <row r="157" spans="1:11" ht="27.6">
+    <row r="157" spans="1:11" ht="27.6" hidden="1">
       <c r="A157" s="27" t="s">
         <v>1316</v>
       </c>
@@ -13802,7 +13803,7 @@
       <c r="J157" s="17"/>
       <c r="K157" s="17"/>
     </row>
-    <row r="158" spans="1:11" ht="27.6">
+    <row r="158" spans="1:11" ht="27.6" hidden="1">
       <c r="A158" s="27" t="s">
         <v>1316</v>
       </c>
@@ -13827,7 +13828,7 @@
       <c r="J158" s="17"/>
       <c r="K158" s="17"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" hidden="1">
       <c r="A159" s="16">
         <v>2</v>
       </c>
@@ -13854,7 +13855,7 @@
       <c r="J159" s="17"/>
       <c r="K159" s="17"/>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" hidden="1">
       <c r="A160" s="16">
         <v>2</v>
       </c>
@@ -13881,7 +13882,7 @@
       <c r="J160" s="17"/>
       <c r="K160" s="17"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" hidden="1">
       <c r="A161" s="16">
         <v>2</v>
       </c>
@@ -13908,7 +13909,7 @@
       <c r="J161" s="17"/>
       <c r="K161" s="17"/>
     </row>
-    <row r="162" spans="1:11" ht="27.6">
+    <row r="162" spans="1:11" ht="27.6" hidden="1">
       <c r="A162" s="16">
         <v>2</v>
       </c>
@@ -13935,7 +13936,7 @@
       <c r="J162" s="17"/>
       <c r="K162" s="17"/>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" hidden="1">
       <c r="A163" s="16">
         <v>2</v>
       </c>
@@ -13962,7 +13963,7 @@
       <c r="J163" s="17"/>
       <c r="K163" s="17"/>
     </row>
-    <row r="164" spans="1:11" ht="27.6">
+    <row r="164" spans="1:11" ht="27.6" hidden="1">
       <c r="A164" s="28" t="s">
         <v>1316</v>
       </c>
@@ -13987,7 +13988,7 @@
       <c r="J164" s="17"/>
       <c r="K164" s="17"/>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" hidden="1">
       <c r="A165" s="16">
         <v>2</v>
       </c>
@@ -14014,7 +14015,7 @@
       <c r="J165" s="17"/>
       <c r="K165" s="17"/>
     </row>
-    <row r="166" spans="1:11" ht="138">
+    <row r="166" spans="1:11" ht="138" hidden="1">
       <c r="A166" s="16">
         <v>2</v>
       </c>
@@ -14041,7 +14042,7 @@
       <c r="J166" s="17"/>
       <c r="K166" s="17"/>
     </row>
-    <row r="167" spans="1:11" ht="41.4">
+    <row r="167" spans="1:11" ht="41.4" hidden="1">
       <c r="A167" s="16">
         <v>2</v>
       </c>
@@ -14068,7 +14069,7 @@
       <c r="J167" s="17"/>
       <c r="K167" s="17"/>
     </row>
-    <row r="168" spans="1:11" ht="27.6">
+    <row r="168" spans="1:11" ht="27.6" hidden="1">
       <c r="A168" s="16">
         <v>2</v>
       </c>
@@ -14095,7 +14096,7 @@
       <c r="J168" s="17"/>
       <c r="K168" s="17"/>
     </row>
-    <row r="169" spans="1:11" ht="27.6">
+    <row r="169" spans="1:11" ht="27.6" hidden="1">
       <c r="A169" s="16">
         <v>2</v>
       </c>
@@ -14122,7 +14123,7 @@
       <c r="J169" s="17"/>
       <c r="K169" s="17"/>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" hidden="1">
       <c r="A170" s="16" t="s">
         <v>1316</v>
       </c>
@@ -14149,7 +14150,7 @@
       <c r="J170" s="17"/>
       <c r="K170" s="17"/>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" hidden="1">
       <c r="A171" s="16" t="s">
         <v>1316</v>
       </c>
@@ -14176,7 +14177,7 @@
       <c r="J171" s="17"/>
       <c r="K171" s="17"/>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" hidden="1">
       <c r="A172" s="16">
         <v>2</v>
       </c>
@@ -14203,7 +14204,7 @@
       <c r="J172" s="17"/>
       <c r="K172" s="17"/>
     </row>
-    <row r="173" spans="1:11" ht="110.4">
+    <row r="173" spans="1:11" ht="110.4" hidden="1">
       <c r="A173" s="16">
         <v>2</v>
       </c>
@@ -14230,7 +14231,7 @@
       <c r="J173" s="17"/>
       <c r="K173" s="17"/>
     </row>
-    <row r="174" spans="1:11" ht="69">
+    <row r="174" spans="1:11" ht="69" hidden="1">
       <c r="A174" s="16">
         <v>2</v>
       </c>
@@ -14257,7 +14258,7 @@
       <c r="J174" s="17"/>
       <c r="K174" s="17"/>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" hidden="1">
       <c r="A175" s="16">
         <v>2</v>
       </c>
@@ -14284,7 +14285,7 @@
       <c r="J175" s="17"/>
       <c r="K175" s="17"/>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" hidden="1">
       <c r="A176" s="16">
         <v>2</v>
       </c>
@@ -14311,7 +14312,7 @@
       <c r="J176" s="17"/>
       <c r="K176" s="17"/>
     </row>
-    <row r="177" spans="1:11" ht="41.4">
+    <row r="177" spans="1:11" ht="41.4" hidden="1">
       <c r="A177" s="16">
         <v>2</v>
       </c>
@@ -14338,7 +14339,7 @@
       <c r="J177" s="17"/>
       <c r="K177" s="17"/>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" hidden="1">
       <c r="A178" s="16">
         <v>2</v>
       </c>
@@ -14365,7 +14366,7 @@
       <c r="J178" s="17"/>
       <c r="K178" s="17"/>
     </row>
-    <row r="179" spans="1:11" ht="27.6">
+    <row r="179" spans="1:11" ht="27.6" hidden="1">
       <c r="A179" s="16">
         <v>2</v>
       </c>
@@ -14392,7 +14393,7 @@
       <c r="J179" s="17"/>
       <c r="K179" s="17"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" hidden="1">
       <c r="A180" s="16">
         <v>2</v>
       </c>
@@ -14419,7 +14420,7 @@
       <c r="J180" s="17"/>
       <c r="K180" s="17"/>
     </row>
-    <row r="181" spans="1:11" ht="27.6">
+    <row r="181" spans="1:11" ht="27.6" hidden="1">
       <c r="A181" s="16">
         <v>2</v>
       </c>
@@ -14448,7 +14449,7 @@
       <c r="J181" s="17"/>
       <c r="K181" s="17"/>
     </row>
-    <row r="182" spans="1:11" ht="27.6">
+    <row r="182" spans="1:11" ht="27.6" hidden="1">
       <c r="A182" s="16">
         <v>2</v>
       </c>
@@ -14475,7 +14476,7 @@
       <c r="J182" s="17"/>
       <c r="K182" s="17"/>
     </row>
-    <row r="183" spans="1:11" ht="27.6">
+    <row r="183" spans="1:11" ht="27.6" hidden="1">
       <c r="A183" s="16">
         <v>2</v>
       </c>
@@ -14502,7 +14503,7 @@
       <c r="J183" s="17"/>
       <c r="K183" s="17"/>
     </row>
-    <row r="184" spans="1:11" ht="27.6">
+    <row r="184" spans="1:11" ht="27.6" hidden="1">
       <c r="A184" s="16">
         <v>5</v>
       </c>
@@ -14533,7 +14534,7 @@
       <c r="J184" s="17"/>
       <c r="K184" s="17"/>
     </row>
-    <row r="185" spans="1:11" ht="27.6">
+    <row r="185" spans="1:11" ht="27.6" hidden="1">
       <c r="A185" s="16">
         <v>5</v>
       </c>
@@ -14564,7 +14565,7 @@
       <c r="J185" s="17"/>
       <c r="K185" s="17"/>
     </row>
-    <row r="186" spans="1:11" ht="69">
+    <row r="186" spans="1:11" ht="69" hidden="1">
       <c r="A186" s="16">
         <v>5</v>
       </c>
@@ -14593,7 +14594,7 @@
       <c r="J186" s="17"/>
       <c r="K186" s="17"/>
     </row>
-    <row r="187" spans="1:11" ht="27.6">
+    <row r="187" spans="1:11" ht="27.6" hidden="1">
       <c r="A187" s="16">
         <v>5</v>
       </c>
@@ -14618,7 +14619,7 @@
       <c r="J187" s="17"/>
       <c r="K187" s="17"/>
     </row>
-    <row r="188" spans="1:11" ht="27.6">
+    <row r="188" spans="1:11" ht="27.6" hidden="1">
       <c r="A188" s="16">
         <v>5</v>
       </c>
@@ -14643,7 +14644,7 @@
       <c r="J188" s="17"/>
       <c r="K188" s="17"/>
     </row>
-    <row r="189" spans="1:11" ht="27.6">
+    <row r="189" spans="1:11" ht="27.6" hidden="1">
       <c r="A189" s="16">
         <v>5</v>
       </c>
@@ -14668,7 +14669,7 @@
       <c r="J189" s="17"/>
       <c r="K189" s="17"/>
     </row>
-    <row r="190" spans="1:11" ht="14.4">
+    <row r="190" spans="1:11" ht="14.4" hidden="1">
       <c r="A190" s="16">
         <v>5</v>
       </c>
@@ -14693,7 +14694,7 @@
       <c r="J190" s="17"/>
       <c r="K190" s="17"/>
     </row>
-    <row r="191" spans="1:11" ht="14.4">
+    <row r="191" spans="1:11" ht="14.4" hidden="1">
       <c r="A191" s="16">
         <v>5</v>
       </c>
@@ -14718,7 +14719,7 @@
       <c r="J191" s="17"/>
       <c r="K191" s="17"/>
     </row>
-    <row r="192" spans="1:11" ht="14.4">
+    <row r="192" spans="1:11" ht="14.4" hidden="1">
       <c r="A192" s="16">
         <v>5</v>
       </c>
@@ -14743,7 +14744,7 @@
       <c r="J192" s="17"/>
       <c r="K192" s="17"/>
     </row>
-    <row r="193" spans="1:11" ht="82.8">
+    <row r="193" spans="1:11" ht="82.8" hidden="1">
       <c r="A193" s="28" t="s">
         <v>1316</v>
       </c>
@@ -14770,7 +14771,7 @@
       <c r="J193" s="17"/>
       <c r="K193" s="17"/>
     </row>
-    <row r="194" spans="1:11" ht="82.8">
+    <row r="194" spans="1:11" ht="82.8" hidden="1">
       <c r="A194" s="27" t="s">
         <v>1316</v>
       </c>
@@ -14797,7 +14798,7 @@
       <c r="J194" s="17"/>
       <c r="K194" s="17"/>
     </row>
-    <row r="195" spans="1:11" ht="27.6">
+    <row r="195" spans="1:11" ht="27.6" hidden="1">
       <c r="A195" s="16">
         <v>5</v>
       </c>
@@ -14824,7 +14825,7 @@
       <c r="J195" s="17"/>
       <c r="K195" s="17"/>
     </row>
-    <row r="196" spans="1:11" ht="27.6">
+    <row r="196" spans="1:11" ht="27.6" hidden="1">
       <c r="A196" s="16">
         <v>5</v>
       </c>
@@ -14851,7 +14852,7 @@
       <c r="J196" s="17"/>
       <c r="K196" s="17"/>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" hidden="1">
       <c r="A197" s="16">
         <v>5</v>
       </c>
@@ -14878,7 +14879,7 @@
       <c r="J197" s="17"/>
       <c r="K197" s="17"/>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" hidden="1">
       <c r="A198" s="16">
         <v>5</v>
       </c>
@@ -14905,7 +14906,7 @@
       <c r="J198" s="17"/>
       <c r="K198" s="17"/>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" hidden="1">
       <c r="A199" s="16">
         <v>5</v>
       </c>
@@ -14932,7 +14933,7 @@
       <c r="J199" s="17"/>
       <c r="K199" s="17"/>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" hidden="1">
       <c r="A200" s="16">
         <v>5</v>
       </c>
@@ -14959,7 +14960,7 @@
       <c r="J200" s="17"/>
       <c r="K200" s="17"/>
     </row>
-    <row r="201" spans="1:11" ht="27.6">
+    <row r="201" spans="1:11" ht="27.6" hidden="1">
       <c r="A201" s="16">
         <v>5</v>
       </c>
@@ -14992,7 +14993,7 @@
       </c>
       <c r="K201" s="17"/>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" hidden="1">
       <c r="A202" s="16">
         <v>5</v>
       </c>
@@ -15019,7 +15020,7 @@
       <c r="J202" s="17"/>
       <c r="K202" s="17"/>
     </row>
-    <row r="203" spans="1:11" ht="27.6">
+    <row r="203" spans="1:11" ht="27.6" hidden="1">
       <c r="A203" s="16">
         <v>5</v>
       </c>
@@ -15046,7 +15047,7 @@
       <c r="J203" s="17"/>
       <c r="K203" s="17"/>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" hidden="1">
       <c r="A204" s="16">
         <v>5</v>
       </c>
@@ -15073,7 +15074,7 @@
       <c r="J204" s="17"/>
       <c r="K204" s="17"/>
     </row>
-    <row r="205" spans="1:11" ht="27.6">
+    <row r="205" spans="1:11" ht="27.6" hidden="1">
       <c r="A205" s="16">
         <v>5</v>
       </c>
@@ -15100,7 +15101,7 @@
       <c r="J205" s="17"/>
       <c r="K205" s="17"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" hidden="1">
       <c r="A206" s="16">
         <v>5</v>
       </c>
@@ -15127,7 +15128,7 @@
       <c r="J206" s="17"/>
       <c r="K206" s="17"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" hidden="1">
       <c r="A207" s="28" t="s">
         <v>2074</v>
       </c>
@@ -15152,7 +15153,7 @@
       <c r="J207" s="17"/>
       <c r="K207" s="17"/>
     </row>
-    <row r="208" spans="1:11" ht="41.4">
+    <row r="208" spans="1:11" ht="41.4" hidden="1">
       <c r="A208" s="16">
         <v>5</v>
       </c>
@@ -15183,7 +15184,7 @@
       <c r="J208" s="17"/>
       <c r="K208" s="17"/>
     </row>
-    <row r="209" spans="1:11" ht="69">
+    <row r="209" spans="1:11" ht="69" hidden="1">
       <c r="A209" s="16">
         <v>5</v>
       </c>
@@ -15210,7 +15211,7 @@
       <c r="J209" s="17"/>
       <c r="K209" s="17"/>
     </row>
-    <row r="210" spans="1:11" ht="27.6">
+    <row r="210" spans="1:11" ht="27.6" hidden="1">
       <c r="A210" s="16">
         <v>5</v>
       </c>
@@ -15237,7 +15238,7 @@
       <c r="J210" s="17"/>
       <c r="K210" s="17"/>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" hidden="1">
       <c r="A211" s="16">
         <v>5</v>
       </c>
@@ -15264,7 +15265,7 @@
       <c r="J211" s="17"/>
       <c r="K211" s="17"/>
     </row>
-    <row r="212" spans="1:11" ht="82.8">
+    <row r="212" spans="1:11" ht="82.8" hidden="1">
       <c r="A212" s="16">
         <v>5</v>
       </c>
@@ -15291,7 +15292,7 @@
       <c r="J212" s="17"/>
       <c r="K212" s="17"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" hidden="1">
       <c r="A213" s="16">
         <v>5</v>
       </c>
@@ -15318,7 +15319,7 @@
       <c r="J213" s="17"/>
       <c r="K213" s="17"/>
     </row>
-    <row r="214" spans="1:11" ht="27.6">
+    <row r="214" spans="1:11" ht="27.6" hidden="1">
       <c r="A214" s="16">
         <v>5</v>
       </c>
@@ -15345,7 +15346,7 @@
       <c r="J214" s="17"/>
       <c r="K214" s="17"/>
     </row>
-    <row r="215" spans="1:11" ht="27.6">
+    <row r="215" spans="1:11" ht="27.6" hidden="1">
       <c r="A215" s="16">
         <v>5</v>
       </c>
@@ -15376,7 +15377,7 @@
       <c r="J215" s="17"/>
       <c r="K215" s="17"/>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" hidden="1">
       <c r="A216" s="16">
         <v>5</v>
       </c>
@@ -15403,7 +15404,7 @@
       <c r="J216" s="17"/>
       <c r="K216" s="17"/>
     </row>
-    <row r="217" spans="1:11" ht="27.6">
+    <row r="217" spans="1:11" ht="27.6" hidden="1">
       <c r="A217" s="16">
         <v>5</v>
       </c>
@@ -15430,7 +15431,7 @@
       <c r="J217" s="17"/>
       <c r="K217" s="17"/>
     </row>
-    <row r="218" spans="1:11" ht="27.6">
+    <row r="218" spans="1:11" ht="27.6" hidden="1">
       <c r="A218" s="16">
         <v>5</v>
       </c>
@@ -15457,7 +15458,7 @@
       <c r="J218" s="17"/>
       <c r="K218" s="17"/>
     </row>
-    <row r="219" spans="1:11" ht="27.6">
+    <row r="219" spans="1:11" ht="27.6" hidden="1">
       <c r="A219" s="16">
         <v>5</v>
       </c>
@@ -15484,7 +15485,7 @@
       <c r="J219" s="17"/>
       <c r="K219" s="17"/>
     </row>
-    <row r="220" spans="1:11" ht="69">
+    <row r="220" spans="1:11" ht="69" hidden="1">
       <c r="A220" s="16" t="s">
         <v>1316</v>
       </c>
@@ -15517,7 +15518,7 @@
       </c>
       <c r="K220" s="17"/>
     </row>
-    <row r="221" spans="1:11" ht="27.6">
+    <row r="221" spans="1:11" ht="27.6" hidden="1">
       <c r="A221" s="27" t="s">
         <v>1316</v>
       </c>
@@ -15542,7 +15543,7 @@
       <c r="J221" s="17"/>
       <c r="K221" s="17"/>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" hidden="1">
       <c r="A222" s="16" t="s">
         <v>1316</v>
       </c>
@@ -15569,7 +15570,7 @@
       <c r="J222" s="17"/>
       <c r="K222" s="17"/>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" hidden="1">
       <c r="A223" s="16" t="s">
         <v>1316</v>
       </c>
@@ -15596,7 +15597,7 @@
       <c r="J223" s="17"/>
       <c r="K223" s="17"/>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" hidden="1">
       <c r="A224" s="16" t="s">
         <v>1316</v>
       </c>
@@ -15623,7 +15624,7 @@
       <c r="J224" s="17"/>
       <c r="K224" s="17"/>
     </row>
-    <row r="225" spans="1:11" ht="27.6">
+    <row r="225" spans="1:11" ht="27.6" hidden="1">
       <c r="A225" s="16" t="s">
         <v>1316</v>
       </c>
@@ -15652,7 +15653,7 @@
       <c r="J225" s="17"/>
       <c r="K225" s="17"/>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" hidden="1">
       <c r="A226" s="16" t="s">
         <v>1316</v>
       </c>
@@ -15679,7 +15680,7 @@
       <c r="J226" s="17"/>
       <c r="K226" s="17"/>
     </row>
-    <row r="227" spans="1:11" ht="55.2">
+    <row r="227" spans="1:11" ht="55.2" hidden="1">
       <c r="A227" s="16" t="s">
         <v>1316</v>
       </c>
@@ -15706,7 +15707,7 @@
       <c r="J227" s="17"/>
       <c r="K227" s="17"/>
     </row>
-    <row r="228" spans="1:11" ht="27.6">
+    <row r="228" spans="1:11" ht="27.6" hidden="1">
       <c r="A228" s="16" t="s">
         <v>1316</v>
       </c>
@@ -15733,7 +15734,7 @@
       <c r="J228" s="17"/>
       <c r="K228" s="17"/>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" hidden="1">
       <c r="A229" s="16" t="s">
         <v>1316</v>
       </c>
@@ -15760,7 +15761,7 @@
       <c r="J229" s="17"/>
       <c r="K229" s="17"/>
     </row>
-    <row r="230" spans="1:11" ht="27.6">
+    <row r="230" spans="1:11" ht="27.6" hidden="1">
       <c r="A230" s="16" t="s">
         <v>1316</v>
       </c>
@@ -15789,7 +15790,7 @@
       <c r="J230" s="17"/>
       <c r="K230" s="17"/>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" hidden="1">
       <c r="A231" s="16" t="s">
         <v>1316</v>
       </c>
@@ -15816,7 +15817,7 @@
       <c r="J231" s="17"/>
       <c r="K231" s="17"/>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" hidden="1">
       <c r="A232" s="16" t="s">
         <v>1316</v>
       </c>
@@ -15843,7 +15844,7 @@
       <c r="J232" s="17"/>
       <c r="K232" s="17"/>
     </row>
-    <row r="233" spans="1:11" ht="14.4">
+    <row r="233" spans="1:11" ht="14.4" hidden="1">
       <c r="A233" s="27" t="s">
         <v>1316</v>
       </c>
@@ -15868,7 +15869,7 @@
       <c r="J233" s="17"/>
       <c r="K233" s="17"/>
     </row>
-    <row r="234" spans="1:11" ht="27.6">
+    <row r="234" spans="1:11" ht="27.6" hidden="1">
       <c r="A234" s="27" t="s">
         <v>1316</v>
       </c>
@@ -15893,7 +15894,7 @@
       <c r="J234" s="17"/>
       <c r="K234" s="17"/>
     </row>
-    <row r="235" spans="1:11" ht="14.4">
+    <row r="235" spans="1:11" ht="14.4" hidden="1">
       <c r="A235" s="27" t="s">
         <v>1316</v>
       </c>
@@ -15918,7 +15919,7 @@
       <c r="J235" s="17"/>
       <c r="K235" s="17"/>
     </row>
-    <row r="236" spans="1:11" ht="27.6">
+    <row r="236" spans="1:11" ht="27.6" hidden="1">
       <c r="A236" s="27" t="s">
         <v>1316</v>
       </c>
@@ -15943,7 +15944,7 @@
       <c r="J236" s="17"/>
       <c r="K236" s="17"/>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" hidden="1">
       <c r="A237" s="16" t="s">
         <v>1316</v>
       </c>
@@ -15970,7 +15971,7 @@
       <c r="J237" s="17"/>
       <c r="K237" s="17"/>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" hidden="1">
       <c r="A238" s="16" t="s">
         <v>1316</v>
       </c>
@@ -15997,7 +15998,7 @@
       <c r="J238" s="17"/>
       <c r="K238" s="17"/>
     </row>
-    <row r="239" spans="1:11" ht="27.6">
+    <row r="239" spans="1:11" ht="27.6" hidden="1">
       <c r="A239" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16024,7 +16025,7 @@
       <c r="J239" s="17"/>
       <c r="K239" s="17"/>
     </row>
-    <row r="240" spans="1:11" ht="27.6">
+    <row r="240" spans="1:11" ht="27.6" hidden="1">
       <c r="A240" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16051,7 +16052,7 @@
       <c r="J240" s="17"/>
       <c r="K240" s="17"/>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" hidden="1">
       <c r="A241" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16078,7 +16079,7 @@
       <c r="J241" s="17"/>
       <c r="K241" s="17"/>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" hidden="1">
       <c r="A242" s="28" t="s">
         <v>1316</v>
       </c>
@@ -16103,7 +16104,7 @@
       <c r="J242" s="17"/>
       <c r="K242" s="17"/>
     </row>
-    <row r="243" spans="1:11" ht="27.6">
+    <row r="243" spans="1:11" ht="27.6" hidden="1">
       <c r="A243" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16130,7 +16131,7 @@
       <c r="J243" s="17"/>
       <c r="K243" s="17"/>
     </row>
-    <row r="244" spans="1:11" ht="27.6">
+    <row r="244" spans="1:11" ht="27.6" hidden="1">
       <c r="A244" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16161,7 +16162,7 @@
       <c r="J244" s="17"/>
       <c r="K244" s="17"/>
     </row>
-    <row r="245" spans="1:11" ht="27.6">
+    <row r="245" spans="1:11" ht="27.6" hidden="1">
       <c r="A245" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16194,7 +16195,7 @@
       </c>
       <c r="K245" s="17"/>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" hidden="1">
       <c r="A246" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16221,7 +16222,7 @@
       <c r="J246" s="17"/>
       <c r="K246" s="17"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" hidden="1">
       <c r="A247" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16248,7 +16249,7 @@
       <c r="J247" s="17"/>
       <c r="K247" s="17"/>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" hidden="1">
       <c r="A248" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16275,7 +16276,7 @@
       <c r="J248" s="17"/>
       <c r="K248" s="17"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" hidden="1">
       <c r="A249" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16302,7 +16303,7 @@
       <c r="J249" s="17"/>
       <c r="K249" s="17"/>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" hidden="1">
       <c r="A250" s="28" t="s">
         <v>1316</v>
       </c>
@@ -16327,7 +16328,7 @@
       <c r="J250" s="17"/>
       <c r="K250" s="17"/>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" hidden="1">
       <c r="A251" s="28" t="s">
         <v>1316</v>
       </c>
@@ -16352,7 +16353,7 @@
       <c r="J251" s="17"/>
       <c r="K251" s="17"/>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" hidden="1">
       <c r="A252" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16379,7 +16380,7 @@
       <c r="J252" s="17"/>
       <c r="K252" s="17"/>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" hidden="1">
       <c r="A253" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16406,7 +16407,7 @@
       <c r="J253" s="17"/>
       <c r="K253" s="17"/>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" hidden="1">
       <c r="A254" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16433,7 +16434,7 @@
       <c r="J254" s="17"/>
       <c r="K254" s="17"/>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" hidden="1">
       <c r="A255" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16460,7 +16461,7 @@
       <c r="J255" s="17"/>
       <c r="K255" s="17"/>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" hidden="1">
       <c r="A256" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16487,7 +16488,7 @@
       <c r="J256" s="17"/>
       <c r="K256" s="17"/>
     </row>
-    <row r="257" spans="1:11" ht="27.6">
+    <row r="257" spans="1:11" ht="27.6" hidden="1">
       <c r="A257" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16514,7 +16515,7 @@
       <c r="J257" s="17"/>
       <c r="K257" s="17"/>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" hidden="1">
       <c r="A258" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16541,7 +16542,7 @@
       <c r="J258" s="17"/>
       <c r="K258" s="17"/>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" hidden="1">
       <c r="A259" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16568,7 +16569,7 @@
       <c r="J259" s="17"/>
       <c r="K259" s="17"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" hidden="1">
       <c r="A260" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16595,7 +16596,7 @@
       <c r="J260" s="17"/>
       <c r="K260" s="17"/>
     </row>
-    <row r="261" spans="1:11" ht="27.6">
+    <row r="261" spans="1:11" ht="27.6" hidden="1">
       <c r="A261" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16622,7 +16623,7 @@
       <c r="J261" s="17"/>
       <c r="K261" s="17"/>
     </row>
-    <row r="262" spans="1:11" ht="55.2">
+    <row r="262" spans="1:11" ht="55.2" hidden="1">
       <c r="A262" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16649,7 +16650,7 @@
       <c r="J262" s="17"/>
       <c r="K262" s="17"/>
     </row>
-    <row r="263" spans="1:11" ht="55.2">
+    <row r="263" spans="1:11" ht="55.2" hidden="1">
       <c r="A263" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16676,7 +16677,7 @@
       <c r="J263" s="17"/>
       <c r="K263" s="17"/>
     </row>
-    <row r="264" spans="1:11" ht="69">
+    <row r="264" spans="1:11" ht="69" hidden="1">
       <c r="A264" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16703,7 +16704,7 @@
       <c r="J264" s="17"/>
       <c r="K264" s="17"/>
     </row>
-    <row r="265" spans="1:11" ht="27.6">
+    <row r="265" spans="1:11" ht="27.6" hidden="1">
       <c r="A265" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16734,7 +16735,7 @@
       <c r="J265" s="17"/>
       <c r="K265" s="17"/>
     </row>
-    <row r="266" spans="1:11" ht="27.6">
+    <row r="266" spans="1:11" ht="27.6" hidden="1">
       <c r="A266" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16765,7 +16766,7 @@
       <c r="J266" s="17"/>
       <c r="K266" s="17"/>
     </row>
-    <row r="267" spans="1:11" ht="69">
+    <row r="267" spans="1:11" ht="69" hidden="1">
       <c r="A267" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16792,7 +16793,7 @@
       <c r="J267" s="17"/>
       <c r="K267" s="17"/>
     </row>
-    <row r="268" spans="1:11" ht="69">
+    <row r="268" spans="1:11" ht="69" hidden="1">
       <c r="A268" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16819,7 +16820,7 @@
       <c r="J268" s="17"/>
       <c r="K268" s="17"/>
     </row>
-    <row r="269" spans="1:11" ht="27.6">
+    <row r="269" spans="1:11" ht="27.6" hidden="1">
       <c r="A269" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16850,7 +16851,7 @@
       <c r="J269" s="17"/>
       <c r="K269" s="17"/>
     </row>
-    <row r="270" spans="1:11" ht="27.6">
+    <row r="270" spans="1:11" ht="27.6" hidden="1">
       <c r="A270" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16881,7 +16882,7 @@
       <c r="J270" s="17"/>
       <c r="K270" s="17"/>
     </row>
-    <row r="271" spans="1:11" ht="27.6">
+    <row r="271" spans="1:11" ht="27.6" hidden="1">
       <c r="A271" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16912,7 +16913,7 @@
       <c r="J271" s="17"/>
       <c r="K271" s="17"/>
     </row>
-    <row r="272" spans="1:11" ht="69">
+    <row r="272" spans="1:11" ht="69" hidden="1">
       <c r="A272" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16943,7 +16944,7 @@
       <c r="J272" s="17"/>
       <c r="K272" s="17"/>
     </row>
-    <row r="273" spans="1:11" ht="27.6">
+    <row r="273" spans="1:11" ht="27.6" hidden="1">
       <c r="A273" s="16" t="s">
         <v>1316</v>
       </c>
@@ -16972,7 +16973,7 @@
       <c r="J273" s="17"/>
       <c r="K273" s="17"/>
     </row>
-    <row r="274" spans="1:11" ht="27.6">
+    <row r="274" spans="1:11" ht="27.6" hidden="1">
       <c r="A274" s="16" t="s">
         <v>1316</v>
       </c>
@@ -17001,7 +17002,7 @@
       <c r="J274" s="17"/>
       <c r="K274" s="17"/>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" hidden="1">
       <c r="A275" s="16" t="s">
         <v>1316</v>
       </c>
@@ -17030,7 +17031,7 @@
       <c r="J275" s="17"/>
       <c r="K275" s="17"/>
     </row>
-    <row r="276" spans="1:11" ht="27.6">
+    <row r="276" spans="1:11" ht="27.6" hidden="1">
       <c r="A276" s="16" t="s">
         <v>1316</v>
       </c>
@@ -17059,7 +17060,7 @@
       <c r="J276" s="17"/>
       <c r="K276" s="17"/>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" hidden="1">
       <c r="A277" s="16" t="s">
         <v>1316</v>
       </c>
@@ -17088,7 +17089,7 @@
       <c r="J277" s="17"/>
       <c r="K277" s="17"/>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" hidden="1">
       <c r="A278" s="16" t="s">
         <v>1316</v>
       </c>
@@ -17117,7 +17118,7 @@
       <c r="J278" s="17"/>
       <c r="K278" s="17"/>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" hidden="1">
       <c r="A279" s="16" t="s">
         <v>1316</v>
       </c>
@@ -17144,7 +17145,7 @@
       <c r="J279" s="17"/>
       <c r="K279" s="17"/>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" hidden="1">
       <c r="A280" s="16" t="s">
         <v>1316</v>
       </c>
@@ -17171,7 +17172,7 @@
       <c r="J280" s="17"/>
       <c r="K280" s="17"/>
     </row>
-    <row r="281" spans="1:11" ht="27.6">
+    <row r="281" spans="1:11" ht="27.6" hidden="1">
       <c r="A281" s="16" t="s">
         <v>1316</v>
       </c>
@@ -17200,7 +17201,7 @@
       <c r="J281" s="17"/>
       <c r="K281" s="17"/>
     </row>
-    <row r="282" spans="1:11" ht="27.6">
+    <row r="282" spans="1:11" ht="27.6" hidden="1">
       <c r="A282" s="16" t="s">
         <v>1316</v>
       </c>
@@ -17229,7 +17230,7 @@
       <c r="J282" s="17"/>
       <c r="K282" s="17"/>
     </row>
-    <row r="283" spans="1:11" ht="27.6">
+    <row r="283" spans="1:11" ht="27.6" hidden="1">
       <c r="A283" s="16" t="s">
         <v>1316</v>
       </c>
@@ -17258,7 +17259,7 @@
       <c r="J283" s="17"/>
       <c r="K283" s="17"/>
     </row>
-    <row r="284" spans="1:11" ht="27.6">
+    <row r="284" spans="1:11" ht="27.6" hidden="1">
       <c r="A284" s="16" t="s">
         <v>1316</v>
       </c>
@@ -17287,7 +17288,7 @@
       <c r="J284" s="17"/>
       <c r="K284" s="17"/>
     </row>
-    <row r="285" spans="1:11" ht="27.6">
+    <row r="285" spans="1:11" ht="27.6" hidden="1">
       <c r="A285" s="16" t="s">
         <v>1316</v>
       </c>
@@ -17314,7 +17315,7 @@
       <c r="J285" s="17"/>
       <c r="K285" s="17"/>
     </row>
-    <row r="286" spans="1:11" ht="27.6">
+    <row r="286" spans="1:11" ht="27.6" hidden="1">
       <c r="A286" s="16" t="s">
         <v>1316</v>
       </c>
@@ -17341,7 +17342,7 @@
       <c r="J286" s="17"/>
       <c r="K286" s="17"/>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" hidden="1">
       <c r="A287" s="16">
         <v>5</v>
       </c>
@@ -17368,7 +17369,7 @@
       <c r="J287" s="17"/>
       <c r="K287" s="17"/>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" hidden="1">
       <c r="A288" s="16">
         <v>3</v>
       </c>
@@ -17395,7 +17396,7 @@
       <c r="J288" s="17"/>
       <c r="K288" s="17"/>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" hidden="1">
       <c r="A289" s="16">
         <v>2</v>
       </c>
@@ -17422,7 +17423,7 @@
       <c r="J289" s="17"/>
       <c r="K289" s="17"/>
     </row>
-    <row r="290" spans="1:11" ht="55.2">
+    <row r="290" spans="1:11" ht="55.2" hidden="1">
       <c r="A290" s="9">
         <v>8</v>
       </c>
@@ -17449,7 +17450,7 @@
       <c r="J290" s="15"/>
       <c r="K290" s="15"/>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" hidden="1">
       <c r="A291" s="9">
         <v>8</v>
       </c>
@@ -17476,7 +17477,7 @@
       <c r="J291" s="15"/>
       <c r="K291" s="15"/>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" hidden="1">
       <c r="A292" s="9">
         <v>8</v>
       </c>
@@ -17503,7 +17504,7 @@
       <c r="J292" s="15"/>
       <c r="K292" s="15"/>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" hidden="1">
       <c r="A293" s="9">
         <v>8</v>
       </c>
@@ -17530,7 +17531,7 @@
       <c r="J293" s="15"/>
       <c r="K293" s="15"/>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" hidden="1">
       <c r="A294" s="9">
         <v>8</v>
       </c>
@@ -17557,7 +17558,7 @@
       <c r="J294" s="15"/>
       <c r="K294" s="15"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" hidden="1">
       <c r="A295" s="9">
         <v>8</v>
       </c>
@@ -17584,7 +17585,7 @@
       <c r="J295" s="15"/>
       <c r="K295" s="15"/>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" hidden="1">
       <c r="A296" s="9">
         <v>8</v>
       </c>
@@ -17611,7 +17612,7 @@
       <c r="J296" s="15"/>
       <c r="K296" s="15"/>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" hidden="1">
       <c r="A297" s="9">
         <v>8</v>
       </c>
@@ -17638,7 +17639,7 @@
       <c r="J297" s="15"/>
       <c r="K297" s="15"/>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" hidden="1">
       <c r="A298" s="9">
         <v>8</v>
       </c>
@@ -17665,7 +17666,7 @@
       <c r="J298" s="15"/>
       <c r="K298" s="15"/>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" hidden="1">
       <c r="A299" s="9">
         <v>8</v>
       </c>
@@ -17692,7 +17693,7 @@
       <c r="J299" s="15"/>
       <c r="K299" s="15"/>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" hidden="1">
       <c r="A300" s="9">
         <v>8</v>
       </c>
@@ -17719,7 +17720,7 @@
       <c r="J300" s="15"/>
       <c r="K300" s="15"/>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" hidden="1">
       <c r="A301" s="9">
         <v>8</v>
       </c>
@@ -17746,7 +17747,7 @@
       <c r="J301" s="15"/>
       <c r="K301" s="15"/>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" hidden="1">
       <c r="A302" s="9">
         <v>8</v>
       </c>
@@ -17773,7 +17774,7 @@
       <c r="J302" s="15"/>
       <c r="K302" s="15"/>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" hidden="1">
       <c r="A303" s="9">
         <v>8</v>
       </c>
@@ -17800,7 +17801,7 @@
       <c r="J303" s="15"/>
       <c r="K303" s="15"/>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" hidden="1">
       <c r="A304" s="9">
         <v>8</v>
       </c>
@@ -17827,7 +17828,7 @@
       <c r="J304" s="15"/>
       <c r="K304" s="15"/>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" hidden="1">
       <c r="A305" s="9">
         <v>8</v>
       </c>
@@ -17854,7 +17855,7 @@
       <c r="J305" s="15"/>
       <c r="K305" s="15"/>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" hidden="1">
       <c r="A306" s="9">
         <v>8</v>
       </c>
@@ -17881,7 +17882,7 @@
       <c r="J306" s="15"/>
       <c r="K306" s="15"/>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" hidden="1">
       <c r="A307" s="9">
         <v>8</v>
       </c>
@@ -17908,7 +17909,7 @@
       <c r="J307" s="15"/>
       <c r="K307" s="15"/>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" hidden="1">
       <c r="A308" s="9">
         <v>8</v>
       </c>
@@ -17935,7 +17936,7 @@
       <c r="J308" s="15"/>
       <c r="K308" s="15"/>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" hidden="1">
       <c r="A309" s="9">
         <v>8</v>
       </c>
@@ -17962,7 +17963,7 @@
       <c r="J309" s="15"/>
       <c r="K309" s="15"/>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" hidden="1">
       <c r="A310" s="9">
         <v>8</v>
       </c>
@@ -17989,7 +17990,7 @@
       <c r="J310" s="15"/>
       <c r="K310" s="15"/>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" hidden="1">
       <c r="A311" s="9">
         <v>8</v>
       </c>
@@ -18016,7 +18017,7 @@
       <c r="J311" s="15"/>
       <c r="K311" s="15"/>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" hidden="1">
       <c r="A312" s="9">
         <v>8</v>
       </c>
@@ -18043,7 +18044,7 @@
       <c r="J312" s="15"/>
       <c r="K312" s="15"/>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" hidden="1">
       <c r="A313" s="9">
         <v>8</v>
       </c>
@@ -18070,7 +18071,7 @@
       <c r="J313" s="15"/>
       <c r="K313" s="15"/>
     </row>
-    <row r="314" spans="1:11" ht="27.6">
+    <row r="314" spans="1:11" ht="27.6" hidden="1">
       <c r="A314" s="9">
         <v>8</v>
       </c>
@@ -18097,7 +18098,7 @@
       <c r="J314" s="15"/>
       <c r="K314" s="15"/>
     </row>
-    <row r="315" spans="1:11" ht="27.6">
+    <row r="315" spans="1:11" ht="27.6" hidden="1">
       <c r="A315" s="9">
         <v>8</v>
       </c>
@@ -18124,7 +18125,7 @@
       <c r="J315" s="15"/>
       <c r="K315" s="15"/>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" hidden="1">
       <c r="A316" s="9">
         <v>8</v>
       </c>
@@ -18151,7 +18152,7 @@
       <c r="J316" s="15"/>
       <c r="K316" s="15"/>
     </row>
-    <row r="317" spans="1:11" ht="27.6">
+    <row r="317" spans="1:11" ht="27.6" hidden="1">
       <c r="A317" s="9">
         <v>8</v>
       </c>
@@ -18178,7 +18179,7 @@
       <c r="J317" s="15"/>
       <c r="K317" s="15"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" hidden="1">
       <c r="A318" s="9">
         <v>8</v>
       </c>
@@ -18205,7 +18206,7 @@
       <c r="J318" s="15"/>
       <c r="K318" s="15"/>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" hidden="1">
       <c r="A319" s="9">
         <v>8</v>
       </c>
@@ -18232,7 +18233,7 @@
       <c r="J319" s="15"/>
       <c r="K319" s="15"/>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" hidden="1">
       <c r="A320" s="9">
         <v>8</v>
       </c>
@@ -18259,7 +18260,7 @@
       <c r="J320" s="15"/>
       <c r="K320" s="15"/>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" hidden="1">
       <c r="A321" s="9">
         <v>8</v>
       </c>
@@ -18286,7 +18287,7 @@
       <c r="J321" s="15"/>
       <c r="K321" s="15"/>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" hidden="1">
       <c r="A322" s="9">
         <v>8</v>
       </c>
@@ -18313,7 +18314,7 @@
       <c r="J322" s="15"/>
       <c r="K322" s="15"/>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" hidden="1">
       <c r="A323" s="9">
         <v>8</v>
       </c>
@@ -18340,7 +18341,7 @@
       <c r="J323" s="15"/>
       <c r="K323" s="15"/>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" hidden="1">
       <c r="A324" s="9">
         <v>8</v>
       </c>
@@ -18367,7 +18368,7 @@
       <c r="J324" s="15"/>
       <c r="K324" s="15"/>
     </row>
-    <row r="325" spans="1:11" ht="27.6">
+    <row r="325" spans="1:11" ht="27.6" hidden="1">
       <c r="A325" s="9">
         <v>8</v>
       </c>
@@ -18394,7 +18395,7 @@
       <c r="J325" s="15"/>
       <c r="K325" s="15"/>
     </row>
-    <row r="326" spans="1:11" ht="27.6">
+    <row r="326" spans="1:11" ht="27.6" hidden="1">
       <c r="A326" s="9">
         <v>8</v>
       </c>
@@ -18421,7 +18422,7 @@
       <c r="J326" s="15"/>
       <c r="K326" s="15"/>
     </row>
-    <row r="327" spans="1:11" ht="27.6">
+    <row r="327" spans="1:11" ht="27.6" hidden="1">
       <c r="A327" s="9">
         <v>8</v>
       </c>
@@ -18448,7 +18449,7 @@
       <c r="J327" s="15"/>
       <c r="K327" s="15"/>
     </row>
-    <row r="328" spans="1:11" ht="27.6">
+    <row r="328" spans="1:11" ht="27.6" hidden="1">
       <c r="A328" s="9">
         <v>8</v>
       </c>
@@ -18475,7 +18476,7 @@
       <c r="J328" s="15"/>
       <c r="K328" s="15"/>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" hidden="1">
       <c r="A329" s="9">
         <v>8</v>
       </c>
@@ -18502,7 +18503,7 @@
       <c r="J329" s="15"/>
       <c r="K329" s="15"/>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" hidden="1">
       <c r="A330" s="9">
         <v>8</v>
       </c>
@@ -18529,7 +18530,7 @@
       <c r="J330" s="15"/>
       <c r="K330" s="15"/>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" hidden="1">
       <c r="A331" s="9">
         <v>8</v>
       </c>
@@ -18556,7 +18557,7 @@
       <c r="J331" s="15"/>
       <c r="K331" s="15"/>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" hidden="1">
       <c r="A332" s="9">
         <v>8</v>
       </c>
@@ -18583,7 +18584,7 @@
       <c r="J332" s="15"/>
       <c r="K332" s="15"/>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" hidden="1">
       <c r="A333" s="9">
         <v>8</v>
       </c>
@@ -18610,7 +18611,7 @@
       <c r="J333" s="15"/>
       <c r="K333" s="15"/>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" hidden="1">
       <c r="A334" s="9">
         <v>8</v>
       </c>
@@ -18637,7 +18638,7 @@
       <c r="J334" s="15"/>
       <c r="K334" s="15"/>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" hidden="1">
       <c r="A335" s="9">
         <v>8</v>
       </c>
@@ -18664,7 +18665,7 @@
       <c r="J335" s="15"/>
       <c r="K335" s="15"/>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" hidden="1">
       <c r="A336" s="9">
         <v>8</v>
       </c>
@@ -18691,7 +18692,7 @@
       <c r="J336" s="15"/>
       <c r="K336" s="15"/>
     </row>
-    <row r="337" spans="1:11" ht="27.6">
+    <row r="337" spans="1:11" ht="27.6" hidden="1">
       <c r="A337" s="9">
         <v>8</v>
       </c>
@@ -18718,7 +18719,7 @@
       <c r="J337" s="15"/>
       <c r="K337" s="15"/>
     </row>
-    <row r="338" spans="1:11" ht="27.6">
+    <row r="338" spans="1:11" ht="27.6" hidden="1">
       <c r="A338" s="9">
         <v>8</v>
       </c>
@@ -18745,7 +18746,7 @@
       <c r="J338" s="15"/>
       <c r="K338" s="15"/>
     </row>
-    <row r="339" spans="1:11" ht="27.6">
+    <row r="339" spans="1:11" ht="27.6" hidden="1">
       <c r="A339" s="9">
         <v>8</v>
       </c>
@@ -18772,7 +18773,7 @@
       <c r="J339" s="15"/>
       <c r="K339" s="15"/>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" hidden="1">
       <c r="A340" s="9">
         <v>8</v>
       </c>
@@ -18799,7 +18800,7 @@
       <c r="J340" s="15"/>
       <c r="K340" s="15"/>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" hidden="1">
       <c r="A341" s="9">
         <v>8</v>
       </c>
@@ -18826,7 +18827,7 @@
       <c r="J341" s="15"/>
       <c r="K341" s="15"/>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" hidden="1">
       <c r="A342" s="9">
         <v>8</v>
       </c>
@@ -18853,7 +18854,7 @@
       <c r="J342" s="15"/>
       <c r="K342" s="15"/>
     </row>
-    <row r="343" spans="1:11" ht="27.6">
+    <row r="343" spans="1:11" ht="27.6" hidden="1">
       <c r="A343" s="9">
         <v>8</v>
       </c>
@@ -18880,7 +18881,7 @@
       <c r="J343" s="15"/>
       <c r="K343" s="15"/>
     </row>
-    <row r="344" spans="1:11" ht="27.6">
+    <row r="344" spans="1:11" ht="27.6" hidden="1">
       <c r="A344" s="9">
         <v>8</v>
       </c>
@@ -18907,7 +18908,7 @@
       <c r="J344" s="15"/>
       <c r="K344" s="15"/>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" hidden="1">
       <c r="A345" s="9">
         <v>8</v>
       </c>
@@ -18934,7 +18935,7 @@
       <c r="J345" s="15"/>
       <c r="K345" s="15"/>
     </row>
-    <row r="346" spans="1:11" ht="27.6">
+    <row r="346" spans="1:11" ht="27.6" hidden="1">
       <c r="A346" s="9">
         <v>8</v>
       </c>
@@ -18961,7 +18962,7 @@
       <c r="J346" s="15"/>
       <c r="K346" s="15"/>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" hidden="1">
       <c r="A347" s="9">
         <v>8</v>
       </c>
@@ -18988,7 +18989,7 @@
       <c r="J347" s="15"/>
       <c r="K347" s="15"/>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" hidden="1">
       <c r="A348" s="9">
         <v>8</v>
       </c>
@@ -19015,7 +19016,7 @@
       <c r="J348" s="15"/>
       <c r="K348" s="15"/>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" hidden="1">
       <c r="A349" s="9">
         <v>8</v>
       </c>
@@ -19042,7 +19043,7 @@
       <c r="J349" s="15"/>
       <c r="K349" s="15"/>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" hidden="1">
       <c r="A350" s="9">
         <v>8</v>
       </c>
@@ -19069,7 +19070,7 @@
       <c r="J350" s="15"/>
       <c r="K350" s="15"/>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" hidden="1">
       <c r="A351" s="9">
         <v>8</v>
       </c>
@@ -19096,7 +19097,7 @@
       <c r="J351" s="15"/>
       <c r="K351" s="15"/>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" hidden="1">
       <c r="A352" s="9">
         <v>8</v>
       </c>
@@ -19123,7 +19124,7 @@
       <c r="J352" s="15"/>
       <c r="K352" s="15"/>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" hidden="1">
       <c r="A353" s="9">
         <v>8</v>
       </c>
@@ -19150,7 +19151,7 @@
       <c r="J353" s="15"/>
       <c r="K353" s="15"/>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" hidden="1">
       <c r="A354" s="9">
         <v>8</v>
       </c>
@@ -19177,7 +19178,7 @@
       <c r="J354" s="15"/>
       <c r="K354" s="15"/>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" hidden="1">
       <c r="A355" s="9">
         <v>8</v>
       </c>
@@ -19204,7 +19205,7 @@
       <c r="J355" s="15"/>
       <c r="K355" s="15"/>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" hidden="1">
       <c r="A356" s="9">
         <v>8</v>
       </c>
@@ -19231,7 +19232,7 @@
       <c r="J356" s="15"/>
       <c r="K356" s="15"/>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" hidden="1">
       <c r="A357" s="9">
         <v>8</v>
       </c>
@@ -19258,7 +19259,7 @@
       <c r="J357" s="15"/>
       <c r="K357" s="15"/>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" hidden="1">
       <c r="A358" s="9">
         <v>8</v>
       </c>
@@ -19285,7 +19286,7 @@
       <c r="J358" s="15"/>
       <c r="K358" s="15"/>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" hidden="1">
       <c r="A359" s="9">
         <v>8</v>
       </c>
@@ -19312,7 +19313,7 @@
       <c r="J359" s="15"/>
       <c r="K359" s="15"/>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" hidden="1">
       <c r="A360" s="9">
         <v>8</v>
       </c>
@@ -19339,7 +19340,7 @@
       <c r="J360" s="15"/>
       <c r="K360" s="15"/>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" hidden="1">
       <c r="A361" s="9">
         <v>8</v>
       </c>
@@ -19366,7 +19367,7 @@
       <c r="J361" s="15"/>
       <c r="K361" s="15"/>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" hidden="1">
       <c r="A362" s="9">
         <v>8</v>
       </c>
@@ -19393,7 +19394,7 @@
       <c r="J362" s="15"/>
       <c r="K362" s="15"/>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" hidden="1">
       <c r="A363" s="9">
         <v>8</v>
       </c>
@@ -19420,7 +19421,7 @@
       <c r="J363" s="15"/>
       <c r="K363" s="15"/>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" hidden="1">
       <c r="A364" s="9">
         <v>8</v>
       </c>
@@ -19447,7 +19448,7 @@
       <c r="J364" s="15"/>
       <c r="K364" s="15"/>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" hidden="1">
       <c r="A365" s="9">
         <v>8</v>
       </c>
@@ -19474,12 +19475,12 @@
       <c r="J365" s="15"/>
       <c r="K365" s="15"/>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" hidden="1">
       <c r="A366" s="9"/>
       <c r="B366" s="9" t="s">
         <v>2210</v>
       </c>
-      <c r="C366" s="37" t="s">
+      <c r="C366" s="36" t="s">
         <v>2211</v>
       </c>
       <c r="D366" s="9"/>
@@ -19495,7 +19496,7 @@
       <c r="J366" s="15"/>
       <c r="K366" s="15"/>
     </row>
-    <row r="367" spans="1:11" ht="14.4">
+    <row r="367" spans="1:11" ht="14.4" hidden="1">
       <c r="A367" s="9"/>
       <c r="B367" s="9" t="s">
         <v>2212</v>
@@ -19514,7 +19515,7 @@
       <c r="J367" s="15"/>
       <c r="K367" s="15"/>
     </row>
-    <row r="368" spans="1:11" ht="14.4">
+    <row r="368" spans="1:11" ht="14.4" hidden="1">
       <c r="A368" s="9"/>
       <c r="B368" s="9" t="s">
         <v>2215</v>
@@ -19533,7 +19534,7 @@
       <c r="J368" s="15"/>
       <c r="K368" s="15"/>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" hidden="1">
       <c r="A369" s="9">
         <v>8</v>
       </c>
@@ -19560,7 +19561,7 @@
       <c r="J369" s="15"/>
       <c r="K369" s="15"/>
     </row>
-    <row r="370" spans="1:11" ht="27.6">
+    <row r="370" spans="1:11" ht="27.6" hidden="1">
       <c r="A370" s="9">
         <v>8</v>
       </c>
@@ -19587,7 +19588,7 @@
       <c r="J370" s="15"/>
       <c r="K370" s="15"/>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" hidden="1">
       <c r="A371" s="9">
         <v>8</v>
       </c>
@@ -19614,7 +19615,7 @@
       <c r="J371" s="15"/>
       <c r="K371" s="15"/>
     </row>
-    <row r="372" spans="1:11" ht="27.6">
+    <row r="372" spans="1:11" ht="27.6" hidden="1">
       <c r="A372" s="9">
         <v>8</v>
       </c>
@@ -19641,7 +19642,7 @@
       <c r="J372" s="15"/>
       <c r="K372" s="15"/>
     </row>
-    <row r="373" spans="1:11" ht="27.6">
+    <row r="373" spans="1:11" ht="27.6" hidden="1">
       <c r="A373" s="9">
         <v>8</v>
       </c>
@@ -19668,7 +19669,7 @@
       <c r="J373" s="15"/>
       <c r="K373" s="15"/>
     </row>
-    <row r="374" spans="1:11" ht="27.6">
+    <row r="374" spans="1:11" ht="27.6" hidden="1">
       <c r="A374" s="9">
         <v>8</v>
       </c>
@@ -19695,7 +19696,7 @@
       <c r="J374" s="15"/>
       <c r="K374" s="15"/>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" hidden="1">
       <c r="A375" s="9">
         <v>8</v>
       </c>
@@ -19722,7 +19723,7 @@
       <c r="J375" s="15"/>
       <c r="K375" s="15"/>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" spans="1:11" hidden="1">
       <c r="A376" s="9">
         <v>8</v>
       </c>
@@ -19749,7 +19750,7 @@
       <c r="J376" s="15"/>
       <c r="K376" s="15"/>
     </row>
-    <row r="377" spans="1:11" ht="27.6">
+    <row r="377" spans="1:11" ht="27.6" hidden="1">
       <c r="A377" s="9">
         <v>8</v>
       </c>
@@ -19776,7 +19777,7 @@
       <c r="J377" s="15"/>
       <c r="K377" s="15"/>
     </row>
-    <row r="378" spans="1:11" ht="27.6">
+    <row r="378" spans="1:11" ht="27.6" hidden="1">
       <c r="A378" s="9">
         <v>8</v>
       </c>
@@ -19803,7 +19804,7 @@
       <c r="J378" s="15"/>
       <c r="K378" s="15"/>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" hidden="1">
       <c r="A379" s="9">
         <v>8</v>
       </c>
@@ -19830,7 +19831,7 @@
       <c r="J379" s="15"/>
       <c r="K379" s="15"/>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" hidden="1">
       <c r="A380" s="9">
         <v>8</v>
       </c>
@@ -19857,7 +19858,7 @@
       <c r="J380" s="15"/>
       <c r="K380" s="15"/>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" hidden="1">
       <c r="A381" s="9">
         <v>8</v>
       </c>
@@ -19884,7 +19885,7 @@
       <c r="J381" s="15"/>
       <c r="K381" s="15"/>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" hidden="1">
       <c r="A382" s="9">
         <v>8</v>
       </c>
@@ -19911,7 +19912,7 @@
       <c r="J382" s="15"/>
       <c r="K382" s="15"/>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" hidden="1">
       <c r="A383" s="9">
         <v>8</v>
       </c>
@@ -19938,7 +19939,7 @@
       <c r="J383" s="15"/>
       <c r="K383" s="15"/>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" hidden="1">
       <c r="A384" s="9">
         <v>8</v>
       </c>
@@ -19965,7 +19966,7 @@
       <c r="J384" s="15"/>
       <c r="K384" s="15"/>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" hidden="1">
       <c r="A385" s="9">
         <v>8</v>
       </c>
@@ -19992,7 +19993,7 @@
       <c r="J385" s="15"/>
       <c r="K385" s="15"/>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:11" hidden="1">
       <c r="A386" s="9">
         <v>8</v>
       </c>
@@ -20019,7 +20020,7 @@
       <c r="J386" s="15"/>
       <c r="K386" s="15"/>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" hidden="1">
       <c r="A387" s="9">
         <v>8</v>
       </c>
@@ -20046,7 +20047,7 @@
       <c r="J387" s="15"/>
       <c r="K387" s="15"/>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" hidden="1">
       <c r="A388" s="9">
         <v>8</v>
       </c>
@@ -20073,7 +20074,7 @@
       <c r="J388" s="15"/>
       <c r="K388" s="15"/>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" hidden="1">
       <c r="A389" s="9">
         <v>8</v>
       </c>
@@ -20100,7 +20101,7 @@
       <c r="J389" s="15"/>
       <c r="K389" s="15"/>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" hidden="1">
       <c r="A390" s="9">
         <v>8</v>
       </c>
@@ -20127,7 +20128,7 @@
       <c r="J390" s="15"/>
       <c r="K390" s="15"/>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" hidden="1">
       <c r="A391" s="9">
         <v>8</v>
       </c>
@@ -20154,7 +20155,7 @@
       <c r="J391" s="15"/>
       <c r="K391" s="15"/>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" hidden="1">
       <c r="A392" s="9">
         <v>8</v>
       </c>
@@ -20181,7 +20182,7 @@
       <c r="J392" s="15"/>
       <c r="K392" s="15"/>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" hidden="1">
       <c r="A393" s="9">
         <v>8</v>
       </c>
@@ -20208,7 +20209,7 @@
       <c r="J393" s="15"/>
       <c r="K393" s="15"/>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" hidden="1">
       <c r="A394" s="9">
         <v>8</v>
       </c>
@@ -20235,7 +20236,7 @@
       <c r="J394" s="15"/>
       <c r="K394" s="15"/>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" hidden="1">
       <c r="A395" s="9">
         <v>8</v>
       </c>
@@ -20262,7 +20263,7 @@
       <c r="J395" s="15"/>
       <c r="K395" s="15"/>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" hidden="1">
       <c r="A396" s="9">
         <v>8</v>
       </c>
@@ -20289,7 +20290,7 @@
       <c r="J396" s="15"/>
       <c r="K396" s="15"/>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" hidden="1">
       <c r="A397" s="9">
         <v>8</v>
       </c>
@@ -20316,7 +20317,7 @@
       <c r="J397" s="15"/>
       <c r="K397" s="15"/>
     </row>
-    <row r="398" spans="1:11" ht="27.6">
+    <row r="398" spans="1:11" ht="27.6" hidden="1">
       <c r="A398" s="9">
         <v>8</v>
       </c>
@@ -20343,7 +20344,7 @@
       <c r="J398" s="15"/>
       <c r="K398" s="15"/>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" hidden="1">
       <c r="A399" s="9">
         <v>8</v>
       </c>
@@ -20370,7 +20371,7 @@
       <c r="J399" s="15"/>
       <c r="K399" s="15"/>
     </row>
-    <row r="400" spans="1:11" ht="27.6">
+    <row r="400" spans="1:11" ht="27.6" hidden="1">
       <c r="A400" s="9">
         <v>8</v>
       </c>
@@ -20397,7 +20398,7 @@
       <c r="J400" s="15"/>
       <c r="K400" s="15"/>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" hidden="1">
       <c r="A401" s="9">
         <v>8</v>
       </c>
@@ -20424,7 +20425,7 @@
       <c r="J401" s="15"/>
       <c r="K401" s="15"/>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" hidden="1">
       <c r="A402" s="9">
         <v>8</v>
       </c>
@@ -20451,7 +20452,7 @@
       <c r="J402" s="15"/>
       <c r="K402" s="15"/>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" hidden="1">
       <c r="A403" s="9">
         <v>8</v>
       </c>
@@ -20478,7 +20479,7 @@
       <c r="J403" s="15"/>
       <c r="K403" s="15"/>
     </row>
-    <row r="404" spans="1:11" ht="27.6">
+    <row r="404" spans="1:11" ht="27.6" hidden="1">
       <c r="A404" s="9">
         <v>8</v>
       </c>
@@ -20505,7 +20506,7 @@
       <c r="J404" s="15"/>
       <c r="K404" s="15"/>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" hidden="1">
       <c r="A405" s="9">
         <v>8</v>
       </c>
@@ -20532,7 +20533,7 @@
       <c r="J405" s="15"/>
       <c r="K405" s="15"/>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" hidden="1">
       <c r="A406" s="9">
         <v>8</v>
       </c>
@@ -20559,7 +20560,7 @@
       <c r="J406" s="15"/>
       <c r="K406" s="15"/>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" hidden="1">
       <c r="A407" s="9">
         <v>8</v>
       </c>
@@ -20586,7 +20587,7 @@
       <c r="J407" s="15"/>
       <c r="K407" s="15"/>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" hidden="1">
       <c r="A408" s="9">
         <v>8</v>
       </c>
@@ -20613,7 +20614,7 @@
       <c r="J408" s="15"/>
       <c r="K408" s="15"/>
     </row>
-    <row r="409" spans="1:11" ht="27.6">
+    <row r="409" spans="1:11" ht="27.6" hidden="1">
       <c r="A409" s="9">
         <v>8</v>
       </c>
@@ -20640,7 +20641,7 @@
       <c r="J409" s="15"/>
       <c r="K409" s="15"/>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" hidden="1">
       <c r="A410" s="9">
         <v>8</v>
       </c>
@@ -20667,7 +20668,7 @@
       <c r="J410" s="15"/>
       <c r="K410" s="15"/>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" spans="1:11" hidden="1">
       <c r="A411" s="9">
         <v>8</v>
       </c>
@@ -20694,7 +20695,7 @@
       <c r="J411" s="15"/>
       <c r="K411" s="15"/>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:11" hidden="1">
       <c r="A412" s="9">
         <v>8</v>
       </c>
@@ -20721,7 +20722,7 @@
       <c r="J412" s="15"/>
       <c r="K412" s="15"/>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" spans="1:11" hidden="1">
       <c r="A413" s="9">
         <v>8</v>
       </c>
@@ -20748,7 +20749,7 @@
       <c r="J413" s="15"/>
       <c r="K413" s="15"/>
     </row>
-    <row r="414" spans="1:11">
+    <row r="414" spans="1:11" hidden="1">
       <c r="A414" s="9">
         <v>8</v>
       </c>
@@ -20775,7 +20776,7 @@
       <c r="J414" s="15"/>
       <c r="K414" s="15"/>
     </row>
-    <row r="415" spans="1:11" ht="27.6">
+    <row r="415" spans="1:11" ht="27.6" hidden="1">
       <c r="A415" s="9">
         <v>8</v>
       </c>
@@ -20802,7 +20803,7 @@
       <c r="J415" s="15"/>
       <c r="K415" s="15"/>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" hidden="1">
       <c r="A416" s="9">
         <v>8</v>
       </c>
@@ -20829,7 +20830,7 @@
       <c r="J416" s="15"/>
       <c r="K416" s="15"/>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:11" hidden="1">
       <c r="A417" s="9">
         <v>8</v>
       </c>
@@ -20856,7 +20857,7 @@
       <c r="J417" s="15"/>
       <c r="K417" s="15"/>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" hidden="1">
       <c r="A418" s="9">
         <v>8</v>
       </c>
@@ -20883,7 +20884,7 @@
       <c r="J418" s="15"/>
       <c r="K418" s="15"/>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:11" hidden="1">
       <c r="A419" s="9">
         <v>8</v>
       </c>
@@ -20910,7 +20911,7 @@
       <c r="J419" s="15"/>
       <c r="K419" s="15"/>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" spans="1:11" hidden="1">
       <c r="A420" s="9">
         <v>8</v>
       </c>
@@ -20937,7 +20938,7 @@
       <c r="J420" s="15"/>
       <c r="K420" s="15"/>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" spans="1:11" hidden="1">
       <c r="A421" s="9">
         <v>8</v>
       </c>
@@ -20964,7 +20965,7 @@
       <c r="J421" s="15"/>
       <c r="K421" s="15"/>
     </row>
-    <row r="422" spans="1:11" ht="27.6">
+    <row r="422" spans="1:11" ht="27.6" hidden="1">
       <c r="A422" s="9">
         <v>8</v>
       </c>
@@ -20991,7 +20992,7 @@
       <c r="J422" s="15"/>
       <c r="K422" s="15"/>
     </row>
-    <row r="423" spans="1:11">
+    <row r="423" spans="1:11" hidden="1">
       <c r="A423" s="9">
         <v>8</v>
       </c>
@@ -21018,7 +21019,7 @@
       <c r="J423" s="15"/>
       <c r="K423" s="15"/>
     </row>
-    <row r="424" spans="1:11">
+    <row r="424" spans="1:11" hidden="1">
       <c r="A424" s="9">
         <v>8</v>
       </c>
@@ -21054,7 +21055,9 @@
         <v>2223</v>
       </c>
       <c r="D425" s="15"/>
-      <c r="E425" s="10"/>
+      <c r="E425" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="F425" s="10"/>
       <c r="G425" s="15"/>
       <c r="H425" s="15"/>
@@ -21062,7 +21065,7 @@
       <c r="J425" s="15"/>
       <c r="K425" s="15"/>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" spans="1:11" hidden="1">
       <c r="A426" s="9">
         <v>8</v>
       </c>
@@ -21089,7 +21092,7 @@
       <c r="J426" s="15"/>
       <c r="K426" s="15"/>
     </row>
-    <row r="427" spans="1:11" ht="27.6">
+    <row r="427" spans="1:11" ht="27.6" hidden="1">
       <c r="A427" s="9">
         <v>8</v>
       </c>
@@ -21116,7 +21119,7 @@
       <c r="J427" s="15"/>
       <c r="K427" s="15"/>
     </row>
-    <row r="428" spans="1:11" ht="27.6">
+    <row r="428" spans="1:11" ht="27.6" hidden="1">
       <c r="A428" s="9">
         <v>8</v>
       </c>
@@ -21143,7 +21146,7 @@
       <c r="J428" s="15"/>
       <c r="K428" s="15"/>
     </row>
-    <row r="429" spans="1:11" ht="27.6">
+    <row r="429" spans="1:11" ht="27.6" hidden="1">
       <c r="A429" s="9">
         <v>8</v>
       </c>
@@ -21170,7 +21173,7 @@
       <c r="J429" s="15"/>
       <c r="K429" s="15"/>
     </row>
-    <row r="430" spans="1:11" ht="27.6">
+    <row r="430" spans="1:11" ht="27.6" hidden="1">
       <c r="A430" s="9">
         <v>8</v>
       </c>
@@ -21197,7 +21200,7 @@
       <c r="J430" s="15"/>
       <c r="K430" s="15"/>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" hidden="1">
       <c r="A431" s="9">
         <v>8</v>
       </c>
@@ -21224,7 +21227,7 @@
       <c r="J431" s="15"/>
       <c r="K431" s="15"/>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" spans="1:11" hidden="1">
       <c r="A432" s="9">
         <v>8</v>
       </c>
@@ -21251,7 +21254,7 @@
       <c r="J432" s="15"/>
       <c r="K432" s="15"/>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:11" hidden="1">
       <c r="A433" s="9">
         <v>8</v>
       </c>
@@ -21278,7 +21281,7 @@
       <c r="J433" s="15"/>
       <c r="K433" s="15"/>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:11" hidden="1">
       <c r="A434" s="9">
         <v>8</v>
       </c>
@@ -21305,7 +21308,7 @@
       <c r="J434" s="15"/>
       <c r="K434" s="15"/>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" hidden="1">
       <c r="A435" s="9">
         <v>8</v>
       </c>
@@ -21332,7 +21335,7 @@
       <c r="J435" s="15"/>
       <c r="K435" s="15"/>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:11" hidden="1">
       <c r="A436" s="9">
         <v>8</v>
       </c>
@@ -21359,7 +21362,7 @@
       <c r="J436" s="15"/>
       <c r="K436" s="15"/>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:11" hidden="1">
       <c r="A437" s="9">
         <v>8</v>
       </c>
@@ -21386,7 +21389,7 @@
       <c r="J437" s="15"/>
       <c r="K437" s="15"/>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:11" hidden="1">
       <c r="A438" s="9">
         <v>8</v>
       </c>
@@ -21422,7 +21425,9 @@
         <v>2010</v>
       </c>
       <c r="D439" s="9"/>
-      <c r="E439" s="10"/>
+      <c r="E439" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="F439" s="10"/>
       <c r="G439" s="15"/>
       <c r="H439" s="15"/>
@@ -21439,7 +21444,9 @@
         <v>2015</v>
       </c>
       <c r="D440" s="9"/>
-      <c r="E440" s="10"/>
+      <c r="E440" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="F440" s="10"/>
       <c r="G440" s="15"/>
       <c r="H440" s="15"/>
@@ -21456,7 +21463,9 @@
         <v>2016</v>
       </c>
       <c r="D441" s="9"/>
-      <c r="E441" s="10"/>
+      <c r="E441" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="F441" s="10"/>
       <c r="G441" s="15"/>
       <c r="H441" s="15"/>
@@ -21473,7 +21482,9 @@
         <v>2017</v>
       </c>
       <c r="D442" s="9"/>
-      <c r="E442" s="10"/>
+      <c r="E442" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="F442" s="10"/>
       <c r="G442" s="15"/>
       <c r="H442" s="15"/>
@@ -21490,7 +21501,9 @@
         <v>2018</v>
       </c>
       <c r="D443" s="9"/>
-      <c r="E443" s="10"/>
+      <c r="E443" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="F443" s="10"/>
       <c r="G443" s="15"/>
       <c r="H443" s="15"/>
@@ -21498,7 +21511,7 @@
       <c r="J443" s="15"/>
       <c r="K443" s="15"/>
     </row>
-    <row r="444" spans="1:11" ht="27.6">
+    <row r="444" spans="1:11" ht="27.6" hidden="1">
       <c r="A444" s="9">
         <v>8</v>
       </c>
@@ -21525,7 +21538,7 @@
       <c r="J444" s="9"/>
       <c r="K444" s="9"/>
     </row>
-    <row r="445" spans="1:11" ht="27.6">
+    <row r="445" spans="1:11" ht="27.6" hidden="1">
       <c r="A445" s="9">
         <v>8</v>
       </c>
@@ -21552,7 +21565,7 @@
       <c r="J445" s="9"/>
       <c r="K445" s="9"/>
     </row>
-    <row r="446" spans="1:11" ht="27.6">
+    <row r="446" spans="1:11" ht="27.6" hidden="1">
       <c r="A446" s="9">
         <v>8</v>
       </c>
@@ -21579,7 +21592,7 @@
       <c r="J446" s="9"/>
       <c r="K446" s="9"/>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:11" hidden="1">
       <c r="A447" s="9">
         <v>8</v>
       </c>
@@ -21606,7 +21619,7 @@
       <c r="J447" s="9"/>
       <c r="K447" s="9"/>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:11" hidden="1">
       <c r="A448" s="9">
         <v>8</v>
       </c>
@@ -21633,7 +21646,7 @@
       <c r="J448" s="9"/>
       <c r="K448" s="9"/>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" hidden="1">
       <c r="A449" s="9">
         <v>8</v>
       </c>
@@ -21660,7 +21673,7 @@
       <c r="J449" s="9"/>
       <c r="K449" s="9"/>
     </row>
-    <row r="450" spans="1:11" ht="27.6">
+    <row r="450" spans="1:11" ht="27.6" hidden="1">
       <c r="A450" s="16">
         <v>2</v>
       </c>
@@ -21689,7 +21702,7 @@
       <c r="J450" s="17"/>
       <c r="K450" s="17"/>
     </row>
-    <row r="451" spans="1:11" ht="41.4">
+    <row r="451" spans="1:11" ht="41.4" hidden="1">
       <c r="A451" s="16">
         <v>2</v>
       </c>
@@ -21718,7 +21731,7 @@
       <c r="J451" s="17"/>
       <c r="K451" s="17"/>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:11" hidden="1">
       <c r="A452" s="16">
         <v>2</v>
       </c>
@@ -21749,7 +21762,7 @@
       <c r="J452" s="17"/>
       <c r="K452" s="17"/>
     </row>
-    <row r="453" spans="1:11" ht="27.6">
+    <row r="453" spans="1:11" ht="27.6" hidden="1">
       <c r="A453" s="16">
         <v>2</v>
       </c>
@@ -21780,7 +21793,7 @@
       <c r="J453" s="17"/>
       <c r="K453" s="17"/>
     </row>
-    <row r="454" spans="1:11" ht="27.6">
+    <row r="454" spans="1:11" ht="27.6" hidden="1">
       <c r="A454" s="16">
         <v>2</v>
       </c>
@@ -21809,7 +21822,7 @@
       <c r="J454" s="17"/>
       <c r="K454" s="17"/>
     </row>
-    <row r="455" spans="1:11" ht="41.4">
+    <row r="455" spans="1:11" ht="41.4" hidden="1">
       <c r="A455" s="16">
         <v>2</v>
       </c>
@@ -21840,7 +21853,7 @@
       <c r="J455" s="17"/>
       <c r="K455" s="17"/>
     </row>
-    <row r="456" spans="1:11" ht="27.6">
+    <row r="456" spans="1:11" ht="27.6" hidden="1">
       <c r="A456" s="16">
         <v>2</v>
       </c>
@@ -21869,7 +21882,7 @@
       <c r="J456" s="17"/>
       <c r="K456" s="17"/>
     </row>
-    <row r="457" spans="1:11" ht="41.4">
+    <row r="457" spans="1:11" ht="41.4" hidden="1">
       <c r="A457" s="16">
         <v>2</v>
       </c>
@@ -21898,7 +21911,7 @@
       <c r="J457" s="17"/>
       <c r="K457" s="17"/>
     </row>
-    <row r="458" spans="1:11" ht="41.4">
+    <row r="458" spans="1:11" ht="41.4" hidden="1">
       <c r="A458" s="16">
         <v>2</v>
       </c>
@@ -21929,7 +21942,7 @@
       <c r="J458" s="17"/>
       <c r="K458" s="17"/>
     </row>
-    <row r="459" spans="1:11" ht="41.4">
+    <row r="459" spans="1:11" ht="41.4" hidden="1">
       <c r="A459" s="16">
         <v>2</v>
       </c>
@@ -21958,7 +21971,7 @@
       <c r="J459" s="17"/>
       <c r="K459" s="17"/>
     </row>
-    <row r="460" spans="1:11" ht="27.6">
+    <row r="460" spans="1:11" ht="27.6" hidden="1">
       <c r="A460" s="16">
         <v>2</v>
       </c>
@@ -21989,7 +22002,7 @@
       <c r="J460" s="17"/>
       <c r="K460" s="17"/>
     </row>
-    <row r="461" spans="1:11" ht="27.6">
+    <row r="461" spans="1:11" ht="27.6" hidden="1">
       <c r="A461" s="16">
         <v>2</v>
       </c>
@@ -22020,7 +22033,7 @@
       <c r="J461" s="17"/>
       <c r="K461" s="17"/>
     </row>
-    <row r="462" spans="1:11" ht="27.6">
+    <row r="462" spans="1:11" ht="27.6" hidden="1">
       <c r="A462" s="16">
         <v>2</v>
       </c>
@@ -22049,7 +22062,7 @@
       <c r="J462" s="17"/>
       <c r="K462" s="17"/>
     </row>
-    <row r="463" spans="1:11" ht="27.6">
+    <row r="463" spans="1:11" ht="27.6" hidden="1">
       <c r="A463" s="16">
         <v>2</v>
       </c>
@@ -22078,7 +22091,7 @@
       <c r="J463" s="17"/>
       <c r="K463" s="17"/>
     </row>
-    <row r="464" spans="1:11" ht="41.4">
+    <row r="464" spans="1:11" ht="41.4" hidden="1">
       <c r="A464" s="16">
         <v>2</v>
       </c>
@@ -22111,7 +22124,7 @@
       </c>
       <c r="K464" s="17"/>
     </row>
-    <row r="465" spans="1:11" ht="27.6">
+    <row r="465" spans="1:11" ht="27.6" hidden="1">
       <c r="A465" s="16">
         <v>2</v>
       </c>
@@ -22142,7 +22155,7 @@
       <c r="J465" s="17"/>
       <c r="K465" s="17"/>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" hidden="1">
       <c r="A466" s="16">
         <v>2</v>
       </c>
@@ -22171,7 +22184,7 @@
       <c r="J466" s="17"/>
       <c r="K466" s="17"/>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" hidden="1">
       <c r="A467" s="16">
         <v>2</v>
       </c>
@@ -22200,7 +22213,7 @@
       <c r="J467" s="17"/>
       <c r="K467" s="17"/>
     </row>
-    <row r="468" spans="1:11" ht="55.2">
+    <row r="468" spans="1:11" ht="55.2" hidden="1">
       <c r="A468" s="16">
         <v>2</v>
       </c>
@@ -22235,7 +22248,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="469" spans="1:11" ht="55.2">
+    <row r="469" spans="1:11" ht="55.2" hidden="1">
       <c r="A469" s="16">
         <v>2</v>
       </c>
@@ -22270,7 +22283,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="470" spans="1:11" ht="27.6">
+    <row r="470" spans="1:11" ht="27.6" hidden="1">
       <c r="A470" s="16">
         <v>2</v>
       </c>
@@ -22299,7 +22312,7 @@
       <c r="J470" s="17"/>
       <c r="K470" s="17"/>
     </row>
-    <row r="471" spans="1:11" ht="27.6">
+    <row r="471" spans="1:11" ht="27.6" hidden="1">
       <c r="A471" s="16">
         <v>2</v>
       </c>
@@ -22328,7 +22341,7 @@
       <c r="J471" s="17"/>
       <c r="K471" s="17"/>
     </row>
-    <row r="472" spans="1:11" ht="27.6">
+    <row r="472" spans="1:11" ht="27.6" hidden="1">
       <c r="A472" s="16">
         <v>2</v>
       </c>
@@ -22359,7 +22372,7 @@
       <c r="J472" s="17"/>
       <c r="K472" s="17"/>
     </row>
-    <row r="473" spans="1:11" ht="27.6">
+    <row r="473" spans="1:11" ht="27.6" hidden="1">
       <c r="A473" s="16">
         <v>2</v>
       </c>
@@ -22390,7 +22403,7 @@
       <c r="J473" s="17"/>
       <c r="K473" s="17"/>
     </row>
-    <row r="474" spans="1:11" ht="27.6">
+    <row r="474" spans="1:11" ht="27.6" hidden="1">
       <c r="A474" s="16">
         <v>2</v>
       </c>
@@ -22421,7 +22434,7 @@
       <c r="J474" s="17"/>
       <c r="K474" s="17"/>
     </row>
-    <row r="475" spans="1:11" ht="27.6">
+    <row r="475" spans="1:11" ht="27.6" hidden="1">
       <c r="A475" s="16">
         <v>2</v>
       </c>
@@ -22450,7 +22463,7 @@
       <c r="J475" s="17"/>
       <c r="K475" s="17"/>
     </row>
-    <row r="476" spans="1:11" ht="41.4">
+    <row r="476" spans="1:11" ht="41.4" hidden="1">
       <c r="A476" s="16">
         <v>2</v>
       </c>
@@ -22485,7 +22498,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="477" spans="1:11" ht="27.6">
+    <row r="477" spans="1:11" ht="27.6" hidden="1">
       <c r="A477" s="16">
         <v>2</v>
       </c>
@@ -22520,7 +22533,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="41.4">
+    <row r="478" spans="1:11" ht="41.4" hidden="1">
       <c r="A478" s="16">
         <v>2</v>
       </c>
@@ -22555,7 +22568,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="27.6">
+    <row r="479" spans="1:11" ht="27.6" hidden="1">
       <c r="A479" s="16">
         <v>2</v>
       </c>
@@ -22590,7 +22603,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="27.6">
+    <row r="480" spans="1:11" ht="27.6" hidden="1">
       <c r="A480" s="16">
         <v>2</v>
       </c>
@@ -22625,7 +22638,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="481" spans="1:11" ht="41.4">
+    <row r="481" spans="1:11" ht="41.4" hidden="1">
       <c r="A481" s="16">
         <v>2</v>
       </c>
@@ -22656,7 +22669,7 @@
       <c r="J481" s="17"/>
       <c r="K481" s="17"/>
     </row>
-    <row r="482" spans="1:11" ht="27.6">
+    <row r="482" spans="1:11" ht="27.6" hidden="1">
       <c r="A482" s="16">
         <v>2</v>
       </c>
@@ -22687,7 +22700,7 @@
       <c r="J482" s="17"/>
       <c r="K482" s="17"/>
     </row>
-    <row r="483" spans="1:11" ht="27.6">
+    <row r="483" spans="1:11" ht="27.6" hidden="1">
       <c r="A483" s="16">
         <v>2</v>
       </c>
@@ -22718,7 +22731,7 @@
       <c r="J483" s="17"/>
       <c r="K483" s="17"/>
     </row>
-    <row r="484" spans="1:11" ht="27.6">
+    <row r="484" spans="1:11" ht="27.6" hidden="1">
       <c r="A484" s="16">
         <v>2</v>
       </c>
@@ -22749,7 +22762,7 @@
       <c r="J484" s="17"/>
       <c r="K484" s="17"/>
     </row>
-    <row r="485" spans="1:11" ht="55.2">
+    <row r="485" spans="1:11" ht="55.2" hidden="1">
       <c r="A485" s="16">
         <v>2</v>
       </c>
@@ -22780,7 +22793,7 @@
       <c r="J485" s="17"/>
       <c r="K485" s="17"/>
     </row>
-    <row r="486" spans="1:11" ht="27.6">
+    <row r="486" spans="1:11" ht="27.6" hidden="1">
       <c r="A486" s="16">
         <v>2</v>
       </c>
@@ -22811,7 +22824,7 @@
       <c r="J486" s="17"/>
       <c r="K486" s="17"/>
     </row>
-    <row r="487" spans="1:11" ht="27.6">
+    <row r="487" spans="1:11" ht="27.6" hidden="1">
       <c r="A487" s="16">
         <v>2</v>
       </c>
@@ -22842,7 +22855,7 @@
       <c r="J487" s="17"/>
       <c r="K487" s="17"/>
     </row>
-    <row r="488" spans="1:11" ht="41.4">
+    <row r="488" spans="1:11" ht="41.4" hidden="1">
       <c r="A488" s="16">
         <v>2</v>
       </c>
@@ -22873,7 +22886,7 @@
       <c r="J488" s="17"/>
       <c r="K488" s="17"/>
     </row>
-    <row r="489" spans="1:11">
+    <row r="489" spans="1:11" hidden="1">
       <c r="A489" s="16">
         <v>2</v>
       </c>
@@ -22904,7 +22917,7 @@
       <c r="J489" s="17"/>
       <c r="K489" s="17"/>
     </row>
-    <row r="490" spans="1:11" ht="27.6">
+    <row r="490" spans="1:11" ht="27.6" hidden="1">
       <c r="A490" s="16">
         <v>2</v>
       </c>
@@ -22935,7 +22948,7 @@
       <c r="J490" s="17"/>
       <c r="K490" s="17"/>
     </row>
-    <row r="491" spans="1:11" ht="27.6">
+    <row r="491" spans="1:11" ht="27.6" hidden="1">
       <c r="A491" s="16">
         <v>2</v>
       </c>
@@ -22968,7 +22981,7 @@
       </c>
       <c r="K491" s="17"/>
     </row>
-    <row r="492" spans="1:11" ht="41.4">
+    <row r="492" spans="1:11" ht="41.4" hidden="1">
       <c r="A492" s="16">
         <v>2</v>
       </c>
@@ -23001,7 +23014,7 @@
       </c>
       <c r="K492" s="17"/>
     </row>
-    <row r="493" spans="1:11" ht="27.6">
+    <row r="493" spans="1:11" ht="27.6" hidden="1">
       <c r="A493" s="16">
         <v>2</v>
       </c>
@@ -23032,7 +23045,7 @@
       <c r="J493" s="17"/>
       <c r="K493" s="17"/>
     </row>
-    <row r="494" spans="1:11" ht="27.6">
+    <row r="494" spans="1:11" ht="27.6" hidden="1">
       <c r="A494" s="16">
         <v>2</v>
       </c>
@@ -23063,7 +23076,7 @@
       <c r="J494" s="17"/>
       <c r="K494" s="17"/>
     </row>
-    <row r="495" spans="1:11" ht="27.6">
+    <row r="495" spans="1:11" ht="27.6" hidden="1">
       <c r="A495" s="16">
         <v>2</v>
       </c>
@@ -23092,7 +23105,7 @@
       <c r="J495" s="17"/>
       <c r="K495" s="17"/>
     </row>
-    <row r="496" spans="1:11" ht="41.4">
+    <row r="496" spans="1:11" ht="41.4" hidden="1">
       <c r="A496" s="16">
         <v>2</v>
       </c>
@@ -23127,7 +23140,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="497" spans="1:11" ht="41.4">
+    <row r="497" spans="1:11" ht="41.4" hidden="1">
       <c r="A497" s="16">
         <v>2</v>
       </c>
@@ -23158,7 +23171,7 @@
       <c r="J497" s="17"/>
       <c r="K497" s="17"/>
     </row>
-    <row r="498" spans="1:11" ht="27.6">
+    <row r="498" spans="1:11" ht="27.6" hidden="1">
       <c r="A498" s="16">
         <v>2</v>
       </c>
@@ -23189,7 +23202,7 @@
       <c r="J498" s="17"/>
       <c r="K498" s="17"/>
     </row>
-    <row r="499" spans="1:11" ht="27.6">
+    <row r="499" spans="1:11" ht="27.6" hidden="1">
       <c r="A499" s="16">
         <v>2</v>
       </c>
@@ -23218,7 +23231,7 @@
       <c r="J499" s="17"/>
       <c r="K499" s="17"/>
     </row>
-    <row r="500" spans="1:11" ht="27.6">
+    <row r="500" spans="1:11" ht="27.6" hidden="1">
       <c r="A500" s="16">
         <v>2</v>
       </c>
@@ -23249,7 +23262,7 @@
       <c r="J500" s="17"/>
       <c r="K500" s="17"/>
     </row>
-    <row r="501" spans="1:11" ht="27.6">
+    <row r="501" spans="1:11" ht="27.6" hidden="1">
       <c r="A501" s="16">
         <v>2</v>
       </c>
@@ -23280,7 +23293,7 @@
       <c r="J501" s="17"/>
       <c r="K501" s="17"/>
     </row>
-    <row r="502" spans="1:11">
+    <row r="502" spans="1:11" hidden="1">
       <c r="A502" s="16">
         <v>2</v>
       </c>
@@ -23309,7 +23322,7 @@
       <c r="J502" s="17"/>
       <c r="K502" s="17"/>
     </row>
-    <row r="503" spans="1:11" ht="27.6">
+    <row r="503" spans="1:11" ht="27.6" hidden="1">
       <c r="A503" s="16">
         <v>2</v>
       </c>
@@ -23340,7 +23353,7 @@
       <c r="J503" s="17"/>
       <c r="K503" s="17"/>
     </row>
-    <row r="504" spans="1:11" ht="27.6">
+    <row r="504" spans="1:11" ht="27.6" hidden="1">
       <c r="A504" s="16">
         <v>2</v>
       </c>
@@ -23369,7 +23382,7 @@
       <c r="J504" s="17"/>
       <c r="K504" s="17"/>
     </row>
-    <row r="505" spans="1:11" ht="41.4">
+    <row r="505" spans="1:11" ht="41.4" hidden="1">
       <c r="A505" s="16">
         <v>2</v>
       </c>
@@ -23400,7 +23413,7 @@
       <c r="J505" s="17"/>
       <c r="K505" s="17"/>
     </row>
-    <row r="506" spans="1:11" ht="41.4">
+    <row r="506" spans="1:11" ht="41.4" hidden="1">
       <c r="A506" s="16">
         <v>2</v>
       </c>
@@ -23429,7 +23442,7 @@
       <c r="J506" s="17"/>
       <c r="K506" s="17"/>
     </row>
-    <row r="507" spans="1:11" ht="27.6">
+    <row r="507" spans="1:11" ht="27.6" hidden="1">
       <c r="A507" s="32">
         <v>2</v>
       </c>
@@ -23454,7 +23467,7 @@
       <c r="J507" s="17"/>
       <c r="K507" s="17"/>
     </row>
-    <row r="508" spans="1:11">
+    <row r="508" spans="1:11" hidden="1">
       <c r="A508" s="32">
         <v>2</v>
       </c>
@@ -23479,7 +23492,7 @@
       <c r="J508" s="17"/>
       <c r="K508" s="17"/>
     </row>
-    <row r="509" spans="1:11" ht="41.4">
+    <row r="509" spans="1:11" ht="41.4" hidden="1">
       <c r="A509" s="32">
         <v>2</v>
       </c>
@@ -23504,7 +23517,7 @@
       <c r="J509" s="17"/>
       <c r="K509" s="17"/>
     </row>
-    <row r="510" spans="1:11" ht="41.4">
+    <row r="510" spans="1:11" ht="41.4" hidden="1">
       <c r="A510" s="32">
         <v>2</v>
       </c>
@@ -23529,7 +23542,7 @@
       <c r="J510" s="17"/>
       <c r="K510" s="17"/>
     </row>
-    <row r="511" spans="1:11" ht="27.6">
+    <row r="511" spans="1:11" ht="27.6" hidden="1">
       <c r="A511" s="32">
         <v>2</v>
       </c>
@@ -23554,7 +23567,7 @@
       <c r="J511" s="17"/>
       <c r="K511" s="17"/>
     </row>
-    <row r="512" spans="1:11" ht="55.2">
+    <row r="512" spans="1:11" ht="55.2" hidden="1">
       <c r="A512" s="32">
         <v>2</v>
       </c>
@@ -23579,7 +23592,7 @@
       <c r="J512" s="17"/>
       <c r="K512" s="17"/>
     </row>
-    <row r="513" spans="1:11" ht="27.6">
+    <row r="513" spans="1:11" ht="27.6" hidden="1">
       <c r="A513" s="32">
         <v>2</v>
       </c>
@@ -23604,7 +23617,7 @@
       <c r="J513" s="17"/>
       <c r="K513" s="17"/>
     </row>
-    <row r="514" spans="1:11" ht="27.6">
+    <row r="514" spans="1:11" ht="27.6" hidden="1">
       <c r="A514" s="32">
         <v>2</v>
       </c>
@@ -23629,7 +23642,7 @@
       <c r="J514" s="17"/>
       <c r="K514" s="17"/>
     </row>
-    <row r="515" spans="1:11">
+    <row r="515" spans="1:11" hidden="1">
       <c r="A515" s="16">
         <v>2</v>
       </c>
@@ -23658,7 +23671,7 @@
       <c r="J515" s="17"/>
       <c r="K515" s="17"/>
     </row>
-    <row r="516" spans="1:11" ht="27.6">
+    <row r="516" spans="1:11" ht="27.6" hidden="1">
       <c r="A516" s="16">
         <v>2</v>
       </c>
@@ -23689,7 +23702,7 @@
       <c r="J516" s="17"/>
       <c r="K516" s="17"/>
     </row>
-    <row r="517" spans="1:11" ht="27.6">
+    <row r="517" spans="1:11" ht="27.6" hidden="1">
       <c r="A517" s="16">
         <v>2</v>
       </c>
@@ -23720,7 +23733,7 @@
       <c r="J517" s="17"/>
       <c r="K517" s="17"/>
     </row>
-    <row r="518" spans="1:11">
+    <row r="518" spans="1:11" hidden="1">
       <c r="A518" s="16">
         <v>2</v>
       </c>
@@ -23749,7 +23762,7 @@
       <c r="J518" s="17"/>
       <c r="K518" s="17"/>
     </row>
-    <row r="519" spans="1:11" ht="27.6">
+    <row r="519" spans="1:11" ht="27.6" hidden="1">
       <c r="A519" s="16">
         <v>2</v>
       </c>
@@ -23778,7 +23791,7 @@
       <c r="J519" s="17"/>
       <c r="K519" s="17"/>
     </row>
-    <row r="520" spans="1:11" ht="27.6">
+    <row r="520" spans="1:11" ht="27.6" hidden="1">
       <c r="A520" s="16">
         <v>2</v>
       </c>
@@ -23807,7 +23820,7 @@
       <c r="J520" s="17"/>
       <c r="K520" s="17"/>
     </row>
-    <row r="521" spans="1:11" ht="27.6">
+    <row r="521" spans="1:11" ht="27.6" hidden="1">
       <c r="A521" s="16">
         <v>2</v>
       </c>
@@ -23836,7 +23849,7 @@
       <c r="J521" s="17"/>
       <c r="K521" s="17"/>
     </row>
-    <row r="522" spans="1:11" ht="27.6">
+    <row r="522" spans="1:11" ht="27.6" hidden="1">
       <c r="A522" s="16">
         <v>2</v>
       </c>
@@ -23867,7 +23880,7 @@
       <c r="J522" s="17"/>
       <c r="K522" s="17"/>
     </row>
-    <row r="523" spans="1:11" ht="27.6">
+    <row r="523" spans="1:11" ht="27.6" hidden="1">
       <c r="A523" s="16">
         <v>2</v>
       </c>
@@ -23898,7 +23911,7 @@
       <c r="J523" s="17"/>
       <c r="K523" s="17"/>
     </row>
-    <row r="524" spans="1:11" ht="41.4">
+    <row r="524" spans="1:11" ht="41.4" hidden="1">
       <c r="A524" s="16">
         <v>2</v>
       </c>
@@ -23929,7 +23942,7 @@
       <c r="J524" s="17"/>
       <c r="K524" s="17"/>
     </row>
-    <row r="525" spans="1:11" ht="27.6">
+    <row r="525" spans="1:11" ht="27.6" hidden="1">
       <c r="A525" s="16">
         <v>2</v>
       </c>
@@ -23960,7 +23973,7 @@
       <c r="J525" s="17"/>
       <c r="K525" s="17"/>
     </row>
-    <row r="526" spans="1:11" ht="27.6">
+    <row r="526" spans="1:11" ht="27.6" hidden="1">
       <c r="A526" s="16">
         <v>2</v>
       </c>
@@ -23991,7 +24004,7 @@
       <c r="J526" s="17"/>
       <c r="K526" s="17"/>
     </row>
-    <row r="527" spans="1:11" ht="27.6">
+    <row r="527" spans="1:11" ht="27.6" hidden="1">
       <c r="A527" s="16">
         <v>2</v>
       </c>
@@ -24022,7 +24035,7 @@
       <c r="J527" s="17"/>
       <c r="K527" s="17"/>
     </row>
-    <row r="528" spans="1:11">
+    <row r="528" spans="1:11" hidden="1">
       <c r="A528" s="16">
         <v>2</v>
       </c>
@@ -24051,7 +24064,7 @@
       <c r="J528" s="17"/>
       <c r="K528" s="17"/>
     </row>
-    <row r="529" spans="1:11" ht="27.6">
+    <row r="529" spans="1:11" ht="27.6" hidden="1">
       <c r="A529" s="16">
         <v>2</v>
       </c>
@@ -24080,7 +24093,7 @@
       <c r="J529" s="17"/>
       <c r="K529" s="17"/>
     </row>
-    <row r="530" spans="1:11" ht="27.6">
+    <row r="530" spans="1:11" ht="27.6" hidden="1">
       <c r="A530" s="16">
         <v>2</v>
       </c>
@@ -24109,7 +24122,7 @@
       <c r="J530" s="17"/>
       <c r="K530" s="17"/>
     </row>
-    <row r="531" spans="1:11" ht="27.6">
+    <row r="531" spans="1:11" ht="27.6" hidden="1">
       <c r="A531" s="16">
         <v>2</v>
       </c>
@@ -24140,7 +24153,7 @@
       <c r="J531" s="17"/>
       <c r="K531" s="17"/>
     </row>
-    <row r="532" spans="1:11">
+    <row r="532" spans="1:11" hidden="1">
       <c r="A532" s="16">
         <v>2</v>
       </c>
@@ -24167,7 +24180,7 @@
       <c r="J532" s="17"/>
       <c r="K532" s="17"/>
     </row>
-    <row r="533" spans="1:11">
+    <row r="533" spans="1:11" hidden="1">
       <c r="A533" s="16">
         <v>2</v>
       </c>
@@ -24194,7 +24207,7 @@
       <c r="J533" s="17"/>
       <c r="K533" s="17"/>
     </row>
-    <row r="534" spans="1:11">
+    <row r="534" spans="1:11" hidden="1">
       <c r="A534" s="16">
         <v>2</v>
       </c>
@@ -24221,7 +24234,7 @@
       <c r="J534" s="17"/>
       <c r="K534" s="17"/>
     </row>
-    <row r="535" spans="1:11" ht="27.6">
+    <row r="535" spans="1:11" ht="27.6" hidden="1">
       <c r="A535" s="16">
         <v>2</v>
       </c>
@@ -24250,7 +24263,7 @@
       <c r="J535" s="17"/>
       <c r="K535" s="17"/>
     </row>
-    <row r="536" spans="1:11">
+    <row r="536" spans="1:11" hidden="1">
       <c r="A536" s="16">
         <v>2</v>
       </c>
@@ -24277,7 +24290,7 @@
       <c r="J536" s="17"/>
       <c r="K536" s="17"/>
     </row>
-    <row r="537" spans="1:11">
+    <row r="537" spans="1:11" hidden="1">
       <c r="A537" s="16">
         <v>2</v>
       </c>
@@ -24304,7 +24317,7 @@
       <c r="J537" s="17"/>
       <c r="K537" s="17"/>
     </row>
-    <row r="538" spans="1:11" ht="27.6">
+    <row r="538" spans="1:11" ht="27.6" hidden="1">
       <c r="A538" s="16">
         <v>2</v>
       </c>
@@ -24333,7 +24346,7 @@
       <c r="J538" s="17"/>
       <c r="K538" s="17"/>
     </row>
-    <row r="539" spans="1:11">
+    <row r="539" spans="1:11" hidden="1">
       <c r="A539" s="16">
         <v>2</v>
       </c>
@@ -24362,7 +24375,7 @@
       <c r="J539" s="17"/>
       <c r="K539" s="17"/>
     </row>
-    <row r="540" spans="1:11">
+    <row r="540" spans="1:11" hidden="1">
       <c r="A540" s="16">
         <v>2</v>
       </c>
@@ -24391,7 +24404,7 @@
       <c r="J540" s="17"/>
       <c r="K540" s="17"/>
     </row>
-    <row r="541" spans="1:11" ht="27.6">
+    <row r="541" spans="1:11" ht="27.6" hidden="1">
       <c r="A541" s="16">
         <v>2</v>
       </c>
@@ -24420,7 +24433,7 @@
       <c r="J541" s="17"/>
       <c r="K541" s="17"/>
     </row>
-    <row r="542" spans="1:11">
+    <row r="542" spans="1:11" hidden="1">
       <c r="A542" s="16">
         <v>2</v>
       </c>
@@ -24447,7 +24460,7 @@
       <c r="J542" s="17"/>
       <c r="K542" s="17"/>
     </row>
-    <row r="543" spans="1:11">
+    <row r="543" spans="1:11" hidden="1">
       <c r="A543" s="16">
         <v>2</v>
       </c>
@@ -24474,7 +24487,7 @@
       <c r="J543" s="17"/>
       <c r="K543" s="17"/>
     </row>
-    <row r="544" spans="1:11">
+    <row r="544" spans="1:11" hidden="1">
       <c r="A544" s="16">
         <v>2</v>
       </c>
@@ -24501,7 +24514,7 @@
       <c r="J544" s="17"/>
       <c r="K544" s="17"/>
     </row>
-    <row r="545" spans="1:11">
+    <row r="545" spans="1:11" hidden="1">
       <c r="A545" s="16">
         <v>2</v>
       </c>
@@ -24528,7 +24541,7 @@
       <c r="J545" s="17"/>
       <c r="K545" s="17"/>
     </row>
-    <row r="546" spans="1:11">
+    <row r="546" spans="1:11" hidden="1">
       <c r="A546" s="16">
         <v>2</v>
       </c>
@@ -24555,7 +24568,7 @@
       <c r="J546" s="17"/>
       <c r="K546" s="17"/>
     </row>
-    <row r="547" spans="1:11">
+    <row r="547" spans="1:11" hidden="1">
       <c r="A547" s="16">
         <v>2</v>
       </c>
@@ -24582,7 +24595,7 @@
       <c r="J547" s="17"/>
       <c r="K547" s="17"/>
     </row>
-    <row r="548" spans="1:11" ht="27.6">
+    <row r="548" spans="1:11" ht="27.6" hidden="1">
       <c r="A548" s="16">
         <v>2</v>
       </c>
@@ -24609,7 +24622,7 @@
       <c r="J548" s="17"/>
       <c r="K548" s="17"/>
     </row>
-    <row r="549" spans="1:11" ht="27.6">
+    <row r="549" spans="1:11" ht="27.6" hidden="1">
       <c r="A549" s="16">
         <v>2</v>
       </c>
@@ -24640,7 +24653,7 @@
       <c r="J549" s="17"/>
       <c r="K549" s="17"/>
     </row>
-    <row r="550" spans="1:11">
+    <row r="550" spans="1:11" hidden="1">
       <c r="A550" s="16">
         <v>2</v>
       </c>
@@ -24669,7 +24682,7 @@
       <c r="J550" s="17"/>
       <c r="K550" s="17"/>
     </row>
-    <row r="551" spans="1:11" ht="27.6">
+    <row r="551" spans="1:11" ht="27.6" hidden="1">
       <c r="A551" s="16">
         <v>2</v>
       </c>
@@ -24700,7 +24713,7 @@
       <c r="J551" s="17"/>
       <c r="K551" s="17"/>
     </row>
-    <row r="552" spans="1:11">
+    <row r="552" spans="1:11" hidden="1">
       <c r="A552" s="16">
         <v>2</v>
       </c>
@@ -24727,7 +24740,7 @@
       <c r="J552" s="17"/>
       <c r="K552" s="17"/>
     </row>
-    <row r="553" spans="1:11" ht="27.6">
+    <row r="553" spans="1:11" ht="27.6" hidden="1">
       <c r="A553" s="16">
         <v>2</v>
       </c>
@@ -24756,7 +24769,7 @@
       <c r="J553" s="17"/>
       <c r="K553" s="17"/>
     </row>
-    <row r="554" spans="1:11">
+    <row r="554" spans="1:11" hidden="1">
       <c r="A554" s="16">
         <v>2</v>
       </c>
@@ -24785,7 +24798,7 @@
       <c r="J554" s="17"/>
       <c r="K554" s="17"/>
     </row>
-    <row r="555" spans="1:11" ht="27.6">
+    <row r="555" spans="1:11" ht="27.6" hidden="1">
       <c r="A555" s="16">
         <v>2</v>
       </c>
@@ -24814,7 +24827,7 @@
       <c r="J555" s="17"/>
       <c r="K555" s="17"/>
     </row>
-    <row r="556" spans="1:11" ht="41.4">
+    <row r="556" spans="1:11" ht="41.4" hidden="1">
       <c r="A556" s="16">
         <v>2</v>
       </c>
@@ -24847,7 +24860,7 @@
       </c>
       <c r="K556" s="17"/>
     </row>
-    <row r="557" spans="1:11" ht="41.4">
+    <row r="557" spans="1:11" ht="41.4" hidden="1">
       <c r="A557" s="16">
         <v>2</v>
       </c>
@@ -24880,7 +24893,7 @@
       </c>
       <c r="K557" s="17"/>
     </row>
-    <row r="558" spans="1:11" ht="27.6">
+    <row r="558" spans="1:11" ht="27.6" hidden="1">
       <c r="A558" s="32">
         <v>2</v>
       </c>
@@ -24905,7 +24918,7 @@
       <c r="J558" s="17"/>
       <c r="K558" s="17"/>
     </row>
-    <row r="559" spans="1:11" ht="27.6">
+    <row r="559" spans="1:11" ht="27.6" hidden="1">
       <c r="A559" s="16">
         <v>2</v>
       </c>
@@ -24934,7 +24947,7 @@
       <c r="J559" s="17"/>
       <c r="K559" s="17"/>
     </row>
-    <row r="560" spans="1:11" ht="41.4">
+    <row r="560" spans="1:11" ht="41.4" hidden="1">
       <c r="A560" s="16">
         <v>2</v>
       </c>
@@ -24961,7 +24974,7 @@
       <c r="J560" s="17"/>
       <c r="K560" s="17"/>
     </row>
-    <row r="561" spans="1:11" ht="55.2">
+    <row r="561" spans="1:11" ht="55.2" hidden="1">
       <c r="A561" s="16">
         <v>2</v>
       </c>
@@ -24988,7 +25001,7 @@
       <c r="J561" s="17"/>
       <c r="K561" s="17"/>
     </row>
-    <row r="562" spans="1:11" ht="41.4">
+    <row r="562" spans="1:11" ht="41.4" hidden="1">
       <c r="A562" s="16">
         <v>2</v>
       </c>
@@ -25015,7 +25028,7 @@
       <c r="J562" s="17"/>
       <c r="K562" s="17"/>
     </row>
-    <row r="563" spans="1:11" ht="27.6">
+    <row r="563" spans="1:11" ht="27.6" hidden="1">
       <c r="A563" s="16">
         <v>2</v>
       </c>
@@ -25044,7 +25057,7 @@
       <c r="J563" s="17"/>
       <c r="K563" s="17"/>
     </row>
-    <row r="564" spans="1:11" ht="27.6">
+    <row r="564" spans="1:11" ht="27.6" hidden="1">
       <c r="A564" s="16">
         <v>2</v>
       </c>
@@ -25073,7 +25086,7 @@
       <c r="J564" s="17"/>
       <c r="K564" s="17"/>
     </row>
-    <row r="565" spans="1:11" ht="27.6">
+    <row r="565" spans="1:11" ht="27.6" hidden="1">
       <c r="A565" s="16">
         <v>2</v>
       </c>
@@ -25100,7 +25113,7 @@
       <c r="J565" s="17"/>
       <c r="K565" s="17"/>
     </row>
-    <row r="566" spans="1:11" ht="27.6">
+    <row r="566" spans="1:11" ht="27.6" hidden="1">
       <c r="A566" s="16">
         <v>2</v>
       </c>
@@ -25127,7 +25140,7 @@
       <c r="J566" s="17"/>
       <c r="K566" s="17"/>
     </row>
-    <row r="567" spans="1:11" ht="27.6">
+    <row r="567" spans="1:11" ht="27.6" hidden="1">
       <c r="A567" s="16">
         <v>2</v>
       </c>
@@ -25156,7 +25169,7 @@
       <c r="J567" s="17"/>
       <c r="K567" s="17"/>
     </row>
-    <row r="568" spans="1:11" ht="27.6">
+    <row r="568" spans="1:11" ht="27.6" hidden="1">
       <c r="A568" s="16">
         <v>2</v>
       </c>
@@ -25183,7 +25196,7 @@
       <c r="J568" s="17"/>
       <c r="K568" s="17"/>
     </row>
-    <row r="569" spans="1:11" ht="27.6">
+    <row r="569" spans="1:11" ht="27.6" hidden="1">
       <c r="A569" s="16">
         <v>2</v>
       </c>
@@ -25210,7 +25223,7 @@
       <c r="J569" s="17"/>
       <c r="K569" s="17"/>
     </row>
-    <row r="570" spans="1:11" ht="27.6">
+    <row r="570" spans="1:11" ht="27.6" hidden="1">
       <c r="A570" s="16">
         <v>2</v>
       </c>
@@ -25237,7 +25250,7 @@
       <c r="J570" s="17"/>
       <c r="K570" s="17"/>
     </row>
-    <row r="571" spans="1:11" ht="27.6">
+    <row r="571" spans="1:11" ht="27.6" hidden="1">
       <c r="A571" s="16">
         <v>2</v>
       </c>
@@ -25264,7 +25277,7 @@
       <c r="J571" s="17"/>
       <c r="K571" s="17"/>
     </row>
-    <row r="572" spans="1:11" ht="55.2">
+    <row r="572" spans="1:11" ht="55.2" hidden="1">
       <c r="A572" s="16">
         <v>2</v>
       </c>
@@ -25291,7 +25304,7 @@
       <c r="J572" s="17"/>
       <c r="K572" s="17"/>
     </row>
-    <row r="573" spans="1:11" ht="41.4">
+    <row r="573" spans="1:11" ht="41.4" hidden="1">
       <c r="A573" s="16">
         <v>2</v>
       </c>
@@ -25318,7 +25331,7 @@
       <c r="J573" s="17"/>
       <c r="K573" s="17"/>
     </row>
-    <row r="574" spans="1:11" ht="41.4">
+    <row r="574" spans="1:11" ht="41.4" hidden="1">
       <c r="A574" s="16">
         <v>2</v>
       </c>
@@ -25345,7 +25358,7 @@
       <c r="J574" s="17"/>
       <c r="K574" s="17"/>
     </row>
-    <row r="575" spans="1:11" ht="27.6">
+    <row r="575" spans="1:11" ht="27.6" hidden="1">
       <c r="A575" s="16">
         <v>2</v>
       </c>
@@ -25372,7 +25385,7 @@
       <c r="J575" s="17"/>
       <c r="K575" s="17"/>
     </row>
-    <row r="576" spans="1:11">
+    <row r="576" spans="1:11" hidden="1">
       <c r="A576" s="16">
         <v>2</v>
       </c>
@@ -25399,7 +25412,7 @@
       <c r="J576" s="17"/>
       <c r="K576" s="17"/>
     </row>
-    <row r="577" spans="1:11" ht="27.6">
+    <row r="577" spans="1:11" ht="27.6" hidden="1">
       <c r="A577" s="16">
         <v>2</v>
       </c>
@@ -25426,7 +25439,7 @@
       <c r="J577" s="17"/>
       <c r="K577" s="17"/>
     </row>
-    <row r="578" spans="1:11" ht="41.4">
+    <row r="578" spans="1:11" ht="41.4" hidden="1">
       <c r="A578" s="16">
         <v>2</v>
       </c>
@@ -25457,7 +25470,7 @@
       <c r="J578" s="17"/>
       <c r="K578" s="17"/>
     </row>
-    <row r="579" spans="1:11">
+    <row r="579" spans="1:11" hidden="1">
       <c r="A579" s="16">
         <v>2</v>
       </c>
@@ -25484,7 +25497,7 @@
       <c r="J579" s="17"/>
       <c r="K579" s="17"/>
     </row>
-    <row r="580" spans="1:11" ht="55.2">
+    <row r="580" spans="1:11" ht="55.2" hidden="1">
       <c r="A580" s="16">
         <v>2</v>
       </c>
@@ -25517,7 +25530,7 @@
       </c>
       <c r="K580" s="17"/>
     </row>
-    <row r="581" spans="1:11" ht="41.4">
+    <row r="581" spans="1:11" ht="41.4" hidden="1">
       <c r="A581" s="16">
         <v>2</v>
       </c>
@@ -25552,7 +25565,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="582" spans="1:11" ht="41.4">
+    <row r="582" spans="1:11" ht="41.4" hidden="1">
       <c r="A582" s="16">
         <v>2</v>
       </c>
@@ -25587,7 +25600,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="583" spans="1:11" ht="41.4">
+    <row r="583" spans="1:11" ht="41.4" hidden="1">
       <c r="A583" s="16">
         <v>2</v>
       </c>
@@ -25622,7 +25635,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="584" spans="1:11" ht="27.6">
+    <row r="584" spans="1:11" ht="27.6" hidden="1">
       <c r="A584" s="16">
         <v>2</v>
       </c>
@@ -25653,7 +25666,7 @@
       <c r="J584" s="17"/>
       <c r="K584" s="17"/>
     </row>
-    <row r="585" spans="1:11" ht="27.6">
+    <row r="585" spans="1:11" ht="27.6" hidden="1">
       <c r="A585" s="16">
         <v>2</v>
       </c>
@@ -25684,7 +25697,7 @@
       <c r="J585" s="17"/>
       <c r="K585" s="17"/>
     </row>
-    <row r="586" spans="1:11" ht="27.6">
+    <row r="586" spans="1:11" ht="27.6" hidden="1">
       <c r="A586" s="16">
         <v>2</v>
       </c>
@@ -25715,7 +25728,7 @@
       <c r="J586" s="17"/>
       <c r="K586" s="17"/>
     </row>
-    <row r="587" spans="1:11" ht="27.6">
+    <row r="587" spans="1:11" ht="27.6" hidden="1">
       <c r="A587" s="16">
         <v>2</v>
       </c>
@@ -25746,7 +25759,7 @@
       <c r="J587" s="17"/>
       <c r="K587" s="17"/>
     </row>
-    <row r="588" spans="1:11" ht="27.6">
+    <row r="588" spans="1:11" ht="27.6" hidden="1">
       <c r="A588" s="16">
         <v>2</v>
       </c>
@@ -25777,7 +25790,7 @@
       <c r="J588" s="17"/>
       <c r="K588" s="17"/>
     </row>
-    <row r="589" spans="1:11" ht="110.4">
+    <row r="589" spans="1:11" ht="110.4" hidden="1">
       <c r="A589" s="16">
         <v>2</v>
       </c>
@@ -25808,7 +25821,7 @@
       <c r="J589" s="17"/>
       <c r="K589" s="17"/>
     </row>
-    <row r="590" spans="1:11" ht="27.6">
+    <row r="590" spans="1:11" ht="27.6" hidden="1">
       <c r="A590" s="16">
         <v>2</v>
       </c>
@@ -25835,7 +25848,7 @@
       <c r="J590" s="17"/>
       <c r="K590" s="17"/>
     </row>
-    <row r="591" spans="1:11" ht="27.6">
+    <row r="591" spans="1:11" ht="27.6" hidden="1">
       <c r="A591" s="16">
         <v>2</v>
       </c>
@@ -25862,7 +25875,7 @@
       <c r="J591" s="17"/>
       <c r="K591" s="17"/>
     </row>
-    <row r="592" spans="1:11" ht="27.6">
+    <row r="592" spans="1:11" ht="27.6" hidden="1">
       <c r="A592" s="16">
         <v>2</v>
       </c>
@@ -25889,7 +25902,7 @@
       <c r="J592" s="17"/>
       <c r="K592" s="17"/>
     </row>
-    <row r="593" spans="1:11" ht="27.6">
+    <row r="593" spans="1:11" ht="27.6" hidden="1">
       <c r="A593" s="32">
         <v>2</v>
       </c>
@@ -25914,7 +25927,7 @@
       <c r="J593" s="17"/>
       <c r="K593" s="17"/>
     </row>
-    <row r="594" spans="1:11">
+    <row r="594" spans="1:11" hidden="1">
       <c r="A594" s="16">
         <v>2</v>
       </c>
@@ -25941,7 +25954,7 @@
       <c r="J594" s="17"/>
       <c r="K594" s="17"/>
     </row>
-    <row r="595" spans="1:11" ht="27.6">
+    <row r="595" spans="1:11" ht="27.6" hidden="1">
       <c r="A595" s="16">
         <v>2</v>
       </c>
@@ -25972,7 +25985,7 @@
       <c r="J595" s="17"/>
       <c r="K595" s="17"/>
     </row>
-    <row r="596" spans="1:11" ht="55.2">
+    <row r="596" spans="1:11" ht="55.2" hidden="1">
       <c r="A596" s="16">
         <v>2</v>
       </c>
@@ -26003,7 +26016,7 @@
       <c r="J596" s="17"/>
       <c r="K596" s="17"/>
     </row>
-    <row r="597" spans="1:11" ht="27.6">
+    <row r="597" spans="1:11" ht="27.6" hidden="1">
       <c r="A597" s="16">
         <v>2</v>
       </c>
@@ -26032,7 +26045,7 @@
       <c r="J597" s="17"/>
       <c r="K597" s="17"/>
     </row>
-    <row r="598" spans="1:11" ht="41.4">
+    <row r="598" spans="1:11" ht="41.4" hidden="1">
       <c r="A598" s="16">
         <v>2</v>
       </c>
@@ -26059,7 +26072,7 @@
       <c r="J598" s="17"/>
       <c r="K598" s="17"/>
     </row>
-    <row r="599" spans="1:11" ht="27.6">
+    <row r="599" spans="1:11" ht="27.6" hidden="1">
       <c r="A599" s="16">
         <v>2</v>
       </c>
@@ -26086,7 +26099,7 @@
       <c r="J599" s="17"/>
       <c r="K599" s="17"/>
     </row>
-    <row r="600" spans="1:11" ht="27.6">
+    <row r="600" spans="1:11" ht="27.6" hidden="1">
       <c r="A600" s="16">
         <v>2</v>
       </c>
@@ -26113,7 +26126,7 @@
       <c r="J600" s="17"/>
       <c r="K600" s="17"/>
     </row>
-    <row r="601" spans="1:11" ht="55.2">
+    <row r="601" spans="1:11" ht="55.2" hidden="1">
       <c r="A601" s="16">
         <v>2</v>
       </c>
@@ -26140,7 +26153,7 @@
       <c r="J601" s="17"/>
       <c r="K601" s="17"/>
     </row>
-    <row r="602" spans="1:11" ht="41.4">
+    <row r="602" spans="1:11" ht="41.4" hidden="1">
       <c r="A602" s="16">
         <v>2</v>
       </c>
@@ -26167,7 +26180,7 @@
       <c r="J602" s="17"/>
       <c r="K602" s="17"/>
     </row>
-    <row r="603" spans="1:11" ht="55.2">
+    <row r="603" spans="1:11" ht="55.2" hidden="1">
       <c r="A603" s="16">
         <v>2</v>
       </c>
@@ -26194,7 +26207,7 @@
       <c r="J603" s="17"/>
       <c r="K603" s="17"/>
     </row>
-    <row r="604" spans="1:11" ht="27.6">
+    <row r="604" spans="1:11" ht="27.6" hidden="1">
       <c r="A604" s="16">
         <v>2</v>
       </c>
@@ -26221,7 +26234,7 @@
       <c r="J604" s="17"/>
       <c r="K604" s="17"/>
     </row>
-    <row r="605" spans="1:11">
+    <row r="605" spans="1:11" hidden="1">
       <c r="A605" s="16">
         <v>2</v>
       </c>
@@ -26248,7 +26261,7 @@
       <c r="J605" s="17"/>
       <c r="K605" s="17"/>
     </row>
-    <row r="606" spans="1:11" ht="27.6">
+    <row r="606" spans="1:11" ht="27.6" hidden="1">
       <c r="A606" s="16">
         <v>2</v>
       </c>
@@ -26279,7 +26292,7 @@
       <c r="J606" s="17"/>
       <c r="K606" s="17"/>
     </row>
-    <row r="607" spans="1:11">
+    <row r="607" spans="1:11" hidden="1">
       <c r="A607" s="16">
         <v>2</v>
       </c>
@@ -26306,7 +26319,7 @@
       <c r="J607" s="17"/>
       <c r="K607" s="17"/>
     </row>
-    <row r="608" spans="1:11" ht="27.6">
+    <row r="608" spans="1:11" ht="27.6" hidden="1">
       <c r="A608" s="16">
         <v>2</v>
       </c>
@@ -26333,7 +26346,7 @@
       <c r="J608" s="17"/>
       <c r="K608" s="17"/>
     </row>
-    <row r="609" spans="1:11" ht="27.6">
+    <row r="609" spans="1:11" ht="27.6" hidden="1">
       <c r="A609" s="16">
         <v>2</v>
       </c>
@@ -26360,7 +26373,7 @@
       <c r="J609" s="17"/>
       <c r="K609" s="17"/>
     </row>
-    <row r="610" spans="1:11" ht="41.4">
+    <row r="610" spans="1:11" ht="41.4" hidden="1">
       <c r="A610" s="16">
         <v>2</v>
       </c>
@@ -26387,7 +26400,7 @@
       <c r="J610" s="17"/>
       <c r="K610" s="17"/>
     </row>
-    <row r="611" spans="1:11" ht="41.4">
+    <row r="611" spans="1:11" ht="41.4" hidden="1">
       <c r="A611" s="16">
         <v>2</v>
       </c>
@@ -26414,7 +26427,7 @@
       <c r="J611" s="17"/>
       <c r="K611" s="17"/>
     </row>
-    <row r="612" spans="1:11" ht="41.4">
+    <row r="612" spans="1:11" ht="41.4" hidden="1">
       <c r="A612" s="16">
         <v>2</v>
       </c>
@@ -26441,7 +26454,7 @@
       <c r="J612" s="17"/>
       <c r="K612" s="17"/>
     </row>
-    <row r="613" spans="1:11" ht="27.6">
+    <row r="613" spans="1:11" ht="27.6" hidden="1">
       <c r="A613" s="16">
         <v>2</v>
       </c>
@@ -26468,7 +26481,7 @@
       <c r="J613" s="17"/>
       <c r="K613" s="17"/>
     </row>
-    <row r="614" spans="1:11">
+    <row r="614" spans="1:11" hidden="1">
       <c r="A614" s="16">
         <v>2</v>
       </c>
@@ -26495,7 +26508,7 @@
       <c r="J614" s="17"/>
       <c r="K614" s="17"/>
     </row>
-    <row r="615" spans="1:11">
+    <row r="615" spans="1:11" hidden="1">
       <c r="A615" s="16">
         <v>2</v>
       </c>
@@ -26522,7 +26535,7 @@
       <c r="J615" s="17"/>
       <c r="K615" s="17"/>
     </row>
-    <row r="616" spans="1:11" ht="27.6">
+    <row r="616" spans="1:11" ht="27.6" hidden="1">
       <c r="A616" s="16">
         <v>2</v>
       </c>
@@ -26549,7 +26562,7 @@
       <c r="J616" s="17"/>
       <c r="K616" s="17"/>
     </row>
-    <row r="617" spans="1:11" ht="27.6">
+    <row r="617" spans="1:11" ht="27.6" hidden="1">
       <c r="A617" s="16">
         <v>2</v>
       </c>
@@ -26576,7 +26589,7 @@
       <c r="J617" s="17"/>
       <c r="K617" s="17"/>
     </row>
-    <row r="618" spans="1:11" ht="27.6">
+    <row r="618" spans="1:11" ht="27.6" hidden="1">
       <c r="A618" s="16">
         <v>2</v>
       </c>
@@ -26607,7 +26620,7 @@
       <c r="J618" s="17"/>
       <c r="K618" s="17"/>
     </row>
-    <row r="619" spans="1:11" ht="27.6">
+    <row r="619" spans="1:11" ht="27.6" hidden="1">
       <c r="A619" s="16">
         <v>2</v>
       </c>
@@ -26634,7 +26647,7 @@
       <c r="J619" s="17"/>
       <c r="K619" s="17"/>
     </row>
-    <row r="620" spans="1:11" ht="27.6">
+    <row r="620" spans="1:11" ht="27.6" hidden="1">
       <c r="A620" s="16">
         <v>2</v>
       </c>
@@ -26661,7 +26674,7 @@
       <c r="J620" s="17"/>
       <c r="K620" s="17"/>
     </row>
-    <row r="621" spans="1:11">
+    <row r="621" spans="1:11" hidden="1">
       <c r="A621" s="16">
         <v>2</v>
       </c>
@@ -26688,7 +26701,7 @@
       <c r="J621" s="17"/>
       <c r="K621" s="17"/>
     </row>
-    <row r="622" spans="1:11" ht="41.4">
+    <row r="622" spans="1:11" ht="41.4" hidden="1">
       <c r="A622" s="16">
         <v>2</v>
       </c>
@@ -26717,7 +26730,7 @@
       <c r="J622" s="17"/>
       <c r="K622" s="17"/>
     </row>
-    <row r="623" spans="1:11" ht="41.4">
+    <row r="623" spans="1:11" ht="41.4" hidden="1">
       <c r="A623" s="16">
         <v>2</v>
       </c>
@@ -26746,7 +26759,7 @@
       <c r="J623" s="17"/>
       <c r="K623" s="17"/>
     </row>
-    <row r="624" spans="1:11">
+    <row r="624" spans="1:11" hidden="1">
       <c r="A624" s="16">
         <v>2</v>
       </c>
@@ -26773,7 +26786,7 @@
       <c r="J624" s="17"/>
       <c r="K624" s="17"/>
     </row>
-    <row r="625" spans="1:11" ht="27.6">
+    <row r="625" spans="1:11" ht="27.6" hidden="1">
       <c r="A625" s="16">
         <v>2</v>
       </c>
@@ -26800,7 +26813,7 @@
       <c r="J625" s="17"/>
       <c r="K625" s="17"/>
     </row>
-    <row r="626" spans="1:11" ht="55.2">
+    <row r="626" spans="1:11" ht="55.2" hidden="1">
       <c r="A626" s="16">
         <v>2</v>
       </c>
@@ -26829,7 +26842,7 @@
       <c r="J626" s="17"/>
       <c r="K626" s="17"/>
     </row>
-    <row r="627" spans="1:11" ht="27.6">
+    <row r="627" spans="1:11" ht="27.6" hidden="1">
       <c r="A627" s="16">
         <v>2</v>
       </c>
@@ -26856,7 +26869,7 @@
       <c r="J627" s="17"/>
       <c r="K627" s="17"/>
     </row>
-    <row r="628" spans="1:11">
+    <row r="628" spans="1:11" hidden="1">
       <c r="A628" s="32">
         <v>2</v>
       </c>
@@ -26879,7 +26892,7 @@
       <c r="J628" s="17"/>
       <c r="K628" s="17"/>
     </row>
-    <row r="629" spans="1:11" ht="27.6">
+    <row r="629" spans="1:11" ht="27.6" hidden="1">
       <c r="A629" s="32">
         <v>2</v>
       </c>
@@ -26902,7 +26915,7 @@
       <c r="J629" s="17"/>
       <c r="K629" s="17"/>
     </row>
-    <row r="630" spans="1:11">
+    <row r="630" spans="1:11" hidden="1">
       <c r="A630" s="32">
         <v>2</v>
       </c>
@@ -26925,7 +26938,7 @@
       <c r="J630" s="17"/>
       <c r="K630" s="17"/>
     </row>
-    <row r="631" spans="1:11">
+    <row r="631" spans="1:11" hidden="1">
       <c r="A631" s="32">
         <v>2</v>
       </c>
@@ -26948,7 +26961,7 @@
       <c r="J631" s="17"/>
       <c r="K631" s="17"/>
     </row>
-    <row r="632" spans="1:11">
+    <row r="632" spans="1:11" hidden="1">
       <c r="A632" s="32">
         <v>2</v>
       </c>
@@ -26971,7 +26984,7 @@
       <c r="J632" s="17"/>
       <c r="K632" s="17"/>
     </row>
-    <row r="633" spans="1:11">
+    <row r="633" spans="1:11" hidden="1">
       <c r="A633" s="32">
         <v>2</v>
       </c>
@@ -26994,7 +27007,7 @@
       <c r="J633" s="17"/>
       <c r="K633" s="17"/>
     </row>
-    <row r="634" spans="1:11">
+    <row r="634" spans="1:11" hidden="1">
       <c r="A634" s="32">
         <v>2</v>
       </c>
@@ -27017,7 +27030,7 @@
       <c r="J634" s="17"/>
       <c r="K634" s="17"/>
     </row>
-    <row r="635" spans="1:11" ht="27.6">
+    <row r="635" spans="1:11" ht="27.6" hidden="1">
       <c r="A635" s="16">
         <v>4</v>
       </c>
@@ -27044,7 +27057,7 @@
       <c r="J635" s="17"/>
       <c r="K635" s="17"/>
     </row>
-    <row r="636" spans="1:11" ht="27.6">
+    <row r="636" spans="1:11" ht="27.6" hidden="1">
       <c r="A636" s="16">
         <v>4</v>
       </c>
@@ -27073,7 +27086,7 @@
       <c r="J636" s="17"/>
       <c r="K636" s="17"/>
     </row>
-    <row r="637" spans="1:11">
+    <row r="637" spans="1:11" hidden="1">
       <c r="A637" s="16">
         <v>4</v>
       </c>
@@ -27104,7 +27117,7 @@
       <c r="J637" s="17"/>
       <c r="K637" s="17"/>
     </row>
-    <row r="638" spans="1:11">
+    <row r="638" spans="1:11" hidden="1">
       <c r="A638" s="16">
         <v>4</v>
       </c>
@@ -27135,7 +27148,7 @@
       <c r="J638" s="17"/>
       <c r="K638" s="17"/>
     </row>
-    <row r="639" spans="1:11" ht="27.6">
+    <row r="639" spans="1:11" ht="27.6" hidden="1">
       <c r="A639" s="16">
         <v>4</v>
       </c>
@@ -27164,7 +27177,7 @@
       <c r="J639" s="17"/>
       <c r="K639" s="17"/>
     </row>
-    <row r="640" spans="1:11" ht="27.6">
+    <row r="640" spans="1:11" ht="27.6" hidden="1">
       <c r="A640" s="16">
         <v>4</v>
       </c>
@@ -27191,7 +27204,7 @@
       <c r="J640" s="17"/>
       <c r="K640" s="17"/>
     </row>
-    <row r="641" spans="1:11" ht="27.6">
+    <row r="641" spans="1:11" ht="27.6" hidden="1">
       <c r="A641" s="16">
         <v>4</v>
       </c>
@@ -27218,7 +27231,7 @@
       <c r="J641" s="17"/>
       <c r="K641" s="17"/>
     </row>
-    <row r="642" spans="1:11" ht="27.6">
+    <row r="642" spans="1:11" ht="27.6" hidden="1">
       <c r="A642" s="16">
         <v>4</v>
       </c>
@@ -27247,7 +27260,7 @@
       <c r="J642" s="17"/>
       <c r="K642" s="17"/>
     </row>
-    <row r="643" spans="1:11" ht="27.6">
+    <row r="643" spans="1:11" ht="27.6" hidden="1">
       <c r="A643" s="16">
         <v>4</v>
       </c>
@@ -27276,7 +27289,7 @@
       <c r="J643" s="17"/>
       <c r="K643" s="17"/>
     </row>
-    <row r="644" spans="1:11">
+    <row r="644" spans="1:11" hidden="1">
       <c r="A644" s="16">
         <v>4</v>
       </c>
@@ -27305,7 +27318,7 @@
       <c r="J644" s="17"/>
       <c r="K644" s="17"/>
     </row>
-    <row r="645" spans="1:11" ht="27.6">
+    <row r="645" spans="1:11" ht="27.6" hidden="1">
       <c r="A645" s="16">
         <v>4</v>
       </c>
@@ -27334,7 +27347,7 @@
       <c r="J645" s="17"/>
       <c r="K645" s="17"/>
     </row>
-    <row r="646" spans="1:11" ht="27.6">
+    <row r="646" spans="1:11" ht="27.6" hidden="1">
       <c r="A646" s="16">
         <v>4</v>
       </c>
@@ -27363,7 +27376,7 @@
       <c r="J646" s="17"/>
       <c r="K646" s="17"/>
     </row>
-    <row r="647" spans="1:11" ht="27.6">
+    <row r="647" spans="1:11" ht="27.6" hidden="1">
       <c r="A647" s="16">
         <v>4</v>
       </c>
@@ -27392,7 +27405,7 @@
       <c r="J647" s="17"/>
       <c r="K647" s="17"/>
     </row>
-    <row r="648" spans="1:11" ht="27.6">
+    <row r="648" spans="1:11" ht="27.6" hidden="1">
       <c r="A648" s="16">
         <v>4</v>
       </c>
@@ -27421,7 +27434,7 @@
       <c r="J648" s="17"/>
       <c r="K648" s="17"/>
     </row>
-    <row r="649" spans="1:11" ht="41.4">
+    <row r="649" spans="1:11" ht="41.4" hidden="1">
       <c r="A649" s="16">
         <v>4</v>
       </c>
@@ -27450,7 +27463,7 @@
       <c r="J649" s="17"/>
       <c r="K649" s="17"/>
     </row>
-    <row r="650" spans="1:11" ht="27.6">
+    <row r="650" spans="1:11" ht="27.6" hidden="1">
       <c r="A650" s="16">
         <v>4</v>
       </c>
@@ -27477,7 +27490,7 @@
       <c r="J650" s="17"/>
       <c r="K650" s="17"/>
     </row>
-    <row r="651" spans="1:11" ht="41.4">
+    <row r="651" spans="1:11" ht="41.4" hidden="1">
       <c r="A651" s="16">
         <v>4</v>
       </c>
@@ -27510,7 +27523,7 @@
       </c>
       <c r="K651" s="17"/>
     </row>
-    <row r="652" spans="1:11" ht="41.4">
+    <row r="652" spans="1:11" ht="41.4" hidden="1">
       <c r="A652" s="16">
         <v>4</v>
       </c>
@@ -27541,7 +27554,7 @@
       <c r="J652" s="17"/>
       <c r="K652" s="17"/>
     </row>
-    <row r="653" spans="1:11" ht="41.4">
+    <row r="653" spans="1:11" ht="41.4" hidden="1">
       <c r="A653" s="16">
         <v>4</v>
       </c>
@@ -27572,7 +27585,7 @@
       <c r="J653" s="17"/>
       <c r="K653" s="17"/>
     </row>
-    <row r="654" spans="1:11">
+    <row r="654" spans="1:11" hidden="1">
       <c r="A654" s="16">
         <v>4</v>
       </c>
@@ -27599,7 +27612,7 @@
       <c r="J654" s="17"/>
       <c r="K654" s="17"/>
     </row>
-    <row r="655" spans="1:11" ht="27.6">
+    <row r="655" spans="1:11" ht="27.6" hidden="1">
       <c r="A655" s="16">
         <v>4</v>
       </c>
@@ -27626,7 +27639,7 @@
       <c r="J655" s="17"/>
       <c r="K655" s="17"/>
     </row>
-    <row r="656" spans="1:11">
+    <row r="656" spans="1:11" hidden="1">
       <c r="A656" s="16">
         <v>4</v>
       </c>
@@ -27653,7 +27666,7 @@
       <c r="J656" s="17"/>
       <c r="K656" s="17"/>
     </row>
-    <row r="657" spans="1:11">
+    <row r="657" spans="1:11" hidden="1">
       <c r="A657" s="16">
         <v>4</v>
       </c>
@@ -27680,7 +27693,7 @@
       <c r="J657" s="17"/>
       <c r="K657" s="17"/>
     </row>
-    <row r="658" spans="1:11">
+    <row r="658" spans="1:11" hidden="1">
       <c r="A658" s="16">
         <v>4</v>
       </c>
@@ -27707,7 +27720,7 @@
       <c r="J658" s="17"/>
       <c r="K658" s="17"/>
     </row>
-    <row r="659" spans="1:11" ht="27.6">
+    <row r="659" spans="1:11" ht="27.6" hidden="1">
       <c r="A659" s="16">
         <v>4</v>
       </c>
@@ -27734,7 +27747,7 @@
       <c r="J659" s="17"/>
       <c r="K659" s="17"/>
     </row>
-    <row r="660" spans="1:11" ht="27.6">
+    <row r="660" spans="1:11" ht="27.6" hidden="1">
       <c r="A660" s="16">
         <v>4</v>
       </c>
@@ -27761,7 +27774,7 @@
       <c r="J660" s="17"/>
       <c r="K660" s="17"/>
     </row>
-    <row r="661" spans="1:11">
+    <row r="661" spans="1:11" hidden="1">
       <c r="A661" s="16">
         <v>4</v>
       </c>
@@ -27788,7 +27801,7 @@
       <c r="J661" s="17"/>
       <c r="K661" s="17"/>
     </row>
-    <row r="662" spans="1:11" ht="27.6">
+    <row r="662" spans="1:11" ht="27.6" hidden="1">
       <c r="A662" s="16">
         <v>4</v>
       </c>
@@ -27815,7 +27828,7 @@
       <c r="J662" s="17"/>
       <c r="K662" s="17"/>
     </row>
-    <row r="663" spans="1:11" ht="27.6">
+    <row r="663" spans="1:11" ht="27.6" hidden="1">
       <c r="A663" s="16">
         <v>4</v>
       </c>
@@ -27842,7 +27855,7 @@
       <c r="J663" s="17"/>
       <c r="K663" s="17"/>
     </row>
-    <row r="664" spans="1:11" ht="27.6">
+    <row r="664" spans="1:11" ht="27.6" hidden="1">
       <c r="A664" s="16">
         <v>4</v>
       </c>
@@ -27869,7 +27882,7 @@
       <c r="J664" s="17"/>
       <c r="K664" s="17"/>
     </row>
-    <row r="665" spans="1:11" ht="27.6">
+    <row r="665" spans="1:11" ht="27.6" hidden="1">
       <c r="A665" s="16">
         <v>4</v>
       </c>
@@ -27896,7 +27909,7 @@
       <c r="J665" s="17"/>
       <c r="K665" s="17"/>
     </row>
-    <row r="666" spans="1:11">
+    <row r="666" spans="1:11" hidden="1">
       <c r="A666" s="16">
         <v>4</v>
       </c>
@@ -27923,7 +27936,7 @@
       <c r="J666" s="17"/>
       <c r="K666" s="17"/>
     </row>
-    <row r="667" spans="1:11" ht="27.6">
+    <row r="667" spans="1:11" ht="27.6" hidden="1">
       <c r="A667" s="16">
         <v>4</v>
       </c>
@@ -27950,7 +27963,7 @@
       <c r="J667" s="17"/>
       <c r="K667" s="17"/>
     </row>
-    <row r="668" spans="1:11">
+    <row r="668" spans="1:11" hidden="1">
       <c r="A668" s="16">
         <v>4</v>
       </c>
@@ -27977,7 +27990,7 @@
       <c r="J668" s="17"/>
       <c r="K668" s="17"/>
     </row>
-    <row r="669" spans="1:11">
+    <row r="669" spans="1:11" hidden="1">
       <c r="A669" s="16">
         <v>4</v>
       </c>
@@ -28004,7 +28017,7 @@
       <c r="J669" s="17"/>
       <c r="K669" s="17"/>
     </row>
-    <row r="670" spans="1:11" ht="27.6">
+    <row r="670" spans="1:11" ht="27.6" hidden="1">
       <c r="A670" s="16">
         <v>4</v>
       </c>
@@ -28031,7 +28044,7 @@
       <c r="J670" s="17"/>
       <c r="K670" s="17"/>
     </row>
-    <row r="671" spans="1:11" ht="55.2">
+    <row r="671" spans="1:11" ht="55.2" hidden="1">
       <c r="A671" s="32">
         <v>2</v>
       </c>
@@ -28056,7 +28069,7 @@
       <c r="J671" s="17"/>
       <c r="K671" s="17"/>
     </row>
-    <row r="672" spans="1:11">
+    <row r="672" spans="1:11" hidden="1">
       <c r="A672" s="16">
         <v>4</v>
       </c>
@@ -28085,7 +28098,7 @@
       <c r="J672" s="17"/>
       <c r="K672" s="17"/>
     </row>
-    <row r="673" spans="1:11">
+    <row r="673" spans="1:11" hidden="1">
       <c r="A673" s="16">
         <v>4</v>
       </c>
@@ -28114,7 +28127,7 @@
       <c r="J673" s="17"/>
       <c r="K673" s="17"/>
     </row>
-    <row r="674" spans="1:11" ht="27.6">
+    <row r="674" spans="1:11" ht="27.6" hidden="1">
       <c r="A674" s="16">
         <v>4</v>
       </c>
@@ -28143,7 +28156,7 @@
       <c r="J674" s="17"/>
       <c r="K674" s="17"/>
     </row>
-    <row r="675" spans="1:11" ht="41.4">
+    <row r="675" spans="1:11" ht="41.4" hidden="1">
       <c r="A675" s="16">
         <v>4</v>
       </c>
@@ -28172,7 +28185,7 @@
       <c r="J675" s="17"/>
       <c r="K675" s="17"/>
     </row>
-    <row r="676" spans="1:11" ht="41.4">
+    <row r="676" spans="1:11" ht="41.4" hidden="1">
       <c r="A676" s="16">
         <v>4</v>
       </c>
@@ -28201,7 +28214,7 @@
       <c r="J676" s="17"/>
       <c r="K676" s="17"/>
     </row>
-    <row r="677" spans="1:11" ht="27.6">
+    <row r="677" spans="1:11" ht="27.6" hidden="1">
       <c r="A677" s="16">
         <v>4</v>
       </c>
@@ -28232,7 +28245,7 @@
       <c r="J677" s="17"/>
       <c r="K677" s="17"/>
     </row>
-    <row r="678" spans="1:11" ht="55.2">
+    <row r="678" spans="1:11" ht="55.2" hidden="1">
       <c r="A678" s="16">
         <v>4</v>
       </c>
@@ -28261,7 +28274,7 @@
       <c r="J678" s="17"/>
       <c r="K678" s="17"/>
     </row>
-    <row r="679" spans="1:11" ht="27.6">
+    <row r="679" spans="1:11" ht="27.6" hidden="1">
       <c r="A679" s="16">
         <v>4</v>
       </c>
@@ -28290,7 +28303,7 @@
       <c r="J679" s="17"/>
       <c r="K679" s="17"/>
     </row>
-    <row r="680" spans="1:11" ht="27.6">
+    <row r="680" spans="1:11" ht="27.6" hidden="1">
       <c r="A680" s="16">
         <v>4</v>
       </c>
@@ -28319,7 +28332,7 @@
       <c r="J680" s="17"/>
       <c r="K680" s="17"/>
     </row>
-    <row r="681" spans="1:11" ht="27.6">
+    <row r="681" spans="1:11" ht="27.6" hidden="1">
       <c r="A681" s="16">
         <v>4</v>
       </c>
@@ -28348,7 +28361,7 @@
       <c r="J681" s="17"/>
       <c r="K681" s="17"/>
     </row>
-    <row r="682" spans="1:11" ht="27.6">
+    <row r="682" spans="1:11" ht="27.6" hidden="1">
       <c r="A682" s="16">
         <v>4</v>
       </c>
@@ -28377,7 +28390,7 @@
       <c r="J682" s="17"/>
       <c r="K682" s="17"/>
     </row>
-    <row r="683" spans="1:11" ht="27.6">
+    <row r="683" spans="1:11" ht="27.6" hidden="1">
       <c r="A683" s="16">
         <v>4</v>
       </c>
@@ -28406,7 +28419,7 @@
       <c r="J683" s="17"/>
       <c r="K683" s="17"/>
     </row>
-    <row r="684" spans="1:11" ht="27.6">
+    <row r="684" spans="1:11" ht="27.6" hidden="1">
       <c r="A684" s="16">
         <v>4</v>
       </c>
@@ -28435,7 +28448,7 @@
       <c r="J684" s="17"/>
       <c r="K684" s="17"/>
     </row>
-    <row r="685" spans="1:11" ht="27.6">
+    <row r="685" spans="1:11" ht="27.6" hidden="1">
       <c r="A685" s="16">
         <v>4</v>
       </c>
@@ -28464,7 +28477,7 @@
       <c r="J685" s="17"/>
       <c r="K685" s="17"/>
     </row>
-    <row r="686" spans="1:11" ht="27.6">
+    <row r="686" spans="1:11" ht="27.6" hidden="1">
       <c r="A686" s="16">
         <v>4</v>
       </c>
@@ -28493,7 +28506,7 @@
       <c r="J686" s="17"/>
       <c r="K686" s="17"/>
     </row>
-    <row r="687" spans="1:11">
+    <row r="687" spans="1:11" hidden="1">
       <c r="A687" s="16">
         <v>4</v>
       </c>
@@ -28522,7 +28535,7 @@
       <c r="J687" s="17"/>
       <c r="K687" s="17"/>
     </row>
-    <row r="688" spans="1:11" ht="41.4">
+    <row r="688" spans="1:11" ht="41.4" hidden="1">
       <c r="A688" s="16">
         <v>4</v>
       </c>
@@ -28551,7 +28564,7 @@
       <c r="J688" s="17"/>
       <c r="K688" s="17"/>
     </row>
-    <row r="689" spans="1:11">
+    <row r="689" spans="1:11" hidden="1">
       <c r="A689" s="16">
         <v>4</v>
       </c>
@@ -28580,7 +28593,7 @@
       <c r="J689" s="17"/>
       <c r="K689" s="17"/>
     </row>
-    <row r="690" spans="1:11" ht="27.6">
+    <row r="690" spans="1:11" ht="27.6" hidden="1">
       <c r="A690" s="16">
         <v>4</v>
       </c>
@@ -28609,7 +28622,7 @@
       <c r="J690" s="17"/>
       <c r="K690" s="17"/>
     </row>
-    <row r="691" spans="1:11" ht="27.6">
+    <row r="691" spans="1:11" ht="27.6" hidden="1">
       <c r="A691" s="16">
         <v>4</v>
       </c>
@@ -28638,7 +28651,7 @@
       <c r="J691" s="17"/>
       <c r="K691" s="17"/>
     </row>
-    <row r="692" spans="1:11" ht="27.6">
+    <row r="692" spans="1:11" ht="27.6" hidden="1">
       <c r="A692" s="16">
         <v>4</v>
       </c>
@@ -28667,7 +28680,7 @@
       <c r="J692" s="17"/>
       <c r="K692" s="17"/>
     </row>
-    <row r="693" spans="1:11" ht="27.6">
+    <row r="693" spans="1:11" ht="27.6" hidden="1">
       <c r="A693" s="16">
         <v>4</v>
       </c>
@@ -28696,7 +28709,7 @@
       <c r="J693" s="17"/>
       <c r="K693" s="17"/>
     </row>
-    <row r="694" spans="1:11" ht="27.6">
+    <row r="694" spans="1:11" ht="27.6" hidden="1">
       <c r="A694" s="16">
         <v>4</v>
       </c>
@@ -28727,7 +28740,7 @@
       <c r="J694" s="17"/>
       <c r="K694" s="17"/>
     </row>
-    <row r="695" spans="1:11" ht="27.6">
+    <row r="695" spans="1:11" ht="27.6" hidden="1">
       <c r="A695" s="16">
         <v>4</v>
       </c>
@@ -28756,7 +28769,7 @@
       <c r="J695" s="17"/>
       <c r="K695" s="17"/>
     </row>
-    <row r="696" spans="1:11" ht="41.4">
+    <row r="696" spans="1:11" ht="41.4" hidden="1">
       <c r="A696" s="16">
         <v>4</v>
       </c>
@@ -28787,7 +28800,7 @@
       <c r="J696" s="17"/>
       <c r="K696" s="17"/>
     </row>
-    <row r="697" spans="1:11" ht="27.6">
+    <row r="697" spans="1:11" ht="27.6" hidden="1">
       <c r="A697" s="16">
         <v>4</v>
       </c>
@@ -28818,7 +28831,7 @@
       <c r="J697" s="17"/>
       <c r="K697" s="17"/>
     </row>
-    <row r="698" spans="1:11">
+    <row r="698" spans="1:11" hidden="1">
       <c r="A698" s="32">
         <v>2</v>
       </c>
@@ -28843,7 +28856,7 @@
       <c r="J698" s="17"/>
       <c r="K698" s="17"/>
     </row>
-    <row r="699" spans="1:11">
+    <row r="699" spans="1:11" hidden="1">
       <c r="A699" s="32">
         <v>2</v>
       </c>
@@ -28868,7 +28881,7 @@
       <c r="J699" s="17"/>
       <c r="K699" s="17"/>
     </row>
-    <row r="700" spans="1:11">
+    <row r="700" spans="1:11" hidden="1">
       <c r="A700" s="9">
         <v>2</v>
       </c>
@@ -28895,7 +28908,7 @@
       <c r="J700" s="9"/>
       <c r="K700" s="9"/>
     </row>
-    <row r="701" spans="1:11">
+    <row r="701" spans="1:11" hidden="1">
       <c r="A701" s="9">
         <v>2</v>
       </c>
@@ -28922,7 +28935,7 @@
       <c r="J701" s="9"/>
       <c r="K701" s="9"/>
     </row>
-    <row r="702" spans="1:11">
+    <row r="702" spans="1:11" hidden="1">
       <c r="A702" s="9">
         <v>2</v>
       </c>
@@ -28949,7 +28962,7 @@
       <c r="J702" s="9"/>
       <c r="K702" s="9"/>
     </row>
-    <row r="703" spans="1:11" ht="27.6">
+    <row r="703" spans="1:11" ht="27.6" hidden="1">
       <c r="A703" s="9">
         <v>2</v>
       </c>
@@ -28976,7 +28989,7 @@
       <c r="J703" s="9"/>
       <c r="K703" s="9"/>
     </row>
-    <row r="704" spans="1:11">
+    <row r="704" spans="1:11" hidden="1">
       <c r="A704" s="9">
         <v>2</v>
       </c>
@@ -29003,7 +29016,7 @@
       <c r="J704" s="9"/>
       <c r="K704" s="9"/>
     </row>
-    <row r="705" spans="1:11">
+    <row r="705" spans="1:11" hidden="1">
       <c r="A705" s="9">
         <v>2</v>
       </c>
@@ -29030,7 +29043,7 @@
       <c r="J705" s="9"/>
       <c r="K705" s="9"/>
     </row>
-    <row r="706" spans="1:11">
+    <row r="706" spans="1:11" hidden="1">
       <c r="A706" s="9">
         <v>2</v>
       </c>
@@ -29057,7 +29070,7 @@
       <c r="J706" s="9"/>
       <c r="K706" s="9"/>
     </row>
-    <row r="707" spans="1:11" ht="27.6">
+    <row r="707" spans="1:11" ht="27.6" hidden="1">
       <c r="A707" s="9">
         <v>2</v>
       </c>
@@ -29084,7 +29097,7 @@
       <c r="J707" s="9"/>
       <c r="K707" s="9"/>
     </row>
-    <row r="708" spans="1:11">
+    <row r="708" spans="1:11" hidden="1">
       <c r="A708" s="9">
         <v>2</v>
       </c>
@@ -29111,7 +29124,7 @@
       <c r="J708" s="9"/>
       <c r="K708" s="9"/>
     </row>
-    <row r="709" spans="1:11">
+    <row r="709" spans="1:11" hidden="1">
       <c r="A709" s="9">
         <v>2</v>
       </c>
@@ -29138,7 +29151,7 @@
       <c r="J709" s="9"/>
       <c r="K709" s="9"/>
     </row>
-    <row r="710" spans="1:11" ht="27.6">
+    <row r="710" spans="1:11" ht="27.6" hidden="1">
       <c r="A710" s="9">
         <v>2</v>
       </c>
@@ -29165,7 +29178,7 @@
       <c r="J710" s="9"/>
       <c r="K710" s="9"/>
     </row>
-    <row r="711" spans="1:11">
+    <row r="711" spans="1:11" hidden="1">
       <c r="A711" s="9">
         <v>5</v>
       </c>
@@ -29192,7 +29205,7 @@
       <c r="J711" s="9"/>
       <c r="K711" s="9"/>
     </row>
-    <row r="712" spans="1:11" ht="27.6">
+    <row r="712" spans="1:11" ht="27.6" hidden="1">
       <c r="A712" s="9">
         <v>2</v>
       </c>
@@ -29219,7 +29232,7 @@
       <c r="J712" s="9"/>
       <c r="K712" s="9"/>
     </row>
-    <row r="713" spans="1:11">
+    <row r="713" spans="1:11" hidden="1">
       <c r="A713" s="9">
         <v>2</v>
       </c>
@@ -29246,7 +29259,7 @@
       <c r="J713" s="9"/>
       <c r="K713" s="9"/>
     </row>
-    <row r="714" spans="1:11">
+    <row r="714" spans="1:11" hidden="1">
       <c r="A714" s="9">
         <v>2</v>
       </c>
@@ -29273,7 +29286,7 @@
       <c r="J714" s="9"/>
       <c r="K714" s="9"/>
     </row>
-    <row r="715" spans="1:11">
+    <row r="715" spans="1:11" hidden="1">
       <c r="A715" s="9">
         <v>2</v>
       </c>
@@ -29300,7 +29313,7 @@
       <c r="J715" s="9"/>
       <c r="K715" s="9"/>
     </row>
-    <row r="716" spans="1:11" ht="27.6">
+    <row r="716" spans="1:11" ht="27.6" hidden="1">
       <c r="A716" s="9">
         <v>5</v>
       </c>
@@ -29327,7 +29340,7 @@
       <c r="J716" s="9"/>
       <c r="K716" s="9"/>
     </row>
-    <row r="717" spans="1:11">
+    <row r="717" spans="1:11" hidden="1">
       <c r="A717" s="9">
         <v>2</v>
       </c>
@@ -29354,7 +29367,7 @@
       <c r="J717" s="9"/>
       <c r="K717" s="9"/>
     </row>
-    <row r="718" spans="1:11">
+    <row r="718" spans="1:11" hidden="1">
       <c r="A718" s="9">
         <v>2</v>
       </c>
@@ -29381,7 +29394,7 @@
       <c r="J718" s="9"/>
       <c r="K718" s="9"/>
     </row>
-    <row r="719" spans="1:11">
+    <row r="719" spans="1:11" hidden="1">
       <c r="A719" s="9">
         <v>2</v>
       </c>
@@ -29408,7 +29421,7 @@
       <c r="J719" s="9"/>
       <c r="K719" s="9"/>
     </row>
-    <row r="720" spans="1:11" ht="27.6">
+    <row r="720" spans="1:11" ht="27.6" hidden="1">
       <c r="A720" s="9">
         <v>5</v>
       </c>
@@ -29435,7 +29448,7 @@
       <c r="J720" s="9"/>
       <c r="K720" s="9"/>
     </row>
-    <row r="721" spans="1:11">
+    <row r="721" spans="1:11" hidden="1">
       <c r="A721" s="9">
         <v>2</v>
       </c>
@@ -29462,7 +29475,7 @@
       <c r="J721" s="9"/>
       <c r="K721" s="9"/>
     </row>
-    <row r="722" spans="1:11">
+    <row r="722" spans="1:11" hidden="1">
       <c r="A722" s="9">
         <v>2</v>
       </c>
@@ -29489,7 +29502,7 @@
       <c r="J722" s="9"/>
       <c r="K722" s="9"/>
     </row>
-    <row r="723" spans="1:11" ht="41.4">
+    <row r="723" spans="1:11" ht="41.4" hidden="1">
       <c r="A723" s="9">
         <v>2</v>
       </c>
@@ -29516,7 +29529,7 @@
       <c r="J723" s="9"/>
       <c r="K723" s="9"/>
     </row>
-    <row r="724" spans="1:11">
+    <row r="724" spans="1:11" hidden="1">
       <c r="A724" s="9">
         <v>2</v>
       </c>
@@ -29543,7 +29556,7 @@
       <c r="J724" s="9"/>
       <c r="K724" s="9"/>
     </row>
-    <row r="725" spans="1:11">
+    <row r="725" spans="1:11" hidden="1">
       <c r="A725" s="9">
         <v>5</v>
       </c>
@@ -29570,7 +29583,7 @@
       <c r="J725" s="9"/>
       <c r="K725" s="9"/>
     </row>
-    <row r="726" spans="1:11">
+    <row r="726" spans="1:11" hidden="1">
       <c r="A726" s="9">
         <v>2</v>
       </c>
@@ -29597,7 +29610,7 @@
       <c r="J726" s="9"/>
       <c r="K726" s="9"/>
     </row>
-    <row r="727" spans="1:11">
+    <row r="727" spans="1:11" hidden="1">
       <c r="A727" s="9">
         <v>2</v>
       </c>
@@ -29624,7 +29637,7 @@
       <c r="J727" s="9"/>
       <c r="K727" s="9"/>
     </row>
-    <row r="728" spans="1:11">
+    <row r="728" spans="1:11" hidden="1">
       <c r="A728" s="9">
         <v>5</v>
       </c>
@@ -29651,7 +29664,7 @@
       <c r="J728" s="9"/>
       <c r="K728" s="9"/>
     </row>
-    <row r="729" spans="1:11">
+    <row r="729" spans="1:11" hidden="1">
       <c r="A729" s="9">
         <v>2</v>
       </c>
@@ -29678,7 +29691,7 @@
       <c r="J729" s="9"/>
       <c r="K729" s="9"/>
     </row>
-    <row r="730" spans="1:11" ht="27.6">
+    <row r="730" spans="1:11" ht="27.6" hidden="1">
       <c r="A730" s="9">
         <v>5</v>
       </c>
@@ -29705,7 +29718,7 @@
       <c r="J730" s="9"/>
       <c r="K730" s="9"/>
     </row>
-    <row r="731" spans="1:11">
+    <row r="731" spans="1:11" hidden="1">
       <c r="A731" s="9">
         <v>2</v>
       </c>
@@ -29732,7 +29745,7 @@
       <c r="J731" s="9"/>
       <c r="K731" s="9"/>
     </row>
-    <row r="732" spans="1:11" ht="27.6">
+    <row r="732" spans="1:11" ht="27.6" hidden="1">
       <c r="A732" s="9">
         <v>5</v>
       </c>
@@ -29759,7 +29772,7 @@
       <c r="J732" s="9"/>
       <c r="K732" s="9"/>
     </row>
-    <row r="733" spans="1:11">
+    <row r="733" spans="1:11" hidden="1">
       <c r="A733" s="9">
         <v>2</v>
       </c>
@@ -29786,7 +29799,7 @@
       <c r="J733" s="9"/>
       <c r="K733" s="9"/>
     </row>
-    <row r="734" spans="1:11" ht="27.6">
+    <row r="734" spans="1:11" ht="27.6" hidden="1">
       <c r="A734" s="9">
         <v>5</v>
       </c>
@@ -29813,7 +29826,7 @@
       <c r="J734" s="9"/>
       <c r="K734" s="9"/>
     </row>
-    <row r="735" spans="1:11">
+    <row r="735" spans="1:11" hidden="1">
       <c r="A735" s="9">
         <v>2</v>
       </c>
@@ -29840,7 +29853,7 @@
       <c r="J735" s="9"/>
       <c r="K735" s="9"/>
     </row>
-    <row r="736" spans="1:11">
+    <row r="736" spans="1:11" hidden="1">
       <c r="A736" s="9">
         <v>5</v>
       </c>
@@ -29867,7 +29880,7 @@
       <c r="J736" s="9"/>
       <c r="K736" s="9"/>
     </row>
-    <row r="737" spans="1:11">
+    <row r="737" spans="1:11" hidden="1">
       <c r="A737" s="9">
         <v>2</v>
       </c>
@@ -29894,7 +29907,7 @@
       <c r="J737" s="9"/>
       <c r="K737" s="9"/>
     </row>
-    <row r="738" spans="1:11">
+    <row r="738" spans="1:11" hidden="1">
       <c r="A738" s="9">
         <v>5</v>
       </c>
@@ -29921,7 +29934,7 @@
       <c r="J738" s="9"/>
       <c r="K738" s="9"/>
     </row>
-    <row r="739" spans="1:11">
+    <row r="739" spans="1:11" hidden="1">
       <c r="A739" s="9">
         <v>5</v>
       </c>
@@ -29948,7 +29961,7 @@
       <c r="J739" s="9"/>
       <c r="K739" s="9"/>
     </row>
-    <row r="740" spans="1:11" ht="27.6">
+    <row r="740" spans="1:11" ht="27.6" hidden="1">
       <c r="A740" s="9">
         <v>5</v>
       </c>
@@ -29975,7 +29988,7 @@
       <c r="J740" s="9"/>
       <c r="K740" s="9"/>
     </row>
-    <row r="741" spans="1:11" ht="27.6">
+    <row r="741" spans="1:11" ht="27.6" hidden="1">
       <c r="A741" s="9">
         <v>2</v>
       </c>
@@ -30002,7 +30015,7 @@
       <c r="J741" s="9"/>
       <c r="K741" s="9"/>
     </row>
-    <row r="742" spans="1:11" ht="27.6">
+    <row r="742" spans="1:11" ht="27.6" hidden="1">
       <c r="A742" s="9">
         <v>5</v>
       </c>
@@ -30029,7 +30042,7 @@
       <c r="J742" s="9"/>
       <c r="K742" s="9"/>
     </row>
-    <row r="743" spans="1:11" ht="27.6">
+    <row r="743" spans="1:11" ht="27.6" hidden="1">
       <c r="A743" s="9">
         <v>8</v>
       </c>
@@ -30056,7 +30069,7 @@
       <c r="J743" s="9"/>
       <c r="K743" s="9"/>
     </row>
-    <row r="744" spans="1:11">
+    <row r="744" spans="1:11" hidden="1">
       <c r="A744" s="9">
         <v>8</v>
       </c>
@@ -30083,7 +30096,7 @@
       <c r="J744" s="9"/>
       <c r="K744" s="9"/>
     </row>
-    <row r="745" spans="1:11">
+    <row r="745" spans="1:11" hidden="1">
       <c r="A745" s="9">
         <v>8</v>
       </c>
@@ -30110,7 +30123,7 @@
       <c r="J745" s="9"/>
       <c r="K745" s="9"/>
     </row>
-    <row r="746" spans="1:11" ht="27.6">
+    <row r="746" spans="1:11" ht="27.6" hidden="1">
       <c r="A746" s="9">
         <v>8</v>
       </c>
@@ -30137,7 +30150,7 @@
       <c r="J746" s="9"/>
       <c r="K746" s="9"/>
     </row>
-    <row r="747" spans="1:11" ht="27.6">
+    <row r="747" spans="1:11" ht="27.6" hidden="1">
       <c r="A747" s="9">
         <v>8</v>
       </c>
@@ -30164,7 +30177,7 @@
       <c r="J747" s="9"/>
       <c r="K747" s="9"/>
     </row>
-    <row r="748" spans="1:11">
+    <row r="748" spans="1:11" hidden="1">
       <c r="A748" s="9">
         <v>8</v>
       </c>
@@ -30191,7 +30204,7 @@
       <c r="J748" s="9"/>
       <c r="K748" s="9"/>
     </row>
-    <row r="749" spans="1:11" ht="27.6">
+    <row r="749" spans="1:11" ht="27.6" hidden="1">
       <c r="A749" s="9">
         <v>8</v>
       </c>
@@ -30218,7 +30231,7 @@
       <c r="J749" s="9"/>
       <c r="K749" s="9"/>
     </row>
-    <row r="750" spans="1:11" ht="27.6">
+    <row r="750" spans="1:11" ht="27.6" hidden="1">
       <c r="A750" s="9">
         <v>8</v>
       </c>
@@ -30245,7 +30258,7 @@
       <c r="J750" s="9"/>
       <c r="K750" s="9"/>
     </row>
-    <row r="751" spans="1:11" ht="27.6">
+    <row r="751" spans="1:11" ht="27.6" hidden="1">
       <c r="A751" s="9">
         <v>8</v>
       </c>
@@ -30272,7 +30285,7 @@
       <c r="J751" s="9"/>
       <c r="K751" s="9"/>
     </row>
-    <row r="752" spans="1:11">
+    <row r="752" spans="1:11" hidden="1">
       <c r="A752" s="9">
         <v>8</v>
       </c>
@@ -30299,7 +30312,7 @@
       <c r="J752" s="9"/>
       <c r="K752" s="9"/>
     </row>
-    <row r="753" spans="1:11" ht="27.6">
+    <row r="753" spans="1:11" ht="27.6" hidden="1">
       <c r="A753" s="9">
         <v>8</v>
       </c>
@@ -30326,7 +30339,7 @@
       <c r="J753" s="9"/>
       <c r="K753" s="9"/>
     </row>
-    <row r="754" spans="1:11" ht="27.6">
+    <row r="754" spans="1:11" ht="27.6" hidden="1">
       <c r="A754" s="16">
         <v>6</v>
       </c>
@@ -30353,7 +30366,7 @@
       <c r="J754" s="17"/>
       <c r="K754" s="17"/>
     </row>
-    <row r="755" spans="1:11" ht="27.6">
+    <row r="755" spans="1:11" ht="27.6" hidden="1">
       <c r="A755" s="9">
         <v>8</v>
       </c>
@@ -30380,7 +30393,7 @@
       <c r="J755" s="9"/>
       <c r="K755" s="9"/>
     </row>
-    <row r="756" spans="1:11" ht="27.6">
+    <row r="756" spans="1:11" ht="27.6" hidden="1">
       <c r="A756" s="9">
         <v>8</v>
       </c>
@@ -30407,7 +30420,7 @@
       <c r="J756" s="9"/>
       <c r="K756" s="9"/>
     </row>
-    <row r="757" spans="1:11" ht="27.6">
+    <row r="757" spans="1:11" ht="27.6" hidden="1">
       <c r="A757" s="9">
         <v>8</v>
       </c>
@@ -30434,7 +30447,7 @@
       <c r="J757" s="9"/>
       <c r="K757" s="9"/>
     </row>
-    <row r="758" spans="1:11" ht="27.6">
+    <row r="758" spans="1:11" ht="27.6" hidden="1">
       <c r="A758" s="9">
         <v>8</v>
       </c>
@@ -30461,7 +30474,7 @@
       <c r="J758" s="9"/>
       <c r="K758" s="9"/>
     </row>
-    <row r="759" spans="1:11">
+    <row r="759" spans="1:11" hidden="1">
       <c r="A759" s="9">
         <v>8</v>
       </c>
@@ -30488,7 +30501,7 @@
       <c r="J759" s="9"/>
       <c r="K759" s="9"/>
     </row>
-    <row r="760" spans="1:11" ht="27.6">
+    <row r="760" spans="1:11" ht="27.6" hidden="1">
       <c r="A760" s="16">
         <v>6</v>
       </c>
@@ -30515,7 +30528,7 @@
       <c r="J760" s="17"/>
       <c r="K760" s="17"/>
     </row>
-    <row r="761" spans="1:11" ht="27.6">
+    <row r="761" spans="1:11" ht="27.6" hidden="1">
       <c r="A761" s="9">
         <v>8</v>
       </c>
@@ -30542,7 +30555,7 @@
       <c r="J761" s="9"/>
       <c r="K761" s="9"/>
     </row>
-    <row r="762" spans="1:11">
+    <row r="762" spans="1:11" hidden="1">
       <c r="A762" s="9">
         <v>3</v>
       </c>
@@ -30569,7 +30582,7 @@
       <c r="J762" s="9"/>
       <c r="K762" s="9"/>
     </row>
-    <row r="763" spans="1:11">
+    <row r="763" spans="1:11" hidden="1">
       <c r="A763" s="9">
         <v>3</v>
       </c>
@@ -30596,7 +30609,7 @@
       <c r="J763" s="9"/>
       <c r="K763" s="9"/>
     </row>
-    <row r="764" spans="1:11" ht="27.6">
+    <row r="764" spans="1:11" ht="27.6" hidden="1">
       <c r="A764" s="9">
         <v>8</v>
       </c>
@@ -30623,7 +30636,7 @@
       <c r="J764" s="9"/>
       <c r="K764" s="9"/>
     </row>
-    <row r="765" spans="1:11" ht="27.6">
+    <row r="765" spans="1:11" ht="27.6" hidden="1">
       <c r="A765" s="16">
         <v>7</v>
       </c>
@@ -30650,7 +30663,7 @@
       <c r="J765" s="17"/>
       <c r="K765" s="17"/>
     </row>
-    <row r="766" spans="1:11" ht="27.6">
+    <row r="766" spans="1:11" ht="27.6" hidden="1">
       <c r="A766" s="16">
         <v>7</v>
       </c>
@@ -30677,7 +30690,7 @@
       <c r="J766" s="17"/>
       <c r="K766" s="17"/>
     </row>
-    <row r="767" spans="1:11" ht="27.6">
+    <row r="767" spans="1:11" ht="27.6" hidden="1">
       <c r="A767" s="9">
         <v>8</v>
       </c>
@@ -30704,7 +30717,7 @@
       <c r="J767" s="9"/>
       <c r="K767" s="9"/>
     </row>
-    <row r="768" spans="1:11" ht="27.6">
+    <row r="768" spans="1:11" ht="27.6" hidden="1">
       <c r="A768" s="9">
         <v>8</v>
       </c>
@@ -30731,7 +30744,7 @@
       <c r="J768" s="9"/>
       <c r="K768" s="9"/>
     </row>
-    <row r="769" spans="1:11" ht="27.6">
+    <row r="769" spans="1:11" ht="27.6" hidden="1">
       <c r="A769" s="9">
         <v>8</v>
       </c>
@@ -30758,7 +30771,7 @@
       <c r="J769" s="9"/>
       <c r="K769" s="9"/>
     </row>
-    <row r="770" spans="1:11" ht="27.6">
+    <row r="770" spans="1:11" ht="27.6" hidden="1">
       <c r="A770" s="9">
         <v>8</v>
       </c>
@@ -30785,7 +30798,7 @@
       <c r="J770" s="9"/>
       <c r="K770" s="9"/>
     </row>
-    <row r="771" spans="1:11" ht="55.2">
+    <row r="771" spans="1:11" ht="41.4" hidden="1">
       <c r="A771" s="9">
         <v>8</v>
       </c>
@@ -30812,7 +30825,7 @@
       <c r="J771" s="9"/>
       <c r="K771" s="9"/>
     </row>
-    <row r="772" spans="1:11" ht="55.2">
+    <row r="772" spans="1:11" ht="41.4" hidden="1">
       <c r="A772" s="9">
         <v>8</v>
       </c>
@@ -30839,7 +30852,7 @@
       <c r="J772" s="9"/>
       <c r="K772" s="9"/>
     </row>
-    <row r="773" spans="1:11" ht="55.2">
+    <row r="773" spans="1:11" ht="41.4" hidden="1">
       <c r="A773" s="9">
         <v>8</v>
       </c>
@@ -30866,7 +30879,7 @@
       <c r="J773" s="9"/>
       <c r="K773" s="9"/>
     </row>
-    <row r="774" spans="1:11" ht="55.2">
+    <row r="774" spans="1:11" ht="41.4" hidden="1">
       <c r="A774" s="9">
         <v>8</v>
       </c>
@@ -30893,7 +30906,7 @@
       <c r="J774" s="9"/>
       <c r="K774" s="9"/>
     </row>
-    <row r="775" spans="1:11" ht="27.6">
+    <row r="775" spans="1:11" ht="27.6" hidden="1">
       <c r="A775" s="9">
         <v>8</v>
       </c>
@@ -30920,7 +30933,7 @@
       <c r="J775" s="9"/>
       <c r="K775" s="9"/>
     </row>
-    <row r="776" spans="1:11" ht="27.6">
+    <row r="776" spans="1:11" ht="27.6" hidden="1">
       <c r="A776" s="9">
         <v>8</v>
       </c>
@@ -30947,7 +30960,7 @@
       <c r="J776" s="9"/>
       <c r="K776" s="9"/>
     </row>
-    <row r="777" spans="1:11" ht="27.6">
+    <row r="777" spans="1:11" ht="27.6" hidden="1">
       <c r="A777" s="9">
         <v>8</v>
       </c>
@@ -30974,7 +30987,7 @@
       <c r="J777" s="9"/>
       <c r="K777" s="9"/>
     </row>
-    <row r="778" spans="1:11" ht="27.6">
+    <row r="778" spans="1:11" ht="27.6" hidden="1">
       <c r="A778" s="9">
         <v>8</v>
       </c>
@@ -31001,7 +31014,7 @@
       <c r="J778" s="9"/>
       <c r="K778" s="9"/>
     </row>
-    <row r="779" spans="1:11" ht="27.6">
+    <row r="779" spans="1:11" ht="27.6" hidden="1">
       <c r="A779" s="9">
         <v>8</v>
       </c>
@@ -31028,7 +31041,7 @@
       <c r="J779" s="9"/>
       <c r="K779" s="9"/>
     </row>
-    <row r="780" spans="1:11" ht="27.6">
+    <row r="780" spans="1:11" ht="27.6" hidden="1">
       <c r="A780" s="9">
         <v>8</v>
       </c>
@@ -31055,7 +31068,7 @@
       <c r="J780" s="9"/>
       <c r="K780" s="9"/>
     </row>
-    <row r="781" spans="1:11" ht="27.6">
+    <row r="781" spans="1:11" ht="27.6" hidden="1">
       <c r="A781" s="9">
         <v>8</v>
       </c>
@@ -31082,7 +31095,7 @@
       <c r="J781" s="9"/>
       <c r="K781" s="9"/>
     </row>
-    <row r="782" spans="1:11" ht="27.6">
+    <row r="782" spans="1:11" ht="27.6" hidden="1">
       <c r="A782" s="9">
         <v>8</v>
       </c>
@@ -31109,7 +31122,7 @@
       <c r="J782" s="9"/>
       <c r="K782" s="9"/>
     </row>
-    <row r="783" spans="1:11" ht="27.6">
+    <row r="783" spans="1:11" ht="27.6" hidden="1">
       <c r="A783" s="9">
         <v>8</v>
       </c>
@@ -31136,7 +31149,7 @@
       <c r="J783" s="9"/>
       <c r="K783" s="9"/>
     </row>
-    <row r="784" spans="1:11" ht="27.6">
+    <row r="784" spans="1:11" ht="27.6" hidden="1">
       <c r="A784" s="9">
         <v>8</v>
       </c>
@@ -31163,7 +31176,7 @@
       <c r="J784" s="9"/>
       <c r="K784" s="9"/>
     </row>
-    <row r="785" spans="1:11" ht="27.6">
+    <row r="785" spans="1:11" ht="27.6" hidden="1">
       <c r="A785" s="9">
         <v>8</v>
       </c>
@@ -31190,7 +31203,7 @@
       <c r="J785" s="9"/>
       <c r="K785" s="9"/>
     </row>
-    <row r="786" spans="1:11" ht="27.6">
+    <row r="786" spans="1:11" ht="27.6" hidden="1">
       <c r="A786" s="9">
         <v>8</v>
       </c>
@@ -31217,7 +31230,7 @@
       <c r="J786" s="9"/>
       <c r="K786" s="9"/>
     </row>
-    <row r="787" spans="1:11" ht="27.6">
+    <row r="787" spans="1:11" ht="27.6" hidden="1">
       <c r="A787" s="9">
         <v>8</v>
       </c>
@@ -31244,7 +31257,7 @@
       <c r="J787" s="9"/>
       <c r="K787" s="9"/>
     </row>
-    <row r="788" spans="1:11" ht="27.6">
+    <row r="788" spans="1:11" ht="27.6" hidden="1">
       <c r="A788" s="9">
         <v>8</v>
       </c>
@@ -31271,7 +31284,7 @@
       <c r="J788" s="9"/>
       <c r="K788" s="9"/>
     </row>
-    <row r="789" spans="1:11" ht="27.6">
+    <row r="789" spans="1:11" ht="27.6" hidden="1">
       <c r="A789" s="9">
         <v>8</v>
       </c>
@@ -31298,7 +31311,7 @@
       <c r="J789" s="9"/>
       <c r="K789" s="9"/>
     </row>
-    <row r="790" spans="1:11" ht="27.6">
+    <row r="790" spans="1:11" ht="27.6" hidden="1">
       <c r="A790" s="9">
         <v>8</v>
       </c>
@@ -31325,7 +31338,7 @@
       <c r="J790" s="9"/>
       <c r="K790" s="9"/>
     </row>
-    <row r="791" spans="1:11" ht="27.6">
+    <row r="791" spans="1:11" ht="27.6" hidden="1">
       <c r="A791" s="9">
         <v>8</v>
       </c>
@@ -31352,7 +31365,7 @@
       <c r="J791" s="9"/>
       <c r="K791" s="9"/>
     </row>
-    <row r="792" spans="1:11" ht="27.6">
+    <row r="792" spans="1:11" ht="27.6" hidden="1">
       <c r="A792" s="9">
         <v>8</v>
       </c>
@@ -31379,7 +31392,7 @@
       <c r="J792" s="9"/>
       <c r="K792" s="9"/>
     </row>
-    <row r="793" spans="1:11" ht="27.6">
+    <row r="793" spans="1:11" ht="27.6" hidden="1">
       <c r="A793" s="9">
         <v>8</v>
       </c>
@@ -31406,7 +31419,7 @@
       <c r="J793" s="9"/>
       <c r="K793" s="9"/>
     </row>
-    <row r="794" spans="1:11" ht="27.6">
+    <row r="794" spans="1:11" ht="27.6" hidden="1">
       <c r="A794" s="9">
         <v>8</v>
       </c>
@@ -31433,7 +31446,7 @@
       <c r="J794" s="9"/>
       <c r="K794" s="9"/>
     </row>
-    <row r="795" spans="1:11" ht="27.6">
+    <row r="795" spans="1:11" ht="27.6" hidden="1">
       <c r="A795" s="9">
         <v>8</v>
       </c>
@@ -31460,7 +31473,7 @@
       <c r="J795" s="9"/>
       <c r="K795" s="9"/>
     </row>
-    <row r="796" spans="1:11" ht="27.6">
+    <row r="796" spans="1:11" ht="27.6" hidden="1">
       <c r="A796" s="9">
         <v>8</v>
       </c>
@@ -31487,7 +31500,7 @@
       <c r="J796" s="9"/>
       <c r="K796" s="9"/>
     </row>
-    <row r="797" spans="1:11">
+    <row r="797" spans="1:11" hidden="1">
       <c r="A797" s="9">
         <v>8</v>
       </c>
@@ -31514,7 +31527,7 @@
       <c r="J797" s="9"/>
       <c r="K797" s="9"/>
     </row>
-    <row r="798" spans="1:11">
+    <row r="798" spans="1:11" hidden="1">
       <c r="A798" s="9">
         <v>8</v>
       </c>
@@ -31541,7 +31554,7 @@
       <c r="J798" s="9"/>
       <c r="K798" s="9"/>
     </row>
-    <row r="799" spans="1:11">
+    <row r="799" spans="1:11" hidden="1">
       <c r="A799" s="9">
         <v>8</v>
       </c>
@@ -31568,7 +31581,7 @@
       <c r="J799" s="9"/>
       <c r="K799" s="9"/>
     </row>
-    <row r="800" spans="1:11">
+    <row r="800" spans="1:11" hidden="1">
       <c r="A800" s="9">
         <v>8</v>
       </c>
@@ -31596,7 +31609,11 @@
       <c r="K800" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}"/>
+  <autoFilter ref="A1:K800" xr:uid="{6D8557A4-2CF5-4E48-BD49-1C23F60C44EA}">
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="E64 E10:E11 E8 E24:F24 A5:B5 F124:F129 F145:F150 F2 E80:F85 F239:F241 E6 F162:F163 E152:F155 E124:E137 E74:E75 A2 A3:B3 A1:K1 G89:K137 F151:K151 F11:K11 G138:G140 E54:E62 F54:F64 E67:F70 L76:R79 A103:A117 E141:E144 A130:A138 A141:A155 A159:A163 E159:E160 G141:K205 F165:F186 A165:A192 F195:F206 A195:A206 A208:A220 F208:F220 F222:F232 A222:A232 A237:A241 F237 A243:A249 F243:F249 F252:F269 A252:A269 F4:F10 B4 F12:F15 G2:K75 A4:A101">
     <cfRule type="containsText" dxfId="120" priority="592" operator="containsText" text="&lt;?&gt;">
@@ -32233,10 +32250,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
@@ -32548,12 +32565,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100216A073BBB3FB3429D87D77C40313058" ma:contentTypeVersion="7" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8cfc1d06a525c7d4ea1098b3952a2226">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="385505e6-e5d7-4f1a-b335-045f4e6272b3" xmlns:ns3="86b5f7f7-2f15-447a-b5f6-1e4312ec3a6d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67eef51872945492eed3b93ded28523b" ns2:_="" ns3:_="">
     <xsd:import namespace="385505e6-e5d7-4f1a-b335-045f4e6272b3"/>
@@ -32736,6 +32747,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{430E6B59-185B-464E-889D-EBB334F9461E}">
   <ds:schemaRefs>
@@ -32745,23 +32762,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD65B255-3494-4F5F-976E-876698EF30C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32778,4 +32778,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4AEB88-1F93-43C1-A78E-1A3EC40A664E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="aafb19fa-82be-411d-a6df-c75e9235a4ea"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3dfebdfe-2b22-40ba-8672-9fbc9b4066c4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>